--- a/storage/app/public/imports/DatabaseSeeder.xlsx
+++ b/storage/app/public/imports/DatabaseSeeder.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tqmp\storage\app\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17568CEC-0C32-446D-8DFA-F35C6E608121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0EBAC-8DC2-47D8-97F6-19C53CCC6A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{8B3B22E9-E0C4-4142-9942-DAADCA30F6D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8B3B22E9-E0C4-4142-9942-DAADCA30F6D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Usertypes" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
     <sheet name="Categories" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
-    <sheet name="Match" sheetId="5" r:id="rId5"/>
+    <sheet name="Variant" sheetId="6" r:id="rId5"/>
+    <sheet name="Match" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="1147">
   <si>
     <t>Usertype</t>
   </si>
@@ -3472,6 +3473,15 @@
   </si>
   <si>
     <t>johnoliver@gmail.com</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
 </sst>
 </file>
@@ -4166,7 +4176,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4488,6 +4498,9 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4587,9 +4600,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -5041,7 +5060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7BEBE0-755C-448C-B0D4-AFA1837E15C7}">
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -5206,7 +5225,7 @@
       <c r="I5" s="6">
         <v>45778</v>
       </c>
-      <c r="J5" s="142" t="s">
+      <c r="J5" s="109" t="s">
         <v>1138</v>
       </c>
       <c r="K5" s="2"/>
@@ -5242,7 +5261,7 @@
       <c r="I6" s="6">
         <v>45778</v>
       </c>
-      <c r="J6" s="142" t="s">
+      <c r="J6" s="109" t="s">
         <v>1143</v>
       </c>
       <c r="K6" s="2"/>
@@ -5278,7 +5297,7 @@
       <c r="I7" s="6">
         <v>45778</v>
       </c>
-      <c r="J7" s="142" t="s">
+      <c r="J7" s="109" t="s">
         <v>1139</v>
       </c>
       <c r="K7" s="2"/>
@@ -5597,7 +5616,7 @@
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="110" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="18"/>
@@ -5607,7 +5626,7 @@
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="110"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -5615,7 +5634,7 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>50</v>
@@ -5623,7 +5642,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>51</v>
@@ -5631,7 +5650,7 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>52</v>
@@ -5639,7 +5658,7 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>53</v>
@@ -5647,7 +5666,7 @@
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>54</v>
@@ -5655,7 +5674,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="112"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17" t="s">
         <v>55</v>
@@ -5663,7 +5682,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="110" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="18"/>
@@ -5673,7 +5692,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="110"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>57</v>
@@ -5681,7 +5700,7 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="110"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>182</v>
@@ -5689,7 +5708,7 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="110"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>213</v>
@@ -5697,7 +5716,7 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="110"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>58</v>
@@ -5705,7 +5724,7 @@
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="110"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>59</v>
@@ -5713,7 +5732,7 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="110"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -5721,7 +5740,7 @@
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="110"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>61</v>
@@ -5729,7 +5748,7 @@
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="110"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>62</v>
@@ -5737,7 +5756,7 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="110"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
         <v>492</v>
@@ -5745,7 +5764,7 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="110"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>63</v>
@@ -5753,7 +5772,7 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="111"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="101"/>
       <c r="D23" s="101" t="s">
         <v>64</v>
@@ -5761,7 +5780,7 @@
       <c r="E23" s="102"/>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="101"/>
       <c r="D24" s="101" t="s">
         <v>558</v>
@@ -5769,7 +5788,7 @@
       <c r="E24" s="102"/>
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="112"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17" t="s">
         <v>531</v>
@@ -5787,7 +5806,7 @@
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="110" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="18"/>
@@ -5797,7 +5816,7 @@
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="110"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>66</v>
@@ -5805,7 +5824,7 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="110"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>67</v>
@@ -5813,7 +5832,7 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="110"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
         <v>68</v>
@@ -5821,7 +5840,7 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="110"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>69</v>
@@ -5829,7 +5848,7 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="110"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
         <v>70</v>
@@ -5837,7 +5856,7 @@
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="110"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>71</v>
@@ -5845,7 +5864,7 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="112"/>
+      <c r="B34" s="113"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
         <v>72</v>
@@ -5867,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C579AE9-D9BB-4282-BCFE-B4A5712786AD}">
   <dimension ref="B1:N379"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5922,7 +5941,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="117" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -5957,7 +5976,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="22" t="s">
         <v>47</v>
       </c>
@@ -5990,7 +6009,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="22" t="s">
         <v>47</v>
       </c>
@@ -6021,7 +6040,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="117"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="22" t="s">
         <v>47</v>
       </c>
@@ -6043,9 +6062,8 @@
       <c r="I6" s="83">
         <v>60000</v>
       </c>
-      <c r="J6" s="24" t="str">
-        <f>VLOOKUP(D6,N:N,1,TRUE)</f>
-        <v>ULTRA-CLEAR-FLOAT-GLASS.jpg</v>
+      <c r="J6" s="24" t="s">
+        <v>1101</v>
       </c>
       <c r="K6" s="107" t="s">
         <v>1101</v>
@@ -6055,7 +6073,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="117"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="22" t="s">
         <v>47</v>
       </c>
@@ -6088,7 +6106,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="117"/>
+      <c r="B8" s="118"/>
       <c r="C8" s="22" t="s">
         <v>47</v>
       </c>
@@ -6121,7 +6139,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="22" t="s">
         <v>47</v>
       </c>
@@ -6154,7 +6172,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="117"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="22" t="s">
         <v>47</v>
       </c>
@@ -6187,7 +6205,7 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="25" t="s">
         <v>47</v>
       </c>
@@ -6220,10 +6238,10 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="137" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -6253,8 +6271,8 @@
       </c>
     </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="128"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="50" t="s">
         <v>717</v>
       </c>
@@ -6280,8 +6298,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="128"/>
-      <c r="C14" s="130"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="50" t="s">
         <v>718</v>
       </c>
@@ -6307,8 +6325,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="128"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="131"/>
       <c r="D15" s="50" t="s">
         <v>719</v>
       </c>
@@ -6334,8 +6352,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="128"/>
-      <c r="C16" s="130"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="50" t="s">
         <v>719</v>
       </c>
@@ -6361,8 +6379,8 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="128"/>
-      <c r="C17" s="130"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="50" t="s">
         <v>720</v>
       </c>
@@ -6388,8 +6406,8 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="128"/>
-      <c r="C18" s="130"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="131"/>
       <c r="D18" s="50" t="s">
         <v>721</v>
       </c>
@@ -6415,8 +6433,8 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="128"/>
-      <c r="C19" s="130"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="50" t="s">
         <v>721</v>
       </c>
@@ -6442,8 +6460,8 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="128"/>
-      <c r="C20" s="130"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="50" t="s">
         <v>722</v>
       </c>
@@ -6469,8 +6487,8 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="128"/>
-      <c r="C21" s="130"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="50" t="s">
         <v>722</v>
       </c>
@@ -6496,8 +6514,8 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="128"/>
-      <c r="C22" s="130"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="50" t="s">
         <v>723</v>
       </c>
@@ -6523,8 +6541,8 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="128"/>
-      <c r="C23" s="130"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="50" t="s">
         <v>723</v>
       </c>
@@ -6550,8 +6568,8 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="128"/>
-      <c r="C24" s="130"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="50" t="s">
         <v>724</v>
       </c>
@@ -6577,8 +6595,8 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="128"/>
-      <c r="C25" s="130"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="50" t="s">
         <v>725</v>
       </c>
@@ -6604,8 +6622,8 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="128"/>
-      <c r="C26" s="130"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="50" t="s">
         <v>725</v>
       </c>
@@ -6631,8 +6649,8 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="128"/>
-      <c r="C27" s="130"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="50" t="s">
         <v>726</v>
       </c>
@@ -6658,8 +6676,8 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="128"/>
-      <c r="C28" s="130"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="50" t="s">
         <v>726</v>
       </c>
@@ -6685,8 +6703,8 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="128"/>
-      <c r="C29" s="130"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="131"/>
       <c r="D29" s="50" t="s">
         <v>727</v>
       </c>
@@ -6712,8 +6730,8 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="128"/>
-      <c r="C30" s="130"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="131"/>
       <c r="D30" s="50" t="s">
         <v>728</v>
       </c>
@@ -6739,8 +6757,8 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="128"/>
-      <c r="C31" s="130"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="50" t="s">
         <v>728</v>
       </c>
@@ -6766,8 +6784,8 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="128"/>
-      <c r="C32" s="130"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="50" t="s">
         <v>729</v>
       </c>
@@ -6793,8 +6811,8 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="128"/>
-      <c r="C33" s="130"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="50" t="s">
         <v>730</v>
       </c>
@@ -6820,8 +6838,8 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="128"/>
-      <c r="C34" s="130"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="50" t="s">
         <v>731</v>
       </c>
@@ -6847,8 +6865,8 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="128"/>
-      <c r="C35" s="130"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="50" t="s">
         <v>732</v>
       </c>
@@ -6874,8 +6892,8 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="128"/>
-      <c r="C36" s="130"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="50" t="s">
         <v>733</v>
       </c>
@@ -6901,8 +6919,8 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="128"/>
-      <c r="C37" s="130"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="50" t="s">
         <v>734</v>
       </c>
@@ -6928,8 +6946,8 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="128"/>
-      <c r="C38" s="137"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="50" t="s">
         <v>735</v>
       </c>
@@ -6955,7 +6973,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="128"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="52" t="s">
         <v>49</v>
       </c>
@@ -6975,9 +6993,8 @@
       <c r="I39" s="86">
         <v>8341</v>
       </c>
-      <c r="J39" s="51" t="str">
-        <f t="shared" ref="J39:J102" si="0">VLOOKUP(D39,N:N,1,TRUE)</f>
-        <v>Thore-Door-Closer.jpg</v>
+      <c r="J39" s="51" t="s">
+        <v>1096</v>
       </c>
       <c r="K39" s="107" t="s">
         <v>1096</v>
@@ -6987,7 +7004,7 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="128"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="52" t="s">
         <v>50</v>
       </c>
@@ -7007,9 +7024,8 @@
       <c r="I40" s="87">
         <v>1110</v>
       </c>
-      <c r="J40" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>ultra mesh.jpg</v>
+      <c r="J40" s="31" t="s">
+        <v>1100</v>
       </c>
       <c r="K40" s="107" t="s">
         <v>1100</v>
@@ -7019,7 +7035,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="52" t="s">
         <v>51</v>
       </c>
@@ -7039,9 +7055,8 @@
       <c r="I41" s="87">
         <v>8105</v>
       </c>
-      <c r="J41" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LAMINATED-GLASS.png</v>
+      <c r="J41" s="31" t="s">
+        <v>1015</v>
       </c>
       <c r="K41" s="107"/>
       <c r="N41" s="5" t="s">
@@ -7049,7 +7064,7 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="128"/>
+      <c r="B42" s="129"/>
       <c r="C42" s="52" t="s">
         <v>52</v>
       </c>
@@ -7069,9 +7084,8 @@
       <c r="I42" s="87">
         <v>1871</v>
       </c>
-      <c r="J42" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>RADIATOR-GRILL.png</v>
+      <c r="J42" s="31" t="s">
+        <v>1045</v>
       </c>
       <c r="K42" s="107"/>
       <c r="N42" s="5" t="s">
@@ -7079,8 +7093,8 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="128"/>
-      <c r="C43" s="129" t="s">
+      <c r="B43" s="129"/>
+      <c r="C43" s="130" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="30" t="s">
@@ -7099,9 +7113,8 @@
       <c r="I43" s="87">
         <v>4359</v>
       </c>
-      <c r="J43" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J43" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K43" s="107" t="s">
         <v>1016</v>
@@ -7111,8 +7124,8 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="128"/>
-      <c r="C44" s="130"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="30" t="s">
         <v>710</v>
       </c>
@@ -7129,9 +7142,8 @@
       <c r="I44" s="87">
         <v>14872</v>
       </c>
-      <c r="J44" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J44" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K44" s="107"/>
       <c r="N44" s="5" t="s">
@@ -7139,8 +7151,8 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="128"/>
-      <c r="C45" s="130"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="30" t="s">
         <v>711</v>
       </c>
@@ -7157,9 +7169,8 @@
       <c r="I45" s="87">
         <v>9246</v>
       </c>
-      <c r="J45" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J45" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K45" s="107"/>
       <c r="N45" s="5" t="s">
@@ -7167,8 +7178,8 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="128"/>
-      <c r="C46" s="130"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="30" t="s">
         <v>711</v>
       </c>
@@ -7185,9 +7196,8 @@
       <c r="I46" s="87">
         <v>2553</v>
       </c>
-      <c r="J46" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J46" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K46" s="107"/>
       <c r="N46" s="5" t="s">
@@ -7195,8 +7205,8 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="128"/>
-      <c r="C47" s="130"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="30" t="s">
         <v>712</v>
       </c>
@@ -7213,9 +7223,8 @@
       <c r="I47" s="87">
         <v>4423</v>
       </c>
-      <c r="J47" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J47" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K47" s="107"/>
       <c r="N47" s="5" t="s">
@@ -7223,8 +7232,8 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="128"/>
-      <c r="C48" s="130"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="131"/>
       <c r="D48" s="30" t="s">
         <v>712</v>
       </c>
@@ -7241,9 +7250,8 @@
       <c r="I48" s="87">
         <v>3102</v>
       </c>
-      <c r="J48" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J48" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K48" s="107"/>
       <c r="N48" s="5" t="s">
@@ -7251,8 +7259,8 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="128"/>
-      <c r="C49" s="130"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="131"/>
       <c r="D49" s="30" t="s">
         <v>713</v>
       </c>
@@ -7269,9 +7277,8 @@
       <c r="I49" s="87">
         <v>11786</v>
       </c>
-      <c r="J49" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J49" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K49" s="107"/>
       <c r="N49" s="5" t="s">
@@ -7279,8 +7286,8 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="128"/>
-      <c r="C50" s="130"/>
+      <c r="B50" s="129"/>
+      <c r="C50" s="131"/>
       <c r="D50" s="30" t="s">
         <v>714</v>
       </c>
@@ -7297,9 +7304,8 @@
       <c r="I50" s="87">
         <v>8042</v>
       </c>
-      <c r="J50" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J50" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K50" s="107"/>
       <c r="N50" s="5" t="s">
@@ -7307,8 +7313,8 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="128"/>
-      <c r="C51" s="130"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="131"/>
       <c r="D51" s="30" t="s">
         <v>715</v>
       </c>
@@ -7325,9 +7331,8 @@
       <c r="I51" s="87">
         <v>9213</v>
       </c>
-      <c r="J51" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>LOW-E-COATED-GLASS.jpg</v>
+      <c r="J51" s="31" t="s">
+        <v>1016</v>
       </c>
       <c r="K51" s="107"/>
       <c r="N51" s="5" t="s">
@@ -7335,7 +7340,7 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="128"/>
+      <c r="B52" s="129"/>
       <c r="C52" s="52" t="s">
         <v>54</v>
       </c>
@@ -7355,9 +7360,8 @@
       <c r="I52" s="87">
         <v>4122</v>
       </c>
-      <c r="J52" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>p4 guide.jpg</v>
+      <c r="J52" s="31" t="s">
+        <v>1036</v>
       </c>
       <c r="K52" s="107" t="s">
         <v>1036</v>
@@ -7367,7 +7371,7 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="128"/>
+      <c r="B53" s="129"/>
       <c r="C53" s="52" t="s">
         <v>55</v>
       </c>
@@ -7387,9 +7391,8 @@
       <c r="I53" s="87">
         <v>2446</v>
       </c>
-      <c r="J53" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>wf lockset.jpg</v>
+      <c r="J53" s="31" t="s">
+        <v>1109</v>
       </c>
       <c r="K53" s="107" t="s">
         <v>1109</v>
@@ -7399,10 +7402,10 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="122" t="s">
+      <c r="C54" s="123" t="s">
         <v>56</v>
       </c>
       <c r="D54" s="32" t="s">
@@ -7419,9 +7422,8 @@
       <c r="I54" s="88">
         <v>9508</v>
       </c>
-      <c r="J54" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1000.jpg</v>
+      <c r="J54" s="33" t="s">
+        <v>941</v>
       </c>
       <c r="K54" s="107" t="s">
         <v>941</v>
@@ -7431,8 +7433,8 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="132"/>
-      <c r="C55" s="123"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="46" t="s">
         <v>759</v>
       </c>
@@ -7447,9 +7449,8 @@
       <c r="I55" s="89">
         <v>5845</v>
       </c>
-      <c r="J55" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1000.jpg</v>
+      <c r="J55" s="47" t="s">
+        <v>941</v>
       </c>
       <c r="K55" s="107"/>
       <c r="N55" s="5" t="s">
@@ -7457,8 +7458,8 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="132"/>
-      <c r="C56" s="123"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="46" t="s">
         <v>760</v>
       </c>
@@ -7473,9 +7474,8 @@
       <c r="I56" s="89">
         <v>2355</v>
       </c>
-      <c r="J56" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1000.jpg</v>
+      <c r="J56" s="47" t="s">
+        <v>941</v>
       </c>
       <c r="K56" s="107"/>
       <c r="N56" s="5" t="s">
@@ -7483,8 +7483,8 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="132"/>
-      <c r="C57" s="123"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="124"/>
       <c r="D57" s="46" t="s">
         <v>761</v>
       </c>
@@ -7499,9 +7499,8 @@
       <c r="I57" s="89">
         <v>15066</v>
       </c>
-      <c r="J57" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1000.jpg</v>
+      <c r="J57" s="47" t="s">
+        <v>941</v>
       </c>
       <c r="K57" s="107"/>
       <c r="N57" s="5" t="s">
@@ -7509,8 +7508,8 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="132"/>
-      <c r="C58" s="123"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="46" t="s">
         <v>762</v>
       </c>
@@ -7525,9 +7524,8 @@
       <c r="I58" s="89">
         <v>1695</v>
       </c>
-      <c r="J58" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1500-8.jpg</v>
+      <c r="J58" s="47" t="s">
+        <v>942</v>
       </c>
       <c r="K58" s="107" t="s">
         <v>942</v>
@@ -7537,8 +7535,8 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="132"/>
-      <c r="C59" s="123"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="46" t="s">
         <v>763</v>
       </c>
@@ -7553,9 +7551,8 @@
       <c r="I59" s="89">
         <v>7716</v>
       </c>
-      <c r="J59" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1500-8.jpg</v>
+      <c r="J59" s="47" t="s">
+        <v>942</v>
       </c>
       <c r="K59" s="107"/>
       <c r="N59" s="5" t="s">
@@ -7563,8 +7560,8 @@
       </c>
     </row>
     <row r="60" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="132"/>
-      <c r="C60" s="123"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="124"/>
       <c r="D60" s="46" t="s">
         <v>764</v>
       </c>
@@ -7579,9 +7576,8 @@
       <c r="I60" s="89">
         <v>1591</v>
       </c>
-      <c r="J60" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1500-8.jpg</v>
+      <c r="J60" s="47" t="s">
+        <v>942</v>
       </c>
       <c r="K60" s="107"/>
       <c r="N60" s="5" t="s">
@@ -7589,8 +7585,8 @@
       </c>
     </row>
     <row r="61" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="132"/>
-      <c r="C61" s="123"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="46" t="s">
         <v>765</v>
       </c>
@@ -7605,9 +7601,8 @@
       <c r="I61" s="89">
         <v>15436</v>
       </c>
-      <c r="J61" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC1500-8.jpg</v>
+      <c r="J61" s="47" t="s">
+        <v>942</v>
       </c>
       <c r="K61" s="107"/>
       <c r="N61" s="5" t="s">
@@ -7615,8 +7610,8 @@
       </c>
     </row>
     <row r="62" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="132"/>
-      <c r="C62" s="123"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="124"/>
       <c r="D62" s="46" t="s">
         <v>766</v>
       </c>
@@ -7631,9 +7626,8 @@
       <c r="I62" s="89">
         <v>4485</v>
       </c>
-      <c r="J62" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC375-12.jpg</v>
+      <c r="J62" s="47" t="s">
+        <v>943</v>
       </c>
       <c r="K62" s="107" t="s">
         <v>943</v>
@@ -7643,8 +7637,8 @@
       </c>
     </row>
     <row r="63" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="132"/>
-      <c r="C63" s="123"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="46" t="s">
         <v>767</v>
       </c>
@@ -7659,9 +7653,8 @@
       <c r="I63" s="89">
         <v>14387</v>
       </c>
-      <c r="J63" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC375-12.jpg</v>
+      <c r="J63" s="47" t="s">
+        <v>943</v>
       </c>
       <c r="K63" s="107"/>
       <c r="N63" s="5" t="s">
@@ -7669,8 +7662,8 @@
       </c>
     </row>
     <row r="64" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="132"/>
-      <c r="C64" s="123"/>
+      <c r="B64" s="133"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="46" t="s">
         <v>768</v>
       </c>
@@ -7685,9 +7678,8 @@
       <c r="I64" s="89">
         <v>3993</v>
       </c>
-      <c r="J64" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC5010.jpg</v>
+      <c r="J64" s="47" t="s">
+        <v>945</v>
       </c>
       <c r="K64" s="107" t="s">
         <v>945</v>
@@ -7697,8 +7689,8 @@
       </c>
     </row>
     <row r="65" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="132"/>
-      <c r="C65" s="123"/>
+      <c r="B65" s="133"/>
+      <c r="C65" s="124"/>
       <c r="D65" s="46" t="s">
         <v>769</v>
       </c>
@@ -7713,9 +7705,8 @@
       <c r="I65" s="89">
         <v>9949</v>
       </c>
-      <c r="J65" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC5010.jpg</v>
+      <c r="J65" s="47" t="s">
+        <v>945</v>
       </c>
       <c r="K65" s="107"/>
       <c r="N65" s="5" t="s">
@@ -7723,8 +7714,8 @@
       </c>
     </row>
     <row r="66" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="132"/>
-      <c r="C66" s="123"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="46" t="s">
         <v>770</v>
       </c>
@@ -7739,9 +7730,8 @@
       <c r="I66" s="89">
         <v>8824</v>
       </c>
-      <c r="J66" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC750.jpg</v>
+      <c r="J66" s="47" t="s">
+        <v>947</v>
       </c>
       <c r="K66" s="107" t="s">
         <v>947</v>
@@ -7751,8 +7741,8 @@
       </c>
     </row>
     <row r="67" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="132"/>
-      <c r="C67" s="123"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="46" t="s">
         <v>771</v>
       </c>
@@ -7767,9 +7757,8 @@
       <c r="I67" s="89">
         <v>7671</v>
       </c>
-      <c r="J67" s="47" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC750.jpg</v>
+      <c r="J67" s="47" t="s">
+        <v>947</v>
       </c>
       <c r="K67" s="107"/>
       <c r="N67" s="5" t="s">
@@ -7777,8 +7766,8 @@
       </c>
     </row>
     <row r="68" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="132"/>
-      <c r="C68" s="124"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="125"/>
       <c r="D68" s="49" t="s">
         <v>772</v>
       </c>
@@ -7793,9 +7782,8 @@
       <c r="I68" s="90">
         <v>7896</v>
       </c>
-      <c r="J68" s="53" t="str">
-        <f t="shared" si="0"/>
-        <v>HLC750.jpg</v>
+      <c r="J68" s="53" t="s">
+        <v>947</v>
       </c>
       <c r="K68" s="107"/>
       <c r="N68" s="5" t="s">
@@ -7803,8 +7791,8 @@
       </c>
     </row>
     <row r="69" spans="2:14" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="133"/>
-      <c r="C69" s="122" t="s">
+      <c r="B69" s="134"/>
+      <c r="C69" s="123" t="s">
         <v>57</v>
       </c>
       <c r="D69" s="32" t="s">
@@ -7821,9 +7809,8 @@
       <c r="I69" s="88">
         <v>6344</v>
       </c>
-      <c r="J69" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF050.jpg</v>
+      <c r="J69" s="33" t="s">
+        <v>912</v>
       </c>
       <c r="K69" s="107" t="s">
         <v>912</v>
@@ -7833,8 +7820,8 @@
       </c>
     </row>
     <row r="70" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="133"/>
-      <c r="C70" s="123"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="124"/>
       <c r="D70" s="34" t="s">
         <v>778</v>
       </c>
@@ -7849,9 +7836,8 @@
       <c r="I70" s="91">
         <v>15706</v>
       </c>
-      <c r="J70" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF050.jpg</v>
+      <c r="J70" s="35" t="s">
+        <v>912</v>
       </c>
       <c r="K70" s="107"/>
       <c r="N70" s="5" t="s">
@@ -7859,8 +7845,8 @@
       </c>
     </row>
     <row r="71" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="133"/>
-      <c r="C71" s="123"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="124"/>
       <c r="D71" s="34" t="s">
         <v>779</v>
       </c>
@@ -7875,9 +7861,8 @@
       <c r="I71" s="91">
         <v>14872</v>
       </c>
-      <c r="J71" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF075.jpg</v>
+      <c r="J71" s="35" t="s">
+        <v>913</v>
       </c>
       <c r="K71" s="107" t="s">
         <v>913</v>
@@ -7887,8 +7872,8 @@
       </c>
     </row>
     <row r="72" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="133"/>
-      <c r="C72" s="123"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="124"/>
       <c r="D72" s="34" t="s">
         <v>780</v>
       </c>
@@ -7903,9 +7888,8 @@
       <c r="I72" s="91">
         <v>14356</v>
       </c>
-      <c r="J72" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF075.jpg</v>
+      <c r="J72" s="35" t="s">
+        <v>913</v>
       </c>
       <c r="K72" s="107"/>
       <c r="N72" s="5" t="s">
@@ -7913,8 +7897,8 @@
       </c>
     </row>
     <row r="73" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="133"/>
-      <c r="C73" s="123"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="124"/>
       <c r="D73" s="34" t="s">
         <v>781</v>
       </c>
@@ -7929,9 +7913,8 @@
       <c r="I73" s="91">
         <v>7677</v>
       </c>
-      <c r="J73" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF100.jpg</v>
+      <c r="J73" s="35" t="s">
+        <v>914</v>
       </c>
       <c r="K73" s="107" t="s">
         <v>914</v>
@@ -7941,8 +7924,8 @@
       </c>
     </row>
     <row r="74" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="133"/>
-      <c r="C74" s="123"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="124"/>
       <c r="D74" s="34" t="s">
         <v>782</v>
       </c>
@@ -7957,9 +7940,8 @@
       <c r="I74" s="91">
         <v>1996</v>
       </c>
-      <c r="J74" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF100.jpg</v>
+      <c r="J74" s="35" t="s">
+        <v>914</v>
       </c>
       <c r="K74" s="107"/>
       <c r="N74" s="5" t="s">
@@ -7967,8 +7949,8 @@
       </c>
     </row>
     <row r="75" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="133"/>
-      <c r="C75" s="123"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="124"/>
       <c r="D75" s="34" t="s">
         <v>783</v>
       </c>
@@ -7983,9 +7965,8 @@
       <c r="I75" s="91">
         <v>12828</v>
       </c>
-      <c r="J75" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF100.jpg</v>
+      <c r="J75" s="35" t="s">
+        <v>914</v>
       </c>
       <c r="K75" s="107"/>
       <c r="N75" s="5" t="s">
@@ -7993,8 +7974,8 @@
       </c>
     </row>
     <row r="76" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="133"/>
-      <c r="C76" s="123"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="124"/>
       <c r="D76" s="34" t="s">
         <v>784</v>
       </c>
@@ -8009,9 +7990,8 @@
       <c r="I76" s="91">
         <v>1152</v>
       </c>
-      <c r="J76" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF100.jpg</v>
+      <c r="J76" s="35" t="s">
+        <v>914</v>
       </c>
       <c r="K76" s="107"/>
       <c r="N76" s="5" t="s">
@@ -8019,8 +7999,8 @@
       </c>
     </row>
     <row r="77" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="133"/>
-      <c r="C77" s="123"/>
+      <c r="B77" s="134"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="34" t="s">
         <v>785</v>
       </c>
@@ -8035,9 +8015,8 @@
       <c r="I77" s="91">
         <v>5168</v>
       </c>
-      <c r="J77" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J77" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K77" s="107" t="s">
         <v>915</v>
@@ -8047,8 +8026,8 @@
       </c>
     </row>
     <row r="78" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="133"/>
-      <c r="C78" s="123"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="34" t="s">
         <v>786</v>
       </c>
@@ -8063,9 +8042,8 @@
       <c r="I78" s="91">
         <v>12192</v>
       </c>
-      <c r="J78" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J78" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K78" s="107"/>
       <c r="N78" s="5" t="s">
@@ -8073,8 +8051,8 @@
       </c>
     </row>
     <row r="79" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="133"/>
-      <c r="C79" s="123"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="34" t="s">
         <v>787</v>
       </c>
@@ -8089,9 +8067,8 @@
       <c r="I79" s="91">
         <v>11646</v>
       </c>
-      <c r="J79" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J79" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K79" s="107"/>
       <c r="N79" s="5" t="s">
@@ -8099,8 +8076,8 @@
       </c>
     </row>
     <row r="80" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="133"/>
-      <c r="C80" s="123"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="124"/>
       <c r="D80" s="34" t="s">
         <v>788</v>
       </c>
@@ -8115,9 +8092,8 @@
       <c r="I80" s="91">
         <v>2542</v>
       </c>
-      <c r="J80" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J80" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K80" s="107"/>
       <c r="N80" s="5" t="s">
@@ -8125,8 +8101,8 @@
       </c>
     </row>
     <row r="81" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="133"/>
-      <c r="C81" s="123"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="34" t="s">
         <v>789</v>
       </c>
@@ -8141,9 +8117,8 @@
       <c r="I81" s="91">
         <v>10489</v>
       </c>
-      <c r="J81" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J81" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K81" s="107"/>
       <c r="N81" s="5" t="s">
@@ -8151,8 +8126,8 @@
       </c>
     </row>
     <row r="82" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="133"/>
-      <c r="C82" s="123"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="34" t="s">
         <v>790</v>
       </c>
@@ -8167,9 +8142,8 @@
       <c r="I82" s="91">
         <v>8105</v>
       </c>
-      <c r="J82" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J82" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K82" s="107"/>
       <c r="N82" s="5" t="s">
@@ -8177,8 +8151,8 @@
       </c>
     </row>
     <row r="83" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="133"/>
-      <c r="C83" s="123"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="34" t="s">
         <v>791</v>
       </c>
@@ -8193,9 +8167,8 @@
       <c r="I83" s="91">
         <v>12724</v>
       </c>
-      <c r="J83" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF111C-HEF111D.jpg</v>
+      <c r="J83" s="35" t="s">
+        <v>915</v>
       </c>
       <c r="K83" s="107"/>
       <c r="N83" s="5" t="s">
@@ -8203,8 +8176,8 @@
       </c>
     </row>
     <row r="84" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="133"/>
-      <c r="C84" s="123"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="34" t="s">
         <v>792</v>
       </c>
@@ -8219,9 +8192,8 @@
       <c r="I84" s="91">
         <v>9813</v>
       </c>
-      <c r="J84" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1150.jpg</v>
+      <c r="J84" s="35" t="s">
+        <v>917</v>
       </c>
       <c r="K84" s="107" t="s">
         <v>917</v>
@@ -8231,8 +8203,8 @@
       </c>
     </row>
     <row r="85" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="133"/>
-      <c r="C85" s="123"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="124"/>
       <c r="D85" s="34" t="s">
         <v>793</v>
       </c>
@@ -8247,9 +8219,8 @@
       <c r="I85" s="91">
         <v>5609</v>
       </c>
-      <c r="J85" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1150.jpg</v>
+      <c r="J85" s="35" t="s">
+        <v>917</v>
       </c>
       <c r="K85" s="107"/>
       <c r="N85" s="5" t="s">
@@ -8257,8 +8228,8 @@
       </c>
     </row>
     <row r="86" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="133"/>
-      <c r="C86" s="123"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="124"/>
       <c r="D86" s="34" t="s">
         <v>794</v>
       </c>
@@ -8273,9 +8244,8 @@
       <c r="I86" s="91">
         <v>13100</v>
       </c>
-      <c r="J86" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1200.jpg</v>
+      <c r="J86" s="35" t="s">
+        <v>918</v>
       </c>
       <c r="K86" s="107" t="s">
         <v>918</v>
@@ -8285,8 +8255,8 @@
       </c>
     </row>
     <row r="87" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="133"/>
-      <c r="C87" s="123"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="124"/>
       <c r="D87" s="34" t="s">
         <v>795</v>
       </c>
@@ -8301,9 +8271,8 @@
       <c r="I87" s="91">
         <v>13436</v>
       </c>
-      <c r="J87" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1200.jpg</v>
+      <c r="J87" s="35" t="s">
+        <v>918</v>
       </c>
       <c r="K87" s="107"/>
       <c r="N87" s="5" t="s">
@@ -8311,8 +8280,8 @@
       </c>
     </row>
     <row r="88" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="133"/>
-      <c r="C88" s="123"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="124"/>
       <c r="D88" s="34" t="s">
         <v>796</v>
       </c>
@@ -8327,9 +8296,8 @@
       <c r="I88" s="91">
         <v>14412</v>
       </c>
-      <c r="J88" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF125.jpg</v>
+      <c r="J88" s="35" t="s">
+        <v>919</v>
       </c>
       <c r="K88" s="107" t="s">
         <v>919</v>
@@ -8339,8 +8307,8 @@
       </c>
     </row>
     <row r="89" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="133"/>
-      <c r="C89" s="123"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="124"/>
       <c r="D89" s="34" t="s">
         <v>797</v>
       </c>
@@ -8355,9 +8323,8 @@
       <c r="I89" s="91">
         <v>7016</v>
       </c>
-      <c r="J89" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF125.jpg</v>
+      <c r="J89" s="35" t="s">
+        <v>919</v>
       </c>
       <c r="K89" s="107"/>
       <c r="N89" s="5" t="s">
@@ -8365,8 +8332,8 @@
       </c>
     </row>
     <row r="90" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="133"/>
-      <c r="C90" s="123"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="124"/>
       <c r="D90" s="34" t="s">
         <v>798</v>
       </c>
@@ -8381,9 +8348,8 @@
       <c r="I90" s="91">
         <v>15053</v>
       </c>
-      <c r="J90" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1300.jpg</v>
+      <c r="J90" s="35" t="s">
+        <v>920</v>
       </c>
       <c r="K90" s="107" t="s">
         <v>920</v>
@@ -8393,8 +8359,8 @@
       </c>
     </row>
     <row r="91" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="133"/>
-      <c r="C91" s="123"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="124"/>
       <c r="D91" s="34" t="s">
         <v>799</v>
       </c>
@@ -8409,9 +8375,8 @@
       <c r="I91" s="91">
         <v>8436</v>
       </c>
-      <c r="J91" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1300.jpg</v>
+      <c r="J91" s="35" t="s">
+        <v>920</v>
       </c>
       <c r="K91" s="107"/>
       <c r="N91" s="5" t="s">
@@ -8419,8 +8384,8 @@
       </c>
     </row>
     <row r="92" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="133"/>
-      <c r="C92" s="123"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="124"/>
       <c r="D92" s="34" t="s">
         <v>800</v>
       </c>
@@ -8435,9 +8400,8 @@
       <c r="I92" s="91">
         <v>11727</v>
       </c>
-      <c r="J92" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1400.jpg</v>
+      <c r="J92" s="35" t="s">
+        <v>921</v>
       </c>
       <c r="K92" s="107" t="s">
         <v>921</v>
@@ -8447,8 +8411,8 @@
       </c>
     </row>
     <row r="93" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="133"/>
-      <c r="C93" s="123"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="124"/>
       <c r="D93" s="34" t="s">
         <v>801</v>
       </c>
@@ -8463,9 +8427,8 @@
       <c r="I93" s="91">
         <v>7675</v>
       </c>
-      <c r="J93" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF1400.jpg</v>
+      <c r="J93" s="35" t="s">
+        <v>921</v>
       </c>
       <c r="K93" s="107"/>
       <c r="N93" s="5" t="s">
@@ -8473,8 +8436,8 @@
       </c>
     </row>
     <row r="94" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="133"/>
-      <c r="C94" s="123"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="34" t="s">
         <v>802</v>
       </c>
@@ -8489,9 +8452,8 @@
       <c r="I94" s="91">
         <v>9840</v>
       </c>
-      <c r="J94" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF150.jpg</v>
+      <c r="J94" s="35" t="s">
+        <v>922</v>
       </c>
       <c r="K94" s="107" t="s">
         <v>922</v>
@@ -8501,8 +8463,8 @@
       </c>
     </row>
     <row r="95" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="133"/>
-      <c r="C95" s="123"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="124"/>
       <c r="D95" s="34" t="s">
         <v>803</v>
       </c>
@@ -8517,9 +8479,8 @@
       <c r="I95" s="91">
         <v>5729</v>
       </c>
-      <c r="J95" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF150.jpg</v>
+      <c r="J95" s="35" t="s">
+        <v>922</v>
       </c>
       <c r="K95" s="107"/>
       <c r="N95" s="5" t="s">
@@ -8527,8 +8488,8 @@
       </c>
     </row>
     <row r="96" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="133"/>
-      <c r="C96" s="123"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="124"/>
       <c r="D96" s="34" t="s">
         <v>804</v>
       </c>
@@ -8543,9 +8504,8 @@
       <c r="I96" s="91">
         <v>8133</v>
       </c>
-      <c r="J96" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF175.jpg</v>
+      <c r="J96" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="K96" s="107" t="s">
         <v>923</v>
@@ -8555,8 +8515,8 @@
       </c>
     </row>
     <row r="97" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="133"/>
-      <c r="C97" s="123"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="124"/>
       <c r="D97" s="34" t="s">
         <v>805</v>
       </c>
@@ -8571,9 +8531,8 @@
       <c r="I97" s="91">
         <v>15637</v>
       </c>
-      <c r="J97" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF175.jpg</v>
+      <c r="J97" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="K97" s="107"/>
       <c r="N97" s="5" t="s">
@@ -8581,8 +8540,8 @@
       </c>
     </row>
     <row r="98" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="133"/>
-      <c r="C98" s="123"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="124"/>
       <c r="D98" s="34" t="s">
         <v>806</v>
       </c>
@@ -8597,9 +8556,8 @@
       <c r="I98" s="91">
         <v>3818</v>
       </c>
-      <c r="J98" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF175.jpg</v>
+      <c r="J98" s="35" t="s">
+        <v>923</v>
       </c>
       <c r="K98" s="107"/>
       <c r="N98" s="5" t="s">
@@ -8607,8 +8565,8 @@
       </c>
     </row>
     <row r="99" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="133"/>
-      <c r="C99" s="123"/>
+      <c r="B99" s="134"/>
+      <c r="C99" s="124"/>
       <c r="D99" s="34" t="s">
         <v>807</v>
       </c>
@@ -8623,9 +8581,8 @@
       <c r="I99" s="91">
         <v>11663</v>
       </c>
-      <c r="J99" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF300.jpg</v>
+      <c r="J99" s="35" t="s">
+        <v>925</v>
       </c>
       <c r="K99" s="107" t="s">
         <v>925</v>
@@ -8635,8 +8592,8 @@
       </c>
     </row>
     <row r="100" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="133"/>
-      <c r="C100" s="123"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="124"/>
       <c r="D100" s="34" t="s">
         <v>808</v>
       </c>
@@ -8651,9 +8608,8 @@
       <c r="I100" s="91">
         <v>14656</v>
       </c>
-      <c r="J100" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF300.jpg</v>
+      <c r="J100" s="35" t="s">
+        <v>925</v>
       </c>
       <c r="K100" s="107"/>
       <c r="N100" s="5" t="s">
@@ -8661,8 +8617,8 @@
       </c>
     </row>
     <row r="101" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="133"/>
-      <c r="C101" s="123"/>
+      <c r="B101" s="134"/>
+      <c r="C101" s="124"/>
       <c r="D101" s="34" t="s">
         <v>809</v>
       </c>
@@ -8677,9 +8633,8 @@
       <c r="I101" s="91">
         <v>7983</v>
       </c>
-      <c r="J101" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF300.jpg</v>
+      <c r="J101" s="35" t="s">
+        <v>925</v>
       </c>
       <c r="K101" s="107"/>
       <c r="N101" s="5" t="s">
@@ -8687,8 +8642,8 @@
       </c>
     </row>
     <row r="102" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="133"/>
-      <c r="C102" s="123"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="124"/>
       <c r="D102" s="34" t="s">
         <v>810</v>
       </c>
@@ -8703,9 +8658,8 @@
       <c r="I102" s="91">
         <v>8955</v>
       </c>
-      <c r="J102" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>HEF400.jpg</v>
+      <c r="J102" s="35" t="s">
+        <v>926</v>
       </c>
       <c r="K102" s="107" t="s">
         <v>926</v>
@@ -8715,8 +8669,8 @@
       </c>
     </row>
     <row r="103" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="133"/>
-      <c r="C103" s="123"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="124"/>
       <c r="D103" s="34" t="s">
         <v>811</v>
       </c>
@@ -8731,9 +8685,8 @@
       <c r="I103" s="91">
         <v>575</v>
       </c>
-      <c r="J103" s="35" t="str">
-        <f t="shared" ref="J103:J166" si="1">VLOOKUP(D103,N:N,1,TRUE)</f>
-        <v>HEF400.jpg</v>
+      <c r="J103" s="35" t="s">
+        <v>926</v>
       </c>
       <c r="K103" s="107"/>
       <c r="N103" s="5" t="s">
@@ -8741,8 +8694,8 @@
       </c>
     </row>
     <row r="104" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="133"/>
-      <c r="C104" s="123"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="124"/>
       <c r="D104" s="34" t="s">
         <v>812</v>
       </c>
@@ -8757,9 +8710,8 @@
       <c r="I104" s="91">
         <v>5155</v>
       </c>
-      <c r="J104" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>HEF5010.jpg</v>
+      <c r="J104" s="35" t="s">
+        <v>927</v>
       </c>
       <c r="K104" s="107" t="s">
         <v>927</v>
@@ -8769,8 +8721,8 @@
       </c>
     </row>
     <row r="105" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="133"/>
-      <c r="C105" s="123"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="124"/>
       <c r="D105" s="34" t="s">
         <v>813</v>
       </c>
@@ -8785,9 +8737,8 @@
       <c r="I105" s="91">
         <v>11710</v>
       </c>
-      <c r="J105" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>HEF5010.jpg</v>
+      <c r="J105" s="35" t="s">
+        <v>927</v>
       </c>
       <c r="K105" s="107"/>
       <c r="N105" s="5" t="s">
@@ -8795,8 +8746,8 @@
       </c>
     </row>
     <row r="106" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="133"/>
-      <c r="C106" s="123"/>
+      <c r="B106" s="134"/>
+      <c r="C106" s="124"/>
       <c r="D106" s="34" t="s">
         <v>773</v>
       </c>
@@ -8811,9 +8762,8 @@
       <c r="I106" s="91">
         <v>1783</v>
       </c>
-      <c r="J106" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>HOB300.jpg</v>
+      <c r="J106" s="35" t="s">
+        <v>958</v>
       </c>
       <c r="K106" s="107" t="s">
         <v>958</v>
@@ -8823,8 +8773,8 @@
       </c>
     </row>
     <row r="107" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="133"/>
-      <c r="C107" s="123"/>
+      <c r="B107" s="134"/>
+      <c r="C107" s="124"/>
       <c r="D107" s="34" t="s">
         <v>774</v>
       </c>
@@ -8839,9 +8789,8 @@
       <c r="I107" s="91">
         <v>14520</v>
       </c>
-      <c r="J107" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>HOB300.jpg</v>
+      <c r="J107" s="35" t="s">
+        <v>958</v>
       </c>
       <c r="K107" s="107"/>
       <c r="N107" s="5" t="s">
@@ -8849,8 +8798,8 @@
       </c>
     </row>
     <row r="108" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="133"/>
-      <c r="C108" s="123"/>
+      <c r="B108" s="134"/>
+      <c r="C108" s="124"/>
       <c r="D108" s="34" t="s">
         <v>775</v>
       </c>
@@ -8865,9 +8814,8 @@
       <c r="I108" s="91">
         <v>13852</v>
       </c>
-      <c r="J108" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>HOB400.jpg</v>
+      <c r="J108" s="35" t="s">
+        <v>959</v>
       </c>
       <c r="K108" s="107" t="s">
         <v>959</v>
@@ -8877,8 +8825,8 @@
       </c>
     </row>
     <row r="109" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="133"/>
-      <c r="C109" s="124"/>
+      <c r="B109" s="134"/>
+      <c r="C109" s="125"/>
       <c r="D109" s="36" t="s">
         <v>776</v>
       </c>
@@ -8893,9 +8841,8 @@
       <c r="I109" s="92">
         <v>13615</v>
       </c>
-      <c r="J109" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>HOB400.jpg</v>
+      <c r="J109" s="37" t="s">
+        <v>959</v>
       </c>
       <c r="K109" s="107"/>
       <c r="N109" s="5" t="s">
@@ -8903,8 +8850,8 @@
       </c>
     </row>
     <row r="110" spans="2:14" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="133"/>
-      <c r="C110" s="122" t="s">
+      <c r="B110" s="134"/>
+      <c r="C110" s="123" t="s">
         <v>182</v>
       </c>
       <c r="D110" s="32" t="s">
@@ -8921,9 +8868,8 @@
       <c r="I110" s="88">
         <v>14642</v>
       </c>
-      <c r="J110" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD204.jpg</v>
+      <c r="J110" s="33" t="s">
+        <v>988</v>
       </c>
       <c r="K110" s="107"/>
       <c r="N110" s="5" t="s">
@@ -8931,8 +8877,8 @@
       </c>
     </row>
     <row r="111" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="133"/>
-      <c r="C111" s="123"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="124"/>
       <c r="D111" s="46" t="s">
         <v>198</v>
       </c>
@@ -8947,9 +8893,8 @@
       <c r="I111" s="89">
         <v>4813</v>
       </c>
-      <c r="J111" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD204.jpg</v>
+      <c r="J111" s="47" t="s">
+        <v>988</v>
       </c>
       <c r="K111" s="107"/>
       <c r="N111" s="5" t="s">
@@ -8957,8 +8902,8 @@
       </c>
     </row>
     <row r="112" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="133"/>
-      <c r="C112" s="123"/>
+      <c r="B112" s="134"/>
+      <c r="C112" s="124"/>
       <c r="D112" s="46" t="s">
         <v>199</v>
       </c>
@@ -8973,9 +8918,8 @@
       <c r="I112" s="89">
         <v>4450</v>
       </c>
-      <c r="J112" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF101-HSF102.jpg</v>
+      <c r="J112" s="47" t="s">
+        <v>989</v>
       </c>
       <c r="K112" s="107" t="s">
         <v>989</v>
@@ -8985,8 +8929,8 @@
       </c>
     </row>
     <row r="113" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="133"/>
-      <c r="C113" s="123"/>
+      <c r="B113" s="134"/>
+      <c r="C113" s="124"/>
       <c r="D113" s="46" t="s">
         <v>200</v>
       </c>
@@ -9001,9 +8945,8 @@
       <c r="I113" s="89">
         <v>1151</v>
       </c>
-      <c r="J113" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF101-HSF102.jpg</v>
+      <c r="J113" s="47" t="s">
+        <v>989</v>
       </c>
       <c r="K113" s="107"/>
       <c r="N113" s="5" t="s">
@@ -9011,8 +8954,8 @@
       </c>
     </row>
     <row r="114" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="133"/>
-      <c r="C114" s="123"/>
+      <c r="B114" s="134"/>
+      <c r="C114" s="124"/>
       <c r="D114" s="46" t="s">
         <v>201</v>
       </c>
@@ -9027,9 +8970,8 @@
       <c r="I114" s="89">
         <v>5705</v>
       </c>
-      <c r="J114" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF105.jpg</v>
+      <c r="J114" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="K114" s="107" t="s">
         <v>990</v>
@@ -9039,8 +8981,8 @@
       </c>
     </row>
     <row r="115" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="133"/>
-      <c r="C115" s="123"/>
+      <c r="B115" s="134"/>
+      <c r="C115" s="124"/>
       <c r="D115" s="46" t="s">
         <v>202</v>
       </c>
@@ -9055,9 +8997,8 @@
       <c r="I115" s="89">
         <v>762</v>
       </c>
-      <c r="J115" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF105.jpg</v>
+      <c r="J115" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="K115" s="107"/>
       <c r="N115" s="5" t="s">
@@ -9065,8 +9006,8 @@
       </c>
     </row>
     <row r="116" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="133"/>
-      <c r="C116" s="123"/>
+      <c r="B116" s="134"/>
+      <c r="C116" s="124"/>
       <c r="D116" s="46" t="s">
         <v>203</v>
       </c>
@@ -9081,9 +9022,8 @@
       <c r="I116" s="89">
         <v>4267</v>
       </c>
-      <c r="J116" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF105.jpg</v>
+      <c r="J116" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="K116" s="107"/>
       <c r="N116" s="5" t="s">
@@ -9091,8 +9031,8 @@
       </c>
     </row>
     <row r="117" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="133"/>
-      <c r="C117" s="123"/>
+      <c r="B117" s="134"/>
+      <c r="C117" s="124"/>
       <c r="D117" s="46" t="s">
         <v>204</v>
       </c>
@@ -9107,9 +9047,8 @@
       <c r="I117" s="89">
         <v>11228</v>
       </c>
-      <c r="J117" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF105.jpg</v>
+      <c r="J117" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="K117" s="107"/>
       <c r="N117" s="5" t="s">
@@ -9117,8 +9056,8 @@
       </c>
     </row>
     <row r="118" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="133"/>
-      <c r="C118" s="123"/>
+      <c r="B118" s="134"/>
+      <c r="C118" s="124"/>
       <c r="D118" s="46" t="s">
         <v>205</v>
       </c>
@@ -9133,9 +9072,8 @@
       <c r="I118" s="89">
         <v>6829</v>
       </c>
-      <c r="J118" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF105.jpg</v>
+      <c r="J118" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="K118" s="107"/>
       <c r="N118" s="5" t="s">
@@ -9143,8 +9081,8 @@
       </c>
     </row>
     <row r="119" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="133"/>
-      <c r="C119" s="123"/>
+      <c r="B119" s="134"/>
+      <c r="C119" s="124"/>
       <c r="D119" s="46" t="s">
         <v>206</v>
       </c>
@@ -9159,9 +9097,8 @@
       <c r="I119" s="89">
         <v>6342</v>
       </c>
-      <c r="J119" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF105.jpg</v>
+      <c r="J119" s="47" t="s">
+        <v>990</v>
       </c>
       <c r="K119" s="107"/>
       <c r="N119" s="5" t="s">
@@ -9169,8 +9106,8 @@
       </c>
     </row>
     <row r="120" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="133"/>
-      <c r="C120" s="123"/>
+      <c r="B120" s="134"/>
+      <c r="C120" s="124"/>
       <c r="D120" s="46" t="s">
         <v>207</v>
       </c>
@@ -9185,9 +9122,8 @@
       <c r="I120" s="89">
         <v>10455</v>
       </c>
-      <c r="J120" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF106B-HSF102.jpg</v>
+      <c r="J120" s="47" t="s">
+        <v>992</v>
       </c>
       <c r="K120" s="107" t="s">
         <v>992</v>
@@ -9197,8 +9133,8 @@
       </c>
     </row>
     <row r="121" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="133"/>
-      <c r="C121" s="123"/>
+      <c r="B121" s="134"/>
+      <c r="C121" s="124"/>
       <c r="D121" s="46" t="s">
         <v>208</v>
       </c>
@@ -9213,9 +9149,8 @@
       <c r="I121" s="89">
         <v>11593</v>
       </c>
-      <c r="J121" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF106B-HSF102.jpg</v>
+      <c r="J121" s="47" t="s">
+        <v>992</v>
       </c>
       <c r="K121" s="107"/>
       <c r="N121" s="5" t="s">
@@ -9223,8 +9158,8 @@
       </c>
     </row>
     <row r="122" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="133"/>
-      <c r="C122" s="123"/>
+      <c r="B122" s="134"/>
+      <c r="C122" s="124"/>
       <c r="D122" s="46" t="s">
         <v>209</v>
       </c>
@@ -9239,9 +9174,8 @@
       <c r="I122" s="89">
         <v>13761</v>
       </c>
-      <c r="J122" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF106B-HSF102.jpg</v>
+      <c r="J122" s="47" t="s">
+        <v>992</v>
       </c>
       <c r="K122" s="107"/>
       <c r="N122" s="5" t="s">
@@ -9249,8 +9183,8 @@
       </c>
     </row>
     <row r="123" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="133"/>
-      <c r="C123" s="123"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="124"/>
       <c r="D123" s="46" t="s">
         <v>210</v>
       </c>
@@ -9265,9 +9199,8 @@
       <c r="I123" s="89">
         <v>12116</v>
       </c>
-      <c r="J123" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF750D-20.jpg</v>
+      <c r="J123" s="47" t="s">
+        <v>993</v>
       </c>
       <c r="K123" s="107" t="s">
         <v>993</v>
@@ -9277,8 +9210,8 @@
       </c>
     </row>
     <row r="124" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="133"/>
-      <c r="C124" s="123"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="124"/>
       <c r="D124" s="46" t="s">
         <v>211</v>
       </c>
@@ -9293,9 +9226,8 @@
       <c r="I124" s="89">
         <v>6720</v>
       </c>
-      <c r="J124" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF750D-20.jpg</v>
+      <c r="J124" s="47" t="s">
+        <v>993</v>
       </c>
       <c r="K124" s="107"/>
       <c r="N124" s="5" t="s">
@@ -9303,8 +9235,8 @@
       </c>
     </row>
     <row r="125" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="133"/>
-      <c r="C125" s="123"/>
+      <c r="B125" s="134"/>
+      <c r="C125" s="124"/>
       <c r="D125" s="34" t="s">
         <v>212</v>
       </c>
@@ -9319,9 +9251,8 @@
       <c r="I125" s="91">
         <v>4865</v>
       </c>
-      <c r="J125" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>HSF750D-20.jpg</v>
+      <c r="J125" s="35" t="s">
+        <v>993</v>
       </c>
       <c r="K125" s="107"/>
       <c r="N125" s="5" t="s">
@@ -9329,8 +9260,8 @@
       </c>
     </row>
     <row r="126" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="133"/>
-      <c r="C126" s="123"/>
+      <c r="B126" s="134"/>
+      <c r="C126" s="124"/>
       <c r="D126" s="41" t="s">
         <v>185</v>
       </c>
@@ -9345,9 +9276,8 @@
       <c r="I126" s="93">
         <v>12283</v>
       </c>
-      <c r="J126" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>HJW6105.jpg</v>
+      <c r="J126" s="42" t="s">
+        <v>939</v>
       </c>
       <c r="K126" s="107" t="s">
         <v>939</v>
@@ -9357,8 +9287,8 @@
       </c>
     </row>
     <row r="127" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="133"/>
-      <c r="C127" s="123"/>
+      <c r="B127" s="134"/>
+      <c r="C127" s="124"/>
       <c r="D127" s="41" t="s">
         <v>186</v>
       </c>
@@ -9373,9 +9303,8 @@
       <c r="I127" s="93">
         <v>10488</v>
       </c>
-      <c r="J127" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>HJW6105.jpg</v>
+      <c r="J127" s="42" t="s">
+        <v>939</v>
       </c>
       <c r="K127" s="107"/>
       <c r="N127" s="5" t="s">
@@ -9383,8 +9312,8 @@
       </c>
     </row>
     <row r="128" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="133"/>
-      <c r="C128" s="123"/>
+      <c r="B128" s="134"/>
+      <c r="C128" s="124"/>
       <c r="D128" s="41" t="s">
         <v>192</v>
       </c>
@@ -9399,9 +9328,8 @@
       <c r="I128" s="93">
         <v>3147</v>
       </c>
-      <c r="J128" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>HYP100.jpg</v>
+      <c r="J128" s="42" t="s">
+        <v>1008</v>
       </c>
       <c r="K128" s="107" t="s">
         <v>1008</v>
@@ -9411,8 +9339,8 @@
       </c>
     </row>
     <row r="129" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="133"/>
-      <c r="C129" s="123"/>
+      <c r="B129" s="134"/>
+      <c r="C129" s="124"/>
       <c r="D129" s="41" t="s">
         <v>193</v>
       </c>
@@ -9427,9 +9355,8 @@
       <c r="I129" s="93">
         <v>4229</v>
       </c>
-      <c r="J129" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>HYP100.jpg</v>
+      <c r="J129" s="42" t="s">
+        <v>1008</v>
       </c>
       <c r="K129" s="107"/>
       <c r="N129" s="5" t="s">
@@ -9437,8 +9364,8 @@
       </c>
     </row>
     <row r="130" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="133"/>
-      <c r="C130" s="123"/>
+      <c r="B130" s="134"/>
+      <c r="C130" s="124"/>
       <c r="D130" s="41" t="s">
         <v>194</v>
       </c>
@@ -9453,9 +9380,8 @@
       <c r="I130" s="93">
         <v>500</v>
       </c>
-      <c r="J130" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>HYP100.jpg</v>
+      <c r="J130" s="42" t="s">
+        <v>1008</v>
       </c>
       <c r="K130" s="107"/>
       <c r="N130" s="5" t="s">
@@ -9463,8 +9389,8 @@
       </c>
     </row>
     <row r="131" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="133"/>
-      <c r="C131" s="123"/>
+      <c r="B131" s="134"/>
+      <c r="C131" s="124"/>
       <c r="D131" s="41" t="s">
         <v>195</v>
       </c>
@@ -9479,9 +9405,8 @@
       <c r="I131" s="93">
         <v>5637</v>
       </c>
-      <c r="J131" s="42" t="str">
-        <f t="shared" si="1"/>
-        <v>HYP200.jpg</v>
+      <c r="J131" s="42" t="s">
+        <v>1009</v>
       </c>
       <c r="K131" s="107" t="s">
         <v>1009</v>
@@ -9491,8 +9416,8 @@
       </c>
     </row>
     <row r="132" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="133"/>
-      <c r="C132" s="124"/>
+      <c r="B132" s="134"/>
+      <c r="C132" s="125"/>
       <c r="D132" s="36" t="s">
         <v>196</v>
       </c>
@@ -9507,9 +9432,8 @@
       <c r="I132" s="92">
         <v>9266</v>
       </c>
-      <c r="J132" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>HYP200.jpg</v>
+      <c r="J132" s="37" t="s">
+        <v>1009</v>
       </c>
       <c r="K132" s="107"/>
       <c r="N132" s="5" t="s">
@@ -9517,8 +9441,8 @@
       </c>
     </row>
     <row r="133" spans="2:14" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="133"/>
-      <c r="C133" s="123" t="s">
+      <c r="B133" s="134"/>
+      <c r="C133" s="124" t="s">
         <v>213</v>
       </c>
       <c r="D133" s="46" t="s">
@@ -9535,9 +9459,8 @@
       <c r="I133" s="89">
         <v>15416</v>
       </c>
-      <c r="J133" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD103.jpg</v>
+      <c r="J133" s="47" t="s">
+        <v>967</v>
       </c>
       <c r="K133" s="107" t="s">
         <v>967</v>
@@ -9547,8 +9470,8 @@
       </c>
     </row>
     <row r="134" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="133"/>
-      <c r="C134" s="123"/>
+      <c r="B134" s="134"/>
+      <c r="C134" s="124"/>
       <c r="D134" s="46" t="s">
         <v>267</v>
       </c>
@@ -9563,9 +9486,8 @@
       <c r="I134" s="89">
         <v>6637</v>
       </c>
-      <c r="J134" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD103.jpg</v>
+      <c r="J134" s="47" t="s">
+        <v>967</v>
       </c>
       <c r="K134" s="107"/>
       <c r="N134" s="5" t="s">
@@ -9573,8 +9495,8 @@
       </c>
     </row>
     <row r="135" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="133"/>
-      <c r="C135" s="123"/>
+      <c r="B135" s="134"/>
+      <c r="C135" s="124"/>
       <c r="D135" s="46" t="s">
         <v>268</v>
       </c>
@@ -9589,9 +9511,8 @@
       <c r="I135" s="89">
         <v>11227</v>
       </c>
-      <c r="J135" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD104.jpg</v>
+      <c r="J135" s="47" t="s">
+        <v>968</v>
       </c>
       <c r="K135" s="107" t="s">
         <v>968</v>
@@ -9601,8 +9522,8 @@
       </c>
     </row>
     <row r="136" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="133"/>
-      <c r="C136" s="123"/>
+      <c r="B136" s="134"/>
+      <c r="C136" s="124"/>
       <c r="D136" s="46" t="s">
         <v>269</v>
       </c>
@@ -9617,9 +9538,8 @@
       <c r="I136" s="89">
         <v>8447</v>
       </c>
-      <c r="J136" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD104.jpg</v>
+      <c r="J136" s="47" t="s">
+        <v>968</v>
       </c>
       <c r="K136" s="107"/>
       <c r="N136" s="5" t="s">
@@ -9627,8 +9547,8 @@
       </c>
     </row>
     <row r="137" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="133"/>
-      <c r="C137" s="123"/>
+      <c r="B137" s="134"/>
+      <c r="C137" s="124"/>
       <c r="D137" s="46" t="s">
         <v>270</v>
       </c>
@@ -9643,9 +9563,8 @@
       <c r="I137" s="89">
         <v>14715</v>
       </c>
-      <c r="J137" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD105.jpg</v>
+      <c r="J137" s="47" t="s">
+        <v>969</v>
       </c>
       <c r="K137" s="107" t="s">
         <v>969</v>
@@ -9655,8 +9574,8 @@
       </c>
     </row>
     <row r="138" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="133"/>
-      <c r="C138" s="123"/>
+      <c r="B138" s="134"/>
+      <c r="C138" s="124"/>
       <c r="D138" s="46" t="s">
         <v>271</v>
       </c>
@@ -9671,9 +9590,8 @@
       <c r="I138" s="89">
         <v>9364</v>
       </c>
-      <c r="J138" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD105.jpg</v>
+      <c r="J138" s="47" t="s">
+        <v>969</v>
       </c>
       <c r="K138" s="107"/>
       <c r="N138" s="5" t="s">
@@ -9681,8 +9599,8 @@
       </c>
     </row>
     <row r="139" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="133"/>
-      <c r="C139" s="123"/>
+      <c r="B139" s="134"/>
+      <c r="C139" s="124"/>
       <c r="D139" s="46" t="s">
         <v>272</v>
       </c>
@@ -9697,9 +9615,8 @@
       <c r="I139" s="89">
         <v>3770</v>
       </c>
-      <c r="J139" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD105.jpg</v>
+      <c r="J139" s="47" t="s">
+        <v>969</v>
       </c>
       <c r="K139" s="107"/>
       <c r="N139" s="5" t="s">
@@ -9707,8 +9624,8 @@
       </c>
     </row>
     <row r="140" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="133"/>
-      <c r="C140" s="123"/>
+      <c r="B140" s="134"/>
+      <c r="C140" s="124"/>
       <c r="D140" s="46" t="s">
         <v>273</v>
       </c>
@@ -9723,9 +9640,8 @@
       <c r="I140" s="89">
         <v>15622</v>
       </c>
-      <c r="J140" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD107.jpg</v>
+      <c r="J140" s="47" t="s">
+        <v>970</v>
       </c>
       <c r="K140" s="107" t="s">
         <v>970</v>
@@ -9735,8 +9651,8 @@
       </c>
     </row>
     <row r="141" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="133"/>
-      <c r="C141" s="123"/>
+      <c r="B141" s="134"/>
+      <c r="C141" s="124"/>
       <c r="D141" s="46" t="s">
         <v>274</v>
       </c>
@@ -9751,9 +9667,8 @@
       <c r="I141" s="89">
         <v>12203</v>
       </c>
-      <c r="J141" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD107.jpg</v>
+      <c r="J141" s="47" t="s">
+        <v>970</v>
       </c>
       <c r="K141" s="107"/>
       <c r="N141" s="5" t="s">
@@ -9761,8 +9676,8 @@
       </c>
     </row>
     <row r="142" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="133"/>
-      <c r="C142" s="123"/>
+      <c r="B142" s="134"/>
+      <c r="C142" s="124"/>
       <c r="D142" s="46" t="s">
         <v>275</v>
       </c>
@@ -9777,9 +9692,8 @@
       <c r="I142" s="89">
         <v>10811</v>
       </c>
-      <c r="J142" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD107.jpg</v>
+      <c r="J142" s="47" t="s">
+        <v>970</v>
       </c>
       <c r="K142" s="107"/>
       <c r="N142" s="5" t="s">
@@ -9787,8 +9701,8 @@
       </c>
     </row>
     <row r="143" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="133"/>
-      <c r="C143" s="123"/>
+      <c r="B143" s="134"/>
+      <c r="C143" s="124"/>
       <c r="D143" s="46" t="s">
         <v>276</v>
       </c>
@@ -9803,9 +9717,8 @@
       <c r="I143" s="89">
         <v>9003</v>
       </c>
-      <c r="J143" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD131.jpg</v>
+      <c r="J143" s="47" t="s">
+        <v>971</v>
       </c>
       <c r="K143" s="107" t="s">
         <v>971</v>
@@ -9815,8 +9728,8 @@
       </c>
     </row>
     <row r="144" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="133"/>
-      <c r="C144" s="123"/>
+      <c r="B144" s="134"/>
+      <c r="C144" s="124"/>
       <c r="D144" s="46" t="s">
         <v>277</v>
       </c>
@@ -9831,9 +9744,8 @@
       <c r="I144" s="89">
         <v>10670</v>
       </c>
-      <c r="J144" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD131.jpg</v>
+      <c r="J144" s="47" t="s">
+        <v>971</v>
       </c>
       <c r="K144" s="107"/>
       <c r="N144" s="5" t="s">
@@ -9841,8 +9753,8 @@
       </c>
     </row>
     <row r="145" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="133"/>
-      <c r="C145" s="123"/>
+      <c r="B145" s="134"/>
+      <c r="C145" s="124"/>
       <c r="D145" s="46" t="s">
         <v>278</v>
       </c>
@@ -9857,9 +9769,8 @@
       <c r="I145" s="89">
         <v>9780</v>
       </c>
-      <c r="J145" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD131.jpg</v>
+      <c r="J145" s="47" t="s">
+        <v>971</v>
       </c>
       <c r="K145" s="107"/>
       <c r="N145" s="5" t="s">
@@ -9867,8 +9778,8 @@
       </c>
     </row>
     <row r="146" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="133"/>
-      <c r="C146" s="123"/>
+      <c r="B146" s="134"/>
+      <c r="C146" s="124"/>
       <c r="D146" s="46" t="s">
         <v>279</v>
       </c>
@@ -9883,9 +9794,8 @@
       <c r="I146" s="89">
         <v>3133</v>
       </c>
-      <c r="J146" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD132.jpg</v>
+      <c r="J146" s="47" t="s">
+        <v>972</v>
       </c>
       <c r="K146" s="107" t="s">
         <v>972</v>
@@ -9895,8 +9805,8 @@
       </c>
     </row>
     <row r="147" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="133"/>
-      <c r="C147" s="123"/>
+      <c r="B147" s="134"/>
+      <c r="C147" s="124"/>
       <c r="D147" s="46" t="s">
         <v>280</v>
       </c>
@@ -9911,9 +9821,8 @@
       <c r="I147" s="89">
         <v>550</v>
       </c>
-      <c r="J147" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD132.jpg</v>
+      <c r="J147" s="47" t="s">
+        <v>972</v>
       </c>
       <c r="K147" s="107"/>
       <c r="N147" s="5" t="s">
@@ -9921,8 +9830,8 @@
       </c>
     </row>
     <row r="148" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="133"/>
-      <c r="C148" s="123"/>
+      <c r="B148" s="134"/>
+      <c r="C148" s="124"/>
       <c r="D148" s="46" t="s">
         <v>281</v>
       </c>
@@ -9937,9 +9846,8 @@
       <c r="I148" s="89">
         <v>4756</v>
       </c>
-      <c r="J148" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD132.jpg</v>
+      <c r="J148" s="47" t="s">
+        <v>972</v>
       </c>
       <c r="K148" s="107"/>
       <c r="N148" s="5" t="s">
@@ -9947,8 +9855,8 @@
       </c>
     </row>
     <row r="149" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="133"/>
-      <c r="C149" s="123"/>
+      <c r="B149" s="134"/>
+      <c r="C149" s="124"/>
       <c r="D149" s="46" t="s">
         <v>282</v>
       </c>
@@ -9963,9 +9871,8 @@
       <c r="I149" s="89">
         <v>10464</v>
       </c>
-      <c r="J149" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD133.jpg</v>
+      <c r="J149" s="47" t="s">
+        <v>973</v>
       </c>
       <c r="K149" s="107" t="s">
         <v>973</v>
@@ -9975,8 +9882,8 @@
       </c>
     </row>
     <row r="150" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="133"/>
-      <c r="C150" s="123"/>
+      <c r="B150" s="134"/>
+      <c r="C150" s="124"/>
       <c r="D150" s="46" t="s">
         <v>283</v>
       </c>
@@ -9991,9 +9898,8 @@
       <c r="I150" s="89">
         <v>13295</v>
       </c>
-      <c r="J150" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD133.jpg</v>
+      <c r="J150" s="47" t="s">
+        <v>973</v>
       </c>
       <c r="K150" s="107"/>
       <c r="N150" s="5" t="s">
@@ -10001,8 +9907,8 @@
       </c>
     </row>
     <row r="151" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="133"/>
-      <c r="C151" s="123"/>
+      <c r="B151" s="134"/>
+      <c r="C151" s="124"/>
       <c r="D151" s="46" t="s">
         <v>284</v>
       </c>
@@ -10017,9 +9923,8 @@
       <c r="I151" s="89">
         <v>590</v>
       </c>
-      <c r="J151" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD133.jpg</v>
+      <c r="J151" s="47" t="s">
+        <v>973</v>
       </c>
       <c r="K151" s="107"/>
       <c r="N151" s="5" t="s">
@@ -10027,8 +9932,8 @@
       </c>
     </row>
     <row r="152" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="133"/>
-      <c r="C152" s="123"/>
+      <c r="B152" s="134"/>
+      <c r="C152" s="124"/>
       <c r="D152" s="46" t="s">
         <v>285</v>
       </c>
@@ -10043,9 +9948,8 @@
       <c r="I152" s="89">
         <v>2134</v>
       </c>
-      <c r="J152" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD134.jpg</v>
+      <c r="J152" s="47" t="s">
+        <v>974</v>
       </c>
       <c r="K152" s="107" t="s">
         <v>974</v>
@@ -10055,8 +9959,8 @@
       </c>
     </row>
     <row r="153" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="133"/>
-      <c r="C153" s="123"/>
+      <c r="B153" s="134"/>
+      <c r="C153" s="124"/>
       <c r="D153" s="46" t="s">
         <v>286</v>
       </c>
@@ -10071,9 +9975,8 @@
       <c r="I153" s="89">
         <v>9430</v>
       </c>
-      <c r="J153" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD134.jpg</v>
+      <c r="J153" s="47" t="s">
+        <v>974</v>
       </c>
       <c r="K153" s="107"/>
       <c r="N153" s="5" t="s">
@@ -10081,8 +9984,8 @@
       </c>
     </row>
     <row r="154" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="133"/>
-      <c r="C154" s="123"/>
+      <c r="B154" s="134"/>
+      <c r="C154" s="124"/>
       <c r="D154" s="46" t="s">
         <v>287</v>
       </c>
@@ -10097,9 +10000,8 @@
       <c r="I154" s="89">
         <v>6124</v>
       </c>
-      <c r="J154" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD134.jpg</v>
+      <c r="J154" s="47" t="s">
+        <v>974</v>
       </c>
       <c r="K154" s="107"/>
       <c r="N154" s="5" t="s">
@@ -10107,8 +10009,8 @@
       </c>
     </row>
     <row r="155" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="133"/>
-      <c r="C155" s="123"/>
+      <c r="B155" s="134"/>
+      <c r="C155" s="124"/>
       <c r="D155" s="46" t="s">
         <v>288</v>
       </c>
@@ -10123,9 +10025,8 @@
       <c r="I155" s="89">
         <v>188</v>
       </c>
-      <c r="J155" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD135.jpg</v>
+      <c r="J155" s="47" t="s">
+        <v>975</v>
       </c>
       <c r="K155" s="107" t="s">
         <v>975</v>
@@ -10135,8 +10036,8 @@
       </c>
     </row>
     <row r="156" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="133"/>
-      <c r="C156" s="123"/>
+      <c r="B156" s="134"/>
+      <c r="C156" s="124"/>
       <c r="D156" s="46" t="s">
         <v>289</v>
       </c>
@@ -10151,9 +10052,8 @@
       <c r="I156" s="89">
         <v>11944</v>
       </c>
-      <c r="J156" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD135.jpg</v>
+      <c r="J156" s="47" t="s">
+        <v>975</v>
       </c>
       <c r="K156" s="107"/>
       <c r="N156" s="5" t="s">
@@ -10161,8 +10061,8 @@
       </c>
     </row>
     <row r="157" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="133"/>
-      <c r="C157" s="123"/>
+      <c r="B157" s="134"/>
+      <c r="C157" s="124"/>
       <c r="D157" s="46" t="s">
         <v>290</v>
       </c>
@@ -10177,9 +10077,8 @@
       <c r="I157" s="89">
         <v>6827</v>
       </c>
-      <c r="J157" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD135.jpg</v>
+      <c r="J157" s="47" t="s">
+        <v>975</v>
       </c>
       <c r="K157" s="107"/>
       <c r="N157" s="5" t="s">
@@ -10187,8 +10086,8 @@
       </c>
     </row>
     <row r="158" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="133"/>
-      <c r="C158" s="123"/>
+      <c r="B158" s="134"/>
+      <c r="C158" s="124"/>
       <c r="D158" s="46" t="s">
         <v>291</v>
       </c>
@@ -10203,9 +10102,8 @@
       <c r="I158" s="89">
         <v>6811</v>
       </c>
-      <c r="J158" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD137.jpg</v>
+      <c r="J158" s="47" t="s">
+        <v>976</v>
       </c>
       <c r="K158" s="107" t="s">
         <v>976</v>
@@ -10215,8 +10113,8 @@
       </c>
     </row>
     <row r="159" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="133"/>
-      <c r="C159" s="123"/>
+      <c r="B159" s="134"/>
+      <c r="C159" s="124"/>
       <c r="D159" s="46" t="s">
         <v>292</v>
       </c>
@@ -10231,9 +10129,8 @@
       <c r="I159" s="89">
         <v>12381</v>
       </c>
-      <c r="J159" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD137.jpg</v>
+      <c r="J159" s="47" t="s">
+        <v>976</v>
       </c>
       <c r="K159" s="107"/>
       <c r="N159" s="5" t="s">
@@ -10241,8 +10138,8 @@
       </c>
     </row>
     <row r="160" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="133"/>
-      <c r="C160" s="123"/>
+      <c r="B160" s="134"/>
+      <c r="C160" s="124"/>
       <c r="D160" s="46" t="s">
         <v>293</v>
       </c>
@@ -10257,9 +10154,8 @@
       <c r="I160" s="89">
         <v>5999</v>
       </c>
-      <c r="J160" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD138.jpg</v>
+      <c r="J160" s="47" t="s">
+        <v>977</v>
       </c>
       <c r="K160" s="107" t="s">
         <v>977</v>
@@ -10269,8 +10165,8 @@
       </c>
     </row>
     <row r="161" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="133"/>
-      <c r="C161" s="123"/>
+      <c r="B161" s="134"/>
+      <c r="C161" s="124"/>
       <c r="D161" s="46" t="s">
         <v>294</v>
       </c>
@@ -10285,9 +10181,8 @@
       <c r="I161" s="89">
         <v>14769</v>
       </c>
-      <c r="J161" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD138.jpg</v>
+      <c r="J161" s="47" t="s">
+        <v>977</v>
       </c>
       <c r="K161" s="107"/>
       <c r="N161" s="5" t="s">
@@ -10295,8 +10190,8 @@
       </c>
     </row>
     <row r="162" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="133"/>
-      <c r="C162" s="123"/>
+      <c r="B162" s="134"/>
+      <c r="C162" s="124"/>
       <c r="D162" s="46" t="s">
         <v>295</v>
       </c>
@@ -10311,9 +10206,8 @@
       <c r="I162" s="89">
         <v>3304</v>
       </c>
-      <c r="J162" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD138.jpg</v>
+      <c r="J162" s="47" t="s">
+        <v>977</v>
       </c>
       <c r="K162" s="107"/>
       <c r="N162" s="5" t="s">
@@ -10321,8 +10215,8 @@
       </c>
     </row>
     <row r="163" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="133"/>
-      <c r="C163" s="123"/>
+      <c r="B163" s="134"/>
+      <c r="C163" s="124"/>
       <c r="D163" s="46" t="s">
         <v>296</v>
       </c>
@@ -10337,9 +10231,8 @@
       <c r="I163" s="89">
         <v>6900</v>
       </c>
-      <c r="J163" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD140.jpg</v>
+      <c r="J163" s="47" t="s">
+        <v>979</v>
       </c>
       <c r="K163" s="107" t="s">
         <v>979</v>
@@ -10349,8 +10242,8 @@
       </c>
     </row>
     <row r="164" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="133"/>
-      <c r="C164" s="123"/>
+      <c r="B164" s="134"/>
+      <c r="C164" s="124"/>
       <c r="D164" s="46" t="s">
         <v>297</v>
       </c>
@@ -10365,9 +10258,8 @@
       <c r="I164" s="89">
         <v>7406</v>
       </c>
-      <c r="J164" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD140.jpg</v>
+      <c r="J164" s="47" t="s">
+        <v>979</v>
       </c>
       <c r="K164" s="107"/>
       <c r="N164" s="5" t="s">
@@ -10375,8 +10267,8 @@
       </c>
     </row>
     <row r="165" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="133"/>
-      <c r="C165" s="123"/>
+      <c r="B165" s="134"/>
+      <c r="C165" s="124"/>
       <c r="D165" s="46" t="s">
         <v>298</v>
       </c>
@@ -10391,9 +10283,8 @@
       <c r="I165" s="89">
         <v>15373</v>
       </c>
-      <c r="J165" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD141.jpg</v>
+      <c r="J165" s="47" t="s">
+        <v>980</v>
       </c>
       <c r="K165" s="107" t="s">
         <v>980</v>
@@ -10403,8 +10294,8 @@
       </c>
     </row>
     <row r="166" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="133"/>
-      <c r="C166" s="123"/>
+      <c r="B166" s="134"/>
+      <c r="C166" s="124"/>
       <c r="D166" s="46" t="s">
         <v>299</v>
       </c>
@@ -10419,9 +10310,8 @@
       <c r="I166" s="89">
         <v>4029</v>
       </c>
-      <c r="J166" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>HSD141.jpg</v>
+      <c r="J166" s="47" t="s">
+        <v>980</v>
       </c>
       <c r="K166" s="107"/>
       <c r="N166" s="5" t="s">
@@ -10429,8 +10319,8 @@
       </c>
     </row>
     <row r="167" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="133"/>
-      <c r="C167" s="123"/>
+      <c r="B167" s="134"/>
+      <c r="C167" s="124"/>
       <c r="D167" s="46" t="s">
         <v>300</v>
       </c>
@@ -10445,9 +10335,8 @@
       <c r="I167" s="89">
         <v>356</v>
       </c>
-      <c r="J167" s="47" t="str">
-        <f t="shared" ref="J167:J230" si="2">VLOOKUP(D167,N:N,1,TRUE)</f>
-        <v>HSD141.jpg</v>
+      <c r="J167" s="47" t="s">
+        <v>980</v>
       </c>
       <c r="K167" s="107"/>
       <c r="N167" s="5" t="s">
@@ -10455,8 +10344,8 @@
       </c>
     </row>
     <row r="168" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="133"/>
-      <c r="C168" s="123"/>
+      <c r="B168" s="134"/>
+      <c r="C168" s="124"/>
       <c r="D168" s="46" t="s">
         <v>301</v>
       </c>
@@ -10471,9 +10360,8 @@
       <c r="I168" s="89">
         <v>6193</v>
       </c>
-      <c r="J168" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD142.jpg</v>
+      <c r="J168" s="47" t="s">
+        <v>981</v>
       </c>
       <c r="K168" s="107" t="s">
         <v>981</v>
@@ -10483,8 +10371,8 @@
       </c>
     </row>
     <row r="169" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="133"/>
-      <c r="C169" s="123"/>
+      <c r="B169" s="134"/>
+      <c r="C169" s="124"/>
       <c r="D169" s="46" t="s">
         <v>302</v>
       </c>
@@ -10499,9 +10387,8 @@
       <c r="I169" s="89">
         <v>7700</v>
       </c>
-      <c r="J169" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD142.jpg</v>
+      <c r="J169" s="47" t="s">
+        <v>981</v>
       </c>
       <c r="K169" s="107"/>
       <c r="N169" s="5" t="s">
@@ -10509,8 +10396,8 @@
       </c>
     </row>
     <row r="170" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="133"/>
-      <c r="C170" s="123"/>
+      <c r="B170" s="134"/>
+      <c r="C170" s="124"/>
       <c r="D170" s="46" t="s">
         <v>303</v>
       </c>
@@ -10525,9 +10412,8 @@
       <c r="I170" s="89">
         <v>13512</v>
       </c>
-      <c r="J170" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD142.jpg</v>
+      <c r="J170" s="47" t="s">
+        <v>981</v>
       </c>
       <c r="K170" s="107"/>
       <c r="N170" s="5" t="s">
@@ -10535,8 +10421,8 @@
       </c>
     </row>
     <row r="171" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="133"/>
-      <c r="C171" s="123"/>
+      <c r="B171" s="134"/>
+      <c r="C171" s="124"/>
       <c r="D171" s="46" t="s">
         <v>304</v>
       </c>
@@ -10551,9 +10437,8 @@
       <c r="I171" s="89">
         <v>1846</v>
       </c>
-      <c r="J171" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD143.jpg</v>
+      <c r="J171" s="47" t="s">
+        <v>982</v>
       </c>
       <c r="K171" s="107"/>
       <c r="N171" s="5" t="s">
@@ -10561,8 +10446,8 @@
       </c>
     </row>
     <row r="172" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="133"/>
-      <c r="C172" s="123"/>
+      <c r="B172" s="134"/>
+      <c r="C172" s="124"/>
       <c r="D172" s="46" t="s">
         <v>305</v>
       </c>
@@ -10577,9 +10462,8 @@
       <c r="I172" s="89">
         <v>13727</v>
       </c>
-      <c r="J172" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD143.jpg</v>
+      <c r="J172" s="47" t="s">
+        <v>982</v>
       </c>
       <c r="K172" s="107"/>
       <c r="N172" s="5" t="s">
@@ -10587,8 +10471,8 @@
       </c>
     </row>
     <row r="173" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="133"/>
-      <c r="C173" s="123"/>
+      <c r="B173" s="134"/>
+      <c r="C173" s="124"/>
       <c r="D173" s="46" t="s">
         <v>306</v>
       </c>
@@ -10603,9 +10487,8 @@
       <c r="I173" s="89">
         <v>734</v>
       </c>
-      <c r="J173" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD143.jpg</v>
+      <c r="J173" s="47" t="s">
+        <v>982</v>
       </c>
       <c r="K173" s="107" t="s">
         <v>982</v>
@@ -10615,8 +10498,8 @@
       </c>
     </row>
     <row r="174" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="133"/>
-      <c r="C174" s="123"/>
+      <c r="B174" s="134"/>
+      <c r="C174" s="124"/>
       <c r="D174" s="46" t="s">
         <v>307</v>
       </c>
@@ -10631,9 +10514,8 @@
       <c r="I174" s="89">
         <v>9698</v>
       </c>
-      <c r="J174" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD146.jpg</v>
+      <c r="J174" s="47" t="s">
+        <v>985</v>
       </c>
       <c r="K174" s="107"/>
       <c r="N174" s="5" t="s">
@@ -10641,8 +10523,8 @@
       </c>
     </row>
     <row r="175" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="133"/>
-      <c r="C175" s="123"/>
+      <c r="B175" s="134"/>
+      <c r="C175" s="124"/>
       <c r="D175" s="46" t="s">
         <v>308</v>
       </c>
@@ -10657,9 +10539,8 @@
       <c r="I175" s="89">
         <v>4585</v>
       </c>
-      <c r="J175" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD146.jpg</v>
+      <c r="J175" s="47" t="s">
+        <v>985</v>
       </c>
       <c r="K175" s="107"/>
       <c r="N175" s="5" t="s">
@@ -10667,8 +10548,8 @@
       </c>
     </row>
     <row r="176" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="133"/>
-      <c r="C176" s="123"/>
+      <c r="B176" s="134"/>
+      <c r="C176" s="124"/>
       <c r="D176" s="46" t="s">
         <v>309</v>
       </c>
@@ -10683,9 +10564,8 @@
       <c r="I176" s="89">
         <v>5047</v>
       </c>
-      <c r="J176" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD146.jpg</v>
+      <c r="J176" s="47" t="s">
+        <v>985</v>
       </c>
       <c r="K176" s="107" t="s">
         <v>985</v>
@@ -10695,8 +10575,8 @@
       </c>
     </row>
     <row r="177" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="133"/>
-      <c r="C177" s="123"/>
+      <c r="B177" s="134"/>
+      <c r="C177" s="124"/>
       <c r="D177" s="46" t="s">
         <v>310</v>
       </c>
@@ -10711,9 +10591,8 @@
       <c r="I177" s="89">
         <v>13477</v>
       </c>
-      <c r="J177" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD147.jpg</v>
+      <c r="J177" s="47" t="s">
+        <v>986</v>
       </c>
       <c r="K177" s="107" t="s">
         <v>986</v>
@@ -10723,8 +10602,8 @@
       </c>
     </row>
     <row r="178" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="133"/>
-      <c r="C178" s="123"/>
+      <c r="B178" s="134"/>
+      <c r="C178" s="124"/>
       <c r="D178" s="46" t="s">
         <v>311</v>
       </c>
@@ -10739,9 +10618,8 @@
       <c r="I178" s="89">
         <v>10595</v>
       </c>
-      <c r="J178" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD147.jpg</v>
+      <c r="J178" s="47" t="s">
+        <v>986</v>
       </c>
       <c r="K178" s="107"/>
       <c r="N178" s="5" t="s">
@@ -10749,8 +10627,8 @@
       </c>
     </row>
     <row r="179" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="133"/>
-      <c r="C179" s="123"/>
+      <c r="B179" s="134"/>
+      <c r="C179" s="124"/>
       <c r="D179" s="46" t="s">
         <v>312</v>
       </c>
@@ -10765,9 +10643,8 @@
       <c r="I179" s="89">
         <v>10206</v>
       </c>
-      <c r="J179" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD149.jpg</v>
+      <c r="J179" s="47" t="s">
+        <v>987</v>
       </c>
       <c r="K179" s="107" t="s">
         <v>987</v>
@@ -10777,8 +10654,8 @@
       </c>
     </row>
     <row r="180" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="133"/>
-      <c r="C180" s="123"/>
+      <c r="B180" s="134"/>
+      <c r="C180" s="124"/>
       <c r="D180" s="46" t="s">
         <v>313</v>
       </c>
@@ -10793,9 +10670,8 @@
       <c r="I180" s="89">
         <v>11832</v>
       </c>
-      <c r="J180" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD149.jpg</v>
+      <c r="J180" s="47" t="s">
+        <v>987</v>
       </c>
       <c r="K180" s="107"/>
       <c r="N180" s="5" t="s">
@@ -10803,8 +10679,8 @@
       </c>
     </row>
     <row r="181" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="133"/>
-      <c r="C181" s="123"/>
+      <c r="B181" s="134"/>
+      <c r="C181" s="124"/>
       <c r="D181" s="46" t="s">
         <v>314</v>
       </c>
@@ -10819,9 +10695,8 @@
       <c r="I181" s="89">
         <v>8815</v>
       </c>
-      <c r="J181" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD149.jpg</v>
+      <c r="J181" s="47" t="s">
+        <v>987</v>
       </c>
       <c r="K181" s="107"/>
       <c r="N181" s="5" t="s">
@@ -10829,8 +10704,8 @@
       </c>
     </row>
     <row r="182" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="133"/>
-      <c r="C182" s="123"/>
+      <c r="B182" s="134"/>
+      <c r="C182" s="124"/>
       <c r="D182" s="46" t="s">
         <v>315</v>
       </c>
@@ -10845,9 +10720,8 @@
       <c r="I182" s="89">
         <v>8052</v>
       </c>
-      <c r="J182" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD204.jpg</v>
+      <c r="J182" s="47" t="s">
+        <v>988</v>
       </c>
       <c r="K182" s="107" t="s">
         <v>988</v>
@@ -10857,8 +10731,8 @@
       </c>
     </row>
     <row r="183" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="133"/>
-      <c r="C183" s="123"/>
+      <c r="B183" s="134"/>
+      <c r="C183" s="124"/>
       <c r="D183" s="46" t="s">
         <v>316</v>
       </c>
@@ -10873,9 +10747,8 @@
       <c r="I183" s="89">
         <v>11432</v>
       </c>
-      <c r="J183" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD204.jpg</v>
+      <c r="J183" s="47" t="s">
+        <v>988</v>
       </c>
       <c r="K183" s="107"/>
       <c r="N183" s="5" t="s">
@@ -10883,8 +10756,8 @@
       </c>
     </row>
     <row r="184" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="133"/>
-      <c r="C184" s="123"/>
+      <c r="B184" s="134"/>
+      <c r="C184" s="124"/>
       <c r="D184" s="46" t="s">
         <v>317</v>
       </c>
@@ -10899,9 +10772,8 @@
       <c r="I184" s="89">
         <v>7060</v>
       </c>
-      <c r="J184" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HSD204.jpg</v>
+      <c r="J184" s="47" t="s">
+        <v>988</v>
       </c>
       <c r="K184" s="107"/>
       <c r="N184" s="5" t="s">
@@ -10909,8 +10781,8 @@
       </c>
     </row>
     <row r="185" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="133"/>
-      <c r="C185" s="123"/>
+      <c r="B185" s="134"/>
+      <c r="C185" s="124"/>
       <c r="D185" s="46" t="s">
         <v>320</v>
       </c>
@@ -10925,9 +10797,8 @@
       <c r="I185" s="89">
         <v>282</v>
       </c>
-      <c r="J185" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HYS221.jpg</v>
+      <c r="J185" s="47" t="s">
+        <v>1010</v>
       </c>
       <c r="K185" s="107" t="s">
         <v>1010</v>
@@ -10937,8 +10808,8 @@
       </c>
     </row>
     <row r="186" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="133"/>
-      <c r="C186" s="123"/>
+      <c r="B186" s="134"/>
+      <c r="C186" s="124"/>
       <c r="D186" s="46" t="s">
         <v>321</v>
       </c>
@@ -10953,9 +10824,8 @@
       <c r="I186" s="89">
         <v>15771</v>
       </c>
-      <c r="J186" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HYS221.jpg</v>
+      <c r="J186" s="47" t="s">
+        <v>1010</v>
       </c>
       <c r="K186" s="107"/>
       <c r="N186" s="5" t="s">
@@ -10963,8 +10833,8 @@
       </c>
     </row>
     <row r="187" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="133"/>
-      <c r="C187" s="123"/>
+      <c r="B187" s="134"/>
+      <c r="C187" s="124"/>
       <c r="D187" s="46" t="s">
         <v>327</v>
       </c>
@@ -10979,9 +10849,8 @@
       <c r="I187" s="89">
         <v>15653</v>
       </c>
-      <c r="J187" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>GSM-0103.jpg</v>
+      <c r="J187" s="47" t="s">
+        <v>889</v>
       </c>
       <c r="K187" s="107" t="s">
         <v>889</v>
@@ -10991,8 +10860,8 @@
       </c>
     </row>
     <row r="188" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="133"/>
-      <c r="C188" s="123"/>
+      <c r="B188" s="134"/>
+      <c r="C188" s="124"/>
       <c r="D188" s="46" t="s">
         <v>328</v>
       </c>
@@ -11007,9 +10876,8 @@
       <c r="I188" s="89">
         <v>15796</v>
       </c>
-      <c r="J188" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>GSM-0103.jpg</v>
+      <c r="J188" s="47" t="s">
+        <v>889</v>
       </c>
       <c r="K188" s="107"/>
       <c r="N188" s="5" t="s">
@@ -11017,8 +10885,8 @@
       </c>
     </row>
     <row r="189" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="133"/>
-      <c r="C189" s="123"/>
+      <c r="B189" s="134"/>
+      <c r="C189" s="124"/>
       <c r="D189" s="46" t="s">
         <v>329</v>
       </c>
@@ -11033,9 +10901,8 @@
       <c r="I189" s="89">
         <v>7942</v>
       </c>
-      <c r="J189" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HASW28.jpg</v>
+      <c r="J189" s="47" t="s">
+        <v>890</v>
       </c>
       <c r="K189" s="107" t="s">
         <v>890</v>
@@ -11045,8 +10912,8 @@
       </c>
     </row>
     <row r="190" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="133"/>
-      <c r="C190" s="123"/>
+      <c r="B190" s="134"/>
+      <c r="C190" s="124"/>
       <c r="D190" s="46" t="s">
         <v>330</v>
       </c>
@@ -11061,9 +10928,8 @@
       <c r="I190" s="89">
         <v>15406</v>
       </c>
-      <c r="J190" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HASW28.jpg</v>
+      <c r="J190" s="47" t="s">
+        <v>890</v>
       </c>
       <c r="K190" s="107"/>
       <c r="N190" s="5" t="s">
@@ -11071,8 +10937,8 @@
       </c>
     </row>
     <row r="191" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="133"/>
-      <c r="C191" s="123"/>
+      <c r="B191" s="134"/>
+      <c r="C191" s="124"/>
       <c r="D191" s="46" t="s">
         <v>331</v>
       </c>
@@ -11087,9 +10953,8 @@
       <c r="I191" s="89">
         <v>11458</v>
       </c>
-      <c r="J191" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HASW28.jpg</v>
+      <c r="J191" s="47" t="s">
+        <v>890</v>
       </c>
       <c r="K191" s="107"/>
       <c r="N191" s="5" t="s">
@@ -11097,8 +10962,8 @@
       </c>
     </row>
     <row r="192" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="133"/>
-      <c r="C192" s="123"/>
+      <c r="B192" s="134"/>
+      <c r="C192" s="124"/>
       <c r="D192" s="46" t="s">
         <v>334</v>
       </c>
@@ -11113,9 +10978,8 @@
       <c r="I192" s="89">
         <v>7871</v>
       </c>
-      <c r="J192" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HPC12149.jpg</v>
+      <c r="J192" s="47" t="s">
+        <v>961</v>
       </c>
       <c r="K192" s="107" t="s">
         <v>961</v>
@@ -11125,8 +10989,8 @@
       </c>
     </row>
     <row r="193" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="133"/>
-      <c r="C193" s="123"/>
+      <c r="B193" s="134"/>
+      <c r="C193" s="124"/>
       <c r="D193" s="46" t="s">
         <v>335</v>
       </c>
@@ -11141,9 +11005,8 @@
       <c r="I193" s="89">
         <v>1501</v>
       </c>
-      <c r="J193" s="47" t="str">
-        <f t="shared" si="2"/>
-        <v>HPC12149.jpg</v>
+      <c r="J193" s="47" t="s">
+        <v>961</v>
       </c>
       <c r="K193" s="107"/>
       <c r="N193" s="5" t="s">
@@ -11151,8 +11014,8 @@
       </c>
     </row>
     <row r="194" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="133"/>
-      <c r="C194" s="125" t="s">
+      <c r="B194" s="134"/>
+      <c r="C194" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D194" s="34" t="s">
@@ -11169,9 +11032,8 @@
       <c r="I194" s="91">
         <v>434</v>
       </c>
-      <c r="J194" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HASW28.jpg</v>
+      <c r="J194" s="35" t="s">
+        <v>890</v>
       </c>
       <c r="K194" s="107"/>
       <c r="N194" s="5" t="s">
@@ -11179,8 +11041,8 @@
       </c>
     </row>
     <row r="195" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="133"/>
-      <c r="C195" s="123"/>
+      <c r="B195" s="134"/>
+      <c r="C195" s="124"/>
       <c r="D195" s="34" t="s">
         <v>342</v>
       </c>
@@ -11195,9 +11057,8 @@
       <c r="I195" s="91">
         <v>15995</v>
       </c>
-      <c r="J195" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HCAHA8-12.jpg</v>
+      <c r="J195" s="35" t="s">
+        <v>891</v>
       </c>
       <c r="K195" s="107" t="s">
         <v>891</v>
@@ -11207,8 +11068,8 @@
       </c>
     </row>
     <row r="196" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="133"/>
-      <c r="C196" s="123"/>
+      <c r="B196" s="134"/>
+      <c r="C196" s="124"/>
       <c r="D196" s="34" t="s">
         <v>343</v>
       </c>
@@ -11223,9 +11084,8 @@
       <c r="I196" s="91">
         <v>13238</v>
       </c>
-      <c r="J196" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HCAHA8-12.jpg</v>
+      <c r="J196" s="35" t="s">
+        <v>891</v>
       </c>
       <c r="K196" s="107"/>
       <c r="N196" s="5" t="s">
@@ -11233,8 +11093,8 @@
       </c>
     </row>
     <row r="197" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="133"/>
-      <c r="C197" s="123"/>
+      <c r="B197" s="134"/>
+      <c r="C197" s="124"/>
       <c r="D197" s="34" t="s">
         <v>344</v>
       </c>
@@ -11249,9 +11109,8 @@
       <c r="I197" s="91">
         <v>9080</v>
       </c>
-      <c r="J197" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HCAHAP-12.jpg</v>
+      <c r="J197" s="35" t="s">
+        <v>892</v>
       </c>
       <c r="K197" s="107" t="s">
         <v>892</v>
@@ -11261,8 +11120,8 @@
       </c>
     </row>
     <row r="198" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="133"/>
-      <c r="C198" s="123"/>
+      <c r="B198" s="134"/>
+      <c r="C198" s="124"/>
       <c r="D198" s="34" t="s">
         <v>345</v>
       </c>
@@ -11277,9 +11136,8 @@
       <c r="I198" s="91">
         <v>11304</v>
       </c>
-      <c r="J198" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HCAHAP-12.jpg</v>
+      <c r="J198" s="35" t="s">
+        <v>892</v>
       </c>
       <c r="K198" s="107"/>
       <c r="N198" s="5" t="s">
@@ -11287,8 +11145,8 @@
       </c>
     </row>
     <row r="199" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="133"/>
-      <c r="C199" s="123"/>
+      <c r="B199" s="134"/>
+      <c r="C199" s="124"/>
       <c r="D199" s="34" t="s">
         <v>351</v>
       </c>
@@ -11303,9 +11161,8 @@
       <c r="I199" s="91">
         <v>9274</v>
       </c>
-      <c r="J199" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>hinges.jpg</v>
+      <c r="J199" s="35" t="s">
+        <v>936</v>
       </c>
       <c r="K199" s="107" t="s">
         <v>936</v>
@@ -11315,8 +11172,8 @@
       </c>
     </row>
     <row r="200" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="133"/>
-      <c r="C200" s="123"/>
+      <c r="B200" s="134"/>
+      <c r="C200" s="124"/>
       <c r="D200" s="34" t="s">
         <v>352</v>
       </c>
@@ -11331,9 +11188,8 @@
       <c r="I200" s="91">
         <v>12163</v>
       </c>
-      <c r="J200" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>hinges.jpg</v>
+      <c r="J200" s="35" t="s">
+        <v>936</v>
       </c>
       <c r="K200" s="107"/>
       <c r="N200" s="5" t="s">
@@ -11341,8 +11197,8 @@
       </c>
     </row>
     <row r="201" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="133"/>
-      <c r="C201" s="123"/>
+      <c r="B201" s="134"/>
+      <c r="C201" s="124"/>
       <c r="D201" s="34" t="s">
         <v>353</v>
       </c>
@@ -11357,9 +11213,8 @@
       <c r="I201" s="91">
         <v>13066</v>
       </c>
-      <c r="J201" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>hinges.jpg</v>
+      <c r="J201" s="35" t="s">
+        <v>936</v>
       </c>
       <c r="K201" s="107"/>
       <c r="N201" s="5" t="s">
@@ -11367,8 +11222,8 @@
       </c>
     </row>
     <row r="202" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="133"/>
-      <c r="C202" s="123"/>
+      <c r="B202" s="134"/>
+      <c r="C202" s="124"/>
       <c r="D202" s="34" t="s">
         <v>354</v>
       </c>
@@ -11383,9 +11238,8 @@
       <c r="I202" s="91">
         <v>13081</v>
       </c>
-      <c r="J202" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HJC250-12.jpg</v>
+      <c r="J202" s="35" t="s">
+        <v>937</v>
       </c>
       <c r="K202" s="107" t="s">
         <v>937</v>
@@ -11395,8 +11249,8 @@
       </c>
     </row>
     <row r="203" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="133"/>
-      <c r="C203" s="123"/>
+      <c r="B203" s="134"/>
+      <c r="C203" s="124"/>
       <c r="D203" s="34" t="s">
         <v>355</v>
       </c>
@@ -11411,9 +11265,8 @@
       <c r="I203" s="91">
         <v>13872</v>
       </c>
-      <c r="J203" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HJC250-12.jpg</v>
+      <c r="J203" s="35" t="s">
+        <v>937</v>
       </c>
       <c r="K203" s="107"/>
       <c r="N203" s="5" t="s">
@@ -11421,8 +11274,8 @@
       </c>
     </row>
     <row r="204" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="133"/>
-      <c r="C204" s="123"/>
+      <c r="B204" s="134"/>
+      <c r="C204" s="124"/>
       <c r="D204" s="34" t="s">
         <v>358</v>
       </c>
@@ -11437,9 +11290,8 @@
       <c r="I204" s="91">
         <v>13471</v>
       </c>
-      <c r="J204" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HFWT01.jpg</v>
+      <c r="J204" s="35" t="s">
+        <v>934</v>
       </c>
       <c r="K204" s="107" t="s">
         <v>934</v>
@@ -11449,8 +11301,8 @@
       </c>
     </row>
     <row r="205" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="133"/>
-      <c r="C205" s="123"/>
+      <c r="B205" s="134"/>
+      <c r="C205" s="124"/>
       <c r="D205" s="34" t="s">
         <v>359</v>
       </c>
@@ -11465,9 +11317,8 @@
       <c r="I205" s="91">
         <v>10827</v>
       </c>
-      <c r="J205" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HFWT01.jpg</v>
+      <c r="J205" s="35" t="s">
+        <v>934</v>
       </c>
       <c r="K205" s="107"/>
       <c r="N205" s="5" t="s">
@@ -11475,8 +11326,8 @@
       </c>
     </row>
     <row r="206" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="133"/>
-      <c r="C206" s="123"/>
+      <c r="B206" s="134"/>
+      <c r="C206" s="124"/>
       <c r="D206" s="34" t="s">
         <v>369</v>
       </c>
@@ -11491,9 +11342,8 @@
       <c r="I206" s="91">
         <v>737</v>
       </c>
-      <c r="J206" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSF750S-20.jpg</v>
+      <c r="J206" s="35" t="s">
+        <v>994</v>
       </c>
       <c r="K206" s="107" t="s">
         <v>994</v>
@@ -11503,8 +11353,8 @@
       </c>
     </row>
     <row r="207" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="133"/>
-      <c r="C207" s="123"/>
+      <c r="B207" s="134"/>
+      <c r="C207" s="124"/>
       <c r="D207" s="34" t="s">
         <v>370</v>
       </c>
@@ -11519,9 +11369,8 @@
       <c r="I207" s="91">
         <v>8558</v>
       </c>
-      <c r="J207" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSF750S-20.jpg</v>
+      <c r="J207" s="35" t="s">
+        <v>994</v>
       </c>
       <c r="K207" s="107"/>
       <c r="N207" s="5" t="s">
@@ -11529,8 +11378,8 @@
       </c>
     </row>
     <row r="208" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="133"/>
-      <c r="C208" s="123"/>
+      <c r="B208" s="134"/>
+      <c r="C208" s="124"/>
       <c r="D208" s="34" t="s">
         <v>371</v>
       </c>
@@ -11545,9 +11394,8 @@
       <c r="I208" s="91">
         <v>12967</v>
       </c>
-      <c r="J208" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSF750S-20.jpg</v>
+      <c r="J208" s="35" t="s">
+        <v>994</v>
       </c>
       <c r="K208" s="107"/>
       <c r="N208" s="5" t="s">
@@ -11555,8 +11403,8 @@
       </c>
     </row>
     <row r="209" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="133"/>
-      <c r="C209" s="123"/>
+      <c r="B209" s="134"/>
+      <c r="C209" s="124"/>
       <c r="D209" s="34" t="s">
         <v>372</v>
       </c>
@@ -11571,9 +11419,8 @@
       <c r="I209" s="91">
         <v>9871</v>
       </c>
-      <c r="J209" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSN1250-12.jpg</v>
+      <c r="J209" s="35" t="s">
+        <v>995</v>
       </c>
       <c r="K209" s="107" t="s">
         <v>995</v>
@@ -11583,8 +11430,8 @@
       </c>
     </row>
     <row r="210" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="133"/>
-      <c r="C210" s="123"/>
+      <c r="B210" s="134"/>
+      <c r="C210" s="124"/>
       <c r="D210" s="34" t="s">
         <v>373</v>
       </c>
@@ -11599,9 +11446,8 @@
       <c r="I210" s="91">
         <v>887</v>
       </c>
-      <c r="J210" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSN1250-12.jpg</v>
+      <c r="J210" s="35" t="s">
+        <v>995</v>
       </c>
       <c r="K210" s="107"/>
       <c r="N210" s="5" t="s">
@@ -11609,8 +11455,8 @@
       </c>
     </row>
     <row r="211" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="133"/>
-      <c r="C211" s="123"/>
+      <c r="B211" s="134"/>
+      <c r="C211" s="124"/>
       <c r="D211" s="34" t="s">
         <v>374</v>
       </c>
@@ -11625,9 +11471,8 @@
       <c r="I211" s="91">
         <v>10789</v>
       </c>
-      <c r="J211" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSN1250-12.jpg</v>
+      <c r="J211" s="35" t="s">
+        <v>995</v>
       </c>
       <c r="K211" s="107"/>
       <c r="N211" s="5" t="s">
@@ -11635,8 +11480,8 @@
       </c>
     </row>
     <row r="212" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="133"/>
-      <c r="C212" s="123"/>
+      <c r="B212" s="134"/>
+      <c r="C212" s="124"/>
       <c r="D212" s="34" t="s">
         <v>375</v>
       </c>
@@ -11651,9 +11496,8 @@
       <c r="I212" s="91">
         <v>7638</v>
       </c>
-      <c r="J212" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSN1500-12.jpg</v>
+      <c r="J212" s="35" t="s">
+        <v>996</v>
       </c>
       <c r="K212" s="107" t="s">
         <v>996</v>
@@ -11663,8 +11507,8 @@
       </c>
     </row>
     <row r="213" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="133"/>
-      <c r="C213" s="123"/>
+      <c r="B213" s="134"/>
+      <c r="C213" s="124"/>
       <c r="D213" s="34" t="s">
         <v>376</v>
       </c>
@@ -11679,9 +11523,8 @@
       <c r="I213" s="91">
         <v>5955</v>
       </c>
-      <c r="J213" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSN1500-12.jpg</v>
+      <c r="J213" s="35" t="s">
+        <v>996</v>
       </c>
       <c r="K213" s="107"/>
       <c r="N213" s="5" t="s">
@@ -11689,8 +11532,8 @@
       </c>
     </row>
     <row r="214" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="133"/>
-      <c r="C214" s="123"/>
+      <c r="B214" s="134"/>
+      <c r="C214" s="124"/>
       <c r="D214" s="34" t="s">
         <v>377</v>
       </c>
@@ -11705,9 +11548,8 @@
       <c r="I214" s="91">
         <v>14734</v>
       </c>
-      <c r="J214" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HSN1500-12.jpg</v>
+      <c r="J214" s="35" t="s">
+        <v>996</v>
       </c>
       <c r="K214" s="107"/>
       <c r="N214" s="5" t="s">
@@ -11715,8 +11557,8 @@
       </c>
     </row>
     <row r="215" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="133"/>
-      <c r="C215" s="123"/>
+      <c r="B215" s="134"/>
+      <c r="C215" s="124"/>
       <c r="D215" s="34" t="s">
         <v>380</v>
       </c>
@@ -11731,9 +11573,8 @@
       <c r="I215" s="91">
         <v>10852</v>
       </c>
-      <c r="J215" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HCR100.jpg</v>
+      <c r="J215" s="35" t="s">
+        <v>899</v>
       </c>
       <c r="K215" s="107" t="s">
         <v>899</v>
@@ -11743,8 +11584,8 @@
       </c>
     </row>
     <row r="216" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="133"/>
-      <c r="C216" s="126"/>
+      <c r="B216" s="134"/>
+      <c r="C216" s="127"/>
       <c r="D216" s="34" t="s">
         <v>381</v>
       </c>
@@ -11759,9 +11600,8 @@
       <c r="I216" s="91">
         <v>8465</v>
       </c>
-      <c r="J216" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HCR100.jpg</v>
+      <c r="J216" s="35" t="s">
+        <v>899</v>
       </c>
       <c r="K216" s="107"/>
       <c r="N216" s="5" t="s">
@@ -11769,8 +11609,8 @@
       </c>
     </row>
     <row r="217" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="133"/>
-      <c r="C217" s="125" t="s">
+      <c r="B217" s="134"/>
+      <c r="C217" s="126" t="s">
         <v>59</v>
       </c>
       <c r="D217" s="34" t="s">
@@ -11787,9 +11627,8 @@
       <c r="I217" s="91">
         <v>15939</v>
       </c>
-      <c r="J217" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED101PB.jpg</v>
+      <c r="J217" s="35" t="s">
+        <v>907</v>
       </c>
       <c r="K217" s="107" t="s">
         <v>907</v>
@@ -11799,8 +11638,8 @@
       </c>
     </row>
     <row r="218" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="133"/>
-      <c r="C218" s="123"/>
+      <c r="B218" s="134"/>
+      <c r="C218" s="124"/>
       <c r="D218" s="34" t="s">
         <v>393</v>
       </c>
@@ -11815,9 +11654,8 @@
       <c r="I218" s="91">
         <v>14573</v>
       </c>
-      <c r="J218" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED101PB.jpg</v>
+      <c r="J218" s="35" t="s">
+        <v>907</v>
       </c>
       <c r="K218" s="107"/>
       <c r="N218" s="5" t="s">
@@ -11825,8 +11663,8 @@
       </c>
     </row>
     <row r="219" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="133"/>
-      <c r="C219" s="123"/>
+      <c r="B219" s="134"/>
+      <c r="C219" s="124"/>
       <c r="D219" s="34" t="s">
         <v>394</v>
       </c>
@@ -11841,9 +11679,8 @@
       <c r="I219" s="91">
         <v>13489</v>
       </c>
-      <c r="J219" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED101PB.jpg</v>
+      <c r="J219" s="35" t="s">
+        <v>907</v>
       </c>
       <c r="K219" s="107"/>
       <c r="N219" s="5" t="s">
@@ -11851,8 +11688,8 @@
       </c>
     </row>
     <row r="220" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="133"/>
-      <c r="C220" s="123"/>
+      <c r="B220" s="134"/>
+      <c r="C220" s="124"/>
       <c r="D220" s="34" t="s">
         <v>395</v>
       </c>
@@ -11867,9 +11704,8 @@
       <c r="I220" s="91">
         <v>13990</v>
       </c>
-      <c r="J220" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED101.jpg</v>
+      <c r="J220" s="35" t="s">
+        <v>906</v>
       </c>
       <c r="K220" s="107" t="s">
         <v>906</v>
@@ -11879,8 +11715,8 @@
       </c>
     </row>
     <row r="221" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="133"/>
-      <c r="C221" s="123"/>
+      <c r="B221" s="134"/>
+      <c r="C221" s="124"/>
       <c r="D221" s="34" t="s">
         <v>396</v>
       </c>
@@ -11895,9 +11731,8 @@
       <c r="I221" s="91">
         <v>5995</v>
       </c>
-      <c r="J221" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED101.jpg</v>
+      <c r="J221" s="35" t="s">
+        <v>906</v>
       </c>
       <c r="K221" s="107"/>
       <c r="N221" s="5" t="s">
@@ -11905,8 +11740,8 @@
       </c>
     </row>
     <row r="222" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="133"/>
-      <c r="C222" s="123"/>
+      <c r="B222" s="134"/>
+      <c r="C222" s="124"/>
       <c r="D222" s="34" t="s">
         <v>397</v>
       </c>
@@ -11921,9 +11756,8 @@
       <c r="I222" s="91">
         <v>12555</v>
       </c>
-      <c r="J222" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED101.jpg</v>
+      <c r="J222" s="35" t="s">
+        <v>906</v>
       </c>
       <c r="K222" s="107"/>
       <c r="N222" s="5" t="s">
@@ -11931,8 +11765,8 @@
       </c>
     </row>
     <row r="223" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="133"/>
-      <c r="C223" s="123"/>
+      <c r="B223" s="134"/>
+      <c r="C223" s="124"/>
       <c r="D223" s="34" t="s">
         <v>398</v>
       </c>
@@ -11947,9 +11781,8 @@
       <c r="I223" s="91">
         <v>15282</v>
       </c>
-      <c r="J223" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED102.jpg</v>
+      <c r="J223" s="35" t="s">
+        <v>908</v>
       </c>
       <c r="K223" s="107" t="s">
         <v>908</v>
@@ -11959,8 +11792,8 @@
       </c>
     </row>
     <row r="224" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="133"/>
-      <c r="C224" s="123"/>
+      <c r="B224" s="134"/>
+      <c r="C224" s="124"/>
       <c r="D224" s="34" t="s">
         <v>399</v>
       </c>
@@ -11975,9 +11808,8 @@
       <c r="I224" s="91">
         <v>1105</v>
       </c>
-      <c r="J224" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED102.jpg</v>
+      <c r="J224" s="35" t="s">
+        <v>908</v>
       </c>
       <c r="K224" s="107"/>
       <c r="N224" s="5" t="s">
@@ -11985,8 +11817,8 @@
       </c>
     </row>
     <row r="225" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="133"/>
-      <c r="C225" s="123"/>
+      <c r="B225" s="134"/>
+      <c r="C225" s="124"/>
       <c r="D225" s="34" t="s">
         <v>400</v>
       </c>
@@ -12001,9 +11833,8 @@
       <c r="I225" s="91">
         <v>14779</v>
       </c>
-      <c r="J225" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED102.jpg</v>
+      <c r="J225" s="35" t="s">
+        <v>908</v>
       </c>
       <c r="K225" s="107"/>
       <c r="N225" s="5" t="s">
@@ -12011,8 +11842,8 @@
       </c>
     </row>
     <row r="226" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="133"/>
-      <c r="C226" s="123"/>
+      <c r="B226" s="134"/>
+      <c r="C226" s="124"/>
       <c r="D226" s="34" t="s">
         <v>401</v>
       </c>
@@ -12027,9 +11858,8 @@
       <c r="I226" s="91">
         <v>1077</v>
       </c>
-      <c r="J226" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED103A.jpg</v>
+      <c r="J226" s="35" t="s">
+        <v>910</v>
       </c>
       <c r="K226" s="107" t="s">
         <v>910</v>
@@ -12039,8 +11869,8 @@
       </c>
     </row>
     <row r="227" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="133"/>
-      <c r="C227" s="123"/>
+      <c r="B227" s="134"/>
+      <c r="C227" s="124"/>
       <c r="D227" s="34" t="s">
         <v>402</v>
       </c>
@@ -12055,9 +11885,8 @@
       <c r="I227" s="91">
         <v>14243</v>
       </c>
-      <c r="J227" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED103A.jpg</v>
+      <c r="J227" s="35" t="s">
+        <v>910</v>
       </c>
       <c r="K227" s="107"/>
       <c r="N227" s="5" t="s">
@@ -12065,8 +11894,8 @@
       </c>
     </row>
     <row r="228" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="133"/>
-      <c r="C228" s="123"/>
+      <c r="B228" s="134"/>
+      <c r="C228" s="124"/>
       <c r="D228" s="34" t="s">
         <v>403</v>
       </c>
@@ -12081,9 +11910,8 @@
       <c r="I228" s="91">
         <v>13572</v>
       </c>
-      <c r="J228" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED103.jpg</v>
+      <c r="J228" s="35" t="s">
+        <v>909</v>
       </c>
       <c r="K228" s="107" t="s">
         <v>909</v>
@@ -12093,8 +11921,8 @@
       </c>
     </row>
     <row r="229" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="133"/>
-      <c r="C229" s="123"/>
+      <c r="B229" s="134"/>
+      <c r="C229" s="124"/>
       <c r="D229" s="34" t="s">
         <v>404</v>
       </c>
@@ -12109,9 +11937,8 @@
       <c r="I229" s="91">
         <v>1671</v>
       </c>
-      <c r="J229" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED103.jpg</v>
+      <c r="J229" s="35" t="s">
+        <v>909</v>
       </c>
       <c r="K229" s="107"/>
       <c r="N229" s="5" t="s">
@@ -12119,8 +11946,8 @@
       </c>
     </row>
     <row r="230" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="133"/>
-      <c r="C230" s="123"/>
+      <c r="B230" s="134"/>
+      <c r="C230" s="124"/>
       <c r="D230" s="34" t="s">
         <v>405</v>
       </c>
@@ -12135,9 +11962,8 @@
       <c r="I230" s="91">
         <v>11945</v>
       </c>
-      <c r="J230" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>HED104.jpg</v>
+      <c r="J230" s="35" t="s">
+        <v>911</v>
       </c>
       <c r="K230" s="107" t="s">
         <v>911</v>
@@ -12147,8 +11973,8 @@
       </c>
     </row>
     <row r="231" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="133"/>
-      <c r="C231" s="123"/>
+      <c r="B231" s="134"/>
+      <c r="C231" s="124"/>
       <c r="D231" s="34" t="s">
         <v>406</v>
       </c>
@@ -12163,9 +11989,8 @@
       <c r="I231" s="91">
         <v>4117</v>
       </c>
-      <c r="J231" s="35" t="str">
-        <f t="shared" ref="J231:J294" si="3">VLOOKUP(D231,N:N,1,TRUE)</f>
-        <v>HED104.jpg</v>
+      <c r="J231" s="35" t="s">
+        <v>911</v>
       </c>
       <c r="K231" s="107"/>
       <c r="N231" s="5" t="s">
@@ -12173,8 +11998,8 @@
       </c>
     </row>
     <row r="232" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="133"/>
-      <c r="C232" s="123"/>
+      <c r="B232" s="134"/>
+      <c r="C232" s="124"/>
       <c r="D232" s="34" t="s">
         <v>407</v>
       </c>
@@ -12189,9 +12014,8 @@
       <c r="I232" s="91">
         <v>4582</v>
       </c>
-      <c r="J232" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HED104.jpg</v>
+      <c r="J232" s="35" t="s">
+        <v>911</v>
       </c>
       <c r="K232" s="107"/>
       <c r="N232" s="5" t="s">
@@ -12199,8 +12023,8 @@
       </c>
     </row>
     <row r="233" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="133"/>
-      <c r="C233" s="123"/>
+      <c r="B233" s="134"/>
+      <c r="C233" s="124"/>
       <c r="D233" s="34" t="s">
         <v>411</v>
       </c>
@@ -12215,9 +12039,8 @@
       <c r="I233" s="91">
         <v>2894</v>
       </c>
-      <c r="J233" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HFD100.jpg</v>
+      <c r="J233" s="35" t="s">
+        <v>933</v>
       </c>
       <c r="K233" s="107" t="s">
         <v>933</v>
@@ -12227,8 +12050,8 @@
       </c>
     </row>
     <row r="234" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="133"/>
-      <c r="C234" s="123"/>
+      <c r="B234" s="134"/>
+      <c r="C234" s="124"/>
       <c r="D234" s="34" t="s">
         <v>412</v>
       </c>
@@ -12243,9 +12066,8 @@
       <c r="I234" s="91">
         <v>13615</v>
       </c>
-      <c r="J234" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HFD100.jpg</v>
+      <c r="J234" s="35" t="s">
+        <v>933</v>
       </c>
       <c r="K234" s="107"/>
       <c r="N234" s="5" t="s">
@@ -12253,8 +12075,8 @@
       </c>
     </row>
     <row r="235" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="133"/>
-      <c r="C235" s="123"/>
+      <c r="B235" s="134"/>
+      <c r="C235" s="124"/>
       <c r="D235" s="34" t="s">
         <v>413</v>
       </c>
@@ -12269,9 +12091,8 @@
       <c r="I235" s="91">
         <v>4933</v>
       </c>
-      <c r="J235" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HFD100.jpg</v>
+      <c r="J235" s="35" t="s">
+        <v>933</v>
       </c>
       <c r="K235" s="107"/>
       <c r="N235" s="5" t="s">
@@ -12279,8 +12100,8 @@
       </c>
     </row>
     <row r="236" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="133"/>
-      <c r="C236" s="123"/>
+      <c r="B236" s="134"/>
+      <c r="C236" s="124"/>
       <c r="D236" s="34" t="s">
         <v>421</v>
       </c>
@@ -12295,9 +12116,8 @@
       <c r="I236" s="91">
         <v>12925</v>
       </c>
-      <c r="J236" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH1000.jpg</v>
+      <c r="J236" s="35" t="s">
+        <v>894</v>
       </c>
       <c r="K236" s="107" t="s">
         <v>894</v>
@@ -12307,8 +12127,8 @@
       </c>
     </row>
     <row r="237" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="133"/>
-      <c r="C237" s="123"/>
+      <c r="B237" s="134"/>
+      <c r="C237" s="124"/>
       <c r="D237" s="34" t="s">
         <v>422</v>
       </c>
@@ -12323,9 +12143,8 @@
       <c r="I237" s="91">
         <v>5499</v>
       </c>
-      <c r="J237" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH1000.jpg</v>
+      <c r="J237" s="35" t="s">
+        <v>894</v>
       </c>
       <c r="K237" s="107"/>
       <c r="N237" s="5" t="s">
@@ -12333,8 +12152,8 @@
       </c>
     </row>
     <row r="238" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="133"/>
-      <c r="C238" s="123"/>
+      <c r="B238" s="134"/>
+      <c r="C238" s="124"/>
       <c r="D238" s="34" t="s">
         <v>423</v>
       </c>
@@ -12349,9 +12168,8 @@
       <c r="I238" s="91">
         <v>3902</v>
       </c>
-      <c r="J238" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH1000.jpg</v>
+      <c r="J238" s="35" t="s">
+        <v>894</v>
       </c>
       <c r="K238" s="107"/>
       <c r="N238" s="5" t="s">
@@ -12359,8 +12177,8 @@
       </c>
     </row>
     <row r="239" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="133"/>
-      <c r="C239" s="123"/>
+      <c r="B239" s="134"/>
+      <c r="C239" s="124"/>
       <c r="D239" s="34" t="s">
         <v>424</v>
       </c>
@@ -12375,9 +12193,8 @@
       <c r="I239" s="91">
         <v>3469</v>
       </c>
-      <c r="J239" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH1000.jpg</v>
+      <c r="J239" s="35" t="s">
+        <v>894</v>
       </c>
       <c r="K239" s="107"/>
       <c r="N239" s="5" t="s">
@@ -12385,8 +12202,8 @@
       </c>
     </row>
     <row r="240" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="133"/>
-      <c r="C240" s="123"/>
+      <c r="B240" s="134"/>
+      <c r="C240" s="124"/>
       <c r="D240" s="34" t="s">
         <v>425</v>
       </c>
@@ -12401,9 +12218,8 @@
       <c r="I240" s="91">
         <v>8132</v>
       </c>
-      <c r="J240" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH750.jpg</v>
+      <c r="J240" s="35" t="s">
+        <v>895</v>
       </c>
       <c r="K240" s="107" t="s">
         <v>895</v>
@@ -12413,8 +12229,8 @@
       </c>
     </row>
     <row r="241" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="133"/>
-      <c r="C241" s="123"/>
+      <c r="B241" s="134"/>
+      <c r="C241" s="124"/>
       <c r="D241" s="34" t="s">
         <v>426</v>
       </c>
@@ -12429,9 +12245,8 @@
       <c r="I241" s="91">
         <v>8472</v>
       </c>
-      <c r="J241" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH750.jpg</v>
+      <c r="J241" s="35" t="s">
+        <v>895</v>
       </c>
       <c r="K241" s="107"/>
       <c r="N241" s="5" t="s">
@@ -12439,8 +12254,8 @@
       </c>
     </row>
     <row r="242" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="133"/>
-      <c r="C242" s="123"/>
+      <c r="B242" s="134"/>
+      <c r="C242" s="124"/>
       <c r="D242" s="34" t="s">
         <v>427</v>
       </c>
@@ -12455,9 +12270,8 @@
       <c r="I242" s="91">
         <v>9778</v>
       </c>
-      <c r="J242" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH750.jpg</v>
+      <c r="J242" s="35" t="s">
+        <v>895</v>
       </c>
       <c r="K242" s="107"/>
       <c r="N242" s="5" t="s">
@@ -12465,8 +12279,8 @@
       </c>
     </row>
     <row r="243" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="133"/>
-      <c r="C243" s="125" t="s">
+      <c r="B243" s="134"/>
+      <c r="C243" s="126" t="s">
         <v>60</v>
       </c>
       <c r="D243" s="34" t="s">
@@ -12483,9 +12297,8 @@
       <c r="I243" s="91">
         <v>6325</v>
       </c>
-      <c r="J243" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT050.jpg</v>
+      <c r="J243" s="35" t="s">
+        <v>900</v>
       </c>
       <c r="K243" s="107" t="s">
         <v>900</v>
@@ -12495,8 +12308,8 @@
       </c>
     </row>
     <row r="244" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="133"/>
-      <c r="C244" s="123"/>
+      <c r="B244" s="134"/>
+      <c r="C244" s="124"/>
       <c r="D244" s="34" t="s">
         <v>442</v>
       </c>
@@ -12511,9 +12324,8 @@
       <c r="I244" s="91">
         <v>14730</v>
       </c>
-      <c r="J244" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT050.jpg</v>
+      <c r="J244" s="35" t="s">
+        <v>900</v>
       </c>
       <c r="K244" s="107" t="s">
         <v>1130</v>
@@ -12523,8 +12335,8 @@
       </c>
     </row>
     <row r="245" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="133"/>
-      <c r="C245" s="123"/>
+      <c r="B245" s="134"/>
+      <c r="C245" s="124"/>
       <c r="D245" s="34" t="s">
         <v>443</v>
       </c>
@@ -12539,9 +12351,8 @@
       <c r="I245" s="91">
         <v>9523</v>
       </c>
-      <c r="J245" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT100.jpg</v>
+      <c r="J245" s="35" t="s">
+        <v>901</v>
       </c>
       <c r="K245" s="107" t="s">
         <v>901</v>
@@ -12551,8 +12362,8 @@
       </c>
     </row>
     <row r="246" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="133"/>
-      <c r="C246" s="123"/>
+      <c r="B246" s="134"/>
+      <c r="C246" s="124"/>
       <c r="D246" s="34" t="s">
         <v>444</v>
       </c>
@@ -12567,9 +12378,8 @@
       <c r="I246" s="91">
         <v>12615</v>
       </c>
-      <c r="J246" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT100.jpg</v>
+      <c r="J246" s="35" t="s">
+        <v>901</v>
       </c>
       <c r="K246" s="107"/>
       <c r="N246" s="5" t="s">
@@ -12577,8 +12387,8 @@
       </c>
     </row>
     <row r="247" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="133"/>
-      <c r="C247" s="123"/>
+      <c r="B247" s="134"/>
+      <c r="C247" s="124"/>
       <c r="D247" s="34" t="s">
         <v>445</v>
       </c>
@@ -12593,9 +12403,8 @@
       <c r="I247" s="91">
         <v>1687</v>
       </c>
-      <c r="J247" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT150.jpg</v>
+      <c r="J247" s="35" t="s">
+        <v>902</v>
       </c>
       <c r="K247" s="107" t="s">
         <v>902</v>
@@ -12605,8 +12414,8 @@
       </c>
     </row>
     <row r="248" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="133"/>
-      <c r="C248" s="123"/>
+      <c r="B248" s="134"/>
+      <c r="C248" s="124"/>
       <c r="D248" s="34" t="s">
         <v>446</v>
       </c>
@@ -12621,9 +12430,8 @@
       <c r="I248" s="91">
         <v>14922</v>
       </c>
-      <c r="J248" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT150.jpg</v>
+      <c r="J248" s="35" t="s">
+        <v>902</v>
       </c>
       <c r="K248" s="107"/>
       <c r="N248" s="5" t="s">
@@ -12631,8 +12439,8 @@
       </c>
     </row>
     <row r="249" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="133"/>
-      <c r="C249" s="123"/>
+      <c r="B249" s="134"/>
+      <c r="C249" s="124"/>
       <c r="D249" s="34" t="s">
         <v>447</v>
       </c>
@@ -12647,9 +12455,8 @@
       <c r="I249" s="91">
         <v>3512</v>
       </c>
-      <c r="J249" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT200.jpg</v>
+      <c r="J249" s="35" t="s">
+        <v>903</v>
       </c>
       <c r="K249" s="107" t="s">
         <v>903</v>
@@ -12659,8 +12466,8 @@
       </c>
     </row>
     <row r="250" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="133"/>
-      <c r="C250" s="123"/>
+      <c r="B250" s="134"/>
+      <c r="C250" s="124"/>
       <c r="D250" s="34" t="s">
         <v>448</v>
       </c>
@@ -12675,9 +12482,8 @@
       <c r="I250" s="91">
         <v>4911</v>
       </c>
-      <c r="J250" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT200.jpg</v>
+      <c r="J250" s="35" t="s">
+        <v>903</v>
       </c>
       <c r="K250" s="107"/>
       <c r="N250" s="5" t="s">
@@ -12685,8 +12491,8 @@
       </c>
     </row>
     <row r="251" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="133"/>
-      <c r="C251" s="123"/>
+      <c r="B251" s="134"/>
+      <c r="C251" s="124"/>
       <c r="D251" s="34" t="s">
         <v>449</v>
       </c>
@@ -12701,9 +12507,8 @@
       <c r="I251" s="91">
         <v>12540</v>
       </c>
-      <c r="J251" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT300.jpg</v>
+      <c r="J251" s="35" t="s">
+        <v>904</v>
       </c>
       <c r="K251" s="107" t="s">
         <v>904</v>
@@ -12713,8 +12518,8 @@
       </c>
     </row>
     <row r="252" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="133"/>
-      <c r="C252" s="123"/>
+      <c r="B252" s="134"/>
+      <c r="C252" s="124"/>
       <c r="D252" s="34" t="s">
         <v>450</v>
       </c>
@@ -12729,9 +12534,8 @@
       <c r="I252" s="91">
         <v>14891</v>
       </c>
-      <c r="J252" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT300.jpg</v>
+      <c r="J252" s="35" t="s">
+        <v>904</v>
       </c>
       <c r="K252" s="107"/>
       <c r="N252" s="5" t="s">
@@ -12739,8 +12543,8 @@
       </c>
     </row>
     <row r="253" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="133"/>
-      <c r="C253" s="123"/>
+      <c r="B253" s="134"/>
+      <c r="C253" s="124"/>
       <c r="D253" s="34" t="s">
         <v>451</v>
       </c>
@@ -12755,9 +12559,8 @@
       <c r="I253" s="91">
         <v>14487</v>
       </c>
-      <c r="J253" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT300.jpg</v>
+      <c r="J253" s="35" t="s">
+        <v>904</v>
       </c>
       <c r="K253" s="107"/>
       <c r="N253" s="5" t="s">
@@ -12765,8 +12568,8 @@
       </c>
     </row>
     <row r="254" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="133"/>
-      <c r="C254" s="123"/>
+      <c r="B254" s="134"/>
+      <c r="C254" s="124"/>
       <c r="D254" s="34" t="s">
         <v>452</v>
       </c>
@@ -12781,9 +12584,8 @@
       <c r="I254" s="91">
         <v>11878</v>
       </c>
-      <c r="J254" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT400.jpg</v>
+      <c r="J254" s="35" t="s">
+        <v>905</v>
       </c>
       <c r="K254" s="107" t="s">
         <v>905</v>
@@ -12793,8 +12595,8 @@
       </c>
     </row>
     <row r="255" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="133"/>
-      <c r="C255" s="123"/>
+      <c r="B255" s="134"/>
+      <c r="C255" s="124"/>
       <c r="D255" s="34" t="s">
         <v>453</v>
       </c>
@@ -12809,9 +12611,8 @@
       <c r="I255" s="91">
         <v>671</v>
       </c>
-      <c r="J255" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HCT400.jpg</v>
+      <c r="J255" s="35" t="s">
+        <v>905</v>
       </c>
       <c r="K255" s="107"/>
       <c r="N255" s="5" t="s">
@@ -12819,8 +12620,8 @@
       </c>
     </row>
     <row r="256" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="133"/>
-      <c r="C256" s="125" t="s">
+      <c r="B256" s="134"/>
+      <c r="C256" s="126" t="s">
         <v>61</v>
       </c>
       <c r="D256" s="34" t="s">
@@ -12837,9 +12638,8 @@
       <c r="I256" s="91">
         <v>10999</v>
       </c>
-      <c r="J256" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC12.jpg</v>
+      <c r="J256" s="35" t="s">
+        <v>1000</v>
       </c>
       <c r="K256" s="107" t="s">
         <v>1000</v>
@@ -12849,8 +12649,8 @@
       </c>
     </row>
     <row r="257" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="133"/>
-      <c r="C257" s="123"/>
+      <c r="B257" s="134"/>
+      <c r="C257" s="124"/>
       <c r="D257" s="34" t="s">
         <v>472</v>
       </c>
@@ -12865,9 +12665,8 @@
       <c r="I257" s="91">
         <v>2508</v>
       </c>
-      <c r="J257" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC12.jpg</v>
+      <c r="J257" s="35" t="s">
+        <v>1000</v>
       </c>
       <c r="K257" s="107"/>
       <c r="N257" s="5" t="s">
@@ -12875,8 +12674,8 @@
       </c>
     </row>
     <row r="258" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="133"/>
-      <c r="C258" s="123"/>
+      <c r="B258" s="134"/>
+      <c r="C258" s="124"/>
       <c r="D258" s="34" t="s">
         <v>473</v>
       </c>
@@ -12891,9 +12690,8 @@
       <c r="I258" s="91">
         <v>4168</v>
       </c>
-      <c r="J258" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC12.jpg</v>
+      <c r="J258" s="35" t="s">
+        <v>1000</v>
       </c>
       <c r="K258" s="107"/>
       <c r="N258" s="5" t="s">
@@ -12901,8 +12699,8 @@
       </c>
     </row>
     <row r="259" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="133"/>
-      <c r="C259" s="123"/>
+      <c r="B259" s="134"/>
+      <c r="C259" s="124"/>
       <c r="D259" s="34" t="s">
         <v>474</v>
       </c>
@@ -12917,9 +12715,8 @@
       <c r="I259" s="91">
         <v>8054</v>
       </c>
-      <c r="J259" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC16.jpg</v>
+      <c r="J259" s="35" t="s">
+        <v>1001</v>
       </c>
       <c r="K259" s="107" t="s">
         <v>1001</v>
@@ -12929,8 +12726,8 @@
       </c>
     </row>
     <row r="260" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="133"/>
-      <c r="C260" s="123"/>
+      <c r="B260" s="134"/>
+      <c r="C260" s="124"/>
       <c r="D260" s="34" t="s">
         <v>475</v>
       </c>
@@ -12945,9 +12742,8 @@
       <c r="I260" s="91">
         <v>3351</v>
       </c>
-      <c r="J260" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC16.jpg</v>
+      <c r="J260" s="35" t="s">
+        <v>1001</v>
       </c>
       <c r="K260" s="107"/>
       <c r="N260" s="5" t="s">
@@ -12955,8 +12751,8 @@
       </c>
     </row>
     <row r="261" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="133"/>
-      <c r="C261" s="123"/>
+      <c r="B261" s="134"/>
+      <c r="C261" s="124"/>
       <c r="D261" s="34" t="s">
         <v>476</v>
       </c>
@@ -12971,9 +12767,8 @@
       <c r="I261" s="91">
         <v>7462</v>
       </c>
-      <c r="J261" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC17.jpg</v>
+      <c r="J261" s="35" t="s">
+        <v>1002</v>
       </c>
       <c r="K261" s="107" t="s">
         <v>1002</v>
@@ -12983,8 +12778,8 @@
       </c>
     </row>
     <row r="262" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="133"/>
-      <c r="C262" s="123"/>
+      <c r="B262" s="134"/>
+      <c r="C262" s="124"/>
       <c r="D262" s="34" t="s">
         <v>477</v>
       </c>
@@ -12999,9 +12794,8 @@
       <c r="I262" s="91">
         <v>11147</v>
       </c>
-      <c r="J262" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC18.jpg</v>
+      <c r="J262" s="35" t="s">
+        <v>1003</v>
       </c>
       <c r="K262" s="107" t="s">
         <v>1003</v>
@@ -13011,8 +12805,8 @@
       </c>
     </row>
     <row r="263" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="133"/>
-      <c r="C263" s="123"/>
+      <c r="B263" s="134"/>
+      <c r="C263" s="124"/>
       <c r="D263" s="34" t="s">
         <v>478</v>
       </c>
@@ -13027,9 +12821,8 @@
       <c r="I263" s="91">
         <v>14241</v>
       </c>
-      <c r="J263" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC18.jpg</v>
+      <c r="J263" s="35" t="s">
+        <v>1003</v>
       </c>
       <c r="K263" s="107"/>
       <c r="N263" s="5" t="s">
@@ -13037,8 +12830,8 @@
       </c>
     </row>
     <row r="264" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="133"/>
-      <c r="C264" s="123"/>
+      <c r="B264" s="134"/>
+      <c r="C264" s="124"/>
       <c r="D264" s="34" t="s">
         <v>479</v>
       </c>
@@ -13053,9 +12846,8 @@
       <c r="I264" s="91">
         <v>7831</v>
       </c>
-      <c r="J264" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC18.jpg</v>
+      <c r="J264" s="35" t="s">
+        <v>1003</v>
       </c>
       <c r="K264" s="107"/>
       <c r="N264" s="5" t="s">
@@ -13063,8 +12855,8 @@
       </c>
     </row>
     <row r="265" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="133"/>
-      <c r="C265" s="123"/>
+      <c r="B265" s="134"/>
+      <c r="C265" s="124"/>
       <c r="D265" s="34" t="s">
         <v>480</v>
       </c>
@@ -13079,9 +12871,8 @@
       <c r="I265" s="91">
         <v>2643</v>
       </c>
-      <c r="J265" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC2A.jpg</v>
+      <c r="J265" s="35" t="s">
+        <v>1006</v>
       </c>
       <c r="K265" s="107" t="s">
         <v>1006</v>
@@ -13091,8 +12882,8 @@
       </c>
     </row>
     <row r="266" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="133"/>
-      <c r="C266" s="123"/>
+      <c r="B266" s="134"/>
+      <c r="C266" s="124"/>
       <c r="D266" s="34" t="s">
         <v>481</v>
       </c>
@@ -13107,9 +12898,8 @@
       <c r="I266" s="91">
         <v>2604</v>
       </c>
-      <c r="J266" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC2A.jpg</v>
+      <c r="J266" s="35" t="s">
+        <v>1006</v>
       </c>
       <c r="K266" s="107"/>
       <c r="N266" s="5" t="s">
@@ -13117,8 +12907,8 @@
       </c>
     </row>
     <row r="267" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="133"/>
-      <c r="C267" s="123"/>
+      <c r="B267" s="134"/>
+      <c r="C267" s="124"/>
       <c r="D267" s="34" t="s">
         <v>482</v>
       </c>
@@ -13133,9 +12923,8 @@
       <c r="I267" s="91">
         <v>11634</v>
       </c>
-      <c r="J267" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC2A.jpg</v>
+      <c r="J267" s="35" t="s">
+        <v>1006</v>
       </c>
       <c r="K267" s="107"/>
       <c r="N267" s="5" t="s">
@@ -13143,8 +12932,8 @@
       </c>
     </row>
     <row r="268" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="133"/>
-      <c r="C268" s="123"/>
+      <c r="B268" s="134"/>
+      <c r="C268" s="124"/>
       <c r="D268" s="34" t="s">
         <v>483</v>
       </c>
@@ -13159,9 +12948,8 @@
       <c r="I268" s="91">
         <v>5495</v>
       </c>
-      <c r="J268" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC2.jpg</v>
+      <c r="J268" s="35" t="s">
+        <v>1005</v>
       </c>
       <c r="K268" s="107" t="s">
         <v>1005</v>
@@ -13171,8 +12959,8 @@
       </c>
     </row>
     <row r="269" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="133"/>
-      <c r="C269" s="123"/>
+      <c r="B269" s="134"/>
+      <c r="C269" s="124"/>
       <c r="D269" s="34" t="s">
         <v>484</v>
       </c>
@@ -13187,9 +12975,8 @@
       <c r="I269" s="91">
         <v>11820</v>
       </c>
-      <c r="J269" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC2.jpg</v>
+      <c r="J269" s="35" t="s">
+        <v>1005</v>
       </c>
       <c r="K269" s="107"/>
       <c r="N269" s="5" t="s">
@@ -13197,8 +12984,8 @@
       </c>
     </row>
     <row r="270" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="133"/>
-      <c r="C270" s="123"/>
+      <c r="B270" s="134"/>
+      <c r="C270" s="124"/>
       <c r="D270" s="34" t="s">
         <v>485</v>
       </c>
@@ -13213,9 +13000,8 @@
       <c r="I270" s="91">
         <v>3938</v>
       </c>
-      <c r="J270" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC4.jpg</v>
+      <c r="J270" s="35" t="s">
+        <v>1007</v>
       </c>
       <c r="K270" s="107" t="s">
         <v>1007</v>
@@ -13225,8 +13011,8 @@
       </c>
     </row>
     <row r="271" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="133"/>
-      <c r="C271" s="123"/>
+      <c r="B271" s="134"/>
+      <c r="C271" s="124"/>
       <c r="D271" s="34" t="s">
         <v>486</v>
       </c>
@@ -13241,9 +13027,8 @@
       <c r="I271" s="91">
         <v>8704</v>
       </c>
-      <c r="J271" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC4.jpg</v>
+      <c r="J271" s="35" t="s">
+        <v>1007</v>
       </c>
       <c r="K271" s="107"/>
       <c r="N271" s="5" t="s">
@@ -13251,8 +13036,8 @@
       </c>
     </row>
     <row r="272" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="133"/>
-      <c r="C272" s="123"/>
+      <c r="B272" s="134"/>
+      <c r="C272" s="124"/>
       <c r="D272" s="34" t="s">
         <v>487</v>
       </c>
@@ -13267,9 +13052,8 @@
       <c r="I272" s="91">
         <v>3595</v>
       </c>
-      <c r="J272" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HYC4.jpg</v>
+      <c r="J272" s="35" t="s">
+        <v>1007</v>
       </c>
       <c r="K272" s="107"/>
       <c r="N272" s="5" t="s">
@@ -13277,8 +13061,8 @@
       </c>
     </row>
     <row r="273" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="133"/>
-      <c r="C273" s="125" t="s">
+      <c r="B273" s="134"/>
+      <c r="C273" s="126" t="s">
         <v>62</v>
       </c>
       <c r="D273" s="34" t="s">
@@ -13295,9 +13079,8 @@
       <c r="I273" s="91">
         <v>8502</v>
       </c>
-      <c r="J273" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HVA222.jpg</v>
+      <c r="J273" s="35" t="s">
+        <v>998</v>
       </c>
       <c r="K273" s="107" t="s">
         <v>998</v>
@@ -13307,8 +13090,8 @@
       </c>
     </row>
     <row r="274" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="133"/>
-      <c r="C274" s="123"/>
+      <c r="B274" s="134"/>
+      <c r="C274" s="124"/>
       <c r="D274" s="34" t="s">
         <v>491</v>
       </c>
@@ -13323,9 +13106,8 @@
       <c r="I274" s="91">
         <v>400</v>
       </c>
-      <c r="J274" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HVA222.jpg</v>
+      <c r="J274" s="35" t="s">
+        <v>998</v>
       </c>
       <c r="K274" s="107"/>
       <c r="N274" s="5" t="s">
@@ -13333,8 +13115,8 @@
       </c>
     </row>
     <row r="275" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="133"/>
-      <c r="C275" s="125" t="s">
+      <c r="B275" s="134"/>
+      <c r="C275" s="126" t="s">
         <v>492</v>
       </c>
       <c r="D275" s="34" t="s">
@@ -13351,9 +13133,8 @@
       <c r="I275" s="91">
         <v>1223</v>
       </c>
-      <c r="J275" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HMF301R.jpg</v>
+      <c r="J275" s="35" t="s">
+        <v>949</v>
       </c>
       <c r="K275" s="107" t="s">
         <v>949</v>
@@ -13363,8 +13144,8 @@
       </c>
     </row>
     <row r="276" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="133"/>
-      <c r="C276" s="123"/>
+      <c r="B276" s="134"/>
+      <c r="C276" s="124"/>
       <c r="D276" s="34" t="s">
         <v>500</v>
       </c>
@@ -13379,9 +13160,8 @@
       <c r="I276" s="91">
         <v>9601</v>
       </c>
-      <c r="J276" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HMF301R.jpg</v>
+      <c r="J276" s="35" t="s">
+        <v>949</v>
       </c>
       <c r="K276" s="107"/>
       <c r="N276" s="5" t="s">
@@ -13389,8 +13169,8 @@
       </c>
     </row>
     <row r="277" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="133"/>
-      <c r="C277" s="123"/>
+      <c r="B277" s="134"/>
+      <c r="C277" s="124"/>
       <c r="D277" s="34" t="s">
         <v>501</v>
       </c>
@@ -13405,9 +13185,8 @@
       <c r="I277" s="91">
         <v>15400</v>
       </c>
-      <c r="J277" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HMF301R.jpg</v>
+      <c r="J277" s="35" t="s">
+        <v>949</v>
       </c>
       <c r="K277" s="107"/>
       <c r="N277" s="5" t="s">
@@ -13415,8 +13194,8 @@
       </c>
     </row>
     <row r="278" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="133"/>
-      <c r="C278" s="123"/>
+      <c r="B278" s="134"/>
+      <c r="C278" s="124"/>
       <c r="D278" s="34" t="s">
         <v>502</v>
       </c>
@@ -13431,9 +13210,8 @@
       <c r="I278" s="91">
         <v>5493</v>
       </c>
-      <c r="J278" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HMF302R.jpg</v>
+      <c r="J278" s="35" t="s">
+        <v>950</v>
       </c>
       <c r="K278" s="107" t="s">
         <v>950</v>
@@ -13443,8 +13221,8 @@
       </c>
     </row>
     <row r="279" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="133"/>
-      <c r="C279" s="123"/>
+      <c r="B279" s="134"/>
+      <c r="C279" s="124"/>
       <c r="D279" s="34" t="s">
         <v>503</v>
       </c>
@@ -13459,9 +13237,8 @@
       <c r="I279" s="91">
         <v>4193</v>
       </c>
-      <c r="J279" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HMF302R.jpg</v>
+      <c r="J279" s="35" t="s">
+        <v>950</v>
       </c>
       <c r="K279" s="107"/>
       <c r="N279" s="5" t="s">
@@ -13469,8 +13246,8 @@
       </c>
     </row>
     <row r="280" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="133"/>
-      <c r="C280" s="123"/>
+      <c r="B280" s="134"/>
+      <c r="C280" s="124"/>
       <c r="D280" s="34" t="s">
         <v>504</v>
       </c>
@@ -13485,9 +13262,8 @@
       <c r="I280" s="91">
         <v>12858</v>
       </c>
-      <c r="J280" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HMF302R.jpg</v>
+      <c r="J280" s="35" t="s">
+        <v>950</v>
       </c>
       <c r="K280" s="107"/>
       <c r="N280" s="5" t="s">
@@ -13495,8 +13271,8 @@
       </c>
     </row>
     <row r="281" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="133"/>
-      <c r="C281" s="125" t="s">
+      <c r="B281" s="134"/>
+      <c r="C281" s="126" t="s">
         <v>63</v>
       </c>
       <c r="D281" s="34" t="s">
@@ -13513,9 +13289,8 @@
       <c r="I281" s="91">
         <v>5265</v>
       </c>
-      <c r="J281" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB1000-8.jpg</v>
+      <c r="J281" s="35" t="s">
+        <v>928</v>
       </c>
       <c r="K281" s="107" t="s">
         <v>928</v>
@@ -13525,8 +13300,8 @@
       </c>
     </row>
     <row r="282" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="134"/>
-      <c r="C282" s="123"/>
+      <c r="B282" s="135"/>
+      <c r="C282" s="124"/>
       <c r="D282" s="41" t="s">
         <v>519</v>
       </c>
@@ -13541,9 +13316,8 @@
       <c r="I282" s="93">
         <v>14755</v>
       </c>
-      <c r="J282" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB1000-8.jpg</v>
+      <c r="J282" s="42" t="s">
+        <v>928</v>
       </c>
       <c r="K282" s="107"/>
       <c r="N282" s="5" t="s">
@@ -13551,8 +13325,8 @@
       </c>
     </row>
     <row r="283" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="134"/>
-      <c r="C283" s="123"/>
+      <c r="B283" s="135"/>
+      <c r="C283" s="124"/>
       <c r="D283" s="41" t="s">
         <v>520</v>
       </c>
@@ -13567,9 +13341,8 @@
       <c r="I283" s="93">
         <v>6716</v>
       </c>
-      <c r="J283" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB1000-8.jpg</v>
+      <c r="J283" s="42" t="s">
+        <v>928</v>
       </c>
       <c r="K283" s="107"/>
       <c r="N283" s="5" t="s">
@@ -13577,8 +13350,8 @@
       </c>
     </row>
     <row r="284" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="134"/>
-      <c r="C284" s="123"/>
+      <c r="B284" s="135"/>
+      <c r="C284" s="124"/>
       <c r="D284" s="41" t="s">
         <v>521</v>
       </c>
@@ -13593,9 +13366,8 @@
       <c r="I284" s="93">
         <v>13317</v>
       </c>
-      <c r="J284" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB1500-8.jpg</v>
+      <c r="J284" s="42" t="s">
+        <v>929</v>
       </c>
       <c r="K284" s="107" t="s">
         <v>929</v>
@@ -13605,8 +13377,8 @@
       </c>
     </row>
     <row r="285" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="134"/>
-      <c r="C285" s="123"/>
+      <c r="B285" s="135"/>
+      <c r="C285" s="124"/>
       <c r="D285" s="41" t="s">
         <v>522</v>
       </c>
@@ -13621,9 +13393,8 @@
       <c r="I285" s="93">
         <v>9925</v>
       </c>
-      <c r="J285" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB1500-8.jpg</v>
+      <c r="J285" s="42" t="s">
+        <v>929</v>
       </c>
       <c r="K285" s="107"/>
       <c r="N285" s="5" t="s">
@@ -13631,8 +13402,8 @@
       </c>
     </row>
     <row r="286" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="134"/>
-      <c r="C286" s="123"/>
+      <c r="B286" s="135"/>
+      <c r="C286" s="124"/>
       <c r="D286" s="41" t="s">
         <v>523</v>
       </c>
@@ -13647,9 +13418,8 @@
       <c r="I286" s="93">
         <v>7091</v>
       </c>
-      <c r="J286" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB1500-8.jpg</v>
+      <c r="J286" s="42" t="s">
+        <v>929</v>
       </c>
       <c r="K286" s="107"/>
       <c r="N286" s="5" t="s">
@@ -13657,8 +13427,8 @@
       </c>
     </row>
     <row r="287" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="134"/>
-      <c r="C287" s="123"/>
+      <c r="B287" s="135"/>
+      <c r="C287" s="124"/>
       <c r="D287" s="41" t="s">
         <v>524</v>
       </c>
@@ -13673,9 +13443,8 @@
       <c r="I287" s="93">
         <v>3244</v>
       </c>
-      <c r="J287" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB2000-8.jpg</v>
+      <c r="J287" s="42" t="s">
+        <v>930</v>
       </c>
       <c r="K287" s="107" t="s">
         <v>930</v>
@@ -13685,8 +13454,8 @@
       </c>
     </row>
     <row r="288" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="134"/>
-      <c r="C288" s="123"/>
+      <c r="B288" s="135"/>
+      <c r="C288" s="124"/>
       <c r="D288" s="41" t="s">
         <v>525</v>
       </c>
@@ -13701,9 +13470,8 @@
       <c r="I288" s="93">
         <v>13084</v>
       </c>
-      <c r="J288" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB2000-8.jpg</v>
+      <c r="J288" s="42" t="s">
+        <v>930</v>
       </c>
       <c r="K288" s="107"/>
       <c r="N288" s="5" t="s">
@@ -13711,8 +13479,8 @@
       </c>
     </row>
     <row r="289" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="134"/>
-      <c r="C289" s="123"/>
+      <c r="B289" s="135"/>
+      <c r="C289" s="124"/>
       <c r="D289" s="41" t="s">
         <v>526</v>
       </c>
@@ -13727,9 +13495,8 @@
       <c r="I289" s="93">
         <v>13509</v>
       </c>
-      <c r="J289" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB2000-8.jpg</v>
+      <c r="J289" s="42" t="s">
+        <v>930</v>
       </c>
       <c r="K289" s="107"/>
       <c r="N289" s="5" t="s">
@@ -13737,8 +13504,8 @@
       </c>
     </row>
     <row r="290" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="134"/>
-      <c r="C290" s="123"/>
+      <c r="B290" s="135"/>
+      <c r="C290" s="124"/>
       <c r="D290" s="41" t="s">
         <v>527</v>
       </c>
@@ -13753,9 +13520,8 @@
       <c r="I290" s="93">
         <v>14888</v>
       </c>
-      <c r="J290" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB500-8.jpg</v>
+      <c r="J290" s="42" t="s">
+        <v>931</v>
       </c>
       <c r="K290" s="107" t="s">
         <v>931</v>
@@ -13765,8 +13531,8 @@
       </c>
     </row>
     <row r="291" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="134"/>
-      <c r="C291" s="123"/>
+      <c r="B291" s="135"/>
+      <c r="C291" s="124"/>
       <c r="D291" s="41" t="s">
         <v>528</v>
       </c>
@@ -13781,9 +13547,8 @@
       <c r="I291" s="93">
         <v>10376</v>
       </c>
-      <c r="J291" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB500-8.jpg</v>
+      <c r="J291" s="42" t="s">
+        <v>931</v>
       </c>
       <c r="K291" s="107"/>
       <c r="N291" s="5" t="s">
@@ -13791,8 +13556,8 @@
       </c>
     </row>
     <row r="292" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="134"/>
-      <c r="C292" s="123"/>
+      <c r="B292" s="135"/>
+      <c r="C292" s="124"/>
       <c r="D292" s="41" t="s">
         <v>529</v>
       </c>
@@ -13807,9 +13572,8 @@
       <c r="I292" s="93">
         <v>4391</v>
       </c>
-      <c r="J292" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB750-8.jpg</v>
+      <c r="J292" s="42" t="s">
+        <v>932</v>
       </c>
       <c r="K292" s="107" t="s">
         <v>932</v>
@@ -13819,8 +13583,8 @@
       </c>
     </row>
     <row r="293" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="134"/>
-      <c r="C293" s="123"/>
+      <c r="B293" s="135"/>
+      <c r="C293" s="124"/>
       <c r="D293" s="41" t="s">
         <v>530</v>
       </c>
@@ -13835,9 +13599,8 @@
       <c r="I293" s="93">
         <v>2701</v>
       </c>
-      <c r="J293" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HFB750-8.jpg</v>
+      <c r="J293" s="42" t="s">
+        <v>932</v>
       </c>
       <c r="K293" s="107"/>
       <c r="N293" s="5" t="s">
@@ -13845,8 +13608,8 @@
       </c>
     </row>
     <row r="294" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="134"/>
-      <c r="C294" s="125" t="s">
+      <c r="B294" s="135"/>
+      <c r="C294" s="126" t="s">
         <v>64</v>
       </c>
       <c r="D294" s="41" t="s">
@@ -13863,9 +13626,8 @@
       <c r="I294" s="93">
         <v>8732</v>
       </c>
-      <c r="J294" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>HCH750.jpg</v>
+      <c r="J294" s="42" t="s">
+        <v>895</v>
       </c>
       <c r="K294" s="107"/>
       <c r="N294" s="5" t="s">
@@ -13873,8 +13635,8 @@
       </c>
     </row>
     <row r="295" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="134"/>
-      <c r="C295" s="123"/>
+      <c r="B295" s="135"/>
+      <c r="C295" s="124"/>
       <c r="D295" s="41" t="s">
         <v>540</v>
       </c>
@@ -13889,9 +13651,8 @@
       <c r="I295" s="93">
         <v>12997</v>
       </c>
-      <c r="J295" s="42" t="str">
-        <f t="shared" ref="J295:J330" si="4">VLOOKUP(D295,N:N,1,TRUE)</f>
-        <v>HCH750.jpg</v>
+      <c r="J295" s="42" t="s">
+        <v>895</v>
       </c>
       <c r="K295" s="107"/>
       <c r="N295" s="5" t="s">
@@ -13899,8 +13660,8 @@
       </c>
     </row>
     <row r="296" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="134"/>
-      <c r="C296" s="123"/>
+      <c r="B296" s="135"/>
+      <c r="C296" s="124"/>
       <c r="D296" s="41" t="s">
         <v>541</v>
       </c>
@@ -13915,9 +13676,8 @@
       <c r="I296" s="93">
         <v>9422</v>
       </c>
-      <c r="J296" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HCN1000-12.jpg</v>
+      <c r="J296" s="42" t="s">
+        <v>896</v>
       </c>
       <c r="K296" s="107" t="s">
         <v>896</v>
@@ -13927,8 +13687,8 @@
       </c>
     </row>
     <row r="297" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="134"/>
-      <c r="C297" s="123"/>
+      <c r="B297" s="135"/>
+      <c r="C297" s="124"/>
       <c r="D297" s="41" t="s">
         <v>542</v>
       </c>
@@ -13943,9 +13703,8 @@
       <c r="I297" s="93">
         <v>5801</v>
       </c>
-      <c r="J297" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HCN1000-12.jpg</v>
+      <c r="J297" s="42" t="s">
+        <v>896</v>
       </c>
       <c r="K297" s="107"/>
       <c r="N297" s="5" t="s">
@@ -13953,8 +13712,8 @@
       </c>
     </row>
     <row r="298" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="134"/>
-      <c r="C298" s="123"/>
+      <c r="B298" s="135"/>
+      <c r="C298" s="124"/>
       <c r="D298" s="41" t="s">
         <v>543</v>
       </c>
@@ -13969,9 +13728,8 @@
       <c r="I298" s="93">
         <v>4323</v>
       </c>
-      <c r="J298" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HCN1000-12.jpg</v>
+      <c r="J298" s="42" t="s">
+        <v>896</v>
       </c>
       <c r="K298" s="107"/>
       <c r="N298" s="5" t="s">
@@ -13979,8 +13737,8 @@
       </c>
     </row>
     <row r="299" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="134"/>
-      <c r="C299" s="123"/>
+      <c r="B299" s="135"/>
+      <c r="C299" s="124"/>
       <c r="D299" s="41" t="s">
         <v>544</v>
       </c>
@@ -13995,9 +13753,8 @@
       <c r="I299" s="93">
         <v>10975</v>
       </c>
-      <c r="J299" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HCN500-12.jpg</v>
+      <c r="J299" s="42" t="s">
+        <v>897</v>
       </c>
       <c r="K299" s="107" t="s">
         <v>897</v>
@@ -14007,8 +13764,8 @@
       </c>
     </row>
     <row r="300" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="134"/>
-      <c r="C300" s="126"/>
+      <c r="B300" s="135"/>
+      <c r="C300" s="127"/>
       <c r="D300" s="34" t="s">
         <v>545</v>
       </c>
@@ -14023,9 +13780,8 @@
       <c r="I300" s="91">
         <v>10068</v>
       </c>
-      <c r="J300" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v>HCN500-12.jpg</v>
+      <c r="J300" s="35" t="s">
+        <v>897</v>
       </c>
       <c r="K300" s="107"/>
       <c r="N300" s="5" t="s">
@@ -14033,8 +13789,8 @@
       </c>
     </row>
     <row r="301" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="134"/>
-      <c r="C301" s="125" t="s">
+      <c r="B301" s="135"/>
+      <c r="C301" s="126" t="s">
         <v>558</v>
       </c>
       <c r="D301" s="41" t="s">
@@ -14051,9 +13807,8 @@
       <c r="I301" s="93">
         <v>8994</v>
       </c>
-      <c r="J301" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT1000.jpg</v>
+      <c r="J301" s="42" t="s">
+        <v>962</v>
       </c>
       <c r="K301" s="107" t="s">
         <v>962</v>
@@ -14063,8 +13818,8 @@
       </c>
     </row>
     <row r="302" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="134"/>
-      <c r="C302" s="123"/>
+      <c r="B302" s="135"/>
+      <c r="C302" s="124"/>
       <c r="D302" s="41" t="s">
         <v>560</v>
       </c>
@@ -14079,9 +13834,8 @@
       <c r="I302" s="93">
         <v>11019</v>
       </c>
-      <c r="J302" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT1000.jpg</v>
+      <c r="J302" s="42" t="s">
+        <v>962</v>
       </c>
       <c r="K302" s="107"/>
       <c r="N302" s="5" t="s">
@@ -14089,8 +13843,8 @@
       </c>
     </row>
     <row r="303" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="134"/>
-      <c r="C303" s="123"/>
+      <c r="B303" s="135"/>
+      <c r="C303" s="124"/>
       <c r="D303" s="41" t="s">
         <v>561</v>
       </c>
@@ -14105,9 +13859,8 @@
       <c r="I303" s="93">
         <v>11203</v>
       </c>
-      <c r="J303" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT1000.jpg</v>
+      <c r="J303" s="42" t="s">
+        <v>962</v>
       </c>
       <c r="K303" s="107"/>
       <c r="N303" s="5" t="s">
@@ -14115,8 +13868,8 @@
       </c>
     </row>
     <row r="304" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="134"/>
-      <c r="C304" s="123"/>
+      <c r="B304" s="135"/>
+      <c r="C304" s="124"/>
       <c r="D304" s="41" t="s">
         <v>562</v>
       </c>
@@ -14131,9 +13884,8 @@
       <c r="I304" s="93">
         <v>14990</v>
       </c>
-      <c r="J304" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT375.jpg</v>
+      <c r="J304" s="42" t="s">
+        <v>963</v>
       </c>
       <c r="K304" s="107" t="s">
         <v>963</v>
@@ -14143,8 +13895,8 @@
       </c>
     </row>
     <row r="305" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="134"/>
-      <c r="C305" s="123"/>
+      <c r="B305" s="135"/>
+      <c r="C305" s="124"/>
       <c r="D305" s="41" t="s">
         <v>563</v>
       </c>
@@ -14159,9 +13911,8 @@
       <c r="I305" s="93">
         <v>4266</v>
       </c>
-      <c r="J305" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT375.jpg</v>
+      <c r="J305" s="42" t="s">
+        <v>963</v>
       </c>
       <c r="K305" s="107"/>
       <c r="N305" s="5" t="s">
@@ -14169,8 +13920,8 @@
       </c>
     </row>
     <row r="306" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="134"/>
-      <c r="C306" s="123"/>
+      <c r="B306" s="135"/>
+      <c r="C306" s="124"/>
       <c r="D306" s="41" t="s">
         <v>564</v>
       </c>
@@ -14185,9 +13936,8 @@
       <c r="I306" s="93">
         <v>5076</v>
       </c>
-      <c r="J306" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT375.jpg</v>
+      <c r="J306" s="42" t="s">
+        <v>963</v>
       </c>
       <c r="K306" s="107"/>
       <c r="N306" s="5" t="s">
@@ -14195,8 +13945,8 @@
       </c>
     </row>
     <row r="307" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="134"/>
-      <c r="C307" s="123"/>
+      <c r="B307" s="135"/>
+      <c r="C307" s="124"/>
       <c r="D307" s="41" t="s">
         <v>565</v>
       </c>
@@ -14211,9 +13961,8 @@
       <c r="I307" s="93">
         <v>15669</v>
       </c>
-      <c r="J307" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT500.jpg</v>
+      <c r="J307" s="42" t="s">
+        <v>964</v>
       </c>
       <c r="K307" s="107" t="s">
         <v>964</v>
@@ -14223,8 +13972,8 @@
       </c>
     </row>
     <row r="308" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="134"/>
-      <c r="C308" s="123"/>
+      <c r="B308" s="135"/>
+      <c r="C308" s="124"/>
       <c r="D308" s="41" t="s">
         <v>566</v>
       </c>
@@ -14239,9 +13988,8 @@
       <c r="I308" s="93">
         <v>15766</v>
       </c>
-      <c r="J308" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT500.jpg</v>
+      <c r="J308" s="42" t="s">
+        <v>964</v>
       </c>
       <c r="K308" s="107"/>
       <c r="N308" s="5" t="s">
@@ -14249,8 +13997,8 @@
       </c>
     </row>
     <row r="309" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="134"/>
-      <c r="C309" s="123"/>
+      <c r="B309" s="135"/>
+      <c r="C309" s="124"/>
       <c r="D309" s="41" t="s">
         <v>567</v>
       </c>
@@ -14265,9 +14013,8 @@
       <c r="I309" s="93">
         <v>15037</v>
       </c>
-      <c r="J309" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT500.jpg</v>
+      <c r="J309" s="42" t="s">
+        <v>964</v>
       </c>
       <c r="K309" s="107"/>
       <c r="N309" s="5" t="s">
@@ -14275,8 +14022,8 @@
       </c>
     </row>
     <row r="310" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="134"/>
-      <c r="C310" s="123"/>
+      <c r="B310" s="135"/>
+      <c r="C310" s="124"/>
       <c r="D310" s="41" t="s">
         <v>568</v>
       </c>
@@ -14291,9 +14038,8 @@
       <c r="I310" s="93">
         <v>2431</v>
       </c>
-      <c r="J310" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT500.jpg</v>
+      <c r="J310" s="42" t="s">
+        <v>964</v>
       </c>
       <c r="K310" s="107"/>
       <c r="N310" s="5" t="s">
@@ -14301,8 +14047,8 @@
       </c>
     </row>
     <row r="311" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="134"/>
-      <c r="C311" s="123"/>
+      <c r="B311" s="135"/>
+      <c r="C311" s="124"/>
       <c r="D311" s="41" t="s">
         <v>569</v>
       </c>
@@ -14317,9 +14063,8 @@
       <c r="I311" s="93">
         <v>8073</v>
       </c>
-      <c r="J311" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT750.jpg</v>
+      <c r="J311" s="42" t="s">
+        <v>966</v>
       </c>
       <c r="K311" s="107" t="s">
         <v>966</v>
@@ -14329,8 +14074,8 @@
       </c>
     </row>
     <row r="312" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="134"/>
-      <c r="C312" s="126"/>
+      <c r="B312" s="135"/>
+      <c r="C312" s="127"/>
       <c r="D312" s="34" t="s">
         <v>570</v>
       </c>
@@ -14345,9 +14090,8 @@
       <c r="I312" s="91">
         <v>13423</v>
       </c>
-      <c r="J312" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v>HRT750.jpg</v>
+      <c r="J312" s="35" t="s">
+        <v>966</v>
       </c>
       <c r="K312" s="107"/>
       <c r="N312" s="5" t="s">
@@ -14355,8 +14099,8 @@
       </c>
     </row>
     <row r="313" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="134"/>
-      <c r="C313" s="123" t="s">
+      <c r="B313" s="135"/>
+      <c r="C313" s="124" t="s">
         <v>531</v>
       </c>
       <c r="D313" s="48" t="s">
@@ -14373,9 +14117,8 @@
       <c r="I313" s="94">
         <v>11544</v>
       </c>
-      <c r="J313" s="54" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89801R.jpg</v>
+      <c r="J313" s="54" t="s">
+        <v>951</v>
       </c>
       <c r="K313" s="107" t="s">
         <v>951</v>
@@ -14385,8 +14128,8 @@
       </c>
     </row>
     <row r="314" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="134"/>
-      <c r="C314" s="123"/>
+      <c r="B314" s="135"/>
+      <c r="C314" s="124"/>
       <c r="D314" s="41" t="s">
         <v>590</v>
       </c>
@@ -14401,9 +14144,8 @@
       <c r="I314" s="93">
         <v>5356</v>
       </c>
-      <c r="J314" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89801R.jpg</v>
+      <c r="J314" s="42" t="s">
+        <v>951</v>
       </c>
       <c r="K314" s="107"/>
       <c r="N314" s="5" t="s">
@@ -14411,8 +14153,8 @@
       </c>
     </row>
     <row r="315" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="134"/>
-      <c r="C315" s="123"/>
+      <c r="B315" s="135"/>
+      <c r="C315" s="124"/>
       <c r="D315" s="41" t="s">
         <v>591</v>
       </c>
@@ -14427,9 +14169,8 @@
       <c r="I315" s="93">
         <v>10090</v>
       </c>
-      <c r="J315" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89802R.jpg</v>
+      <c r="J315" s="42" t="s">
+        <v>952</v>
       </c>
       <c r="K315" s="107" t="s">
         <v>952</v>
@@ -14439,8 +14180,8 @@
       </c>
     </row>
     <row r="316" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="134"/>
-      <c r="C316" s="123"/>
+      <c r="B316" s="135"/>
+      <c r="C316" s="124"/>
       <c r="D316" s="41" t="s">
         <v>592</v>
       </c>
@@ -14455,9 +14196,8 @@
       <c r="I316" s="93">
         <v>2530</v>
       </c>
-      <c r="J316" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89802R.jpg</v>
+      <c r="J316" s="42" t="s">
+        <v>952</v>
       </c>
       <c r="K316" s="107"/>
       <c r="N316" s="5" t="s">
@@ -14465,8 +14205,8 @@
       </c>
     </row>
     <row r="317" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="134"/>
-      <c r="C317" s="123"/>
+      <c r="B317" s="135"/>
+      <c r="C317" s="124"/>
       <c r="D317" s="41" t="s">
         <v>593</v>
       </c>
@@ -14481,9 +14221,8 @@
       <c r="I317" s="93">
         <v>9249</v>
       </c>
-      <c r="J317" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89803R.jpg</v>
+      <c r="J317" s="42" t="s">
+        <v>953</v>
       </c>
       <c r="K317" s="107" t="s">
         <v>953</v>
@@ -14493,8 +14232,8 @@
       </c>
     </row>
     <row r="318" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="134"/>
-      <c r="C318" s="123"/>
+      <c r="B318" s="135"/>
+      <c r="C318" s="124"/>
       <c r="D318" s="41" t="s">
         <v>594</v>
       </c>
@@ -14509,15 +14248,14 @@
       <c r="I318" s="93">
         <v>970</v>
       </c>
-      <c r="J318" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89803R.jpg</v>
+      <c r="J318" s="42" t="s">
+        <v>953</v>
       </c>
       <c r="K318" s="107"/>
     </row>
     <row r="319" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="134"/>
-      <c r="C319" s="123"/>
+      <c r="B319" s="135"/>
+      <c r="C319" s="124"/>
       <c r="D319" s="41" t="s">
         <v>595</v>
       </c>
@@ -14532,17 +14270,16 @@
       <c r="I319" s="93">
         <v>9419</v>
       </c>
-      <c r="J319" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89804R.jpg</v>
+      <c r="J319" s="42" t="s">
+        <v>954</v>
       </c>
       <c r="K319" s="107" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="320" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="134"/>
-      <c r="C320" s="123"/>
+      <c r="B320" s="135"/>
+      <c r="C320" s="124"/>
       <c r="D320" s="41" t="s">
         <v>596</v>
       </c>
@@ -14557,15 +14294,14 @@
       <c r="I320" s="93">
         <v>12318</v>
       </c>
-      <c r="J320" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89804R.jpg</v>
+      <c r="J320" s="42" t="s">
+        <v>954</v>
       </c>
       <c r="K320" s="107"/>
     </row>
     <row r="321" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="134"/>
-      <c r="C321" s="123"/>
+      <c r="B321" s="135"/>
+      <c r="C321" s="124"/>
       <c r="D321" s="41" t="s">
         <v>597</v>
       </c>
@@ -14580,17 +14316,16 @@
       <c r="I321" s="93">
         <v>791</v>
       </c>
-      <c r="J321" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89806.jpg</v>
+      <c r="J321" s="42" t="s">
+        <v>955</v>
       </c>
       <c r="K321" s="107" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="322" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="134"/>
-      <c r="C322" s="123"/>
+      <c r="B322" s="135"/>
+      <c r="C322" s="124"/>
       <c r="D322" s="41" t="s">
         <v>598</v>
       </c>
@@ -14605,15 +14340,14 @@
       <c r="I322" s="93">
         <v>4910</v>
       </c>
-      <c r="J322" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89806.jpg</v>
+      <c r="J322" s="42" t="s">
+        <v>955</v>
       </c>
       <c r="K322" s="107"/>
     </row>
     <row r="323" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="134"/>
-      <c r="C323" s="123"/>
+      <c r="B323" s="135"/>
+      <c r="C323" s="124"/>
       <c r="D323" s="41" t="s">
         <v>599</v>
       </c>
@@ -14628,17 +14362,16 @@
       <c r="I323" s="93">
         <v>7523</v>
       </c>
-      <c r="J323" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89807.jpg</v>
+      <c r="J323" s="42" t="s">
+        <v>956</v>
       </c>
       <c r="K323" s="107" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="324" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="134"/>
-      <c r="C324" s="123"/>
+      <c r="B324" s="135"/>
+      <c r="C324" s="124"/>
       <c r="D324" s="41" t="s">
         <v>600</v>
       </c>
@@ -14653,15 +14386,14 @@
       <c r="I324" s="93">
         <v>5368</v>
       </c>
-      <c r="J324" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89807.jpg</v>
+      <c r="J324" s="42" t="s">
+        <v>956</v>
       </c>
       <c r="K324" s="107"/>
     </row>
     <row r="325" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="134"/>
-      <c r="C325" s="123"/>
+      <c r="B325" s="135"/>
+      <c r="C325" s="124"/>
       <c r="D325" s="41" t="s">
         <v>601</v>
       </c>
@@ -14676,17 +14408,16 @@
       <c r="I325" s="93">
         <v>2263</v>
       </c>
-      <c r="J325" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89821.jpg</v>
+      <c r="J325" s="42" t="s">
+        <v>957</v>
       </c>
       <c r="K325" s="107" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="326" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="134"/>
-      <c r="C326" s="123"/>
+      <c r="B326" s="135"/>
+      <c r="C326" s="124"/>
       <c r="D326" s="41" t="s">
         <v>602</v>
       </c>
@@ -14701,15 +14432,14 @@
       <c r="I326" s="93">
         <v>13694</v>
       </c>
-      <c r="J326" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89821.jpg</v>
+      <c r="J326" s="42" t="s">
+        <v>957</v>
       </c>
       <c r="K326" s="107"/>
     </row>
     <row r="327" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="134"/>
-      <c r="C327" s="123"/>
+      <c r="B327" s="135"/>
+      <c r="C327" s="124"/>
       <c r="D327" s="41" t="s">
         <v>603</v>
       </c>
@@ -14724,15 +14454,14 @@
       <c r="I327" s="93">
         <v>2189</v>
       </c>
-      <c r="J327" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89821.jpg</v>
+      <c r="J327" s="42" t="s">
+        <v>957</v>
       </c>
       <c r="K327" s="107"/>
     </row>
     <row r="328" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="134"/>
-      <c r="C328" s="123"/>
+      <c r="B328" s="135"/>
+      <c r="C328" s="124"/>
       <c r="D328" s="41" t="s">
         <v>604</v>
       </c>
@@ -14747,15 +14476,14 @@
       <c r="I328" s="93">
         <v>5359</v>
       </c>
-      <c r="J328" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89821.jpg</v>
+      <c r="J328" s="42" t="s">
+        <v>957</v>
       </c>
       <c r="K328" s="107"/>
     </row>
     <row r="329" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="134"/>
-      <c r="C329" s="123"/>
+      <c r="B329" s="135"/>
+      <c r="C329" s="124"/>
       <c r="D329" s="41" t="s">
         <v>605</v>
       </c>
@@ -14770,15 +14498,14 @@
       <c r="I329" s="93">
         <v>2865</v>
       </c>
-      <c r="J329" s="42" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89821.jpg</v>
+      <c r="J329" s="42" t="s">
+        <v>957</v>
       </c>
       <c r="K329" s="107"/>
     </row>
     <row r="330" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="135"/>
-      <c r="C330" s="124"/>
+      <c r="B330" s="136"/>
+      <c r="C330" s="125"/>
       <c r="D330" s="36" t="s">
         <v>606</v>
       </c>
@@ -14793,14 +14520,13 @@
       <c r="I330" s="92">
         <v>5825</v>
       </c>
-      <c r="J330" s="37" t="str">
-        <f t="shared" si="4"/>
-        <v>HMH89821.jpg</v>
+      <c r="J330" s="37" t="s">
+        <v>957</v>
       </c>
       <c r="K330" s="107"/>
     </row>
     <row r="331" spans="2:11" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="119" t="s">
+      <c r="B331" s="120" t="s">
         <v>45</v>
       </c>
       <c r="C331" s="44" t="s">
@@ -14830,7 +14556,7 @@
       </c>
     </row>
     <row r="332" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B332" s="120"/>
+      <c r="B332" s="121"/>
       <c r="C332" s="43" t="s">
         <v>47</v>
       </c>
@@ -14858,7 +14584,7 @@
       </c>
     </row>
     <row r="333" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B333" s="120"/>
+      <c r="B333" s="121"/>
       <c r="C333" s="43" t="s">
         <v>47</v>
       </c>
@@ -14886,7 +14612,7 @@
       </c>
     </row>
     <row r="334" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B334" s="121"/>
+      <c r="B334" s="122"/>
       <c r="C334" s="45" t="s">
         <v>47</v>
       </c>
@@ -14914,10 +14640,10 @@
       </c>
     </row>
     <row r="335" spans="2:11" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="113" t="s">
+      <c r="B335" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C335" s="141" t="s">
+      <c r="C335" s="142" t="s">
         <v>65</v>
       </c>
       <c r="D335" s="38" t="s">
@@ -14936,17 +14662,16 @@
       <c r="I335" s="98">
         <v>8825</v>
       </c>
-      <c r="J335" s="58" t="str">
-        <f t="shared" ref="J335:J379" si="5">VLOOKUP(D335,N:N,1,TRUE)</f>
-        <v>GSM-0059.jpg</v>
+      <c r="J335" s="58" t="s">
+        <v>886</v>
       </c>
       <c r="K335" s="107" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="336" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="113"/>
-      <c r="C336" s="139"/>
+      <c r="B336" s="114"/>
+      <c r="C336" s="140"/>
       <c r="D336" s="38" t="s">
         <v>620</v>
       </c>
@@ -14963,17 +14688,16 @@
       <c r="I336" s="98">
         <v>2151</v>
       </c>
-      <c r="J336" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0050.jpg</v>
+      <c r="J336" s="58" t="s">
+        <v>879</v>
       </c>
       <c r="K336" s="107" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="337" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="113"/>
-      <c r="C337" s="139"/>
+      <c r="B337" s="114"/>
+      <c r="C337" s="140"/>
       <c r="D337" s="38" t="s">
         <v>621</v>
       </c>
@@ -14990,17 +14714,16 @@
       <c r="I337" s="98">
         <v>11164</v>
       </c>
-      <c r="J337" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0014.jpg</v>
+      <c r="J337" s="58" t="s">
+        <v>876</v>
       </c>
       <c r="K337" s="107" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="338" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="113"/>
-      <c r="C338" s="139"/>
+      <c r="B338" s="114"/>
+      <c r="C338" s="140"/>
       <c r="D338" s="38" t="s">
         <v>622</v>
       </c>
@@ -15017,17 +14740,16 @@
       <c r="I338" s="98">
         <v>11886</v>
       </c>
-      <c r="J338" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ATPS-040.jpg</v>
+      <c r="J338" s="58" t="s">
+        <v>830</v>
       </c>
       <c r="K338" s="107" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="339" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="113"/>
-      <c r="C339" s="139"/>
+      <c r="B339" s="114"/>
+      <c r="C339" s="140"/>
       <c r="D339" s="38" t="s">
         <v>623</v>
       </c>
@@ -15044,17 +14766,16 @@
       <c r="I339" s="98">
         <v>8997</v>
       </c>
-      <c r="J339" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-DC420.jpg</v>
+      <c r="J339" s="58" t="s">
+        <v>831</v>
       </c>
       <c r="K339" s="107" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="340" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="113"/>
-      <c r="C340" s="139"/>
+      <c r="B340" s="114"/>
+      <c r="C340" s="140"/>
       <c r="D340" s="38" t="s">
         <v>624</v>
       </c>
@@ -15071,17 +14792,16 @@
       <c r="I340" s="98">
         <v>9076</v>
       </c>
-      <c r="J340" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>YFS-8003.jpg</v>
+      <c r="J340" s="58" t="s">
+        <v>1125</v>
       </c>
       <c r="K340" s="107" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="341" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="113"/>
-      <c r="C341" s="139"/>
+      <c r="B341" s="114"/>
+      <c r="C341" s="140"/>
       <c r="D341" s="38" t="s">
         <v>625</v>
       </c>
@@ -15098,17 +14818,16 @@
       <c r="I341" s="98">
         <v>15092</v>
       </c>
-      <c r="J341" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>YFS-923.jpg</v>
+      <c r="J341" s="58" t="s">
+        <v>1126</v>
       </c>
       <c r="K341" s="107" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="342" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="113"/>
-      <c r="C342" s="139"/>
+      <c r="B342" s="114"/>
+      <c r="C342" s="140"/>
       <c r="D342" s="38" t="s">
         <v>626</v>
       </c>
@@ -15125,17 +14844,16 @@
       <c r="I342" s="98">
         <v>1219</v>
       </c>
-      <c r="J342" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>YC-SECTIONS.jpg</v>
+      <c r="J342" s="58" t="s">
+        <v>1124</v>
       </c>
       <c r="K342" s="107" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="343" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="113"/>
-      <c r="C343" s="139"/>
+      <c r="B343" s="114"/>
+      <c r="C343" s="140"/>
       <c r="D343" s="38" t="s">
         <v>627</v>
       </c>
@@ -15152,17 +14870,16 @@
       <c r="I343" s="98">
         <v>12200</v>
       </c>
-      <c r="J343" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v>YFS-934.jpg</v>
+      <c r="J343" s="58" t="s">
+        <v>1127</v>
       </c>
       <c r="K343" s="107" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="344" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="114"/>
-      <c r="C344" s="138" t="s">
+      <c r="B344" s="115"/>
+      <c r="C344" s="139" t="s">
         <v>66</v>
       </c>
       <c r="D344" s="39" t="s">
@@ -15181,17 +14898,16 @@
       <c r="I344" s="99">
         <v>7639</v>
       </c>
-      <c r="J344" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0038.jpg</v>
+      <c r="J344" s="59" t="s">
+        <v>877</v>
       </c>
       <c r="K344" s="107" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="345" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="114"/>
-      <c r="C345" s="139"/>
+      <c r="B345" s="115"/>
+      <c r="C345" s="140"/>
       <c r="D345" s="39" t="s">
         <v>638</v>
       </c>
@@ -15208,17 +14924,16 @@
       <c r="I345" s="99">
         <v>5731</v>
       </c>
-      <c r="J345" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0039.jpg</v>
+      <c r="J345" s="59" t="s">
+        <v>878</v>
       </c>
       <c r="K345" s="107" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="346" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="114"/>
-      <c r="C346" s="139"/>
+      <c r="B346" s="115"/>
+      <c r="C346" s="140"/>
       <c r="D346" s="39" t="s">
         <v>639</v>
       </c>
@@ -15235,17 +14950,16 @@
       <c r="I346" s="99">
         <v>11781</v>
       </c>
-      <c r="J346" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0052.jpg</v>
+      <c r="J346" s="59" t="s">
+        <v>880</v>
       </c>
       <c r="K346" s="107" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="347" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="114"/>
-      <c r="C347" s="139"/>
+      <c r="B347" s="115"/>
+      <c r="C347" s="140"/>
       <c r="D347" s="39" t="s">
         <v>640</v>
       </c>
@@ -15262,17 +14976,16 @@
       <c r="I347" s="99">
         <v>4096</v>
       </c>
-      <c r="J347" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0054.jpg</v>
+      <c r="J347" s="59" t="s">
+        <v>881</v>
       </c>
       <c r="K347" s="107" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="348" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="114"/>
-      <c r="C348" s="139"/>
+      <c r="B348" s="115"/>
+      <c r="C348" s="140"/>
       <c r="D348" s="39" t="s">
         <v>641</v>
       </c>
@@ -15289,17 +15002,16 @@
       <c r="I348" s="99">
         <v>14739</v>
       </c>
-      <c r="J348" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0055.jpg</v>
+      <c r="J348" s="59" t="s">
+        <v>882</v>
       </c>
       <c r="K348" s="107" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="349" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="114"/>
-      <c r="C349" s="139"/>
+      <c r="B349" s="115"/>
+      <c r="C349" s="140"/>
       <c r="D349" s="39" t="s">
         <v>642</v>
       </c>
@@ -15316,17 +15028,16 @@
       <c r="I349" s="99">
         <v>1380</v>
       </c>
-      <c r="J349" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0056.jpg</v>
+      <c r="J349" s="59" t="s">
+        <v>883</v>
       </c>
       <c r="K349" s="107" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="350" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="114"/>
-      <c r="C350" s="139"/>
+      <c r="B350" s="115"/>
+      <c r="C350" s="140"/>
       <c r="D350" s="39" t="s">
         <v>643</v>
       </c>
@@ -15343,17 +15054,16 @@
       <c r="I350" s="99">
         <v>12461</v>
       </c>
-      <c r="J350" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0057.jpg</v>
+      <c r="J350" s="59" t="s">
+        <v>884</v>
       </c>
       <c r="K350" s="107" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="351" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="114"/>
-      <c r="C351" s="139"/>
+      <c r="B351" s="115"/>
+      <c r="C351" s="140"/>
       <c r="D351" s="39" t="s">
         <v>644</v>
       </c>
@@ -15370,17 +15080,16 @@
       <c r="I351" s="99">
         <v>6546</v>
       </c>
-      <c r="J351" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0058.jpg</v>
+      <c r="J351" s="59" t="s">
+        <v>885</v>
       </c>
       <c r="K351" s="107" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="352" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="114"/>
-      <c r="C352" s="139"/>
+      <c r="B352" s="115"/>
+      <c r="C352" s="140"/>
       <c r="D352" s="39" t="s">
         <v>645</v>
       </c>
@@ -15397,17 +15106,16 @@
       <c r="I352" s="99">
         <v>12118</v>
       </c>
-      <c r="J352" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>abloy ausb050.jpg</v>
+      <c r="J352" s="59" t="s">
+        <v>817</v>
       </c>
       <c r="K352" s="107" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="353" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="114"/>
-      <c r="C353" s="139"/>
+      <c r="B353" s="115"/>
+      <c r="C353" s="140"/>
       <c r="D353" s="39" t="s">
         <v>646</v>
       </c>
@@ -15424,17 +15132,16 @@
       <c r="I353" s="99">
         <v>8614</v>
       </c>
-      <c r="J353" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-985-35.jpg</v>
+      <c r="J353" s="59" t="s">
+        <v>818</v>
       </c>
       <c r="K353" s="107" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="354" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="114"/>
-      <c r="C354" s="139"/>
+      <c r="B354" s="115"/>
+      <c r="C354" s="140"/>
       <c r="D354" s="39" t="s">
         <v>647</v>
       </c>
@@ -15451,17 +15158,16 @@
       <c r="I354" s="99">
         <v>6453</v>
       </c>
-      <c r="J354" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ABP-010.jpg</v>
+      <c r="J354" s="59" t="s">
+        <v>819</v>
       </c>
       <c r="K354" s="107" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="355" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="114"/>
-      <c r="C355" s="139"/>
+      <c r="B355" s="115"/>
+      <c r="C355" s="140"/>
       <c r="D355" s="39" t="s">
         <v>648</v>
       </c>
@@ -15478,17 +15184,16 @@
       <c r="I355" s="99">
         <v>9157</v>
       </c>
-      <c r="J355" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ACL-010.jpg</v>
+      <c r="J355" s="59" t="s">
+        <v>820</v>
       </c>
       <c r="K355" s="107" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="356" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="114"/>
-      <c r="C356" s="139"/>
+      <c r="B356" s="115"/>
+      <c r="C356" s="140"/>
       <c r="D356" s="39" t="s">
         <v>649</v>
       </c>
@@ -15505,17 +15210,16 @@
       <c r="I356" s="99">
         <v>4446</v>
       </c>
-      <c r="J356" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ACL-020.jpg</v>
+      <c r="J356" s="59" t="s">
+        <v>821</v>
       </c>
       <c r="K356" s="107" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="357" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="114"/>
-      <c r="C357" s="139"/>
+      <c r="B357" s="115"/>
+      <c r="C357" s="140"/>
       <c r="D357" s="39" t="s">
         <v>650</v>
       </c>
@@ -15532,17 +15236,16 @@
       <c r="I357" s="99">
         <v>13328</v>
       </c>
-      <c r="J357" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ADCS-020.jpg</v>
+      <c r="J357" s="59" t="s">
+        <v>822</v>
       </c>
       <c r="K357" s="107" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="358" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="114"/>
-      <c r="C358" s="139"/>
+      <c r="B358" s="115"/>
+      <c r="C358" s="140"/>
       <c r="D358" s="39" t="s">
         <v>651</v>
       </c>
@@ -15559,17 +15262,16 @@
       <c r="I358" s="99">
         <v>13280</v>
       </c>
-      <c r="J358" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-AOCS-040.jpg</v>
+      <c r="J358" s="59" t="s">
+        <v>823</v>
       </c>
       <c r="K358" s="107" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="359" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="114"/>
-      <c r="C359" s="139"/>
+      <c r="B359" s="115"/>
+      <c r="C359" s="140"/>
       <c r="D359" s="39" t="s">
         <v>652</v>
       </c>
@@ -15586,17 +15288,16 @@
       <c r="I359" s="99">
         <v>3995</v>
       </c>
-      <c r="J359" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-AOPS-041L-R.jpg</v>
+      <c r="J359" s="59" t="s">
+        <v>824</v>
       </c>
       <c r="K359" s="107" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="360" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="114"/>
-      <c r="C360" s="139"/>
+      <c r="B360" s="115"/>
+      <c r="C360" s="140"/>
       <c r="D360" s="39" t="s">
         <v>653</v>
       </c>
@@ -15613,17 +15314,16 @@
       <c r="I360" s="99">
         <v>4546</v>
       </c>
-      <c r="J360" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ASCS-030.jpg</v>
+      <c r="J360" s="59" t="s">
+        <v>825</v>
       </c>
       <c r="K360" s="107" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="361" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="114"/>
-      <c r="C361" s="139"/>
+      <c r="B361" s="115"/>
+      <c r="C361" s="140"/>
       <c r="D361" s="39" t="s">
         <v>654</v>
       </c>
@@ -15640,17 +15340,16 @@
       <c r="I361" s="99">
         <v>3806</v>
       </c>
-      <c r="J361" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ATLG-502-15.jpg</v>
+      <c r="J361" s="59" t="s">
+        <v>826</v>
       </c>
       <c r="K361" s="107" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="362" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="114"/>
-      <c r="C362" s="139"/>
+      <c r="B362" s="115"/>
+      <c r="C362" s="140"/>
       <c r="D362" s="39" t="s">
         <v>655</v>
       </c>
@@ -15667,17 +15366,16 @@
       <c r="I362" s="99">
         <v>14975</v>
       </c>
-      <c r="J362" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ATP-020.jpg</v>
+      <c r="J362" s="59" t="s">
+        <v>827</v>
       </c>
       <c r="K362" s="107" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="363" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="114"/>
-      <c r="C363" s="139"/>
+      <c r="B363" s="115"/>
+      <c r="C363" s="140"/>
       <c r="D363" s="39" t="s">
         <v>656</v>
       </c>
@@ -15694,17 +15392,16 @@
       <c r="I363" s="99">
         <v>351</v>
       </c>
-      <c r="J363" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ATPO-030.jpg</v>
+      <c r="J363" s="59" t="s">
+        <v>828</v>
       </c>
       <c r="K363" s="107" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="364" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="114"/>
-      <c r="C364" s="139"/>
+      <c r="B364" s="115"/>
+      <c r="C364" s="140"/>
       <c r="D364" s="39" t="s">
         <v>657</v>
       </c>
@@ -15721,17 +15418,16 @@
       <c r="I364" s="99">
         <v>578</v>
       </c>
-      <c r="J364" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>ABLOY-ATPS-035.jpg</v>
+      <c r="J364" s="59" t="s">
+        <v>829</v>
       </c>
       <c r="K364" s="107" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="365" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="114"/>
-      <c r="C365" s="138" t="s">
+      <c r="B365" s="115"/>
+      <c r="C365" s="139" t="s">
         <v>67</v>
       </c>
       <c r="D365" s="39" t="s">
@@ -15750,17 +15446,16 @@
       <c r="I365" s="99">
         <v>4091</v>
       </c>
-      <c r="J365" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>tension roller.jpg</v>
+      <c r="J365" s="59" t="s">
+        <v>1074</v>
       </c>
       <c r="K365" s="107" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="366" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="114"/>
-      <c r="C366" s="139"/>
+      <c r="B366" s="115"/>
+      <c r="C366" s="140"/>
       <c r="D366" s="39" t="s">
         <v>680</v>
       </c>
@@ -15777,17 +15472,16 @@
       <c r="I366" s="99">
         <v>7683</v>
       </c>
-      <c r="J366" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>thore gsm0060.jpg</v>
+      <c r="J366" s="59" t="s">
+        <v>1092</v>
       </c>
       <c r="K366" s="107" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="367" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="114"/>
-      <c r="C367" s="139"/>
+      <c r="B367" s="115"/>
+      <c r="C367" s="140"/>
       <c r="D367" s="39" t="s">
         <v>681</v>
       </c>
@@ -15804,17 +15498,16 @@
       <c r="I367" s="99">
         <v>3087</v>
       </c>
-      <c r="J367" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>THORE Patch Fittings.jpg</v>
+      <c r="J367" s="59" t="s">
+        <v>1094</v>
       </c>
       <c r="K367" s="107" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="368" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="114"/>
-      <c r="C368" s="138" t="s">
+      <c r="B368" s="115"/>
+      <c r="C368" s="139" t="s">
         <v>68</v>
       </c>
       <c r="D368" s="39" t="s">
@@ -15833,17 +15526,16 @@
       <c r="I368" s="99">
         <v>12521</v>
       </c>
-      <c r="J368" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0004.jpg</v>
+      <c r="J368" s="59" t="s">
+        <v>872</v>
       </c>
       <c r="K368" s="107" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="369" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="114"/>
-      <c r="C369" s="139"/>
+      <c r="B369" s="115"/>
+      <c r="C369" s="140"/>
       <c r="D369" s="39" t="s">
         <v>684</v>
       </c>
@@ -15860,17 +15552,16 @@
       <c r="I369" s="99">
         <v>8487</v>
       </c>
-      <c r="J369" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0011.jpg</v>
+      <c r="J369" s="59" t="s">
+        <v>873</v>
       </c>
       <c r="K369" s="107" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="370" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="114"/>
-      <c r="C370" s="139"/>
+      <c r="B370" s="115"/>
+      <c r="C370" s="140"/>
       <c r="D370" s="39" t="s">
         <v>686</v>
       </c>
@@ -15887,17 +15578,16 @@
       <c r="I370" s="99">
         <v>3207</v>
       </c>
-      <c r="J370" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0012.jpg</v>
+      <c r="J370" s="59" t="s">
+        <v>874</v>
       </c>
       <c r="K370" s="107" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="371" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="114"/>
-      <c r="C371" s="139"/>
+      <c r="B371" s="115"/>
+      <c r="C371" s="140"/>
       <c r="D371" s="39" t="s">
         <v>688</v>
       </c>
@@ -15914,17 +15604,16 @@
       <c r="I371" s="99">
         <v>796</v>
       </c>
-      <c r="J371" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0013.jpg</v>
+      <c r="J371" s="59" t="s">
+        <v>875</v>
       </c>
       <c r="K371" s="107" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="372" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="114"/>
-      <c r="C372" s="138" t="s">
+      <c r="B372" s="115"/>
+      <c r="C372" s="139" t="s">
         <v>69</v>
       </c>
       <c r="D372" s="39" t="s">
@@ -15943,17 +15632,16 @@
       <c r="I372" s="99">
         <v>3776</v>
       </c>
-      <c r="J372" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GAS-TANK-COVER.png</v>
+      <c r="J372" s="59" t="s">
+        <v>868</v>
       </c>
       <c r="K372" s="107" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="373" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="114"/>
-      <c r="C373" s="139"/>
+      <c r="B373" s="115"/>
+      <c r="C373" s="140"/>
       <c r="D373" s="39" t="s">
         <v>695</v>
       </c>
@@ -15970,17 +15658,16 @@
       <c r="I373" s="99">
         <v>2890</v>
       </c>
-      <c r="J373" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0001.jpg</v>
+      <c r="J373" s="59" t="s">
+        <v>869</v>
       </c>
       <c r="K373" s="107" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="374" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="114"/>
-      <c r="C374" s="139"/>
+      <c r="B374" s="115"/>
+      <c r="C374" s="140"/>
       <c r="D374" s="39" t="s">
         <v>696</v>
       </c>
@@ -15997,17 +15684,16 @@
       <c r="I374" s="99">
         <v>10834</v>
       </c>
-      <c r="J374" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0002.jpg</v>
+      <c r="J374" s="59" t="s">
+        <v>870</v>
       </c>
       <c r="K374" s="107" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="375" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="114"/>
-      <c r="C375" s="140"/>
+      <c r="B375" s="115"/>
+      <c r="C375" s="141"/>
       <c r="D375" s="39" t="s">
         <v>697</v>
       </c>
@@ -16024,17 +15710,16 @@
       <c r="I375" s="99">
         <v>454</v>
       </c>
-      <c r="J375" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0003.jpg</v>
+      <c r="J375" s="59" t="s">
+        <v>871</v>
       </c>
       <c r="K375" s="107" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="376" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="114"/>
-      <c r="C376" s="138" t="s">
+      <c r="B376" s="115"/>
+      <c r="C376" s="139" t="s">
         <v>70</v>
       </c>
       <c r="D376" s="39" t="s">
@@ -16053,17 +15738,16 @@
       <c r="I376" s="99">
         <v>10706</v>
       </c>
-      <c r="J376" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0060.jpg</v>
+      <c r="J376" s="59" t="s">
+        <v>887</v>
       </c>
       <c r="K376" s="107" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="377" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="114"/>
-      <c r="C377" s="139"/>
+      <c r="B377" s="115"/>
+      <c r="C377" s="140"/>
       <c r="D377" s="39" t="s">
         <v>700</v>
       </c>
@@ -16080,16 +15764,15 @@
       <c r="I377" s="99">
         <v>8831</v>
       </c>
-      <c r="J377" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>GSM-0102.jpg</v>
+      <c r="J377" s="59" t="s">
+        <v>888</v>
       </c>
       <c r="K377" s="107" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="378" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="114"/>
+      <c r="B378" s="115"/>
       <c r="C378" s="61" t="s">
         <v>71</v>
       </c>
@@ -16109,16 +15792,15 @@
       <c r="I378" s="99">
         <v>7384</v>
       </c>
-      <c r="J378" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>4 bar hinge.jpg</v>
+      <c r="J378" s="59" t="s">
+        <v>815</v>
       </c>
       <c r="K378" s="107" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="379" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B379" s="115"/>
+      <c r="B379" s="116"/>
       <c r="C379" s="80"/>
       <c r="D379" s="40" t="s">
         <v>72</v>
@@ -16136,9 +15818,8 @@
       <c r="I379" s="100">
         <v>2906</v>
       </c>
-      <c r="J379" s="60" t="str">
-        <f t="shared" si="5"/>
-        <v>INSULATING-GLASS-UNIT.png</v>
+      <c r="J379" s="60" t="s">
+        <v>1011</v>
       </c>
       <c r="K379" s="107"/>
     </row>
@@ -16198,6 +15879,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7519373-BE49-4E11-B5C3-08DE05EE1A71}">
+  <dimension ref="B1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+    </row>
+    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="144"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="145"/>
+    </row>
+    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="144"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="145"/>
+    </row>
+    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="144"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="145"/>
+    </row>
+    <row r="7" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="144"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="145"/>
+    </row>
+    <row r="8" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="144"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="145"/>
+    </row>
+    <row r="9" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="144"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="145"/>
+    </row>
+    <row r="10" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="144"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="145"/>
+    </row>
+    <row r="11" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="144"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="145"/>
+    </row>
+    <row r="12" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="144"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="145"/>
+    </row>
+    <row r="13" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="144"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="145"/>
+    </row>
+    <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="146"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB50FB2B-B230-4DB3-8885-F1FD52515166}">
   <dimension ref="B1:H379"/>
   <sheetViews>

--- a/storage/app/public/imports/DatabaseSeeder.xlsx
+++ b/storage/app/public/imports/DatabaseSeeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tqmp\storage\app\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1C2C79-FAF7-47BC-B8D3-643CB98795C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602910E4-D973-483C-86D4-1716F5ACA60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8B3B22E9-E0C4-4142-9942-DAADCA30F6D5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="1384">
   <si>
     <t>Usertype</t>
   </si>
@@ -4016,37 +4016,184 @@
     <t>Enclosures</t>
   </si>
   <si>
-    <t>Mill Finish</t>
-  </si>
-  <si>
-    <t>1-1/2" x 1-1/2"</t>
-  </si>
-  <si>
-    <t>1.8mm</t>
-  </si>
-  <si>
     <t>Pioneer</t>
   </si>
   <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>Tinted</t>
-  </si>
-  <si>
-    <t>Ultra Clear</t>
-  </si>
-  <si>
-    <t>Low-E</t>
-  </si>
-  <si>
-    <t>Reflective</t>
-  </si>
-  <si>
-    <t>36 x 48</t>
-  </si>
-  <si>
-    <t>2MM</t>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>36" x 48"</t>
+  </si>
+  <si>
+    <t>2mm</t>
+  </si>
+  <si>
+    <t>48" x 72"</t>
+  </si>
+  <si>
+    <t>3mm</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>36" x 84"</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>48" x 84"</t>
+  </si>
+  <si>
+    <t>48" x 96"</t>
+  </si>
+  <si>
+    <t>60" x 84"</t>
+  </si>
+  <si>
+    <t>72" x 84"</t>
+  </si>
+  <si>
+    <t>72" x 96"</t>
+  </si>
+  <si>
+    <t>BRONZE</t>
+  </si>
+  <si>
+    <t>96" x 120"</t>
+  </si>
+  <si>
+    <t>84" x 144"</t>
+  </si>
+  <si>
+    <t>D. GREY</t>
+  </si>
+  <si>
+    <t>EURO GREY</t>
+  </si>
+  <si>
+    <t>ULTRA CLEAR</t>
+  </si>
+  <si>
+    <t>84" x 130"</t>
+  </si>
+  <si>
+    <t>CLEAR LOW-E</t>
+  </si>
+  <si>
+    <t>COOL SILVER BRONZE</t>
+  </si>
+  <si>
+    <t>COOL SILVER BLUE</t>
+  </si>
+  <si>
+    <t>COOL SILVER BLACK</t>
+  </si>
+  <si>
+    <t>COOL SILVER CLEAR</t>
+  </si>
+  <si>
+    <t>COOL SILVER GREEN</t>
+  </si>
+  <si>
+    <t>MIRROR</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
+  </si>
+  <si>
+    <t>5.5mm</t>
+  </si>
+  <si>
+    <t>1" X 1"</t>
+  </si>
+  <si>
+    <t>P.COAT WHITE</t>
+  </si>
+  <si>
+    <t>ANALOK</t>
+  </si>
+  <si>
+    <t>KAWNEER</t>
+  </si>
+  <si>
+    <t>1-1/2" X 1-1/2"</t>
+  </si>
+  <si>
+    <t>3/8" x 3/8"</t>
+  </si>
+  <si>
+    <t>1/2" x 1/2"</t>
+  </si>
+  <si>
+    <t>1/2" x 1"</t>
+  </si>
+  <si>
+    <t>3/4" x 3/4"</t>
+  </si>
+  <si>
+    <t>1/2"</t>
+  </si>
+  <si>
+    <t>3/4"</t>
+  </si>
+  <si>
+    <t>1"</t>
+  </si>
+  <si>
+    <t>1-3/4" x 4"</t>
+  </si>
+  <si>
+    <t>4"</t>
+  </si>
+  <si>
+    <t>1" x 1-1/2"</t>
+  </si>
+  <si>
+    <t>1" x 2"</t>
+  </si>
+  <si>
+    <t>1-1/4"</t>
+  </si>
+  <si>
+    <t>1" x 3"</t>
+  </si>
+  <si>
+    <t>1" x 4"</t>
+  </si>
+  <si>
+    <t>1-1/2"</t>
+  </si>
+  <si>
+    <t>1-3/4"</t>
+  </si>
+  <si>
+    <t>1-3/4" x 3"</t>
+  </si>
+  <si>
+    <t>1/2" x 1-1/2"</t>
+  </si>
+  <si>
+    <t>1/2" x 2"</t>
+  </si>
+  <si>
+    <t>1/2" x 3"</t>
+  </si>
+  <si>
+    <t>1/2" x 4"</t>
+  </si>
+  <si>
+    <t>3" x 3"</t>
+  </si>
+  <si>
+    <t>2"</t>
+  </si>
+  <si>
+    <t>3/8"</t>
+  </si>
+  <si>
+    <t>5/8"</t>
   </si>
 </sst>
 </file>
@@ -5329,6 +5476,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5339,15 +5495,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6520,10 +6667,10 @@
   <dimension ref="B1:S419"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6590,7 +6737,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="181" t="s">
+      <c r="B3" s="177" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -6632,7 +6779,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="182"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
@@ -6672,7 +6819,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="182"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="19" t="s">
         <v>46</v>
       </c>
@@ -6710,7 +6857,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="182"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="19" t="s">
         <v>46</v>
       </c>
@@ -6750,7 +6897,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="182"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
@@ -6787,7 +6934,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="182"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
@@ -6824,7 +6971,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="182"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="19" t="s">
         <v>46</v>
       </c>
@@ -6861,7 +7008,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="182"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="19" t="s">
         <v>46</v>
       </c>
@@ -6898,7 +7045,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="183"/>
+      <c r="B11" s="179"/>
       <c r="C11" s="22" t="s">
         <v>46</v>
       </c>
@@ -6935,8 +7082,8 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="177"/>
-      <c r="C12" s="178" t="s">
+      <c r="B12" s="180"/>
+      <c r="C12" s="181" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -6947,17 +7094,17 @@
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I12" s="45"/>
       <c r="J12" s="45" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="L12" s="45" t="s">
         <v>31</v>
@@ -6974,8 +7121,8 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="45" t="s">
         <v>686</v>
       </c>
@@ -6984,17 +7131,17 @@
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I13" s="45"/>
       <c r="J13" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="L13" s="45" t="s">
         <v>31</v>
@@ -7011,8 +7158,8 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="45" t="s">
         <v>687</v>
       </c>
@@ -7021,17 +7168,17 @@
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I14" s="45"/>
       <c r="J14" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="L14" s="45" t="s">
         <v>31</v>
@@ -7048,8 +7195,8 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="45" t="s">
         <v>688</v>
       </c>
@@ -7058,17 +7205,17 @@
       </c>
       <c r="F15" s="58"/>
       <c r="G15" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="45" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L15" s="45" t="s">
         <v>31</v>
@@ -7085,8 +7232,8 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="45" t="s">
         <v>689</v>
       </c>
@@ -7095,17 +7242,17 @@
       </c>
       <c r="F16" s="58"/>
       <c r="G16" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L16" s="45" t="s">
         <v>31</v>
@@ -7122,8 +7269,8 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
       <c r="D17" s="45" t="s">
         <v>690</v>
       </c>
@@ -7132,17 +7279,17 @@
       </c>
       <c r="F17" s="58"/>
       <c r="G17" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I17" s="45"/>
       <c r="J17" s="45" t="s">
         <v>1333</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L17" s="45" t="s">
         <v>31</v>
@@ -7159,8 +7306,8 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="45" t="s">
         <v>691</v>
       </c>
@@ -7169,17 +7316,17 @@
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="45" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L18" s="45" t="s">
         <v>31</v>
@@ -7196,8 +7343,8 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
       <c r="D19" s="45" t="s">
         <v>692</v>
       </c>
@@ -7206,17 +7353,17 @@
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="45" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>31</v>
@@ -7233,8 +7380,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
       <c r="D20" s="45" t="s">
         <v>693</v>
       </c>
@@ -7243,17 +7390,17 @@
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="45" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L20" s="45" t="s">
         <v>31</v>
@@ -7270,8 +7417,8 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="45" t="s">
         <v>694</v>
       </c>
@@ -7280,17 +7427,17 @@
       </c>
       <c r="F21" s="58"/>
       <c r="G21" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="45" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L21" s="45" t="s">
         <v>31</v>
@@ -7307,8 +7454,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="177"/>
-      <c r="C22" s="179" t="s">
+      <c r="B22" s="180"/>
+      <c r="C22" s="182" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -7319,17 +7466,17 @@
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="45" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L22" s="45" t="s">
         <v>31</v>
@@ -7348,8 +7495,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="45" t="s">
         <v>1107</v>
       </c>
@@ -7358,17 +7505,17 @@
       </c>
       <c r="F23" s="58"/>
       <c r="G23" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L23" s="45" t="s">
         <v>31</v>
@@ -7387,8 +7534,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
       <c r="D24" s="45" t="s">
         <v>1109</v>
       </c>
@@ -7397,17 +7544,17 @@
       </c>
       <c r="F24" s="58"/>
       <c r="G24" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I24" s="45"/>
       <c r="J24" s="45" t="s">
         <v>1333</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L24" s="45" t="s">
         <v>31</v>
@@ -7426,8 +7573,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
       <c r="D25" s="45" t="s">
         <v>1111</v>
       </c>
@@ -7436,17 +7583,17 @@
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I25" s="45"/>
       <c r="J25" s="45" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L25" s="45" t="s">
         <v>31</v>
@@ -7465,8 +7612,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
       <c r="D26" s="45" t="s">
         <v>1113</v>
       </c>
@@ -7475,17 +7622,17 @@
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I26" s="45"/>
       <c r="J26" s="45" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L26" s="45" t="s">
         <v>31</v>
@@ -7504,8 +7651,8 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
       <c r="D27" s="45" t="s">
         <v>1115</v>
       </c>
@@ -7514,17 +7661,17 @@
       </c>
       <c r="F27" s="58"/>
       <c r="G27" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L27" s="45" t="s">
         <v>31</v>
@@ -7543,8 +7690,8 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="177"/>
-      <c r="C28" s="178"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
       <c r="D28" s="45" t="s">
         <v>1117</v>
       </c>
@@ -7553,17 +7700,17 @@
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I28" s="45"/>
       <c r="J28" s="45" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L28" s="45" t="s">
         <v>31</v>
@@ -7582,8 +7729,8 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
       <c r="D29" s="45" t="s">
         <v>1119</v>
       </c>
@@ -7592,17 +7739,17 @@
       </c>
       <c r="F29" s="58"/>
       <c r="G29" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I29" s="45"/>
       <c r="J29" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="L29" s="45" t="s">
         <v>31</v>
@@ -7621,8 +7768,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="181"/>
       <c r="D30" s="45" t="s">
         <v>1121</v>
       </c>
@@ -7631,17 +7778,17 @@
       </c>
       <c r="F30" s="58"/>
       <c r="G30" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>31</v>
@@ -7660,8 +7807,8 @@
       </c>
     </row>
     <row r="31" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="181"/>
       <c r="D31" s="45" t="s">
         <v>1123</v>
       </c>
@@ -7670,17 +7817,17 @@
       </c>
       <c r="F31" s="58"/>
       <c r="G31" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="45" t="s">
         <v>1333</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L31" s="45" t="s">
         <v>31</v>
@@ -7699,8 +7846,8 @@
       </c>
     </row>
     <row r="32" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
       <c r="D32" s="45" t="s">
         <v>1125</v>
       </c>
@@ -7709,17 +7856,17 @@
       </c>
       <c r="F32" s="58"/>
       <c r="G32" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L32" s="45" t="s">
         <v>31</v>
@@ -7738,8 +7885,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="177"/>
-      <c r="C33" s="178"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="45" t="s">
         <v>1127</v>
       </c>
@@ -7748,17 +7895,17 @@
       </c>
       <c r="F33" s="58"/>
       <c r="G33" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="45" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L33" s="45" t="s">
         <v>31</v>
@@ -7777,8 +7924,8 @@
       </c>
     </row>
     <row r="34" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="177"/>
-      <c r="C34" s="180"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="45" t="s">
         <v>1129</v>
       </c>
@@ -7787,17 +7934,17 @@
       </c>
       <c r="F34" s="58"/>
       <c r="G34" s="45" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>1329</v>
+        <v>1342</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="45" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L34" s="45" t="s">
         <v>31</v>
@@ -7816,7 +7963,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="177"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="47" t="s">
         <v>49</v>
       </c>
@@ -7828,17 +7975,17 @@
       </c>
       <c r="F35" s="59"/>
       <c r="G35" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>1330</v>
+        <v>1343</v>
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="26" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L35" s="26" t="s">
         <v>31</v>
@@ -7857,7 +8004,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="177"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="47" t="s">
         <v>50</v>
       </c>
@@ -7869,17 +8016,17 @@
       </c>
       <c r="F36" s="59"/>
       <c r="G36" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>1331</v>
+        <v>1345</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="26" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L36" s="26" t="s">
         <v>31</v>
@@ -7896,8 +8043,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="177"/>
-      <c r="C37" s="179" t="s">
+      <c r="B37" s="180"/>
+      <c r="C37" s="182" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -7908,17 +8055,17 @@
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="26" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L37" s="26" t="s">
         <v>31</v>
@@ -7935,8 +8082,8 @@
       </c>
     </row>
     <row r="38" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="177"/>
-      <c r="C38" s="178"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="181"/>
       <c r="D38" s="26" t="s">
         <v>1137</v>
       </c>
@@ -7945,17 +8092,17 @@
       </c>
       <c r="F38" s="59"/>
       <c r="G38" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L38" s="26" t="s">
         <v>31</v>
@@ -7972,8 +8119,8 @@
       </c>
     </row>
     <row r="39" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="177"/>
-      <c r="C39" s="178"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="181"/>
       <c r="D39" s="26" t="s">
         <v>1139</v>
       </c>
@@ -7982,17 +8129,17 @@
       </c>
       <c r="F39" s="59"/>
       <c r="G39" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="I39" s="26"/>
       <c r="J39" s="26" t="s">
         <v>1333</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L39" s="26" t="s">
         <v>31</v>
@@ -8009,8 +8156,8 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="177"/>
-      <c r="C40" s="178"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="181"/>
       <c r="D40" s="26" t="s">
         <v>1141</v>
       </c>
@@ -8019,17 +8166,17 @@
       </c>
       <c r="F40" s="59"/>
       <c r="G40" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="26" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L40" s="26" t="s">
         <v>31</v>
@@ -8046,8 +8193,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="177"/>
-      <c r="C41" s="178"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="26" t="s">
         <v>1143</v>
       </c>
@@ -8056,17 +8203,17 @@
       </c>
       <c r="F41" s="59"/>
       <c r="G41" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>1332</v>
+        <v>1347</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="26" t="s">
         <v>1333</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>31</v>
@@ -8083,8 +8230,8 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="177"/>
-      <c r="C42" s="178"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="181"/>
       <c r="D42" s="26" t="s">
         <v>1145</v>
       </c>
@@ -8093,17 +8240,17 @@
       </c>
       <c r="F42" s="59"/>
       <c r="G42" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="26" t="s">
         <v>1333</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>31</v>
@@ -8120,8 +8267,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="177"/>
-      <c r="C43" s="178"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="181"/>
       <c r="D43" s="26" t="s">
         <v>1147</v>
       </c>
@@ -8130,17 +8277,17 @@
       </c>
       <c r="F43" s="59"/>
       <c r="G43" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L43" s="26" t="s">
         <v>31</v>
@@ -8157,8 +8304,8 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="177"/>
-      <c r="C44" s="178"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="181"/>
       <c r="D44" s="26" t="s">
         <v>1149</v>
       </c>
@@ -8167,17 +8314,17 @@
       </c>
       <c r="F44" s="59"/>
       <c r="G44" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="26" t="s">
         <v>1333</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L44" s="26" t="s">
         <v>31</v>
@@ -8194,8 +8341,8 @@
       </c>
     </row>
     <row r="45" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="177"/>
-      <c r="C45" s="180"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="26" t="s">
         <v>1151</v>
       </c>
@@ -8204,17 +8351,17 @@
       </c>
       <c r="F45" s="59"/>
       <c r="G45" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>1332</v>
+        <v>1350</v>
       </c>
       <c r="I45" s="26"/>
       <c r="J45" s="26" t="s">
         <v>1333</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L45" s="26" t="s">
         <v>31</v>
@@ -8231,8 +8378,8 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="177"/>
-      <c r="C46" s="179" t="s">
+      <c r="B46" s="180"/>
+      <c r="C46" s="182" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -8243,17 +8390,17 @@
       </c>
       <c r="F46" s="59"/>
       <c r="G46" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>52</v>
+        <v>1351</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="L46" s="26" t="s">
         <v>31</v>
@@ -8272,8 +8419,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="177"/>
-      <c r="C47" s="178"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="181"/>
       <c r="D47" s="26" t="s">
         <v>683</v>
       </c>
@@ -8282,17 +8429,17 @@
       </c>
       <c r="F47" s="59"/>
       <c r="G47" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>52</v>
+        <v>1351</v>
       </c>
       <c r="I47" s="26"/>
       <c r="J47" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L47" s="26" t="s">
         <v>31</v>
@@ -8309,8 +8456,8 @@
       </c>
     </row>
     <row r="48" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="177"/>
-      <c r="C48" s="178"/>
+      <c r="B48" s="180"/>
+      <c r="C48" s="181"/>
       <c r="D48" s="26" t="s">
         <v>684</v>
       </c>
@@ -8319,17 +8466,17 @@
       </c>
       <c r="F48" s="59"/>
       <c r="G48" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>52</v>
+        <v>1351</v>
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="26" t="s">
         <v>1333</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L48" s="26" t="s">
         <v>31</v>
@@ -8346,8 +8493,8 @@
       </c>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="177"/>
-      <c r="C49" s="179" t="s">
+      <c r="B49" s="180"/>
+      <c r="C49" s="182" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -8358,17 +8505,17 @@
       </c>
       <c r="F49" s="59"/>
       <c r="G49" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>1328</v>
+        <v>1352</v>
       </c>
       <c r="I49" s="26"/>
       <c r="J49" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>1334</v>
+        <v>1353</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>31</v>
@@ -8387,8 +8534,8 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="177"/>
-      <c r="C50" s="178"/>
+      <c r="B50" s="180"/>
+      <c r="C50" s="181"/>
       <c r="D50" s="26" t="s">
         <v>1155</v>
       </c>
@@ -8397,17 +8544,17 @@
       </c>
       <c r="F50" s="59"/>
       <c r="G50" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>1328</v>
+        <v>1352</v>
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="L50" s="26" t="s">
         <v>31</v>
@@ -8426,8 +8573,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="177"/>
-      <c r="C51" s="180"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="26" t="s">
         <v>1157</v>
       </c>
@@ -8436,17 +8583,17 @@
       </c>
       <c r="F51" s="59"/>
       <c r="G51" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>1328</v>
+        <v>1352</v>
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="26" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="L51" s="26" t="s">
         <v>31</v>
@@ -8465,7 +8612,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="177"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="47" t="s">
         <v>54</v>
       </c>
@@ -8477,16 +8624,12 @@
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="26" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
-      <c r="J52" s="26" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K52" s="26" t="s">
-        <v>1334</v>
-      </c>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
       <c r="L52" s="26" t="s">
         <v>31</v>
       </c>
@@ -8521,15 +8664,13 @@
         <v>74</v>
       </c>
       <c r="H53" s="28" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I53" s="28"/>
       <c r="J53" s="28" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>1326</v>
-      </c>
+        <v>1354</v>
+      </c>
+      <c r="K53" s="28"/>
       <c r="L53" s="28" t="s">
         <v>31</v>
       </c>
@@ -8560,15 +8701,13 @@
         <v>74</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I54" s="41"/>
       <c r="J54" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K54" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1354</v>
+      </c>
+      <c r="K54" s="41"/>
       <c r="L54" s="41" t="s">
         <v>31</v>
       </c>
@@ -8597,15 +8736,13 @@
         <v>74</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I55" s="41"/>
       <c r="J55" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K55" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1354</v>
+      </c>
+      <c r="K55" s="41"/>
       <c r="L55" s="41" t="s">
         <v>31</v>
       </c>
@@ -8634,15 +8771,13 @@
         <v>74</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I56" s="41"/>
       <c r="J56" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K56" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1354</v>
+      </c>
+      <c r="K56" s="41"/>
       <c r="L56" s="41" t="s">
         <v>31</v>
       </c>
@@ -8671,15 +8806,13 @@
         <v>74</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I57" s="41"/>
       <c r="J57" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K57" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1358</v>
+      </c>
+      <c r="K57" s="41"/>
       <c r="L57" s="41" t="s">
         <v>31</v>
       </c>
@@ -8710,15 +8843,13 @@
         <v>74</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I58" s="41"/>
       <c r="J58" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K58" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1358</v>
+      </c>
+      <c r="K58" s="41"/>
       <c r="L58" s="41" t="s">
         <v>31</v>
       </c>
@@ -8747,15 +8878,13 @@
         <v>74</v>
       </c>
       <c r="H59" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I59" s="41"/>
       <c r="J59" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K59" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1359</v>
+      </c>
+      <c r="K59" s="41"/>
       <c r="L59" s="41" t="s">
         <v>31</v>
       </c>
@@ -8784,15 +8913,13 @@
         <v>74</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I60" s="41"/>
       <c r="J60" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1359</v>
+      </c>
+      <c r="K60" s="41"/>
       <c r="L60" s="41" t="s">
         <v>31</v>
       </c>
@@ -8821,15 +8948,13 @@
         <v>74</v>
       </c>
       <c r="H61" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I61" s="41"/>
       <c r="J61" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="K61" s="41"/>
       <c r="L61" s="41" t="s">
         <v>31</v>
       </c>
@@ -8860,15 +8985,13 @@
         <v>74</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I62" s="41"/>
       <c r="J62" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K62" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="K62" s="41"/>
       <c r="L62" s="41" t="s">
         <v>31</v>
       </c>
@@ -8897,15 +9020,13 @@
         <v>74</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I63" s="41"/>
       <c r="J63" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K63" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="K63" s="41"/>
       <c r="L63" s="41" t="s">
         <v>31</v>
       </c>
@@ -8936,15 +9057,13 @@
         <v>74</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K64" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="K64" s="41"/>
       <c r="L64" s="41" t="s">
         <v>31</v>
       </c>
@@ -8973,15 +9092,13 @@
         <v>74</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K65" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1362</v>
+      </c>
+      <c r="K65" s="41"/>
       <c r="L65" s="41" t="s">
         <v>31</v>
       </c>
@@ -9012,15 +9129,13 @@
         <v>74</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I66" s="41"/>
       <c r="J66" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K66" s="41" t="s">
-        <v>1326</v>
-      </c>
+        <v>1362</v>
+      </c>
+      <c r="K66" s="41"/>
       <c r="L66" s="41" t="s">
         <v>31</v>
       </c>
@@ -9049,15 +9164,13 @@
         <v>74</v>
       </c>
       <c r="H67" s="44" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I67" s="44"/>
       <c r="J67" s="44" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K67" s="44" t="s">
-        <v>1326</v>
-      </c>
+        <v>1362</v>
+      </c>
+      <c r="K67" s="44"/>
       <c r="L67" s="44" t="s">
         <v>31</v>
       </c>
@@ -9088,15 +9201,13 @@
         <v>74</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I68" s="28"/>
       <c r="J68" s="28" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K68" s="28" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K68" s="28"/>
       <c r="L68" s="28" t="s">
         <v>31</v>
       </c>
@@ -9127,15 +9238,13 @@
         <v>74</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K69" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K69" s="30"/>
       <c r="L69" s="30" t="s">
         <v>31</v>
       </c>
@@ -9164,15 +9273,13 @@
         <v>74</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I70" s="30"/>
       <c r="J70" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K70" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K70" s="30"/>
       <c r="L70" s="30" t="s">
         <v>31</v>
       </c>
@@ -9203,15 +9310,13 @@
         <v>74</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I71" s="30"/>
       <c r="J71" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K71" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K71" s="30"/>
       <c r="L71" s="30" t="s">
         <v>31</v>
       </c>
@@ -9240,15 +9345,13 @@
         <v>74</v>
       </c>
       <c r="H72" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I72" s="30"/>
       <c r="J72" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K72" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K72" s="30"/>
       <c r="L72" s="30" t="s">
         <v>31</v>
       </c>
@@ -9279,15 +9382,13 @@
         <v>74</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I73" s="30"/>
       <c r="J73" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K73" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K73" s="30"/>
       <c r="L73" s="30" t="s">
         <v>31</v>
       </c>
@@ -9316,15 +9417,13 @@
         <v>74</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I74" s="30"/>
       <c r="J74" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K74" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="K74" s="30"/>
       <c r="L74" s="30" t="s">
         <v>31</v>
       </c>
@@ -9353,15 +9452,13 @@
         <v>74</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I75" s="30"/>
       <c r="J75" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K75" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="K75" s="30"/>
       <c r="L75" s="30" t="s">
         <v>31</v>
       </c>
@@ -9390,15 +9487,13 @@
         <v>74</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I76" s="30"/>
       <c r="J76" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K76" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1367</v>
+      </c>
+      <c r="K76" s="30"/>
       <c r="L76" s="30" t="s">
         <v>31</v>
       </c>
@@ -9429,15 +9524,13 @@
         <v>74</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I77" s="30"/>
       <c r="J77" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K77" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1367</v>
+      </c>
+      <c r="K77" s="30"/>
       <c r="L77" s="30" t="s">
         <v>31</v>
       </c>
@@ -9466,15 +9559,11 @@
         <v>74</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I78" s="30"/>
-      <c r="J78" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K78" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
       <c r="L78" s="30" t="s">
         <v>31</v>
       </c>
@@ -9503,15 +9592,11 @@
         <v>74</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I79" s="30"/>
-      <c r="J79" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K79" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
       <c r="L79" s="30" t="s">
         <v>31</v>
       </c>
@@ -9540,15 +9625,11 @@
         <v>74</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I80" s="30"/>
-      <c r="J80" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K80" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
       <c r="L80" s="30" t="s">
         <v>31</v>
       </c>
@@ -9577,15 +9658,11 @@
         <v>74</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I81" s="30"/>
-      <c r="J81" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K81" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
       <c r="L81" s="30" t="s">
         <v>31</v>
       </c>
@@ -9614,15 +9691,11 @@
         <v>74</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I82" s="30"/>
-      <c r="J82" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K82" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
       <c r="L82" s="30" t="s">
         <v>31</v>
       </c>
@@ -9651,15 +9724,13 @@
         <v>74</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I83" s="30"/>
       <c r="J83" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K83" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1368</v>
+      </c>
+      <c r="K83" s="30"/>
       <c r="L83" s="30" t="s">
         <v>31</v>
       </c>
@@ -9690,15 +9761,13 @@
         <v>74</v>
       </c>
       <c r="H84" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I84" s="30"/>
       <c r="J84" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K84" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1368</v>
+      </c>
+      <c r="K84" s="30"/>
       <c r="L84" s="30" t="s">
         <v>31</v>
       </c>
@@ -9727,15 +9796,13 @@
         <v>74</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I85" s="30"/>
       <c r="J85" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K85" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1369</v>
+      </c>
+      <c r="K85" s="30"/>
       <c r="L85" s="30" t="s">
         <v>31</v>
       </c>
@@ -9766,15 +9833,13 @@
         <v>74</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I86" s="30"/>
       <c r="J86" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K86" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1369</v>
+      </c>
+      <c r="K86" s="30"/>
       <c r="L86" s="30" t="s">
         <v>31</v>
       </c>
@@ -9803,15 +9868,13 @@
         <v>74</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I87" s="30"/>
       <c r="J87" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K87" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1370</v>
+      </c>
+      <c r="K87" s="30"/>
       <c r="L87" s="30" t="s">
         <v>31</v>
       </c>
@@ -9842,15 +9905,13 @@
         <v>74</v>
       </c>
       <c r="H88" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I88" s="30"/>
       <c r="J88" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K88" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1370</v>
+      </c>
+      <c r="K88" s="30"/>
       <c r="L88" s="30" t="s">
         <v>31</v>
       </c>
@@ -9879,15 +9940,13 @@
         <v>74</v>
       </c>
       <c r="H89" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I89" s="30"/>
       <c r="J89" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K89" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="K89" s="30"/>
       <c r="L89" s="30" t="s">
         <v>31</v>
       </c>
@@ -9918,15 +9977,13 @@
         <v>74</v>
       </c>
       <c r="H90" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I90" s="30"/>
       <c r="J90" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K90" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="K90" s="30"/>
       <c r="L90" s="30" t="s">
         <v>31</v>
       </c>
@@ -9955,15 +10012,13 @@
         <v>74</v>
       </c>
       <c r="H91" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I91" s="30"/>
       <c r="J91" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K91" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1372</v>
+      </c>
+      <c r="K91" s="30"/>
       <c r="L91" s="30" t="s">
         <v>31</v>
       </c>
@@ -9994,15 +10049,13 @@
         <v>74</v>
       </c>
       <c r="H92" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I92" s="30"/>
       <c r="J92" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K92" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1372</v>
+      </c>
+      <c r="K92" s="30"/>
       <c r="L92" s="30" t="s">
         <v>31</v>
       </c>
@@ -10031,15 +10084,13 @@
         <v>74</v>
       </c>
       <c r="H93" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I93" s="30"/>
       <c r="J93" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K93" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="K93" s="30"/>
       <c r="L93" s="30" t="s">
         <v>31</v>
       </c>
@@ -10070,15 +10121,13 @@
         <v>74</v>
       </c>
       <c r="H94" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I94" s="30"/>
       <c r="J94" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K94" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="K94" s="30"/>
       <c r="L94" s="30" t="s">
         <v>31</v>
       </c>
@@ -10107,15 +10156,13 @@
         <v>74</v>
       </c>
       <c r="H95" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K95" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="K95" s="30"/>
       <c r="L95" s="30" t="s">
         <v>31</v>
       </c>
@@ -10146,15 +10193,13 @@
         <v>74</v>
       </c>
       <c r="H96" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I96" s="30"/>
       <c r="J96" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K96" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="K96" s="30"/>
       <c r="L96" s="30" t="s">
         <v>31</v>
       </c>
@@ -10183,15 +10228,13 @@
         <v>74</v>
       </c>
       <c r="H97" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I97" s="30"/>
       <c r="J97" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K97" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1374</v>
+      </c>
+      <c r="K97" s="30"/>
       <c r="L97" s="30" t="s">
         <v>31</v>
       </c>
@@ -10220,15 +10263,13 @@
         <v>74</v>
       </c>
       <c r="H98" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I98" s="30"/>
       <c r="J98" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K98" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="K98" s="30"/>
       <c r="L98" s="30" t="s">
         <v>31</v>
       </c>
@@ -10259,15 +10300,13 @@
         <v>74</v>
       </c>
       <c r="H99" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I99" s="30"/>
       <c r="J99" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K99" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="K99" s="30"/>
       <c r="L99" s="30" t="s">
         <v>31</v>
       </c>
@@ -10296,15 +10335,13 @@
         <v>74</v>
       </c>
       <c r="H100" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I100" s="30"/>
       <c r="J100" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K100" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="K100" s="30"/>
       <c r="L100" s="30" t="s">
         <v>31</v>
       </c>
@@ -10333,15 +10370,13 @@
         <v>74</v>
       </c>
       <c r="H101" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I101" s="30"/>
       <c r="J101" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K101" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="K101" s="30"/>
       <c r="L101" s="30" t="s">
         <v>31</v>
       </c>
@@ -10372,15 +10407,13 @@
         <v>74</v>
       </c>
       <c r="H102" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I102" s="30"/>
       <c r="J102" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K102" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="K102" s="30"/>
       <c r="L102" s="30" t="s">
         <v>31</v>
       </c>
@@ -10409,15 +10442,13 @@
         <v>74</v>
       </c>
       <c r="H103" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I103" s="30"/>
       <c r="J103" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K103" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="K103" s="30"/>
       <c r="L103" s="30" t="s">
         <v>31</v>
       </c>
@@ -10448,15 +10479,13 @@
         <v>74</v>
       </c>
       <c r="H104" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I104" s="30"/>
       <c r="J104" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K104" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="K104" s="30"/>
       <c r="L104" s="30" t="s">
         <v>31</v>
       </c>
@@ -10485,15 +10514,13 @@
         <v>74</v>
       </c>
       <c r="H105" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I105" s="30"/>
       <c r="J105" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K105" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="K105" s="30"/>
       <c r="L105" s="30" t="s">
         <v>31</v>
       </c>
@@ -10524,15 +10551,13 @@
         <v>74</v>
       </c>
       <c r="H106" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I106" s="30"/>
       <c r="J106" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K106" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1375</v>
+      </c>
+      <c r="K106" s="30"/>
       <c r="L106" s="30" t="s">
         <v>31</v>
       </c>
@@ -10561,15 +10586,13 @@
         <v>74</v>
       </c>
       <c r="H107" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I107" s="30"/>
       <c r="J107" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K107" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="K107" s="30"/>
       <c r="L107" s="30" t="s">
         <v>31</v>
       </c>
@@ -10600,15 +10623,13 @@
         <v>74</v>
       </c>
       <c r="H108" s="32" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I108" s="32"/>
       <c r="J108" s="32" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K108" s="32" t="s">
-        <v>1326</v>
-      </c>
+        <v>1366</v>
+      </c>
+      <c r="K108" s="32"/>
       <c r="L108" s="32" t="s">
         <v>31</v>
       </c>
@@ -10639,15 +10660,11 @@
         <v>74</v>
       </c>
       <c r="H109" s="28" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I109" s="28"/>
-      <c r="J109" s="28" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K109" s="28" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
       <c r="L109" s="28" t="s">
         <v>31</v>
       </c>
@@ -10676,15 +10693,11 @@
         <v>74</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I110" s="41"/>
-      <c r="J110" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K110" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
       <c r="L110" s="41" t="s">
         <v>31</v>
       </c>
@@ -10713,15 +10726,11 @@
         <v>74</v>
       </c>
       <c r="H111" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I111" s="41"/>
-      <c r="J111" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K111" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
       <c r="L111" s="41" t="s">
         <v>31</v>
       </c>
@@ -10752,15 +10761,11 @@
         <v>74</v>
       </c>
       <c r="H112" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I112" s="41"/>
-      <c r="J112" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K112" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
       <c r="L112" s="41" t="s">
         <v>31</v>
       </c>
@@ -10789,15 +10794,11 @@
         <v>74</v>
       </c>
       <c r="H113" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I113" s="41"/>
-      <c r="J113" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K113" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
       <c r="L113" s="41" t="s">
         <v>31</v>
       </c>
@@ -10828,15 +10829,11 @@
         <v>74</v>
       </c>
       <c r="H114" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I114" s="41"/>
-      <c r="J114" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K114" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
       <c r="L114" s="41" t="s">
         <v>31</v>
       </c>
@@ -10865,15 +10862,11 @@
         <v>74</v>
       </c>
       <c r="H115" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I115" s="41"/>
-      <c r="J115" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K115" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
       <c r="L115" s="41" t="s">
         <v>31</v>
       </c>
@@ -10902,15 +10895,11 @@
         <v>74</v>
       </c>
       <c r="H116" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I116" s="41"/>
-      <c r="J116" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K116" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
       <c r="L116" s="41" t="s">
         <v>31</v>
       </c>
@@ -10939,15 +10928,11 @@
         <v>74</v>
       </c>
       <c r="H117" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I117" s="41"/>
-      <c r="J117" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K117" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
       <c r="L117" s="41" t="s">
         <v>31</v>
       </c>
@@ -10976,15 +10961,11 @@
         <v>74</v>
       </c>
       <c r="H118" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I118" s="41"/>
-      <c r="J118" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K118" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
       <c r="L118" s="41" t="s">
         <v>31</v>
       </c>
@@ -11013,15 +10994,11 @@
         <v>74</v>
       </c>
       <c r="H119" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I119" s="41"/>
-      <c r="J119" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K119" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
       <c r="L119" s="41" t="s">
         <v>31</v>
       </c>
@@ -11052,15 +11029,11 @@
         <v>74</v>
       </c>
       <c r="H120" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I120" s="41"/>
-      <c r="J120" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K120" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
       <c r="L120" s="41" t="s">
         <v>31</v>
       </c>
@@ -11089,15 +11062,11 @@
         <v>74</v>
       </c>
       <c r="H121" s="41" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I121" s="41"/>
-      <c r="J121" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K121" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
       <c r="L121" s="41" t="s">
         <v>31</v>
       </c>
@@ -11126,15 +11095,11 @@
         <v>74</v>
       </c>
       <c r="H122" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I122" s="41"/>
-      <c r="J122" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K122" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
       <c r="L122" s="41" t="s">
         <v>31</v>
       </c>
@@ -11165,15 +11130,11 @@
         <v>74</v>
       </c>
       <c r="H123" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I123" s="41"/>
-      <c r="J123" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K123" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
       <c r="L123" s="41" t="s">
         <v>31</v>
       </c>
@@ -11202,15 +11163,11 @@
         <v>74</v>
       </c>
       <c r="H124" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I124" s="30"/>
-      <c r="J124" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K124" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
       <c r="L124" s="30" t="s">
         <v>31</v>
       </c>
@@ -11239,15 +11196,11 @@
         <v>74</v>
       </c>
       <c r="H125" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I125" s="36"/>
-      <c r="J125" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K125" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
       <c r="L125" s="36" t="s">
         <v>31</v>
       </c>
@@ -11278,15 +11231,11 @@
         <v>74</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I126" s="36"/>
-      <c r="J126" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K126" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
       <c r="L126" s="36" t="s">
         <v>31</v>
       </c>
@@ -11315,15 +11264,11 @@
         <v>74</v>
       </c>
       <c r="H127" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I127" s="36"/>
-      <c r="J127" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K127" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
       <c r="L127" s="36" t="s">
         <v>31</v>
       </c>
@@ -11354,15 +11299,11 @@
         <v>74</v>
       </c>
       <c r="H128" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I128" s="36"/>
-      <c r="J128" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K128" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
       <c r="L128" s="36" t="s">
         <v>31</v>
       </c>
@@ -11391,15 +11332,11 @@
         <v>74</v>
       </c>
       <c r="H129" s="36" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I129" s="36"/>
-      <c r="J129" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K129" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
       <c r="L129" s="36" t="s">
         <v>31</v>
       </c>
@@ -11428,15 +11365,11 @@
         <v>74</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I130" s="36"/>
-      <c r="J130" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K130" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
       <c r="L130" s="36" t="s">
         <v>31</v>
       </c>
@@ -11467,15 +11400,11 @@
         <v>74</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I131" s="32"/>
-      <c r="J131" s="32" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K131" s="32" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
       <c r="L131" s="32" t="s">
         <v>31</v>
       </c>
@@ -11506,15 +11435,11 @@
         <v>74</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I132" s="41"/>
-      <c r="J132" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K132" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
       <c r="L132" s="41" t="s">
         <v>31</v>
       </c>
@@ -11545,15 +11470,11 @@
         <v>74</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I133" s="41"/>
-      <c r="J133" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K133" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
       <c r="L133" s="41" t="s">
         <v>31</v>
       </c>
@@ -11582,15 +11503,11 @@
         <v>74</v>
       </c>
       <c r="H134" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I134" s="41"/>
-      <c r="J134" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K134" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J134" s="41"/>
+      <c r="K134" s="41"/>
       <c r="L134" s="41" t="s">
         <v>31</v>
       </c>
@@ -11621,15 +11538,11 @@
         <v>74</v>
       </c>
       <c r="H135" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I135" s="41"/>
-      <c r="J135" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K135" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
       <c r="L135" s="41" t="s">
         <v>31</v>
       </c>
@@ -11658,15 +11571,11 @@
         <v>74</v>
       </c>
       <c r="H136" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I136" s="41"/>
-      <c r="J136" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K136" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
       <c r="L136" s="41" t="s">
         <v>31</v>
       </c>
@@ -11697,15 +11606,11 @@
         <v>74</v>
       </c>
       <c r="H137" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I137" s="41"/>
-      <c r="J137" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K137" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
       <c r="L137" s="41" t="s">
         <v>31</v>
       </c>
@@ -11734,15 +11639,11 @@
         <v>74</v>
       </c>
       <c r="H138" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I138" s="41"/>
-      <c r="J138" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K138" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
       <c r="L138" s="41" t="s">
         <v>31</v>
       </c>
@@ -11771,15 +11672,11 @@
         <v>74</v>
       </c>
       <c r="H139" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I139" s="41"/>
-      <c r="J139" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K139" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
       <c r="L139" s="41" t="s">
         <v>31</v>
       </c>
@@ -11810,15 +11707,11 @@
         <v>74</v>
       </c>
       <c r="H140" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I140" s="41"/>
-      <c r="J140" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K140" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
       <c r="L140" s="41" t="s">
         <v>31</v>
       </c>
@@ -11847,15 +11740,11 @@
         <v>74</v>
       </c>
       <c r="H141" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I141" s="41"/>
-      <c r="J141" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K141" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J141" s="41"/>
+      <c r="K141" s="41"/>
       <c r="L141" s="41" t="s">
         <v>31</v>
       </c>
@@ -11884,15 +11773,11 @@
         <v>74</v>
       </c>
       <c r="H142" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I142" s="41"/>
-      <c r="J142" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K142" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
       <c r="L142" s="41" t="s">
         <v>31</v>
       </c>
@@ -11923,15 +11808,11 @@
         <v>74</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I143" s="41"/>
-      <c r="J143" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K143" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J143" s="41"/>
+      <c r="K143" s="41"/>
       <c r="L143" s="41" t="s">
         <v>31</v>
       </c>
@@ -11960,15 +11841,11 @@
         <v>74</v>
       </c>
       <c r="H144" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I144" s="41"/>
-      <c r="J144" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K144" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
       <c r="L144" s="41" t="s">
         <v>31</v>
       </c>
@@ -11997,15 +11874,11 @@
         <v>74</v>
       </c>
       <c r="H145" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I145" s="41"/>
-      <c r="J145" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K145" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
       <c r="L145" s="41" t="s">
         <v>31</v>
       </c>
@@ -12036,15 +11909,11 @@
         <v>74</v>
       </c>
       <c r="H146" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I146" s="41"/>
-      <c r="J146" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K146" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J146" s="41"/>
+      <c r="K146" s="41"/>
       <c r="L146" s="41" t="s">
         <v>31</v>
       </c>
@@ -12073,15 +11942,11 @@
         <v>74</v>
       </c>
       <c r="H147" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I147" s="41"/>
-      <c r="J147" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K147" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J147" s="41"/>
+      <c r="K147" s="41"/>
       <c r="L147" s="41" t="s">
         <v>31</v>
       </c>
@@ -12110,15 +11975,11 @@
         <v>74</v>
       </c>
       <c r="H148" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I148" s="41"/>
-      <c r="J148" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K148" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J148" s="41"/>
+      <c r="K148" s="41"/>
       <c r="L148" s="41" t="s">
         <v>31</v>
       </c>
@@ -12149,15 +12010,11 @@
         <v>74</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I149" s="41"/>
-      <c r="J149" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K149" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J149" s="41"/>
+      <c r="K149" s="41"/>
       <c r="L149" s="41" t="s">
         <v>31</v>
       </c>
@@ -12186,15 +12043,11 @@
         <v>74</v>
       </c>
       <c r="H150" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I150" s="41"/>
-      <c r="J150" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K150" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
       <c r="L150" s="41" t="s">
         <v>31</v>
       </c>
@@ -12223,15 +12076,11 @@
         <v>74</v>
       </c>
       <c r="H151" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I151" s="41"/>
-      <c r="J151" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K151" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J151" s="41"/>
+      <c r="K151" s="41"/>
       <c r="L151" s="41" t="s">
         <v>31</v>
       </c>
@@ -12262,15 +12111,11 @@
         <v>74</v>
       </c>
       <c r="H152" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I152" s="41"/>
-      <c r="J152" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K152" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J152" s="41"/>
+      <c r="K152" s="41"/>
       <c r="L152" s="41" t="s">
         <v>31</v>
       </c>
@@ -12299,15 +12144,11 @@
         <v>74</v>
       </c>
       <c r="H153" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I153" s="41"/>
-      <c r="J153" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K153" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
       <c r="L153" s="41" t="s">
         <v>31</v>
       </c>
@@ -12336,15 +12177,11 @@
         <v>74</v>
       </c>
       <c r="H154" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I154" s="41"/>
-      <c r="J154" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K154" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J154" s="41"/>
+      <c r="K154" s="41"/>
       <c r="L154" s="41" t="s">
         <v>31</v>
       </c>
@@ -12375,15 +12212,11 @@
         <v>74</v>
       </c>
       <c r="H155" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I155" s="41"/>
-      <c r="J155" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K155" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J155" s="41"/>
+      <c r="K155" s="41"/>
       <c r="L155" s="41" t="s">
         <v>31</v>
       </c>
@@ -12412,15 +12245,11 @@
         <v>74</v>
       </c>
       <c r="H156" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I156" s="41"/>
-      <c r="J156" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K156" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J156" s="41"/>
+      <c r="K156" s="41"/>
       <c r="L156" s="41" t="s">
         <v>31</v>
       </c>
@@ -12449,15 +12278,11 @@
         <v>74</v>
       </c>
       <c r="H157" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I157" s="41"/>
-      <c r="J157" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K157" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
       <c r="L157" s="41" t="s">
         <v>31</v>
       </c>
@@ -12488,15 +12313,11 @@
         <v>74</v>
       </c>
       <c r="H158" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I158" s="41"/>
-      <c r="J158" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K158" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J158" s="41"/>
+      <c r="K158" s="41"/>
       <c r="L158" s="41" t="s">
         <v>31</v>
       </c>
@@ -12525,15 +12346,11 @@
         <v>74</v>
       </c>
       <c r="H159" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I159" s="41"/>
-      <c r="J159" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K159" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J159" s="41"/>
+      <c r="K159" s="41"/>
       <c r="L159" s="41" t="s">
         <v>31</v>
       </c>
@@ -12564,15 +12381,11 @@
         <v>74</v>
       </c>
       <c r="H160" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I160" s="41"/>
-      <c r="J160" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K160" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J160" s="41"/>
+      <c r="K160" s="41"/>
       <c r="L160" s="41" t="s">
         <v>31</v>
       </c>
@@ -12601,15 +12414,11 @@
         <v>74</v>
       </c>
       <c r="H161" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I161" s="41"/>
-      <c r="J161" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K161" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J161" s="41"/>
+      <c r="K161" s="41"/>
       <c r="L161" s="41" t="s">
         <v>31</v>
       </c>
@@ -12638,15 +12447,11 @@
         <v>74</v>
       </c>
       <c r="H162" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I162" s="41"/>
-      <c r="J162" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K162" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J162" s="41"/>
+      <c r="K162" s="41"/>
       <c r="L162" s="41" t="s">
         <v>31</v>
       </c>
@@ -12677,15 +12482,11 @@
         <v>74</v>
       </c>
       <c r="H163" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I163" s="41"/>
-      <c r="J163" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K163" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J163" s="41"/>
+      <c r="K163" s="41"/>
       <c r="L163" s="41" t="s">
         <v>31</v>
       </c>
@@ -12714,15 +12515,11 @@
         <v>74</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I164" s="41"/>
-      <c r="J164" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K164" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J164" s="41"/>
+      <c r="K164" s="41"/>
       <c r="L164" s="41" t="s">
         <v>31</v>
       </c>
@@ -12753,15 +12550,11 @@
         <v>74</v>
       </c>
       <c r="H165" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I165" s="41"/>
-      <c r="J165" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K165" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J165" s="41"/>
+      <c r="K165" s="41"/>
       <c r="L165" s="41" t="s">
         <v>31</v>
       </c>
@@ -12790,15 +12583,11 @@
         <v>74</v>
       </c>
       <c r="H166" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I166" s="41"/>
-      <c r="J166" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K166" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J166" s="41"/>
+      <c r="K166" s="41"/>
       <c r="L166" s="41" t="s">
         <v>31</v>
       </c>
@@ -12827,15 +12616,11 @@
         <v>74</v>
       </c>
       <c r="H167" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I167" s="41"/>
-      <c r="J167" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K167" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J167" s="41"/>
+      <c r="K167" s="41"/>
       <c r="L167" s="41" t="s">
         <v>31</v>
       </c>
@@ -12866,15 +12651,11 @@
         <v>74</v>
       </c>
       <c r="H168" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I168" s="41"/>
-      <c r="J168" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K168" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J168" s="41"/>
+      <c r="K168" s="41"/>
       <c r="L168" s="41" t="s">
         <v>31</v>
       </c>
@@ -12903,15 +12684,11 @@
         <v>74</v>
       </c>
       <c r="H169" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I169" s="41"/>
-      <c r="J169" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K169" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J169" s="41"/>
+      <c r="K169" s="41"/>
       <c r="L169" s="41" t="s">
         <v>31</v>
       </c>
@@ -12940,15 +12717,11 @@
         <v>74</v>
       </c>
       <c r="H170" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I170" s="41"/>
-      <c r="J170" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K170" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
       <c r="L170" s="41" t="s">
         <v>31</v>
       </c>
@@ -12977,15 +12750,11 @@
         <v>74</v>
       </c>
       <c r="H171" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I171" s="41"/>
-      <c r="J171" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K171" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
       <c r="L171" s="41" t="s">
         <v>31</v>
       </c>
@@ -13014,15 +12783,11 @@
         <v>74</v>
       </c>
       <c r="H172" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I172" s="41"/>
-      <c r="J172" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K172" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J172" s="41"/>
+      <c r="K172" s="41"/>
       <c r="L172" s="41" t="s">
         <v>31</v>
       </c>
@@ -13053,15 +12818,11 @@
         <v>74</v>
       </c>
       <c r="H173" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I173" s="41"/>
-      <c r="J173" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K173" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J173" s="41"/>
+      <c r="K173" s="41"/>
       <c r="L173" s="41" t="s">
         <v>31</v>
       </c>
@@ -13090,15 +12851,11 @@
         <v>74</v>
       </c>
       <c r="H174" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I174" s="41"/>
-      <c r="J174" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K174" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J174" s="41"/>
+      <c r="K174" s="41"/>
       <c r="L174" s="41" t="s">
         <v>31</v>
       </c>
@@ -13127,15 +12884,11 @@
         <v>74</v>
       </c>
       <c r="H175" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I175" s="41"/>
-      <c r="J175" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K175" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J175" s="41"/>
+      <c r="K175" s="41"/>
       <c r="L175" s="41" t="s">
         <v>31</v>
       </c>
@@ -13166,15 +12919,11 @@
         <v>74</v>
       </c>
       <c r="H176" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I176" s="41"/>
-      <c r="J176" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K176" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J176" s="41"/>
+      <c r="K176" s="41"/>
       <c r="L176" s="41" t="s">
         <v>31</v>
       </c>
@@ -13205,15 +12954,11 @@
         <v>74</v>
       </c>
       <c r="H177" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I177" s="41"/>
-      <c r="J177" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K177" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J177" s="41"/>
+      <c r="K177" s="41"/>
       <c r="L177" s="41" t="s">
         <v>31</v>
       </c>
@@ -13242,15 +12987,11 @@
         <v>74</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I178" s="41"/>
-      <c r="J178" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K178" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J178" s="41"/>
+      <c r="K178" s="41"/>
       <c r="L178" s="41" t="s">
         <v>31</v>
       </c>
@@ -13281,15 +13022,11 @@
         <v>74</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I179" s="41"/>
-      <c r="J179" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K179" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J179" s="41"/>
+      <c r="K179" s="41"/>
       <c r="L179" s="41" t="s">
         <v>31</v>
       </c>
@@ -13318,15 +13055,11 @@
         <v>74</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I180" s="41"/>
-      <c r="J180" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K180" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J180" s="41"/>
+      <c r="K180" s="41"/>
       <c r="L180" s="41" t="s">
         <v>31</v>
       </c>
@@ -13355,15 +13088,11 @@
         <v>74</v>
       </c>
       <c r="H181" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I181" s="41"/>
-      <c r="J181" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K181" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J181" s="41"/>
+      <c r="K181" s="41"/>
       <c r="L181" s="41" t="s">
         <v>31</v>
       </c>
@@ -13394,15 +13123,11 @@
         <v>74</v>
       </c>
       <c r="H182" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I182" s="41"/>
-      <c r="J182" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K182" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J182" s="41"/>
+      <c r="K182" s="41"/>
       <c r="L182" s="41" t="s">
         <v>31</v>
       </c>
@@ -13431,15 +13156,11 @@
         <v>74</v>
       </c>
       <c r="H183" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I183" s="41"/>
-      <c r="J183" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K183" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J183" s="41"/>
+      <c r="K183" s="41"/>
       <c r="L183" s="41" t="s">
         <v>31</v>
       </c>
@@ -13468,15 +13189,11 @@
         <v>74</v>
       </c>
       <c r="H184" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I184" s="41"/>
-      <c r="J184" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K184" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J184" s="41"/>
+      <c r="K184" s="41"/>
       <c r="L184" s="41" t="s">
         <v>31</v>
       </c>
@@ -13507,15 +13224,11 @@
         <v>74</v>
       </c>
       <c r="H185" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I185" s="41"/>
-      <c r="J185" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K185" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J185" s="41"/>
+      <c r="K185" s="41"/>
       <c r="L185" s="41" t="s">
         <v>31</v>
       </c>
@@ -13544,15 +13257,11 @@
         <v>74</v>
       </c>
       <c r="H186" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I186" s="41"/>
-      <c r="J186" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K186" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J186" s="41"/>
+      <c r="K186" s="41"/>
       <c r="L186" s="41" t="s">
         <v>31</v>
       </c>
@@ -13583,15 +13292,11 @@
         <v>74</v>
       </c>
       <c r="H187" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I187" s="41"/>
-      <c r="J187" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K187" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J187" s="41"/>
+      <c r="K187" s="41"/>
       <c r="L187" s="41" t="s">
         <v>31</v>
       </c>
@@ -13620,15 +13325,11 @@
         <v>74</v>
       </c>
       <c r="H188" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I188" s="41"/>
-      <c r="J188" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K188" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J188" s="41"/>
+      <c r="K188" s="41"/>
       <c r="L188" s="41" t="s">
         <v>31</v>
       </c>
@@ -13659,15 +13360,11 @@
         <v>74</v>
       </c>
       <c r="H189" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I189" s="41"/>
-      <c r="J189" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K189" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J189" s="41"/>
+      <c r="K189" s="41"/>
       <c r="L189" s="41" t="s">
         <v>31</v>
       </c>
@@ -13696,15 +13393,11 @@
         <v>74</v>
       </c>
       <c r="H190" s="41" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I190" s="41"/>
-      <c r="J190" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K190" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J190" s="41"/>
+      <c r="K190" s="41"/>
       <c r="L190" s="41" t="s">
         <v>31</v>
       </c>
@@ -13733,15 +13426,11 @@
         <v>74</v>
       </c>
       <c r="H191" s="41" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I191" s="41"/>
-      <c r="J191" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K191" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J191" s="41"/>
+      <c r="K191" s="41"/>
       <c r="L191" s="41" t="s">
         <v>31</v>
       </c>
@@ -13772,15 +13461,11 @@
         <v>74</v>
       </c>
       <c r="H192" s="41" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I192" s="41"/>
-      <c r="J192" s="41" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K192" s="41" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J192" s="41"/>
+      <c r="K192" s="41"/>
       <c r="L192" s="41" t="s">
         <v>31</v>
       </c>
@@ -13811,15 +13496,11 @@
         <v>74</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I193" s="30"/>
-      <c r="J193" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K193" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J193" s="30"/>
+      <c r="K193" s="30"/>
       <c r="L193" s="30" t="s">
         <v>31</v>
       </c>
@@ -13848,15 +13529,11 @@
         <v>74</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I194" s="30"/>
-      <c r="J194" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K194" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J194" s="30"/>
+      <c r="K194" s="30"/>
       <c r="L194" s="30" t="s">
         <v>31</v>
       </c>
@@ -13887,15 +13564,11 @@
         <v>74</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I195" s="30"/>
-      <c r="J195" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K195" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J195" s="30"/>
+      <c r="K195" s="30"/>
       <c r="L195" s="30" t="s">
         <v>31</v>
       </c>
@@ -13924,15 +13597,11 @@
         <v>74</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I196" s="30"/>
-      <c r="J196" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K196" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J196" s="30"/>
+      <c r="K196" s="30"/>
       <c r="L196" s="30" t="s">
         <v>31</v>
       </c>
@@ -13963,15 +13632,11 @@
         <v>74</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I197" s="30"/>
-      <c r="J197" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K197" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J197" s="30"/>
+      <c r="K197" s="30"/>
       <c r="L197" s="30" t="s">
         <v>31</v>
       </c>
@@ -14000,15 +13665,11 @@
         <v>74</v>
       </c>
       <c r="H198" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I198" s="30"/>
-      <c r="J198" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K198" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J198" s="30"/>
+      <c r="K198" s="30"/>
       <c r="L198" s="30" t="s">
         <v>31</v>
       </c>
@@ -14039,15 +13700,11 @@
         <v>74</v>
       </c>
       <c r="H199" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I199" s="30"/>
-      <c r="J199" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K199" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J199" s="30"/>
+      <c r="K199" s="30"/>
       <c r="L199" s="30" t="s">
         <v>31</v>
       </c>
@@ -14076,15 +13733,11 @@
         <v>74</v>
       </c>
       <c r="H200" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I200" s="30"/>
-      <c r="J200" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K200" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J200" s="30"/>
+      <c r="K200" s="30"/>
       <c r="L200" s="30" t="s">
         <v>31</v>
       </c>
@@ -14113,15 +13766,11 @@
         <v>74</v>
       </c>
       <c r="H201" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I201" s="30"/>
-      <c r="J201" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K201" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J201" s="30"/>
+      <c r="K201" s="30"/>
       <c r="L201" s="30" t="s">
         <v>31</v>
       </c>
@@ -14152,15 +13801,11 @@
         <v>74</v>
       </c>
       <c r="H202" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I202" s="30"/>
-      <c r="J202" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K202" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J202" s="30"/>
+      <c r="K202" s="30"/>
       <c r="L202" s="30" t="s">
         <v>31</v>
       </c>
@@ -14189,15 +13834,11 @@
         <v>74</v>
       </c>
       <c r="H203" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I203" s="30"/>
-      <c r="J203" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K203" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J203" s="30"/>
+      <c r="K203" s="30"/>
       <c r="L203" s="30" t="s">
         <v>31</v>
       </c>
@@ -14228,15 +13869,11 @@
         <v>74</v>
       </c>
       <c r="H204" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I204" s="30"/>
-      <c r="J204" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K204" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J204" s="30"/>
+      <c r="K204" s="30"/>
       <c r="L204" s="30" t="s">
         <v>31</v>
       </c>
@@ -14265,15 +13902,11 @@
         <v>74</v>
       </c>
       <c r="H205" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I205" s="30"/>
-      <c r="J205" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K205" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J205" s="30"/>
+      <c r="K205" s="30"/>
       <c r="L205" s="30" t="s">
         <v>31</v>
       </c>
@@ -14304,15 +13937,11 @@
         <v>74</v>
       </c>
       <c r="H206" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I206" s="30"/>
-      <c r="J206" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K206" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J206" s="30"/>
+      <c r="K206" s="30"/>
       <c r="L206" s="30" t="s">
         <v>31</v>
       </c>
@@ -14341,15 +13970,11 @@
         <v>74</v>
       </c>
       <c r="H207" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I207" s="30"/>
-      <c r="J207" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K207" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J207" s="30"/>
+      <c r="K207" s="30"/>
       <c r="L207" s="30" t="s">
         <v>31</v>
       </c>
@@ -14378,15 +14003,11 @@
         <v>74</v>
       </c>
       <c r="H208" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I208" s="30"/>
-      <c r="J208" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K208" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J208" s="30"/>
+      <c r="K208" s="30"/>
       <c r="L208" s="30" t="s">
         <v>31</v>
       </c>
@@ -14417,15 +14038,11 @@
         <v>74</v>
       </c>
       <c r="H209" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I209" s="30"/>
-      <c r="J209" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K209" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J209" s="30"/>
+      <c r="K209" s="30"/>
       <c r="L209" s="30" t="s">
         <v>31</v>
       </c>
@@ -14454,15 +14071,11 @@
         <v>74</v>
       </c>
       <c r="H210" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I210" s="30"/>
-      <c r="J210" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K210" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J210" s="30"/>
+      <c r="K210" s="30"/>
       <c r="L210" s="30" t="s">
         <v>31</v>
       </c>
@@ -14491,15 +14104,11 @@
         <v>74</v>
       </c>
       <c r="H211" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I211" s="30"/>
-      <c r="J211" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K211" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J211" s="30"/>
+      <c r="K211" s="30"/>
       <c r="L211" s="30" t="s">
         <v>31</v>
       </c>
@@ -14530,15 +14139,11 @@
         <v>74</v>
       </c>
       <c r="H212" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I212" s="30"/>
-      <c r="J212" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K212" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J212" s="30"/>
+      <c r="K212" s="30"/>
       <c r="L212" s="30" t="s">
         <v>31</v>
       </c>
@@ -14567,15 +14172,11 @@
         <v>74</v>
       </c>
       <c r="H213" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I213" s="30"/>
-      <c r="J213" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K213" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J213" s="30"/>
+      <c r="K213" s="30"/>
       <c r="L213" s="30" t="s">
         <v>31</v>
       </c>
@@ -14604,15 +14205,11 @@
         <v>74</v>
       </c>
       <c r="H214" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I214" s="30"/>
-      <c r="J214" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K214" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J214" s="30"/>
+      <c r="K214" s="30"/>
       <c r="L214" s="30" t="s">
         <v>31</v>
       </c>
@@ -14643,15 +14240,11 @@
         <v>74</v>
       </c>
       <c r="H215" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I215" s="30"/>
-      <c r="J215" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K215" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J215" s="30"/>
+      <c r="K215" s="30"/>
       <c r="L215" s="30" t="s">
         <v>31</v>
       </c>
@@ -14682,15 +14275,11 @@
         <v>74</v>
       </c>
       <c r="H216" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I216" s="30"/>
-      <c r="J216" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K216" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J216" s="30"/>
+      <c r="K216" s="30"/>
       <c r="L216" s="30" t="s">
         <v>31</v>
       </c>
@@ -14721,15 +14310,11 @@
         <v>74</v>
       </c>
       <c r="H217" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I217" s="30"/>
-      <c r="J217" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K217" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J217" s="30"/>
+      <c r="K217" s="30"/>
       <c r="L217" s="30" t="s">
         <v>31</v>
       </c>
@@ -14758,15 +14343,11 @@
         <v>74</v>
       </c>
       <c r="H218" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I218" s="30"/>
-      <c r="J218" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K218" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J218" s="30"/>
+      <c r="K218" s="30"/>
       <c r="L218" s="30" t="s">
         <v>31</v>
       </c>
@@ -14795,15 +14376,11 @@
         <v>74</v>
       </c>
       <c r="H219" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I219" s="30"/>
-      <c r="J219" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K219" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J219" s="30"/>
+      <c r="K219" s="30"/>
       <c r="L219" s="30" t="s">
         <v>31</v>
       </c>
@@ -14834,15 +14411,11 @@
         <v>74</v>
       </c>
       <c r="H220" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I220" s="30"/>
-      <c r="J220" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K220" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J220" s="30"/>
+      <c r="K220" s="30"/>
       <c r="L220" s="30" t="s">
         <v>31</v>
       </c>
@@ -14871,15 +14444,11 @@
         <v>74</v>
       </c>
       <c r="H221" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I221" s="30"/>
-      <c r="J221" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K221" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J221" s="30"/>
+      <c r="K221" s="30"/>
       <c r="L221" s="30" t="s">
         <v>31</v>
       </c>
@@ -14908,15 +14477,11 @@
         <v>74</v>
       </c>
       <c r="H222" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I222" s="30"/>
-      <c r="J222" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K222" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J222" s="30"/>
+      <c r="K222" s="30"/>
       <c r="L222" s="30" t="s">
         <v>31</v>
       </c>
@@ -14947,15 +14512,11 @@
         <v>74</v>
       </c>
       <c r="H223" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I223" s="30"/>
-      <c r="J223" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K223" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J223" s="30"/>
+      <c r="K223" s="30"/>
       <c r="L223" s="30" t="s">
         <v>31</v>
       </c>
@@ -14984,15 +14545,11 @@
         <v>74</v>
       </c>
       <c r="H224" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I224" s="30"/>
-      <c r="J224" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K224" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J224" s="30"/>
+      <c r="K224" s="30"/>
       <c r="L224" s="30" t="s">
         <v>31</v>
       </c>
@@ -15021,15 +14578,11 @@
         <v>74</v>
       </c>
       <c r="H225" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I225" s="30"/>
-      <c r="J225" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K225" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J225" s="30"/>
+      <c r="K225" s="30"/>
       <c r="L225" s="30" t="s">
         <v>31</v>
       </c>
@@ -15060,15 +14613,11 @@
         <v>74</v>
       </c>
       <c r="H226" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I226" s="30"/>
-      <c r="J226" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K226" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J226" s="30"/>
+      <c r="K226" s="30"/>
       <c r="L226" s="30" t="s">
         <v>31</v>
       </c>
@@ -15097,15 +14646,11 @@
         <v>74</v>
       </c>
       <c r="H227" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I227" s="30"/>
-      <c r="J227" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K227" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J227" s="30"/>
+      <c r="K227" s="30"/>
       <c r="L227" s="30" t="s">
         <v>31</v>
       </c>
@@ -15136,15 +14681,11 @@
         <v>74</v>
       </c>
       <c r="H228" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I228" s="30"/>
-      <c r="J228" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K228" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J228" s="30"/>
+      <c r="K228" s="30"/>
       <c r="L228" s="30" t="s">
         <v>31</v>
       </c>
@@ -15173,15 +14714,13 @@
         <v>74</v>
       </c>
       <c r="H229" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I229" s="30"/>
       <c r="J229" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K229" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1367</v>
+      </c>
+      <c r="K229" s="30"/>
       <c r="L229" s="30" t="s">
         <v>31</v>
       </c>
@@ -15212,15 +14751,13 @@
         <v>74</v>
       </c>
       <c r="H230" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I230" s="30"/>
       <c r="J230" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K230" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1367</v>
+      </c>
+      <c r="K230" s="30"/>
       <c r="L230" s="30" t="s">
         <v>31</v>
       </c>
@@ -15249,15 +14786,13 @@
         <v>74</v>
       </c>
       <c r="H231" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I231" s="30"/>
       <c r="J231" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K231" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1367</v>
+      </c>
+      <c r="K231" s="30"/>
       <c r="L231" s="30" t="s">
         <v>31</v>
       </c>
@@ -15286,15 +14821,11 @@
         <v>74</v>
       </c>
       <c r="H232" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I232" s="30"/>
-      <c r="J232" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K232" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J232" s="30"/>
+      <c r="K232" s="30"/>
       <c r="L232" s="30" t="s">
         <v>31</v>
       </c>
@@ -15325,15 +14856,11 @@
         <v>74</v>
       </c>
       <c r="H233" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I233" s="30"/>
-      <c r="J233" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K233" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J233" s="30"/>
+      <c r="K233" s="30"/>
       <c r="L233" s="30" t="s">
         <v>31</v>
       </c>
@@ -15362,15 +14889,11 @@
         <v>74</v>
       </c>
       <c r="H234" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I234" s="30"/>
-      <c r="J234" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K234" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J234" s="30"/>
+      <c r="K234" s="30"/>
       <c r="L234" s="30" t="s">
         <v>31</v>
       </c>
@@ -15399,15 +14922,13 @@
         <v>74</v>
       </c>
       <c r="H235" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I235" s="30"/>
       <c r="J235" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K235" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K235" s="30"/>
       <c r="L235" s="30" t="s">
         <v>31</v>
       </c>
@@ -15438,15 +14959,13 @@
         <v>74</v>
       </c>
       <c r="H236" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I236" s="30"/>
       <c r="J236" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K236" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K236" s="30"/>
       <c r="L236" s="30" t="s">
         <v>31</v>
       </c>
@@ -15475,15 +14994,13 @@
         <v>74</v>
       </c>
       <c r="H237" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I237" s="30"/>
       <c r="J237" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K237" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K237" s="30"/>
       <c r="L237" s="30" t="s">
         <v>31</v>
       </c>
@@ -15512,15 +15029,13 @@
         <v>74</v>
       </c>
       <c r="H238" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I238" s="30"/>
       <c r="J238" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K238" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K238" s="30"/>
       <c r="L238" s="30" t="s">
         <v>31</v>
       </c>
@@ -15549,15 +15064,13 @@
         <v>74</v>
       </c>
       <c r="H239" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I239" s="30"/>
       <c r="J239" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K239" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K239" s="30"/>
       <c r="L239" s="30" t="s">
         <v>31</v>
       </c>
@@ -15588,15 +15101,13 @@
         <v>74</v>
       </c>
       <c r="H240" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I240" s="30"/>
       <c r="J240" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K240" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K240" s="30"/>
       <c r="L240" s="30" t="s">
         <v>31</v>
       </c>
@@ -15625,15 +15136,13 @@
         <v>74</v>
       </c>
       <c r="H241" s="30" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I241" s="30"/>
       <c r="J241" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K241" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K241" s="30"/>
       <c r="L241" s="30" t="s">
         <v>31</v>
       </c>
@@ -15664,15 +15173,13 @@
         <v>74</v>
       </c>
       <c r="H242" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I242" s="30"/>
       <c r="J242" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K242" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="K242" s="30"/>
       <c r="L242" s="30" t="s">
         <v>31</v>
       </c>
@@ -15703,15 +15210,13 @@
         <v>74</v>
       </c>
       <c r="H243" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I243" s="30"/>
       <c r="J243" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K243" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1360</v>
+      </c>
+      <c r="K243" s="30"/>
       <c r="L243" s="30" t="s">
         <v>31</v>
       </c>
@@ -15742,15 +15247,13 @@
         <v>74</v>
       </c>
       <c r="H244" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I244" s="30"/>
       <c r="J244" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K244" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="K244" s="30"/>
       <c r="L244" s="30" t="s">
         <v>31</v>
       </c>
@@ -15781,15 +15284,13 @@
         <v>74</v>
       </c>
       <c r="H245" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I245" s="30"/>
       <c r="J245" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K245" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="K245" s="30"/>
       <c r="L245" s="30" t="s">
         <v>31</v>
       </c>
@@ -15818,15 +15319,13 @@
         <v>74</v>
       </c>
       <c r="H246" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I246" s="30"/>
       <c r="J246" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K246" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1376</v>
+      </c>
+      <c r="K246" s="30"/>
       <c r="L246" s="30" t="s">
         <v>31</v>
       </c>
@@ -15857,15 +15356,13 @@
         <v>74</v>
       </c>
       <c r="H247" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I247" s="30"/>
       <c r="J247" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K247" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1376</v>
+      </c>
+      <c r="K247" s="30"/>
       <c r="L247" s="30" t="s">
         <v>31</v>
       </c>
@@ -15894,15 +15391,13 @@
         <v>74</v>
       </c>
       <c r="H248" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I248" s="30"/>
       <c r="J248" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K248" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1377</v>
+      </c>
+      <c r="K248" s="30"/>
       <c r="L248" s="30" t="s">
         <v>31</v>
       </c>
@@ -15933,15 +15428,13 @@
         <v>74</v>
       </c>
       <c r="H249" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I249" s="30"/>
       <c r="J249" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K249" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1377</v>
+      </c>
+      <c r="K249" s="30"/>
       <c r="L249" s="30" t="s">
         <v>31</v>
       </c>
@@ -15970,15 +15463,13 @@
         <v>74</v>
       </c>
       <c r="H250" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I250" s="30"/>
       <c r="J250" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K250" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1378</v>
+      </c>
+      <c r="K250" s="30"/>
       <c r="L250" s="30" t="s">
         <v>31</v>
       </c>
@@ -16009,15 +15500,13 @@
         <v>74</v>
       </c>
       <c r="H251" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I251" s="30"/>
       <c r="J251" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K251" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1378</v>
+      </c>
+      <c r="K251" s="30"/>
       <c r="L251" s="30" t="s">
         <v>31</v>
       </c>
@@ -16046,15 +15535,13 @@
         <v>74</v>
       </c>
       <c r="H252" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I252" s="30"/>
       <c r="J252" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K252" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1378</v>
+      </c>
+      <c r="K252" s="30"/>
       <c r="L252" s="30" t="s">
         <v>31</v>
       </c>
@@ -16083,15 +15570,13 @@
         <v>74</v>
       </c>
       <c r="H253" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I253" s="30"/>
       <c r="J253" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K253" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1379</v>
+      </c>
+      <c r="K253" s="30"/>
       <c r="L253" s="30" t="s">
         <v>31</v>
       </c>
@@ -16122,15 +15607,13 @@
         <v>74</v>
       </c>
       <c r="H254" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I254" s="30"/>
       <c r="J254" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K254" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1379</v>
+      </c>
+      <c r="K254" s="30"/>
       <c r="L254" s="30" t="s">
         <v>31</v>
       </c>
@@ -16161,15 +15644,11 @@
         <v>74</v>
       </c>
       <c r="H255" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I255" s="30"/>
-      <c r="J255" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K255" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J255" s="30"/>
+      <c r="K255" s="30"/>
       <c r="L255" s="30" t="s">
         <v>31</v>
       </c>
@@ -16200,15 +15679,11 @@
         <v>74</v>
       </c>
       <c r="H256" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I256" s="30"/>
-      <c r="J256" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K256" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J256" s="30"/>
+      <c r="K256" s="30"/>
       <c r="L256" s="30" t="s">
         <v>31</v>
       </c>
@@ -16237,15 +15712,11 @@
         <v>74</v>
       </c>
       <c r="H257" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I257" s="30"/>
-      <c r="J257" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K257" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J257" s="30"/>
+      <c r="K257" s="30"/>
       <c r="L257" s="30" t="s">
         <v>31</v>
       </c>
@@ -16274,15 +15745,11 @@
         <v>74</v>
       </c>
       <c r="H258" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I258" s="30"/>
-      <c r="J258" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K258" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J258" s="30"/>
+      <c r="K258" s="30"/>
       <c r="L258" s="30" t="s">
         <v>31</v>
       </c>
@@ -16313,15 +15780,11 @@
         <v>74</v>
       </c>
       <c r="H259" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I259" s="30"/>
-      <c r="J259" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K259" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J259" s="30"/>
+      <c r="K259" s="30"/>
       <c r="L259" s="30" t="s">
         <v>31</v>
       </c>
@@ -16350,15 +15813,13 @@
         <v>74</v>
       </c>
       <c r="H260" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I260" s="30"/>
       <c r="J260" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K260" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1380</v>
+      </c>
+      <c r="K260" s="30"/>
       <c r="L260" s="30" t="s">
         <v>31</v>
       </c>
@@ -16389,15 +15850,11 @@
         <v>74</v>
       </c>
       <c r="H261" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I261" s="30"/>
-      <c r="J261" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K261" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J261" s="30"/>
+      <c r="K261" s="30"/>
       <c r="L261" s="30" t="s">
         <v>31</v>
       </c>
@@ -16428,15 +15885,11 @@
         <v>74</v>
       </c>
       <c r="H262" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I262" s="30"/>
-      <c r="J262" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K262" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J262" s="30"/>
+      <c r="K262" s="30"/>
       <c r="L262" s="30" t="s">
         <v>31</v>
       </c>
@@ -16465,15 +15918,11 @@
         <v>74</v>
       </c>
       <c r="H263" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I263" s="30"/>
-      <c r="J263" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K263" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J263" s="30"/>
+      <c r="K263" s="30"/>
       <c r="L263" s="30" t="s">
         <v>31</v>
       </c>
@@ -16502,15 +15951,11 @@
         <v>74</v>
       </c>
       <c r="H264" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I264" s="30"/>
-      <c r="J264" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K264" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J264" s="30"/>
+      <c r="K264" s="30"/>
       <c r="L264" s="30" t="s">
         <v>31</v>
       </c>
@@ -16541,15 +15986,11 @@
         <v>74</v>
       </c>
       <c r="H265" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I265" s="30"/>
-      <c r="J265" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K265" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J265" s="30"/>
+      <c r="K265" s="30"/>
       <c r="L265" s="30" t="s">
         <v>31</v>
       </c>
@@ -16578,15 +16019,11 @@
         <v>74</v>
       </c>
       <c r="H266" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I266" s="30"/>
-      <c r="J266" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K266" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J266" s="30"/>
+      <c r="K266" s="30"/>
       <c r="L266" s="30" t="s">
         <v>31</v>
       </c>
@@ -16615,15 +16052,11 @@
         <v>74</v>
       </c>
       <c r="H267" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I267" s="30"/>
-      <c r="J267" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K267" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J267" s="30"/>
+      <c r="K267" s="30"/>
       <c r="L267" s="30" t="s">
         <v>31</v>
       </c>
@@ -16654,15 +16087,11 @@
         <v>74</v>
       </c>
       <c r="H268" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I268" s="30"/>
-      <c r="J268" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K268" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J268" s="30"/>
+      <c r="K268" s="30"/>
       <c r="L268" s="30" t="s">
         <v>31</v>
       </c>
@@ -16691,15 +16120,11 @@
         <v>74</v>
       </c>
       <c r="H269" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I269" s="30"/>
-      <c r="J269" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K269" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J269" s="30"/>
+      <c r="K269" s="30"/>
       <c r="L269" s="30" t="s">
         <v>31</v>
       </c>
@@ -16730,15 +16155,11 @@
         <v>74</v>
       </c>
       <c r="H270" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I270" s="30"/>
-      <c r="J270" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K270" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J270" s="30"/>
+      <c r="K270" s="30"/>
       <c r="L270" s="30" t="s">
         <v>31</v>
       </c>
@@ -16767,15 +16188,11 @@
         <v>74</v>
       </c>
       <c r="H271" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I271" s="30"/>
-      <c r="J271" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K271" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J271" s="30"/>
+      <c r="K271" s="30"/>
       <c r="L271" s="30" t="s">
         <v>31</v>
       </c>
@@ -16806,15 +16223,11 @@
         <v>74</v>
       </c>
       <c r="H272" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I272" s="30"/>
-      <c r="J272" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K272" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J272" s="30"/>
+      <c r="K272" s="30"/>
       <c r="L272" s="30" t="s">
         <v>31</v>
       </c>
@@ -16845,15 +16258,11 @@
         <v>74</v>
       </c>
       <c r="H273" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I273" s="30"/>
-      <c r="J273" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K273" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J273" s="30"/>
+      <c r="K273" s="30"/>
       <c r="L273" s="30" t="s">
         <v>31</v>
       </c>
@@ -16884,15 +16293,11 @@
         <v>74</v>
       </c>
       <c r="H274" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I274" s="30"/>
-      <c r="J274" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K274" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J274" s="30"/>
+      <c r="K274" s="30"/>
       <c r="L274" s="30" t="s">
         <v>31</v>
       </c>
@@ -16923,15 +16328,11 @@
         <v>74</v>
       </c>
       <c r="H275" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I275" s="30"/>
-      <c r="J275" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K275" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J275" s="30"/>
+      <c r="K275" s="30"/>
       <c r="L275" s="30" t="s">
         <v>31</v>
       </c>
@@ -16960,15 +16361,11 @@
         <v>74</v>
       </c>
       <c r="H276" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I276" s="30"/>
-      <c r="J276" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K276" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J276" s="30"/>
+      <c r="K276" s="30"/>
       <c r="L276" s="30" t="s">
         <v>31</v>
       </c>
@@ -16997,15 +16394,11 @@
         <v>74</v>
       </c>
       <c r="H277" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I277" s="30"/>
-      <c r="J277" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K277" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J277" s="30"/>
+      <c r="K277" s="30"/>
       <c r="L277" s="30" t="s">
         <v>31</v>
       </c>
@@ -17036,15 +16429,11 @@
         <v>74</v>
       </c>
       <c r="H278" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I278" s="30"/>
-      <c r="J278" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K278" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J278" s="30"/>
+      <c r="K278" s="30"/>
       <c r="L278" s="30" t="s">
         <v>31</v>
       </c>
@@ -17073,15 +16462,11 @@
         <v>74</v>
       </c>
       <c r="H279" s="30" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I279" s="30"/>
-      <c r="J279" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K279" s="30" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J279" s="30"/>
+      <c r="K279" s="30"/>
       <c r="L279" s="30" t="s">
         <v>31</v>
       </c>
@@ -17112,15 +16497,13 @@
         <v>74</v>
       </c>
       <c r="H280" s="30" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I280" s="30"/>
       <c r="J280" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K280" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K280" s="30"/>
       <c r="L280" s="30" t="s">
         <v>31</v>
       </c>
@@ -17151,15 +16534,13 @@
         <v>74</v>
       </c>
       <c r="H281" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I281" s="36"/>
       <c r="J281" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K281" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K281" s="36"/>
       <c r="L281" s="36" t="s">
         <v>31</v>
       </c>
@@ -17188,15 +16569,13 @@
         <v>74</v>
       </c>
       <c r="H282" s="36" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I282" s="36"/>
       <c r="J282" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K282" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K282" s="36"/>
       <c r="L282" s="36" t="s">
         <v>31</v>
       </c>
@@ -17225,15 +16604,13 @@
         <v>74</v>
       </c>
       <c r="H283" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I283" s="36"/>
       <c r="J283" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K283" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="K283" s="36"/>
       <c r="L283" s="36" t="s">
         <v>31</v>
       </c>
@@ -17264,15 +16641,13 @@
         <v>74</v>
       </c>
       <c r="H284" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I284" s="36"/>
       <c r="J284" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K284" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="K284" s="36"/>
       <c r="L284" s="36" t="s">
         <v>31</v>
       </c>
@@ -17301,15 +16676,13 @@
         <v>74</v>
       </c>
       <c r="H285" s="36" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I285" s="36"/>
       <c r="J285" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K285" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1373</v>
+      </c>
+      <c r="K285" s="36"/>
       <c r="L285" s="36" t="s">
         <v>31</v>
       </c>
@@ -17338,15 +16711,13 @@
         <v>74</v>
       </c>
       <c r="H286" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I286" s="36"/>
       <c r="J286" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K286" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1381</v>
+      </c>
+      <c r="K286" s="36"/>
       <c r="L286" s="36" t="s">
         <v>31</v>
       </c>
@@ -17377,15 +16748,13 @@
         <v>74</v>
       </c>
       <c r="H287" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I287" s="36"/>
       <c r="J287" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K287" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1381</v>
+      </c>
+      <c r="K287" s="36"/>
       <c r="L287" s="36" t="s">
         <v>31</v>
       </c>
@@ -17414,15 +16783,13 @@
         <v>74</v>
       </c>
       <c r="H288" s="36" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I288" s="36"/>
       <c r="J288" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K288" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1381</v>
+      </c>
+      <c r="K288" s="36"/>
       <c r="L288" s="36" t="s">
         <v>31</v>
       </c>
@@ -17451,15 +16818,13 @@
         <v>74</v>
       </c>
       <c r="H289" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I289" s="36"/>
       <c r="J289" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K289" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K289" s="36"/>
       <c r="L289" s="36" t="s">
         <v>31</v>
       </c>
@@ -17490,15 +16855,13 @@
         <v>74</v>
       </c>
       <c r="H290" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I290" s="36"/>
       <c r="J290" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K290" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K290" s="36"/>
       <c r="L290" s="36" t="s">
         <v>31</v>
       </c>
@@ -17527,15 +16890,13 @@
         <v>74</v>
       </c>
       <c r="H291" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I291" s="36"/>
       <c r="J291" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K291" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K291" s="36"/>
       <c r="L291" s="36" t="s">
         <v>31</v>
       </c>
@@ -17566,15 +16927,13 @@
         <v>74</v>
       </c>
       <c r="H292" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I292" s="36"/>
       <c r="J292" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K292" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K292" s="36"/>
       <c r="L292" s="36" t="s">
         <v>31</v>
       </c>
@@ -17605,15 +16964,13 @@
         <v>74</v>
       </c>
       <c r="H293" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I293" s="36"/>
       <c r="J293" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K293" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K293" s="36"/>
       <c r="L293" s="36" t="s">
         <v>31</v>
       </c>
@@ -17642,15 +16999,13 @@
         <v>74</v>
       </c>
       <c r="H294" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I294" s="36"/>
       <c r="J294" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K294" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K294" s="36"/>
       <c r="L294" s="36" t="s">
         <v>31</v>
       </c>
@@ -17679,15 +17034,13 @@
         <v>74</v>
       </c>
       <c r="H295" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I295" s="36"/>
       <c r="J295" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K295" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K295" s="36"/>
       <c r="L295" s="36" t="s">
         <v>31</v>
       </c>
@@ -17718,15 +17071,13 @@
         <v>74</v>
       </c>
       <c r="H296" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I296" s="36"/>
       <c r="J296" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K296" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K296" s="36"/>
       <c r="L296" s="36" t="s">
         <v>31</v>
       </c>
@@ -17755,15 +17106,13 @@
         <v>74</v>
       </c>
       <c r="H297" s="36" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I297" s="36"/>
       <c r="J297" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K297" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K297" s="36"/>
       <c r="L297" s="36" t="s">
         <v>31</v>
       </c>
@@ -17792,15 +17141,13 @@
         <v>74</v>
       </c>
       <c r="H298" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I298" s="36"/>
       <c r="J298" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K298" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K298" s="36"/>
       <c r="L298" s="36" t="s">
         <v>31</v>
       </c>
@@ -17831,15 +17178,13 @@
         <v>74</v>
       </c>
       <c r="H299" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I299" s="30"/>
       <c r="J299" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K299" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K299" s="30"/>
       <c r="L299" s="30" t="s">
         <v>31</v>
       </c>
@@ -17870,15 +17215,13 @@
         <v>74</v>
       </c>
       <c r="H300" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I300" s="36"/>
       <c r="J300" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K300" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K300" s="36"/>
       <c r="L300" s="36" t="s">
         <v>31</v>
       </c>
@@ -17909,15 +17252,13 @@
         <v>74</v>
       </c>
       <c r="H301" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I301" s="36"/>
       <c r="J301" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K301" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K301" s="36"/>
       <c r="L301" s="36" t="s">
         <v>31</v>
       </c>
@@ -17946,15 +17287,13 @@
         <v>74</v>
       </c>
       <c r="H302" s="36" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I302" s="36"/>
       <c r="J302" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K302" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1365</v>
+      </c>
+      <c r="K302" s="36"/>
       <c r="L302" s="36" t="s">
         <v>31</v>
       </c>
@@ -17983,15 +17322,13 @@
         <v>74</v>
       </c>
       <c r="H303" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I303" s="36"/>
       <c r="J303" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K303" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="K303" s="36"/>
       <c r="L303" s="36" t="s">
         <v>31</v>
       </c>
@@ -18022,15 +17359,13 @@
         <v>74</v>
       </c>
       <c r="H304" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I304" s="36"/>
       <c r="J304" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K304" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="K304" s="36"/>
       <c r="L304" s="36" t="s">
         <v>31</v>
       </c>
@@ -18059,15 +17394,13 @@
         <v>74</v>
       </c>
       <c r="H305" s="36" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I305" s="36"/>
       <c r="J305" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K305" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="K305" s="36"/>
       <c r="L305" s="36" t="s">
         <v>31</v>
       </c>
@@ -18096,15 +17429,13 @@
         <v>74</v>
       </c>
       <c r="H306" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I306" s="36"/>
       <c r="J306" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K306" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K306" s="36"/>
       <c r="L306" s="36" t="s">
         <v>31</v>
       </c>
@@ -18135,15 +17466,13 @@
         <v>74</v>
       </c>
       <c r="H307" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I307" s="36"/>
       <c r="J307" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K307" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1363</v>
+      </c>
+      <c r="K307" s="36"/>
       <c r="L307" s="36" t="s">
         <v>31</v>
       </c>
@@ -18172,15 +17501,13 @@
         <v>74</v>
       </c>
       <c r="H308" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I308" s="36"/>
       <c r="J308" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K308" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1383</v>
+      </c>
+      <c r="K308" s="36"/>
       <c r="L308" s="36" t="s">
         <v>31</v>
       </c>
@@ -18209,15 +17536,13 @@
         <v>74</v>
       </c>
       <c r="H309" s="36" t="s">
-        <v>1324</v>
+        <v>1357</v>
       </c>
       <c r="I309" s="36"/>
       <c r="J309" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K309" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1383</v>
+      </c>
+      <c r="K309" s="36"/>
       <c r="L309" s="36" t="s">
         <v>31</v>
       </c>
@@ -18246,15 +17571,13 @@
         <v>74</v>
       </c>
       <c r="H310" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I310" s="36"/>
       <c r="J310" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K310" s="36" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K310" s="36"/>
       <c r="L310" s="36" t="s">
         <v>31</v>
       </c>
@@ -18285,15 +17608,13 @@
         <v>74</v>
       </c>
       <c r="H311" s="30" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I311" s="30"/>
       <c r="J311" s="30" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K311" s="30" t="s">
-        <v>1326</v>
-      </c>
+        <v>1364</v>
+      </c>
+      <c r="K311" s="30"/>
       <c r="L311" s="30" t="s">
         <v>31</v>
       </c>
@@ -18324,15 +17645,11 @@
         <v>74</v>
       </c>
       <c r="H312" s="43" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I312" s="43"/>
-      <c r="J312" s="43" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K312" s="43" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J312" s="43"/>
+      <c r="K312" s="43"/>
       <c r="L312" s="43" t="s">
         <v>31</v>
       </c>
@@ -18363,15 +17680,11 @@
         <v>74</v>
       </c>
       <c r="H313" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I313" s="36"/>
-      <c r="J313" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K313" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J313" s="36"/>
+      <c r="K313" s="36"/>
       <c r="L313" s="36" t="s">
         <v>31</v>
       </c>
@@ -18400,15 +17713,11 @@
         <v>74</v>
       </c>
       <c r="H314" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I314" s="36"/>
-      <c r="J314" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K314" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J314" s="36"/>
+      <c r="K314" s="36"/>
       <c r="L314" s="36" t="s">
         <v>31</v>
       </c>
@@ -18439,15 +17748,11 @@
         <v>74</v>
       </c>
       <c r="H315" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I315" s="36"/>
-      <c r="J315" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K315" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J315" s="36"/>
+      <c r="K315" s="36"/>
       <c r="L315" s="36" t="s">
         <v>31</v>
       </c>
@@ -18476,15 +17781,11 @@
         <v>74</v>
       </c>
       <c r="H316" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I316" s="36"/>
-      <c r="J316" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K316" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J316" s="36"/>
+      <c r="K316" s="36"/>
       <c r="L316" s="36" t="s">
         <v>31</v>
       </c>
@@ -18515,15 +17816,11 @@
         <v>74</v>
       </c>
       <c r="H317" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I317" s="36"/>
-      <c r="J317" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K317" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J317" s="36"/>
+      <c r="K317" s="36"/>
       <c r="L317" s="36" t="s">
         <v>31</v>
       </c>
@@ -18549,15 +17846,11 @@
         <v>74</v>
       </c>
       <c r="H318" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I318" s="36"/>
-      <c r="J318" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K318" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J318" s="36"/>
+      <c r="K318" s="36"/>
       <c r="L318" s="36" t="s">
         <v>31</v>
       </c>
@@ -18585,15 +17878,11 @@
         <v>74</v>
       </c>
       <c r="H319" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I319" s="36"/>
-      <c r="J319" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K319" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J319" s="36"/>
+      <c r="K319" s="36"/>
       <c r="L319" s="36" t="s">
         <v>31</v>
       </c>
@@ -18619,15 +17908,11 @@
         <v>74</v>
       </c>
       <c r="H320" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I320" s="36"/>
-      <c r="J320" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K320" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J320" s="36"/>
+      <c r="K320" s="36"/>
       <c r="L320" s="36" t="s">
         <v>31</v>
       </c>
@@ -18655,15 +17940,11 @@
         <v>74</v>
       </c>
       <c r="H321" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I321" s="36"/>
-      <c r="J321" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K321" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J321" s="36"/>
+      <c r="K321" s="36"/>
       <c r="L321" s="36" t="s">
         <v>31</v>
       </c>
@@ -18689,15 +17970,11 @@
         <v>74</v>
       </c>
       <c r="H322" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I322" s="36"/>
-      <c r="J322" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K322" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J322" s="36"/>
+      <c r="K322" s="36"/>
       <c r="L322" s="36" t="s">
         <v>31</v>
       </c>
@@ -18725,15 +18002,11 @@
         <v>74</v>
       </c>
       <c r="H323" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I323" s="36"/>
-      <c r="J323" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K323" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J323" s="36"/>
+      <c r="K323" s="36"/>
       <c r="L323" s="36" t="s">
         <v>31</v>
       </c>
@@ -18759,15 +18032,11 @@
         <v>74</v>
       </c>
       <c r="H324" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I324" s="36"/>
-      <c r="J324" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K324" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J324" s="36"/>
+      <c r="K324" s="36"/>
       <c r="L324" s="36" t="s">
         <v>31</v>
       </c>
@@ -18795,15 +18064,11 @@
         <v>74</v>
       </c>
       <c r="H325" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I325" s="36"/>
-      <c r="J325" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K325" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J325" s="36"/>
+      <c r="K325" s="36"/>
       <c r="L325" s="36" t="s">
         <v>31</v>
       </c>
@@ -18829,15 +18094,11 @@
         <v>74</v>
       </c>
       <c r="H326" s="36" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I326" s="36"/>
-      <c r="J326" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K326" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J326" s="36"/>
+      <c r="K326" s="36"/>
       <c r="L326" s="36" t="s">
         <v>31</v>
       </c>
@@ -18863,15 +18124,11 @@
         <v>74</v>
       </c>
       <c r="H327" s="36" t="s">
-        <v>1324</v>
+        <v>1355</v>
       </c>
       <c r="I327" s="36"/>
-      <c r="J327" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K327" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J327" s="36"/>
+      <c r="K327" s="36"/>
       <c r="L327" s="36" t="s">
         <v>31</v>
       </c>
@@ -18897,15 +18154,11 @@
         <v>74</v>
       </c>
       <c r="H328" s="36" t="s">
-        <v>1324</v>
+        <v>1356</v>
       </c>
       <c r="I328" s="36"/>
-      <c r="J328" s="36" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K328" s="36" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J328" s="36"/>
+      <c r="K328" s="36"/>
       <c r="L328" s="36" t="s">
         <v>31</v>
       </c>
@@ -18931,15 +18184,11 @@
         <v>74</v>
       </c>
       <c r="H329" s="32" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="I329" s="32"/>
-      <c r="J329" s="32" t="s">
-        <v>1325</v>
-      </c>
-      <c r="K329" s="32" t="s">
-        <v>1326</v>
-      </c>
+      <c r="J329" s="32"/>
+      <c r="K329" s="32"/>
       <c r="L329" s="32" t="s">
         <v>31</v>
       </c>

--- a/storage/app/public/imports/DatabaseSeeder.xlsx
+++ b/storage/app/public/imports/DatabaseSeeder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tqmp\storage\app\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D66E9-1A2D-467E-856E-D94A38585B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC11B599-BBD4-4AFE-BFB2-80AA2D52FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8B3B22E9-E0C4-4142-9942-DAADCA30F6D5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7069" uniqueCount="1877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7086" uniqueCount="1891">
   <si>
     <t>Usertype</t>
   </si>
@@ -5673,6 +5673,48 @@
   </si>
   <si>
     <t>Analok</t>
+  </si>
+  <si>
+    <t>GSM-0024.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0025.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0026.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0027.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0034.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0035.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0036.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0037.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0030.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0031.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0032.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0033.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0028.jpg</t>
+  </si>
+  <si>
+    <t>GSM-0029.jpg</t>
   </si>
 </sst>
 </file>
@@ -6883,25 +6925,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6934,13 +6964,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8121,11 +8163,11 @@
   <dimension ref="B1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8520" ySplit="1290" topLeftCell="K324" activePane="bottomRight"/>
-      <selection activeCell="C420" sqref="C420:C810"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E458" sqref="E458"/>
-      <selection pane="bottomRight" activeCell="O331" sqref="O331"/>
+      <pane xSplit="8520" ySplit="1290" topLeftCell="I11"/>
+      <selection activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8192,7 +8234,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="153" t="s">
+      <c r="B3" s="166" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -8234,7 +8276,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="154"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
@@ -8274,7 +8316,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="154"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="19" t="s">
         <v>46</v>
       </c>
@@ -8312,7 +8354,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="154"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="19" t="s">
         <v>46</v>
       </c>
@@ -8352,7 +8394,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="154"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="19" t="s">
         <v>46</v>
       </c>
@@ -8389,7 +8431,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="154"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
@@ -8426,7 +8468,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="154"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="19" t="s">
         <v>46</v>
       </c>
@@ -8463,7 +8505,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="154"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="19" t="s">
         <v>46</v>
       </c>
@@ -8500,7 +8542,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="155"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="22" t="s">
         <v>46</v>
       </c>
@@ -8537,8 +8579,8 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="156"/>
-      <c r="C12" s="157" t="s">
+      <c r="B12" s="169"/>
+      <c r="C12" s="170" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -8576,8 +8618,8 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="170"/>
       <c r="D13" s="43" t="s">
         <v>686</v>
       </c>
@@ -8613,8 +8655,8 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
       <c r="D14" s="43" t="s">
         <v>687</v>
       </c>
@@ -8650,8 +8692,8 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="43" t="s">
         <v>688</v>
       </c>
@@ -8687,8 +8729,8 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="170"/>
       <c r="D16" s="43" t="s">
         <v>689</v>
       </c>
@@ -8724,8 +8766,8 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="170"/>
       <c r="D17" s="43" t="s">
         <v>690</v>
       </c>
@@ -8761,8 +8803,8 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="170"/>
       <c r="D18" s="43" t="s">
         <v>691</v>
       </c>
@@ -8798,8 +8840,8 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="170"/>
       <c r="D19" s="43" t="s">
         <v>692</v>
       </c>
@@ -8835,8 +8877,8 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
+      <c r="B20" s="169"/>
+      <c r="C20" s="170"/>
       <c r="D20" s="43" t="s">
         <v>693</v>
       </c>
@@ -8872,8 +8914,8 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
+      <c r="B21" s="169"/>
+      <c r="C21" s="170"/>
       <c r="D21" s="43" t="s">
         <v>694</v>
       </c>
@@ -8909,8 +8951,8 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="156"/>
-      <c r="C22" s="158" t="s">
+      <c r="B22" s="169"/>
+      <c r="C22" s="171" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="43" t="s">
@@ -8940,7 +8982,7 @@
         <v>8341</v>
       </c>
       <c r="N22" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O22" s="88" t="s">
         <v>1043</v>
@@ -8950,8 +8992,8 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
+      <c r="B23" s="169"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="43" t="s">
         <v>1107</v>
       </c>
@@ -8979,7 +9021,7 @@
         <v>8341</v>
       </c>
       <c r="N23" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O23" s="88" t="s">
         <v>1043</v>
@@ -8989,8 +9031,8 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="170"/>
       <c r="D24" s="43" t="s">
         <v>1109</v>
       </c>
@@ -9018,7 +9060,7 @@
         <v>8341</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O24" s="88" t="s">
         <v>1043</v>
@@ -9028,8 +9070,8 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="170"/>
       <c r="D25" s="43" t="s">
         <v>1111</v>
       </c>
@@ -9057,7 +9099,7 @@
         <v>8341</v>
       </c>
       <c r="N25" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O25" s="88" t="s">
         <v>1043</v>
@@ -9067,8 +9109,8 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="170"/>
       <c r="D26" s="43" t="s">
         <v>1113</v>
       </c>
@@ -9096,7 +9138,7 @@
         <v>8341</v>
       </c>
       <c r="N26" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O26" s="88" t="s">
         <v>1043</v>
@@ -9106,8 +9148,8 @@
       </c>
     </row>
     <row r="27" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="156"/>
-      <c r="C27" s="157"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="170"/>
       <c r="D27" s="43" t="s">
         <v>1115</v>
       </c>
@@ -9135,7 +9177,7 @@
         <v>8341</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O27" s="88" t="s">
         <v>1043</v>
@@ -9145,8 +9187,8 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
+      <c r="B28" s="169"/>
+      <c r="C28" s="170"/>
       <c r="D28" s="43" t="s">
         <v>1117</v>
       </c>
@@ -9174,7 +9216,7 @@
         <v>8341</v>
       </c>
       <c r="N28" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O28" s="88" t="s">
         <v>1043</v>
@@ -9184,8 +9226,8 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="156"/>
-      <c r="C29" s="157"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="170"/>
       <c r="D29" s="43" t="s">
         <v>1119</v>
       </c>
@@ -9213,7 +9255,7 @@
         <v>8341</v>
       </c>
       <c r="N29" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O29" s="88" t="s">
         <v>1043</v>
@@ -9223,8 +9265,8 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="170"/>
       <c r="D30" s="43" t="s">
         <v>1121</v>
       </c>
@@ -9252,7 +9294,7 @@
         <v>8341</v>
       </c>
       <c r="N30" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O30" s="88" t="s">
         <v>1043</v>
@@ -9262,8 +9304,8 @@
       </c>
     </row>
     <row r="31" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
+      <c r="B31" s="169"/>
+      <c r="C31" s="170"/>
       <c r="D31" s="43" t="s">
         <v>1123</v>
       </c>
@@ -9291,7 +9333,7 @@
         <v>8341</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O31" s="88" t="s">
         <v>1043</v>
@@ -9301,8 +9343,8 @@
       </c>
     </row>
     <row r="32" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="170"/>
       <c r="D32" s="43" t="s">
         <v>1125</v>
       </c>
@@ -9330,7 +9372,7 @@
         <v>8341</v>
       </c>
       <c r="N32" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O32" s="88" t="s">
         <v>1043</v>
@@ -9340,8 +9382,8 @@
       </c>
     </row>
     <row r="33" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="170"/>
       <c r="D33" s="43" t="s">
         <v>1127</v>
       </c>
@@ -9369,7 +9411,7 @@
         <v>8341</v>
       </c>
       <c r="N33" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O33" s="88" t="s">
         <v>1043</v>
@@ -9379,8 +9421,8 @@
       </c>
     </row>
     <row r="34" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="156"/>
-      <c r="C34" s="159"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="172"/>
       <c r="D34" s="43" t="s">
         <v>1129</v>
       </c>
@@ -9408,7 +9450,7 @@
         <v>8341</v>
       </c>
       <c r="N34" s="44" t="s">
-        <v>1043</v>
+        <v>800</v>
       </c>
       <c r="O34" s="88" t="s">
         <v>1043</v>
@@ -9418,7 +9460,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="156"/>
+      <c r="B35" s="169"/>
       <c r="C35" s="45" t="s">
         <v>49</v>
       </c>
@@ -9449,7 +9491,7 @@
         <v>1110</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>1047</v>
+        <v>800</v>
       </c>
       <c r="O35" s="88" t="s">
         <v>1047</v>
@@ -9459,7 +9501,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="156"/>
+      <c r="B36" s="169"/>
       <c r="C36" s="45" t="s">
         <v>50</v>
       </c>
@@ -9490,7 +9532,7 @@
         <v>8105</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>962</v>
+        <v>800</v>
       </c>
       <c r="O36" s="88"/>
       <c r="R36" s="3" t="s">
@@ -9498,8 +9540,8 @@
       </c>
     </row>
     <row r="37" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="156"/>
-      <c r="C37" s="158" t="s">
+      <c r="B37" s="169"/>
+      <c r="C37" s="171" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="26" t="s">
@@ -9529,7 +9571,7 @@
         <v>1871</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O37" s="88"/>
       <c r="R37" s="3" t="s">
@@ -9537,8 +9579,8 @@
       </c>
     </row>
     <row r="38" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="26" t="s">
         <v>1137</v>
       </c>
@@ -9566,7 +9608,7 @@
         <v>1871</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O38" s="88"/>
       <c r="R38" s="3" t="s">
@@ -9574,8 +9616,8 @@
       </c>
     </row>
     <row r="39" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="26" t="s">
         <v>1139</v>
       </c>
@@ -9603,7 +9645,7 @@
         <v>1871</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O39" s="88"/>
       <c r="R39" s="3" t="s">
@@ -9611,8 +9653,8 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
+      <c r="B40" s="169"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="26" t="s">
         <v>1141</v>
       </c>
@@ -9640,7 +9682,7 @@
         <v>1871</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O40" s="88"/>
       <c r="R40" s="3" t="s">
@@ -9648,8 +9690,8 @@
       </c>
     </row>
     <row r="41" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
+      <c r="B41" s="169"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="26" t="s">
         <v>1143</v>
       </c>
@@ -9677,7 +9719,7 @@
         <v>1871</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O41" s="88"/>
       <c r="R41" s="3" t="s">
@@ -9685,8 +9727,8 @@
       </c>
     </row>
     <row r="42" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="170"/>
       <c r="D42" s="26" t="s">
         <v>1145</v>
       </c>
@@ -9714,7 +9756,7 @@
         <v>1871</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O42" s="88"/>
       <c r="R42" s="3" t="s">
@@ -9722,8 +9764,8 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="170"/>
       <c r="D43" s="26" t="s">
         <v>1147</v>
       </c>
@@ -9751,7 +9793,7 @@
         <v>1871</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O43" s="88"/>
       <c r="R43" s="3" t="s">
@@ -9759,8 +9801,8 @@
       </c>
     </row>
     <row r="44" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
+      <c r="B44" s="169"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="26" t="s">
         <v>1149</v>
       </c>
@@ -9788,7 +9830,7 @@
         <v>1871</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O44" s="88"/>
       <c r="R44" s="3" t="s">
@@ -9796,8 +9838,8 @@
       </c>
     </row>
     <row r="45" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="156"/>
-      <c r="C45" s="159"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="26" t="s">
         <v>1151</v>
       </c>
@@ -9825,7 +9867,7 @@
         <v>1871</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>992</v>
+        <v>800</v>
       </c>
       <c r="O45" s="88"/>
       <c r="R45" s="3" t="s">
@@ -9833,8 +9875,8 @@
       </c>
     </row>
     <row r="46" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="156"/>
-      <c r="C46" s="158" t="s">
+      <c r="B46" s="169"/>
+      <c r="C46" s="171" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="26" t="s">
@@ -9864,7 +9906,7 @@
         <v>4359</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="O46" s="88" t="s">
         <v>963</v>
@@ -9874,8 +9916,8 @@
       </c>
     </row>
     <row r="47" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="156"/>
-      <c r="C47" s="157"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="170"/>
       <c r="D47" s="26" t="s">
         <v>683</v>
       </c>
@@ -9903,7 +9945,7 @@
         <v>4423</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="O47" s="88"/>
       <c r="R47" s="3" t="s">
@@ -9911,8 +9953,8 @@
       </c>
     </row>
     <row r="48" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="156"/>
-      <c r="C48" s="157"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="170"/>
       <c r="D48" s="26" t="s">
         <v>684</v>
       </c>
@@ -9940,7 +9982,7 @@
         <v>11786</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>963</v>
+        <v>800</v>
       </c>
       <c r="O48" s="88"/>
       <c r="R48" s="3" t="s">
@@ -9948,8 +9990,8 @@
       </c>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="156"/>
-      <c r="C49" s="158" t="s">
+      <c r="B49" s="169"/>
+      <c r="C49" s="171" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="26" t="s">
@@ -9979,7 +10021,7 @@
         <v>4122</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>983</v>
+        <v>800</v>
       </c>
       <c r="O49" s="88" t="s">
         <v>983</v>
@@ -9989,8 +10031,8 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="156"/>
-      <c r="C50" s="157"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="170"/>
       <c r="D50" s="26" t="s">
         <v>1155</v>
       </c>
@@ -10018,7 +10060,7 @@
         <v>4122</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>983</v>
+        <v>800</v>
       </c>
       <c r="O50" s="88" t="s">
         <v>983</v>
@@ -10028,8 +10070,8 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="156"/>
-      <c r="C51" s="159"/>
+      <c r="B51" s="169"/>
+      <c r="C51" s="172"/>
       <c r="D51" s="26" t="s">
         <v>1157</v>
       </c>
@@ -10057,7 +10099,7 @@
         <v>4122</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>983</v>
+        <v>800</v>
       </c>
       <c r="O51" s="88" t="s">
         <v>983</v>
@@ -10067,7 +10109,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="156"/>
+      <c r="B52" s="169"/>
       <c r="C52" s="45" t="s">
         <v>54</v>
       </c>
@@ -10092,7 +10134,7 @@
         <v>2446</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>1056</v>
+        <v>800</v>
       </c>
       <c r="O52" s="88" t="s">
         <v>1056</v>
@@ -10102,10 +10144,10 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="160" t="s">
+      <c r="B53" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="165" t="s">
+      <c r="C53" s="161" t="s">
         <v>55</v>
       </c>
       <c r="D53" s="28" t="s">
@@ -10143,8 +10185,8 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="161"/>
-      <c r="C54" s="166"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="162"/>
       <c r="D54" s="39" t="s">
         <v>706</v>
       </c>
@@ -10178,8 +10220,8 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="161"/>
-      <c r="C55" s="166"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="162"/>
       <c r="D55" s="39" t="s">
         <v>707</v>
       </c>
@@ -10213,8 +10255,8 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="161"/>
-      <c r="C56" s="166"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="162"/>
       <c r="D56" s="39" t="s">
         <v>708</v>
       </c>
@@ -10248,8 +10290,8 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="161"/>
-      <c r="C57" s="166"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="162"/>
       <c r="D57" s="39" t="s">
         <v>709</v>
       </c>
@@ -10285,8 +10327,8 @@
       </c>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="161"/>
-      <c r="C58" s="166"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="162"/>
       <c r="D58" s="39" t="s">
         <v>710</v>
       </c>
@@ -10320,8 +10362,8 @@
       </c>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="161"/>
-      <c r="C59" s="166"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="162"/>
       <c r="D59" s="39" t="s">
         <v>711</v>
       </c>
@@ -10355,8 +10397,8 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="161"/>
-      <c r="C60" s="166"/>
+      <c r="B60" s="157"/>
+      <c r="C60" s="162"/>
       <c r="D60" s="39" t="s">
         <v>712</v>
       </c>
@@ -10390,8 +10432,8 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="161"/>
-      <c r="C61" s="166"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="162"/>
       <c r="D61" s="39" t="s">
         <v>713</v>
       </c>
@@ -10427,8 +10469,8 @@
       </c>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="161"/>
-      <c r="C62" s="166"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="162"/>
       <c r="D62" s="39" t="s">
         <v>714</v>
       </c>
@@ -10462,8 +10504,8 @@
       </c>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="161"/>
-      <c r="C63" s="166"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="162"/>
       <c r="D63" s="39" t="s">
         <v>715</v>
       </c>
@@ -10499,8 +10541,8 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="161"/>
-      <c r="C64" s="166"/>
+      <c r="B64" s="157"/>
+      <c r="C64" s="162"/>
       <c r="D64" s="39" t="s">
         <v>716</v>
       </c>
@@ -10534,8 +10576,8 @@
       </c>
     </row>
     <row r="65" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="161"/>
-      <c r="C65" s="166"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="162"/>
       <c r="D65" s="39" t="s">
         <v>717</v>
       </c>
@@ -10571,8 +10613,8 @@
       </c>
     </row>
     <row r="66" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="161"/>
-      <c r="C66" s="166"/>
+      <c r="B66" s="157"/>
+      <c r="C66" s="162"/>
       <c r="D66" s="39" t="s">
         <v>718</v>
       </c>
@@ -10606,8 +10648,8 @@
       </c>
     </row>
     <row r="67" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="161"/>
-      <c r="C67" s="167"/>
+      <c r="B67" s="157"/>
+      <c r="C67" s="163"/>
       <c r="D67" s="42" t="s">
         <v>719</v>
       </c>
@@ -10641,8 +10683,8 @@
       </c>
     </row>
     <row r="68" spans="2:18" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="162"/>
-      <c r="C68" s="165" t="s">
+      <c r="B68" s="158"/>
+      <c r="C68" s="161" t="s">
         <v>56</v>
       </c>
       <c r="D68" s="28" t="s">
@@ -10680,8 +10722,8 @@
       </c>
     </row>
     <row r="69" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="162"/>
-      <c r="C69" s="166"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="162"/>
       <c r="D69" s="30" t="s">
         <v>725</v>
       </c>
@@ -10715,8 +10757,8 @@
       </c>
     </row>
     <row r="70" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="162"/>
-      <c r="C70" s="166"/>
+      <c r="B70" s="158"/>
+      <c r="C70" s="162"/>
       <c r="D70" s="30" t="s">
         <v>726</v>
       </c>
@@ -10752,8 +10794,8 @@
       </c>
     </row>
     <row r="71" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="162"/>
-      <c r="C71" s="166"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="162"/>
       <c r="D71" s="30" t="s">
         <v>727</v>
       </c>
@@ -10787,8 +10829,8 @@
       </c>
     </row>
     <row r="72" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="162"/>
-      <c r="C72" s="166"/>
+      <c r="B72" s="158"/>
+      <c r="C72" s="162"/>
       <c r="D72" s="30" t="s">
         <v>728</v>
       </c>
@@ -10824,8 +10866,8 @@
       </c>
     </row>
     <row r="73" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="162"/>
-      <c r="C73" s="166"/>
+      <c r="B73" s="158"/>
+      <c r="C73" s="162"/>
       <c r="D73" s="30" t="s">
         <v>729</v>
       </c>
@@ -10859,8 +10901,8 @@
       </c>
     </row>
     <row r="74" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="162"/>
-      <c r="C74" s="166"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="162"/>
       <c r="D74" s="30" t="s">
         <v>730</v>
       </c>
@@ -10894,8 +10936,8 @@
       </c>
     </row>
     <row r="75" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="162"/>
-      <c r="C75" s="166"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="162"/>
       <c r="D75" s="30" t="s">
         <v>731</v>
       </c>
@@ -10929,8 +10971,8 @@
       </c>
     </row>
     <row r="76" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="162"/>
-      <c r="C76" s="166"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="162"/>
       <c r="D76" s="30" t="s">
         <v>732</v>
       </c>
@@ -10966,8 +11008,8 @@
       </c>
     </row>
     <row r="77" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="162"/>
-      <c r="C77" s="166"/>
+      <c r="B77" s="158"/>
+      <c r="C77" s="162"/>
       <c r="D77" s="30" t="s">
         <v>733</v>
       </c>
@@ -11001,8 +11043,8 @@
       </c>
     </row>
     <row r="78" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="162"/>
-      <c r="C78" s="166"/>
+      <c r="B78" s="158"/>
+      <c r="C78" s="162"/>
       <c r="D78" s="30" t="s">
         <v>734</v>
       </c>
@@ -11034,8 +11076,8 @@
       </c>
     </row>
     <row r="79" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="162"/>
-      <c r="C79" s="166"/>
+      <c r="B79" s="158"/>
+      <c r="C79" s="162"/>
       <c r="D79" s="30" t="s">
         <v>735</v>
       </c>
@@ -11067,8 +11109,8 @@
       </c>
     </row>
     <row r="80" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="162"/>
-      <c r="C80" s="166"/>
+      <c r="B80" s="158"/>
+      <c r="C80" s="162"/>
       <c r="D80" s="30" t="s">
         <v>736</v>
       </c>
@@ -11100,8 +11142,8 @@
       </c>
     </row>
     <row r="81" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="162"/>
-      <c r="C81" s="166"/>
+      <c r="B81" s="158"/>
+      <c r="C81" s="162"/>
       <c r="D81" s="30" t="s">
         <v>737</v>
       </c>
@@ -11133,8 +11175,8 @@
       </c>
     </row>
     <row r="82" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="162"/>
-      <c r="C82" s="166"/>
+      <c r="B82" s="158"/>
+      <c r="C82" s="162"/>
       <c r="D82" s="30" t="s">
         <v>738</v>
       </c>
@@ -11166,8 +11208,8 @@
       </c>
     </row>
     <row r="83" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="162"/>
-      <c r="C83" s="166"/>
+      <c r="B83" s="158"/>
+      <c r="C83" s="162"/>
       <c r="D83" s="30" t="s">
         <v>739</v>
       </c>
@@ -11203,8 +11245,8 @@
       </c>
     </row>
     <row r="84" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="162"/>
-      <c r="C84" s="166"/>
+      <c r="B84" s="158"/>
+      <c r="C84" s="162"/>
       <c r="D84" s="30" t="s">
         <v>740</v>
       </c>
@@ -11238,8 +11280,8 @@
       </c>
     </row>
     <row r="85" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="162"/>
-      <c r="C85" s="166"/>
+      <c r="B85" s="158"/>
+      <c r="C85" s="162"/>
       <c r="D85" s="30" t="s">
         <v>741</v>
       </c>
@@ -11275,8 +11317,8 @@
       </c>
     </row>
     <row r="86" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="162"/>
-      <c r="C86" s="166"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="162"/>
       <c r="D86" s="30" t="s">
         <v>742</v>
       </c>
@@ -11310,8 +11352,8 @@
       </c>
     </row>
     <row r="87" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="162"/>
-      <c r="C87" s="166"/>
+      <c r="B87" s="158"/>
+      <c r="C87" s="162"/>
       <c r="D87" s="30" t="s">
         <v>743</v>
       </c>
@@ -11347,8 +11389,8 @@
       </c>
     </row>
     <row r="88" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="162"/>
-      <c r="C88" s="166"/>
+      <c r="B88" s="158"/>
+      <c r="C88" s="162"/>
       <c r="D88" s="30" t="s">
         <v>744</v>
       </c>
@@ -11382,8 +11424,8 @@
       </c>
     </row>
     <row r="89" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="162"/>
-      <c r="C89" s="166"/>
+      <c r="B89" s="158"/>
+      <c r="C89" s="162"/>
       <c r="D89" s="30" t="s">
         <v>745</v>
       </c>
@@ -11419,8 +11461,8 @@
       </c>
     </row>
     <row r="90" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="162"/>
-      <c r="C90" s="166"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="162"/>
       <c r="D90" s="30" t="s">
         <v>746</v>
       </c>
@@ -11454,8 +11496,8 @@
       </c>
     </row>
     <row r="91" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="162"/>
-      <c r="C91" s="166"/>
+      <c r="B91" s="158"/>
+      <c r="C91" s="162"/>
       <c r="D91" s="30" t="s">
         <v>747</v>
       </c>
@@ -11491,8 +11533,8 @@
       </c>
     </row>
     <row r="92" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="162"/>
-      <c r="C92" s="166"/>
+      <c r="B92" s="158"/>
+      <c r="C92" s="162"/>
       <c r="D92" s="30" t="s">
         <v>748</v>
       </c>
@@ -11526,8 +11568,8 @@
       </c>
     </row>
     <row r="93" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="162"/>
-      <c r="C93" s="166"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="162"/>
       <c r="D93" s="30" t="s">
         <v>749</v>
       </c>
@@ -11563,8 +11605,8 @@
       </c>
     </row>
     <row r="94" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="162"/>
-      <c r="C94" s="166"/>
+      <c r="B94" s="158"/>
+      <c r="C94" s="162"/>
       <c r="D94" s="30" t="s">
         <v>750</v>
       </c>
@@ -11598,8 +11640,8 @@
       </c>
     </row>
     <row r="95" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="162"/>
-      <c r="C95" s="166"/>
+      <c r="B95" s="158"/>
+      <c r="C95" s="162"/>
       <c r="D95" s="30" t="s">
         <v>751</v>
       </c>
@@ -11635,8 +11677,8 @@
       </c>
     </row>
     <row r="96" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="162"/>
-      <c r="C96" s="166"/>
+      <c r="B96" s="158"/>
+      <c r="C96" s="162"/>
       <c r="D96" s="30" t="s">
         <v>752</v>
       </c>
@@ -11670,8 +11712,8 @@
       </c>
     </row>
     <row r="97" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="162"/>
-      <c r="C97" s="166"/>
+      <c r="B97" s="158"/>
+      <c r="C97" s="162"/>
       <c r="D97" s="30" t="s">
         <v>753</v>
       </c>
@@ -11705,8 +11747,8 @@
       </c>
     </row>
     <row r="98" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="162"/>
-      <c r="C98" s="166"/>
+      <c r="B98" s="158"/>
+      <c r="C98" s="162"/>
       <c r="D98" s="30" t="s">
         <v>754</v>
       </c>
@@ -11742,8 +11784,8 @@
       </c>
     </row>
     <row r="99" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="162"/>
-      <c r="C99" s="166"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="162"/>
       <c r="D99" s="30" t="s">
         <v>755</v>
       </c>
@@ -11777,8 +11819,8 @@
       </c>
     </row>
     <row r="100" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="162"/>
-      <c r="C100" s="166"/>
+      <c r="B100" s="158"/>
+      <c r="C100" s="162"/>
       <c r="D100" s="30" t="s">
         <v>756</v>
       </c>
@@ -11812,8 +11854,8 @@
       </c>
     </row>
     <row r="101" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="162"/>
-      <c r="C101" s="166"/>
+      <c r="B101" s="158"/>
+      <c r="C101" s="162"/>
       <c r="D101" s="30" t="s">
         <v>757</v>
       </c>
@@ -11849,8 +11891,8 @@
       </c>
     </row>
     <row r="102" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="162"/>
-      <c r="C102" s="166"/>
+      <c r="B102" s="158"/>
+      <c r="C102" s="162"/>
       <c r="D102" s="30" t="s">
         <v>758</v>
       </c>
@@ -11884,8 +11926,8 @@
       </c>
     </row>
     <row r="103" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="162"/>
-      <c r="C103" s="166"/>
+      <c r="B103" s="158"/>
+      <c r="C103" s="162"/>
       <c r="D103" s="30" t="s">
         <v>759</v>
       </c>
@@ -11921,8 +11963,8 @@
       </c>
     </row>
     <row r="104" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="162"/>
-      <c r="C104" s="166"/>
+      <c r="B104" s="158"/>
+      <c r="C104" s="162"/>
       <c r="D104" s="30" t="s">
         <v>760</v>
       </c>
@@ -11956,8 +11998,8 @@
       </c>
     </row>
     <row r="105" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="162"/>
-      <c r="C105" s="166"/>
+      <c r="B105" s="158"/>
+      <c r="C105" s="162"/>
       <c r="D105" s="30" t="s">
         <v>720</v>
       </c>
@@ -11993,8 +12035,8 @@
       </c>
     </row>
     <row r="106" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="162"/>
-      <c r="C106" s="166"/>
+      <c r="B106" s="158"/>
+      <c r="C106" s="162"/>
       <c r="D106" s="30" t="s">
         <v>721</v>
       </c>
@@ -12028,8 +12070,8 @@
       </c>
     </row>
     <row r="107" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="162"/>
-      <c r="C107" s="166"/>
+      <c r="B107" s="158"/>
+      <c r="C107" s="162"/>
       <c r="D107" s="30" t="s">
         <v>722</v>
       </c>
@@ -12065,8 +12107,8 @@
       </c>
     </row>
     <row r="108" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="162"/>
-      <c r="C108" s="167"/>
+      <c r="B108" s="158"/>
+      <c r="C108" s="163"/>
       <c r="D108" s="32" t="s">
         <v>723</v>
       </c>
@@ -12100,8 +12142,8 @@
       </c>
     </row>
     <row r="109" spans="2:18" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="162"/>
-      <c r="C109" s="165" t="s">
+      <c r="B109" s="158"/>
+      <c r="C109" s="161" t="s">
         <v>176</v>
       </c>
       <c r="D109" s="28" t="s">
@@ -12135,8 +12177,8 @@
       </c>
     </row>
     <row r="110" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="162"/>
-      <c r="C110" s="166"/>
+      <c r="B110" s="158"/>
+      <c r="C110" s="162"/>
       <c r="D110" s="39" t="s">
         <v>192</v>
       </c>
@@ -12168,8 +12210,8 @@
       </c>
     </row>
     <row r="111" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="162"/>
-      <c r="C111" s="166"/>
+      <c r="B111" s="158"/>
+      <c r="C111" s="162"/>
       <c r="D111" s="39" t="s">
         <v>193</v>
       </c>
@@ -12203,8 +12245,8 @@
       </c>
     </row>
     <row r="112" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="162"/>
-      <c r="C112" s="166"/>
+      <c r="B112" s="158"/>
+      <c r="C112" s="162"/>
       <c r="D112" s="39" t="s">
         <v>194</v>
       </c>
@@ -12236,8 +12278,8 @@
       </c>
     </row>
     <row r="113" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="162"/>
-      <c r="C113" s="166"/>
+      <c r="B113" s="158"/>
+      <c r="C113" s="162"/>
       <c r="D113" s="39" t="s">
         <v>195</v>
       </c>
@@ -12271,8 +12313,8 @@
       </c>
     </row>
     <row r="114" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="162"/>
-      <c r="C114" s="166"/>
+      <c r="B114" s="158"/>
+      <c r="C114" s="162"/>
       <c r="D114" s="39" t="s">
         <v>196</v>
       </c>
@@ -12304,8 +12346,8 @@
       </c>
     </row>
     <row r="115" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="162"/>
-      <c r="C115" s="166"/>
+      <c r="B115" s="158"/>
+      <c r="C115" s="162"/>
       <c r="D115" s="39" t="s">
         <v>197</v>
       </c>
@@ -12337,8 +12379,8 @@
       </c>
     </row>
     <row r="116" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="162"/>
-      <c r="C116" s="166"/>
+      <c r="B116" s="158"/>
+      <c r="C116" s="162"/>
       <c r="D116" s="39" t="s">
         <v>198</v>
       </c>
@@ -12370,8 +12412,8 @@
       </c>
     </row>
     <row r="117" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="162"/>
-      <c r="C117" s="166"/>
+      <c r="B117" s="158"/>
+      <c r="C117" s="162"/>
       <c r="D117" s="39" t="s">
         <v>199</v>
       </c>
@@ -12403,8 +12445,8 @@
       </c>
     </row>
     <row r="118" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="162"/>
-      <c r="C118" s="166"/>
+      <c r="B118" s="158"/>
+      <c r="C118" s="162"/>
       <c r="D118" s="39" t="s">
         <v>200</v>
       </c>
@@ -12436,8 +12478,8 @@
       </c>
     </row>
     <row r="119" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="162"/>
-      <c r="C119" s="166"/>
+      <c r="B119" s="158"/>
+      <c r="C119" s="162"/>
       <c r="D119" s="39" t="s">
         <v>201</v>
       </c>
@@ -12471,8 +12513,8 @@
       </c>
     </row>
     <row r="120" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="162"/>
-      <c r="C120" s="166"/>
+      <c r="B120" s="158"/>
+      <c r="C120" s="162"/>
       <c r="D120" s="39" t="s">
         <v>202</v>
       </c>
@@ -12504,8 +12546,8 @@
       </c>
     </row>
     <row r="121" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="162"/>
-      <c r="C121" s="166"/>
+      <c r="B121" s="158"/>
+      <c r="C121" s="162"/>
       <c r="D121" s="39" t="s">
         <v>203</v>
       </c>
@@ -12537,8 +12579,8 @@
       </c>
     </row>
     <row r="122" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="162"/>
-      <c r="C122" s="166"/>
+      <c r="B122" s="158"/>
+      <c r="C122" s="162"/>
       <c r="D122" s="39" t="s">
         <v>204</v>
       </c>
@@ -12572,8 +12614,8 @@
       </c>
     </row>
     <row r="123" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="162"/>
-      <c r="C123" s="166"/>
+      <c r="B123" s="158"/>
+      <c r="C123" s="162"/>
       <c r="D123" s="39" t="s">
         <v>205</v>
       </c>
@@ -12605,8 +12647,8 @@
       </c>
     </row>
     <row r="124" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="162"/>
-      <c r="C124" s="166"/>
+      <c r="B124" s="158"/>
+      <c r="C124" s="162"/>
       <c r="D124" s="30" t="s">
         <v>206</v>
       </c>
@@ -12638,8 +12680,8 @@
       </c>
     </row>
     <row r="125" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="162"/>
-      <c r="C125" s="166"/>
+      <c r="B125" s="158"/>
+      <c r="C125" s="162"/>
       <c r="D125" s="35" t="s">
         <v>179</v>
       </c>
@@ -12673,8 +12715,8 @@
       </c>
     </row>
     <row r="126" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="162"/>
-      <c r="C126" s="166"/>
+      <c r="B126" s="158"/>
+      <c r="C126" s="162"/>
       <c r="D126" s="35" t="s">
         <v>180</v>
       </c>
@@ -12706,8 +12748,8 @@
       </c>
     </row>
     <row r="127" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="162"/>
-      <c r="C127" s="166"/>
+      <c r="B127" s="158"/>
+      <c r="C127" s="162"/>
       <c r="D127" s="35" t="s">
         <v>186</v>
       </c>
@@ -12741,8 +12783,8 @@
       </c>
     </row>
     <row r="128" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="162"/>
-      <c r="C128" s="166"/>
+      <c r="B128" s="158"/>
+      <c r="C128" s="162"/>
       <c r="D128" s="35" t="s">
         <v>187</v>
       </c>
@@ -12774,8 +12816,8 @@
       </c>
     </row>
     <row r="129" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="162"/>
-      <c r="C129" s="166"/>
+      <c r="B129" s="158"/>
+      <c r="C129" s="162"/>
       <c r="D129" s="35" t="s">
         <v>188</v>
       </c>
@@ -12807,8 +12849,8 @@
       </c>
     </row>
     <row r="130" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="162"/>
-      <c r="C130" s="166"/>
+      <c r="B130" s="158"/>
+      <c r="C130" s="162"/>
       <c r="D130" s="35" t="s">
         <v>189</v>
       </c>
@@ -12842,8 +12884,8 @@
       </c>
     </row>
     <row r="131" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="162"/>
-      <c r="C131" s="167"/>
+      <c r="B131" s="158"/>
+      <c r="C131" s="163"/>
       <c r="D131" s="32" t="s">
         <v>190</v>
       </c>
@@ -12875,8 +12917,8 @@
       </c>
     </row>
     <row r="132" spans="2:18" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="162"/>
-      <c r="C132" s="166" t="s">
+      <c r="B132" s="158"/>
+      <c r="C132" s="162" t="s">
         <v>207</v>
       </c>
       <c r="D132" s="39" t="s">
@@ -12912,8 +12954,8 @@
       </c>
     </row>
     <row r="133" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="162"/>
-      <c r="C133" s="166"/>
+      <c r="B133" s="158"/>
+      <c r="C133" s="162"/>
       <c r="D133" s="39" t="s">
         <v>261</v>
       </c>
@@ -12945,8 +12987,8 @@
       </c>
     </row>
     <row r="134" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="162"/>
-      <c r="C134" s="166"/>
+      <c r="B134" s="158"/>
+      <c r="C134" s="162"/>
       <c r="D134" s="39" t="s">
         <v>262</v>
       </c>
@@ -12980,8 +13022,8 @@
       </c>
     </row>
     <row r="135" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="162"/>
-      <c r="C135" s="166"/>
+      <c r="B135" s="158"/>
+      <c r="C135" s="162"/>
       <c r="D135" s="39" t="s">
         <v>263</v>
       </c>
@@ -13013,8 +13055,8 @@
       </c>
     </row>
     <row r="136" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="162"/>
-      <c r="C136" s="166"/>
+      <c r="B136" s="158"/>
+      <c r="C136" s="162"/>
       <c r="D136" s="39" t="s">
         <v>264</v>
       </c>
@@ -13048,8 +13090,8 @@
       </c>
     </row>
     <row r="137" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="162"/>
-      <c r="C137" s="166"/>
+      <c r="B137" s="158"/>
+      <c r="C137" s="162"/>
       <c r="D137" s="39" t="s">
         <v>265</v>
       </c>
@@ -13081,8 +13123,8 @@
       </c>
     </row>
     <row r="138" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="162"/>
-      <c r="C138" s="166"/>
+      <c r="B138" s="158"/>
+      <c r="C138" s="162"/>
       <c r="D138" s="39" t="s">
         <v>266</v>
       </c>
@@ -13114,8 +13156,8 @@
       </c>
     </row>
     <row r="139" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="162"/>
-      <c r="C139" s="166"/>
+      <c r="B139" s="158"/>
+      <c r="C139" s="162"/>
       <c r="D139" s="39" t="s">
         <v>267</v>
       </c>
@@ -13149,8 +13191,8 @@
       </c>
     </row>
     <row r="140" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="162"/>
-      <c r="C140" s="166"/>
+      <c r="B140" s="158"/>
+      <c r="C140" s="162"/>
       <c r="D140" s="39" t="s">
         <v>268</v>
       </c>
@@ -13182,8 +13224,8 @@
       </c>
     </row>
     <row r="141" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="162"/>
-      <c r="C141" s="166"/>
+      <c r="B141" s="158"/>
+      <c r="C141" s="162"/>
       <c r="D141" s="39" t="s">
         <v>269</v>
       </c>
@@ -13215,8 +13257,8 @@
       </c>
     </row>
     <row r="142" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="162"/>
-      <c r="C142" s="166"/>
+      <c r="B142" s="158"/>
+      <c r="C142" s="162"/>
       <c r="D142" s="39" t="s">
         <v>270</v>
       </c>
@@ -13250,8 +13292,8 @@
       </c>
     </row>
     <row r="143" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="162"/>
-      <c r="C143" s="166"/>
+      <c r="B143" s="158"/>
+      <c r="C143" s="162"/>
       <c r="D143" s="39" t="s">
         <v>271</v>
       </c>
@@ -13283,8 +13325,8 @@
       </c>
     </row>
     <row r="144" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="162"/>
-      <c r="C144" s="166"/>
+      <c r="B144" s="158"/>
+      <c r="C144" s="162"/>
       <c r="D144" s="39" t="s">
         <v>272</v>
       </c>
@@ -13316,8 +13358,8 @@
       </c>
     </row>
     <row r="145" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="162"/>
-      <c r="C145" s="166"/>
+      <c r="B145" s="158"/>
+      <c r="C145" s="162"/>
       <c r="D145" s="39" t="s">
         <v>273</v>
       </c>
@@ -13351,8 +13393,8 @@
       </c>
     </row>
     <row r="146" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="162"/>
-      <c r="C146" s="166"/>
+      <c r="B146" s="158"/>
+      <c r="C146" s="162"/>
       <c r="D146" s="39" t="s">
         <v>274</v>
       </c>
@@ -13384,8 +13426,8 @@
       </c>
     </row>
     <row r="147" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="162"/>
-      <c r="C147" s="166"/>
+      <c r="B147" s="158"/>
+      <c r="C147" s="162"/>
       <c r="D147" s="39" t="s">
         <v>275</v>
       </c>
@@ -13417,8 +13459,8 @@
       </c>
     </row>
     <row r="148" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="162"/>
-      <c r="C148" s="166"/>
+      <c r="B148" s="158"/>
+      <c r="C148" s="162"/>
       <c r="D148" s="39" t="s">
         <v>276</v>
       </c>
@@ -13452,8 +13494,8 @@
       </c>
     </row>
     <row r="149" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="162"/>
-      <c r="C149" s="166"/>
+      <c r="B149" s="158"/>
+      <c r="C149" s="162"/>
       <c r="D149" s="39" t="s">
         <v>277</v>
       </c>
@@ -13485,8 +13527,8 @@
       </c>
     </row>
     <row r="150" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="162"/>
-      <c r="C150" s="166"/>
+      <c r="B150" s="158"/>
+      <c r="C150" s="162"/>
       <c r="D150" s="39" t="s">
         <v>278</v>
       </c>
@@ -13518,8 +13560,8 @@
       </c>
     </row>
     <row r="151" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="162"/>
-      <c r="C151" s="166"/>
+      <c r="B151" s="158"/>
+      <c r="C151" s="162"/>
       <c r="D151" s="39" t="s">
         <v>279</v>
       </c>
@@ -13553,8 +13595,8 @@
       </c>
     </row>
     <row r="152" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="162"/>
-      <c r="C152" s="166"/>
+      <c r="B152" s="158"/>
+      <c r="C152" s="162"/>
       <c r="D152" s="39" t="s">
         <v>280</v>
       </c>
@@ -13586,8 +13628,8 @@
       </c>
     </row>
     <row r="153" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="162"/>
-      <c r="C153" s="166"/>
+      <c r="B153" s="158"/>
+      <c r="C153" s="162"/>
       <c r="D153" s="39" t="s">
         <v>281</v>
       </c>
@@ -13619,8 +13661,8 @@
       </c>
     </row>
     <row r="154" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="162"/>
-      <c r="C154" s="166"/>
+      <c r="B154" s="158"/>
+      <c r="C154" s="162"/>
       <c r="D154" s="39" t="s">
         <v>282</v>
       </c>
@@ -13654,8 +13696,8 @@
       </c>
     </row>
     <row r="155" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="162"/>
-      <c r="C155" s="166"/>
+      <c r="B155" s="158"/>
+      <c r="C155" s="162"/>
       <c r="D155" s="39" t="s">
         <v>283</v>
       </c>
@@ -13687,8 +13729,8 @@
       </c>
     </row>
     <row r="156" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="162"/>
-      <c r="C156" s="166"/>
+      <c r="B156" s="158"/>
+      <c r="C156" s="162"/>
       <c r="D156" s="39" t="s">
         <v>284</v>
       </c>
@@ -13720,8 +13762,8 @@
       </c>
     </row>
     <row r="157" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="162"/>
-      <c r="C157" s="166"/>
+      <c r="B157" s="158"/>
+      <c r="C157" s="162"/>
       <c r="D157" s="39" t="s">
         <v>285</v>
       </c>
@@ -13755,8 +13797,8 @@
       </c>
     </row>
     <row r="158" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="162"/>
-      <c r="C158" s="166"/>
+      <c r="B158" s="158"/>
+      <c r="C158" s="162"/>
       <c r="D158" s="39" t="s">
         <v>286</v>
       </c>
@@ -13788,8 +13830,8 @@
       </c>
     </row>
     <row r="159" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="162"/>
-      <c r="C159" s="166"/>
+      <c r="B159" s="158"/>
+      <c r="C159" s="162"/>
       <c r="D159" s="39" t="s">
         <v>287</v>
       </c>
@@ -13823,8 +13865,8 @@
       </c>
     </row>
     <row r="160" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="162"/>
-      <c r="C160" s="166"/>
+      <c r="B160" s="158"/>
+      <c r="C160" s="162"/>
       <c r="D160" s="39" t="s">
         <v>288</v>
       </c>
@@ -13856,8 +13898,8 @@
       </c>
     </row>
     <row r="161" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="162"/>
-      <c r="C161" s="166"/>
+      <c r="B161" s="158"/>
+      <c r="C161" s="162"/>
       <c r="D161" s="39" t="s">
         <v>289</v>
       </c>
@@ -13889,8 +13931,8 @@
       </c>
     </row>
     <row r="162" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="162"/>
-      <c r="C162" s="166"/>
+      <c r="B162" s="158"/>
+      <c r="C162" s="162"/>
       <c r="D162" s="39" t="s">
         <v>290</v>
       </c>
@@ -13924,8 +13966,8 @@
       </c>
     </row>
     <row r="163" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="162"/>
-      <c r="C163" s="166"/>
+      <c r="B163" s="158"/>
+      <c r="C163" s="162"/>
       <c r="D163" s="39" t="s">
         <v>291</v>
       </c>
@@ -13957,8 +13999,8 @@
       </c>
     </row>
     <row r="164" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="162"/>
-      <c r="C164" s="166"/>
+      <c r="B164" s="158"/>
+      <c r="C164" s="162"/>
       <c r="D164" s="39" t="s">
         <v>292</v>
       </c>
@@ -13992,8 +14034,8 @@
       </c>
     </row>
     <row r="165" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="162"/>
-      <c r="C165" s="166"/>
+      <c r="B165" s="158"/>
+      <c r="C165" s="162"/>
       <c r="D165" s="39" t="s">
         <v>293</v>
       </c>
@@ -14025,8 +14067,8 @@
       </c>
     </row>
     <row r="166" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="162"/>
-      <c r="C166" s="166"/>
+      <c r="B166" s="158"/>
+      <c r="C166" s="162"/>
       <c r="D166" s="39" t="s">
         <v>294</v>
       </c>
@@ -14058,8 +14100,8 @@
       </c>
     </row>
     <row r="167" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="162"/>
-      <c r="C167" s="166"/>
+      <c r="B167" s="158"/>
+      <c r="C167" s="162"/>
       <c r="D167" s="39" t="s">
         <v>295</v>
       </c>
@@ -14093,8 +14135,8 @@
       </c>
     </row>
     <row r="168" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="162"/>
-      <c r="C168" s="166"/>
+      <c r="B168" s="158"/>
+      <c r="C168" s="162"/>
       <c r="D168" s="39" t="s">
         <v>296</v>
       </c>
@@ -14126,8 +14168,8 @@
       </c>
     </row>
     <row r="169" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="162"/>
-      <c r="C169" s="166"/>
+      <c r="B169" s="158"/>
+      <c r="C169" s="162"/>
       <c r="D169" s="39" t="s">
         <v>297</v>
       </c>
@@ -14159,8 +14201,8 @@
       </c>
     </row>
     <row r="170" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="162"/>
-      <c r="C170" s="166"/>
+      <c r="B170" s="158"/>
+      <c r="C170" s="162"/>
       <c r="D170" s="39" t="s">
         <v>298</v>
       </c>
@@ -14192,8 +14234,8 @@
       </c>
     </row>
     <row r="171" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="162"/>
-      <c r="C171" s="166"/>
+      <c r="B171" s="158"/>
+      <c r="C171" s="162"/>
       <c r="D171" s="39" t="s">
         <v>299</v>
       </c>
@@ -14225,8 +14267,8 @@
       </c>
     </row>
     <row r="172" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="162"/>
-      <c r="C172" s="166"/>
+      <c r="B172" s="158"/>
+      <c r="C172" s="162"/>
       <c r="D172" s="39" t="s">
         <v>300</v>
       </c>
@@ -14260,8 +14302,8 @@
       </c>
     </row>
     <row r="173" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="162"/>
-      <c r="C173" s="166"/>
+      <c r="B173" s="158"/>
+      <c r="C173" s="162"/>
       <c r="D173" s="39" t="s">
         <v>301</v>
       </c>
@@ -14293,8 +14335,8 @@
       </c>
     </row>
     <row r="174" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="162"/>
-      <c r="C174" s="166"/>
+      <c r="B174" s="158"/>
+      <c r="C174" s="162"/>
       <c r="D174" s="39" t="s">
         <v>302</v>
       </c>
@@ -14326,8 +14368,8 @@
       </c>
     </row>
     <row r="175" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="162"/>
-      <c r="C175" s="166"/>
+      <c r="B175" s="158"/>
+      <c r="C175" s="162"/>
       <c r="D175" s="39" t="s">
         <v>303</v>
       </c>
@@ -14361,8 +14403,8 @@
       </c>
     </row>
     <row r="176" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="162"/>
-      <c r="C176" s="166"/>
+      <c r="B176" s="158"/>
+      <c r="C176" s="162"/>
       <c r="D176" s="39" t="s">
         <v>304</v>
       </c>
@@ -14396,8 +14438,8 @@
       </c>
     </row>
     <row r="177" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="162"/>
-      <c r="C177" s="166"/>
+      <c r="B177" s="158"/>
+      <c r="C177" s="162"/>
       <c r="D177" s="39" t="s">
         <v>305</v>
       </c>
@@ -14429,8 +14471,8 @@
       </c>
     </row>
     <row r="178" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="162"/>
-      <c r="C178" s="166"/>
+      <c r="B178" s="158"/>
+      <c r="C178" s="162"/>
       <c r="D178" s="39" t="s">
         <v>306</v>
       </c>
@@ -14464,8 +14506,8 @@
       </c>
     </row>
     <row r="179" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="162"/>
-      <c r="C179" s="166"/>
+      <c r="B179" s="158"/>
+      <c r="C179" s="162"/>
       <c r="D179" s="39" t="s">
         <v>307</v>
       </c>
@@ -14497,8 +14539,8 @@
       </c>
     </row>
     <row r="180" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="162"/>
-      <c r="C180" s="166"/>
+      <c r="B180" s="158"/>
+      <c r="C180" s="162"/>
       <c r="D180" s="39" t="s">
         <v>308</v>
       </c>
@@ -14530,8 +14572,8 @@
       </c>
     </row>
     <row r="181" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="162"/>
-      <c r="C181" s="166"/>
+      <c r="B181" s="158"/>
+      <c r="C181" s="162"/>
       <c r="D181" s="39" t="s">
         <v>309</v>
       </c>
@@ -14565,8 +14607,8 @@
       </c>
     </row>
     <row r="182" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="162"/>
-      <c r="C182" s="166"/>
+      <c r="B182" s="158"/>
+      <c r="C182" s="162"/>
       <c r="D182" s="39" t="s">
         <v>310</v>
       </c>
@@ -14598,8 +14640,8 @@
       </c>
     </row>
     <row r="183" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="162"/>
-      <c r="C183" s="166"/>
+      <c r="B183" s="158"/>
+      <c r="C183" s="162"/>
       <c r="D183" s="39" t="s">
         <v>311</v>
       </c>
@@ -14631,8 +14673,8 @@
       </c>
     </row>
     <row r="184" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="162"/>
-      <c r="C184" s="166"/>
+      <c r="B184" s="158"/>
+      <c r="C184" s="162"/>
       <c r="D184" s="39" t="s">
         <v>314</v>
       </c>
@@ -14666,8 +14708,8 @@
       </c>
     </row>
     <row r="185" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="162"/>
-      <c r="C185" s="166"/>
+      <c r="B185" s="158"/>
+      <c r="C185" s="162"/>
       <c r="D185" s="39" t="s">
         <v>315</v>
       </c>
@@ -14699,8 +14741,8 @@
       </c>
     </row>
     <row r="186" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="162"/>
-      <c r="C186" s="166"/>
+      <c r="B186" s="158"/>
+      <c r="C186" s="162"/>
       <c r="D186" s="39" t="s">
         <v>321</v>
       </c>
@@ -14734,8 +14776,8 @@
       </c>
     </row>
     <row r="187" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="162"/>
-      <c r="C187" s="166"/>
+      <c r="B187" s="158"/>
+      <c r="C187" s="162"/>
       <c r="D187" s="39" t="s">
         <v>322</v>
       </c>
@@ -14767,8 +14809,8 @@
       </c>
     </row>
     <row r="188" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="162"/>
-      <c r="C188" s="166"/>
+      <c r="B188" s="158"/>
+      <c r="C188" s="162"/>
       <c r="D188" s="39" t="s">
         <v>323</v>
       </c>
@@ -14802,8 +14844,8 @@
       </c>
     </row>
     <row r="189" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="162"/>
-      <c r="C189" s="166"/>
+      <c r="B189" s="158"/>
+      <c r="C189" s="162"/>
       <c r="D189" s="39" t="s">
         <v>324</v>
       </c>
@@ -14835,8 +14877,8 @@
       </c>
     </row>
     <row r="190" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="162"/>
-      <c r="C190" s="166"/>
+      <c r="B190" s="158"/>
+      <c r="C190" s="162"/>
       <c r="D190" s="39" t="s">
         <v>325</v>
       </c>
@@ -14868,8 +14910,8 @@
       </c>
     </row>
     <row r="191" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="162"/>
-      <c r="C191" s="166"/>
+      <c r="B191" s="158"/>
+      <c r="C191" s="162"/>
       <c r="D191" s="39" t="s">
         <v>328</v>
       </c>
@@ -14903,8 +14945,8 @@
       </c>
     </row>
     <row r="192" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="162"/>
-      <c r="C192" s="166"/>
+      <c r="B192" s="158"/>
+      <c r="C192" s="162"/>
       <c r="D192" s="39" t="s">
         <v>329</v>
       </c>
@@ -14936,8 +14978,8 @@
       </c>
     </row>
     <row r="193" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="162"/>
-      <c r="C193" s="168" t="s">
+      <c r="B193" s="158"/>
+      <c r="C193" s="164" t="s">
         <v>57</v>
       </c>
       <c r="D193" s="30" t="s">
@@ -14971,8 +15013,8 @@
       </c>
     </row>
     <row r="194" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="162"/>
-      <c r="C194" s="166"/>
+      <c r="B194" s="158"/>
+      <c r="C194" s="162"/>
       <c r="D194" s="30" t="s">
         <v>336</v>
       </c>
@@ -15006,8 +15048,8 @@
       </c>
     </row>
     <row r="195" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="162"/>
-      <c r="C195" s="166"/>
+      <c r="B195" s="158"/>
+      <c r="C195" s="162"/>
       <c r="D195" s="30" t="s">
         <v>337</v>
       </c>
@@ -15039,8 +15081,8 @@
       </c>
     </row>
     <row r="196" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="162"/>
-      <c r="C196" s="166"/>
+      <c r="B196" s="158"/>
+      <c r="C196" s="162"/>
       <c r="D196" s="30" t="s">
         <v>338</v>
       </c>
@@ -15074,8 +15116,8 @@
       </c>
     </row>
     <row r="197" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="162"/>
-      <c r="C197" s="166"/>
+      <c r="B197" s="158"/>
+      <c r="C197" s="162"/>
       <c r="D197" s="30" t="s">
         <v>339</v>
       </c>
@@ -15107,8 +15149,8 @@
       </c>
     </row>
     <row r="198" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="162"/>
-      <c r="C198" s="166"/>
+      <c r="B198" s="158"/>
+      <c r="C198" s="162"/>
       <c r="D198" s="30" t="s">
         <v>345</v>
       </c>
@@ -15142,8 +15184,8 @@
       </c>
     </row>
     <row r="199" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="162"/>
-      <c r="C199" s="166"/>
+      <c r="B199" s="158"/>
+      <c r="C199" s="162"/>
       <c r="D199" s="30" t="s">
         <v>346</v>
       </c>
@@ -15175,8 +15217,8 @@
       </c>
     </row>
     <row r="200" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="162"/>
-      <c r="C200" s="166"/>
+      <c r="B200" s="158"/>
+      <c r="C200" s="162"/>
       <c r="D200" s="30" t="s">
         <v>347</v>
       </c>
@@ -15208,8 +15250,8 @@
       </c>
     </row>
     <row r="201" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="162"/>
-      <c r="C201" s="166"/>
+      <c r="B201" s="158"/>
+      <c r="C201" s="162"/>
       <c r="D201" s="30" t="s">
         <v>348</v>
       </c>
@@ -15243,8 +15285,8 @@
       </c>
     </row>
     <row r="202" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="162"/>
-      <c r="C202" s="166"/>
+      <c r="B202" s="158"/>
+      <c r="C202" s="162"/>
       <c r="D202" s="30" t="s">
         <v>349</v>
       </c>
@@ -15276,8 +15318,8 @@
       </c>
     </row>
     <row r="203" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="162"/>
-      <c r="C203" s="166"/>
+      <c r="B203" s="158"/>
+      <c r="C203" s="162"/>
       <c r="D203" s="30" t="s">
         <v>352</v>
       </c>
@@ -15311,8 +15353,8 @@
       </c>
     </row>
     <row r="204" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="162"/>
-      <c r="C204" s="166"/>
+      <c r="B204" s="158"/>
+      <c r="C204" s="162"/>
       <c r="D204" s="30" t="s">
         <v>353</v>
       </c>
@@ -15344,8 +15386,8 @@
       </c>
     </row>
     <row r="205" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="162"/>
-      <c r="C205" s="166"/>
+      <c r="B205" s="158"/>
+      <c r="C205" s="162"/>
       <c r="D205" s="30" t="s">
         <v>363</v>
       </c>
@@ -15379,8 +15421,8 @@
       </c>
     </row>
     <row r="206" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="162"/>
-      <c r="C206" s="166"/>
+      <c r="B206" s="158"/>
+      <c r="C206" s="162"/>
       <c r="D206" s="30" t="s">
         <v>364</v>
       </c>
@@ -15412,8 +15454,8 @@
       </c>
     </row>
     <row r="207" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="162"/>
-      <c r="C207" s="166"/>
+      <c r="B207" s="158"/>
+      <c r="C207" s="162"/>
       <c r="D207" s="30" t="s">
         <v>365</v>
       </c>
@@ -15445,8 +15487,8 @@
       </c>
     </row>
     <row r="208" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="162"/>
-      <c r="C208" s="166"/>
+      <c r="B208" s="158"/>
+      <c r="C208" s="162"/>
       <c r="D208" s="30" t="s">
         <v>366</v>
       </c>
@@ -15480,8 +15522,8 @@
       </c>
     </row>
     <row r="209" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="162"/>
-      <c r="C209" s="166"/>
+      <c r="B209" s="158"/>
+      <c r="C209" s="162"/>
       <c r="D209" s="30" t="s">
         <v>367</v>
       </c>
@@ -15513,8 +15555,8 @@
       </c>
     </row>
     <row r="210" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="162"/>
-      <c r="C210" s="166"/>
+      <c r="B210" s="158"/>
+      <c r="C210" s="162"/>
       <c r="D210" s="30" t="s">
         <v>368</v>
       </c>
@@ -15546,8 +15588,8 @@
       </c>
     </row>
     <row r="211" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="162"/>
-      <c r="C211" s="166"/>
+      <c r="B211" s="158"/>
+      <c r="C211" s="162"/>
       <c r="D211" s="30" t="s">
         <v>369</v>
       </c>
@@ -15581,8 +15623,8 @@
       </c>
     </row>
     <row r="212" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="162"/>
-      <c r="C212" s="166"/>
+      <c r="B212" s="158"/>
+      <c r="C212" s="162"/>
       <c r="D212" s="30" t="s">
         <v>370</v>
       </c>
@@ -15614,8 +15656,8 @@
       </c>
     </row>
     <row r="213" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="162"/>
-      <c r="C213" s="166"/>
+      <c r="B213" s="158"/>
+      <c r="C213" s="162"/>
       <c r="D213" s="30" t="s">
         <v>371</v>
       </c>
@@ -15647,8 +15689,8 @@
       </c>
     </row>
     <row r="214" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="162"/>
-      <c r="C214" s="166"/>
+      <c r="B214" s="158"/>
+      <c r="C214" s="162"/>
       <c r="D214" s="30" t="s">
         <v>374</v>
       </c>
@@ -15682,8 +15724,8 @@
       </c>
     </row>
     <row r="215" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="162"/>
-      <c r="C215" s="169"/>
+      <c r="B215" s="158"/>
+      <c r="C215" s="165"/>
       <c r="D215" s="30" t="s">
         <v>375</v>
       </c>
@@ -15715,8 +15757,8 @@
       </c>
     </row>
     <row r="216" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="162"/>
-      <c r="C216" s="168" t="s">
+      <c r="B216" s="158"/>
+      <c r="C216" s="164" t="s">
         <v>58</v>
       </c>
       <c r="D216" s="30" t="s">
@@ -15752,8 +15794,8 @@
       </c>
     </row>
     <row r="217" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="162"/>
-      <c r="C217" s="166"/>
+      <c r="B217" s="158"/>
+      <c r="C217" s="162"/>
       <c r="D217" s="30" t="s">
         <v>387</v>
       </c>
@@ -15785,8 +15827,8 @@
       </c>
     </row>
     <row r="218" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="162"/>
-      <c r="C218" s="166"/>
+      <c r="B218" s="158"/>
+      <c r="C218" s="162"/>
       <c r="D218" s="30" t="s">
         <v>388</v>
       </c>
@@ -15818,8 +15860,8 @@
       </c>
     </row>
     <row r="219" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="162"/>
-      <c r="C219" s="166"/>
+      <c r="B219" s="158"/>
+      <c r="C219" s="162"/>
       <c r="D219" s="30" t="s">
         <v>389</v>
       </c>
@@ -15853,8 +15895,8 @@
       </c>
     </row>
     <row r="220" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="162"/>
-      <c r="C220" s="166"/>
+      <c r="B220" s="158"/>
+      <c r="C220" s="162"/>
       <c r="D220" s="30" t="s">
         <v>390</v>
       </c>
@@ -15886,8 +15928,8 @@
       </c>
     </row>
     <row r="221" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="162"/>
-      <c r="C221" s="166"/>
+      <c r="B221" s="158"/>
+      <c r="C221" s="162"/>
       <c r="D221" s="30" t="s">
         <v>391</v>
       </c>
@@ -15919,8 +15961,8 @@
       </c>
     </row>
     <row r="222" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="162"/>
-      <c r="C222" s="166"/>
+      <c r="B222" s="158"/>
+      <c r="C222" s="162"/>
       <c r="D222" s="30" t="s">
         <v>392</v>
       </c>
@@ -15954,8 +15996,8 @@
       </c>
     </row>
     <row r="223" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="162"/>
-      <c r="C223" s="166"/>
+      <c r="B223" s="158"/>
+      <c r="C223" s="162"/>
       <c r="D223" s="30" t="s">
         <v>393</v>
       </c>
@@ -15987,8 +16029,8 @@
       </c>
     </row>
     <row r="224" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="162"/>
-      <c r="C224" s="166"/>
+      <c r="B224" s="158"/>
+      <c r="C224" s="162"/>
       <c r="D224" s="30" t="s">
         <v>394</v>
       </c>
@@ -16020,8 +16062,8 @@
       </c>
     </row>
     <row r="225" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="162"/>
-      <c r="C225" s="166"/>
+      <c r="B225" s="158"/>
+      <c r="C225" s="162"/>
       <c r="D225" s="30" t="s">
         <v>395</v>
       </c>
@@ -16055,8 +16097,8 @@
       </c>
     </row>
     <row r="226" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="162"/>
-      <c r="C226" s="166"/>
+      <c r="B226" s="158"/>
+      <c r="C226" s="162"/>
       <c r="D226" s="30" t="s">
         <v>396</v>
       </c>
@@ -16088,8 +16130,8 @@
       </c>
     </row>
     <row r="227" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="162"/>
-      <c r="C227" s="166"/>
+      <c r="B227" s="158"/>
+      <c r="C227" s="162"/>
       <c r="D227" s="30" t="s">
         <v>397</v>
       </c>
@@ -16123,8 +16165,8 @@
       </c>
     </row>
     <row r="228" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="162"/>
-      <c r="C228" s="166"/>
+      <c r="B228" s="158"/>
+      <c r="C228" s="162"/>
       <c r="D228" s="30" t="s">
         <v>398</v>
       </c>
@@ -16156,8 +16198,8 @@
       </c>
     </row>
     <row r="229" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="162"/>
-      <c r="C229" s="166"/>
+      <c r="B229" s="158"/>
+      <c r="C229" s="162"/>
       <c r="D229" s="30" t="s">
         <v>399</v>
       </c>
@@ -16193,8 +16235,8 @@
       </c>
     </row>
     <row r="230" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="162"/>
-      <c r="C230" s="166"/>
+      <c r="B230" s="158"/>
+      <c r="C230" s="162"/>
       <c r="D230" s="30" t="s">
         <v>400</v>
       </c>
@@ -16228,8 +16270,8 @@
       </c>
     </row>
     <row r="231" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="162"/>
-      <c r="C231" s="166"/>
+      <c r="B231" s="158"/>
+      <c r="C231" s="162"/>
       <c r="D231" s="30" t="s">
         <v>401</v>
       </c>
@@ -16263,8 +16305,8 @@
       </c>
     </row>
     <row r="232" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="162"/>
-      <c r="C232" s="166"/>
+      <c r="B232" s="158"/>
+      <c r="C232" s="162"/>
       <c r="D232" s="30" t="s">
         <v>405</v>
       </c>
@@ -16298,8 +16340,8 @@
       </c>
     </row>
     <row r="233" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="162"/>
-      <c r="C233" s="166"/>
+      <c r="B233" s="158"/>
+      <c r="C233" s="162"/>
       <c r="D233" s="30" t="s">
         <v>406</v>
       </c>
@@ -16331,8 +16373,8 @@
       </c>
     </row>
     <row r="234" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="162"/>
-      <c r="C234" s="166"/>
+      <c r="B234" s="158"/>
+      <c r="C234" s="162"/>
       <c r="D234" s="30" t="s">
         <v>407</v>
       </c>
@@ -16364,8 +16406,8 @@
       </c>
     </row>
     <row r="235" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="162"/>
-      <c r="C235" s="166"/>
+      <c r="B235" s="158"/>
+      <c r="C235" s="162"/>
       <c r="D235" s="30" t="s">
         <v>415</v>
       </c>
@@ -16401,8 +16443,8 @@
       </c>
     </row>
     <row r="236" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="162"/>
-      <c r="C236" s="166"/>
+      <c r="B236" s="158"/>
+      <c r="C236" s="162"/>
       <c r="D236" s="30" t="s">
         <v>416</v>
       </c>
@@ -16436,8 +16478,8 @@
       </c>
     </row>
     <row r="237" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="162"/>
-      <c r="C237" s="166"/>
+      <c r="B237" s="158"/>
+      <c r="C237" s="162"/>
       <c r="D237" s="30" t="s">
         <v>417</v>
       </c>
@@ -16471,8 +16513,8 @@
       </c>
     </row>
     <row r="238" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="162"/>
-      <c r="C238" s="166"/>
+      <c r="B238" s="158"/>
+      <c r="C238" s="162"/>
       <c r="D238" s="30" t="s">
         <v>418</v>
       </c>
@@ -16506,8 +16548,8 @@
       </c>
     </row>
     <row r="239" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="162"/>
-      <c r="C239" s="166"/>
+      <c r="B239" s="158"/>
+      <c r="C239" s="162"/>
       <c r="D239" s="30" t="s">
         <v>419</v>
       </c>
@@ -16543,8 +16585,8 @@
       </c>
     </row>
     <row r="240" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="162"/>
-      <c r="C240" s="166"/>
+      <c r="B240" s="158"/>
+      <c r="C240" s="162"/>
       <c r="D240" s="30" t="s">
         <v>420</v>
       </c>
@@ -16578,8 +16620,8 @@
       </c>
     </row>
     <row r="241" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="162"/>
-      <c r="C241" s="166"/>
+      <c r="B241" s="158"/>
+      <c r="C241" s="162"/>
       <c r="D241" s="30" t="s">
         <v>421</v>
       </c>
@@ -16613,8 +16655,8 @@
       </c>
     </row>
     <row r="242" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="162"/>
-      <c r="C242" s="168" t="s">
+      <c r="B242" s="158"/>
+      <c r="C242" s="164" t="s">
         <v>59</v>
       </c>
       <c r="D242" s="30" t="s">
@@ -16652,8 +16694,8 @@
       </c>
     </row>
     <row r="243" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="162"/>
-      <c r="C243" s="166"/>
+      <c r="B243" s="158"/>
+      <c r="C243" s="162"/>
       <c r="D243" s="30" t="s">
         <v>436</v>
       </c>
@@ -16689,8 +16731,8 @@
       </c>
     </row>
     <row r="244" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="162"/>
-      <c r="C244" s="166"/>
+      <c r="B244" s="158"/>
+      <c r="C244" s="162"/>
       <c r="D244" s="30" t="s">
         <v>437</v>
       </c>
@@ -16726,8 +16768,8 @@
       </c>
     </row>
     <row r="245" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="162"/>
-      <c r="C245" s="166"/>
+      <c r="B245" s="158"/>
+      <c r="C245" s="162"/>
       <c r="D245" s="30" t="s">
         <v>438</v>
       </c>
@@ -16761,8 +16803,8 @@
       </c>
     </row>
     <row r="246" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="162"/>
-      <c r="C246" s="166"/>
+      <c r="B246" s="158"/>
+      <c r="C246" s="162"/>
       <c r="D246" s="30" t="s">
         <v>439</v>
       </c>
@@ -16798,8 +16840,8 @@
       </c>
     </row>
     <row r="247" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="162"/>
-      <c r="C247" s="166"/>
+      <c r="B247" s="158"/>
+      <c r="C247" s="162"/>
       <c r="D247" s="30" t="s">
         <v>440</v>
       </c>
@@ -16833,8 +16875,8 @@
       </c>
     </row>
     <row r="248" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="162"/>
-      <c r="C248" s="166"/>
+      <c r="B248" s="158"/>
+      <c r="C248" s="162"/>
       <c r="D248" s="30" t="s">
         <v>441</v>
       </c>
@@ -16870,8 +16912,8 @@
       </c>
     </row>
     <row r="249" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="162"/>
-      <c r="C249" s="166"/>
+      <c r="B249" s="158"/>
+      <c r="C249" s="162"/>
       <c r="D249" s="30" t="s">
         <v>442</v>
       </c>
@@ -16905,8 +16947,8 @@
       </c>
     </row>
     <row r="250" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="162"/>
-      <c r="C250" s="166"/>
+      <c r="B250" s="158"/>
+      <c r="C250" s="162"/>
       <c r="D250" s="30" t="s">
         <v>443</v>
       </c>
@@ -16942,8 +16984,8 @@
       </c>
     </row>
     <row r="251" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="162"/>
-      <c r="C251" s="166"/>
+      <c r="B251" s="158"/>
+      <c r="C251" s="162"/>
       <c r="D251" s="30" t="s">
         <v>444</v>
       </c>
@@ -16977,8 +17019,8 @@
       </c>
     </row>
     <row r="252" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="162"/>
-      <c r="C252" s="166"/>
+      <c r="B252" s="158"/>
+      <c r="C252" s="162"/>
       <c r="D252" s="30" t="s">
         <v>445</v>
       </c>
@@ -17012,8 +17054,8 @@
       </c>
     </row>
     <row r="253" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="162"/>
-      <c r="C253" s="166"/>
+      <c r="B253" s="158"/>
+      <c r="C253" s="162"/>
       <c r="D253" s="30" t="s">
         <v>446</v>
       </c>
@@ -17049,8 +17091,8 @@
       </c>
     </row>
     <row r="254" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="162"/>
-      <c r="C254" s="166"/>
+      <c r="B254" s="158"/>
+      <c r="C254" s="162"/>
       <c r="D254" s="30" t="s">
         <v>447</v>
       </c>
@@ -17084,8 +17126,8 @@
       </c>
     </row>
     <row r="255" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="162"/>
-      <c r="C255" s="168" t="s">
+      <c r="B255" s="158"/>
+      <c r="C255" s="164" t="s">
         <v>60</v>
       </c>
       <c r="D255" s="30" t="s">
@@ -17121,8 +17163,8 @@
       </c>
     </row>
     <row r="256" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="162"/>
-      <c r="C256" s="166"/>
+      <c r="B256" s="158"/>
+      <c r="C256" s="162"/>
       <c r="D256" s="30" t="s">
         <v>466</v>
       </c>
@@ -17154,8 +17196,8 @@
       </c>
     </row>
     <row r="257" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="162"/>
-      <c r="C257" s="166"/>
+      <c r="B257" s="158"/>
+      <c r="C257" s="162"/>
       <c r="D257" s="30" t="s">
         <v>467</v>
       </c>
@@ -17187,8 +17229,8 @@
       </c>
     </row>
     <row r="258" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="162"/>
-      <c r="C258" s="166"/>
+      <c r="B258" s="158"/>
+      <c r="C258" s="162"/>
       <c r="D258" s="30" t="s">
         <v>468</v>
       </c>
@@ -17222,8 +17264,8 @@
       </c>
     </row>
     <row r="259" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="162"/>
-      <c r="C259" s="166"/>
+      <c r="B259" s="158"/>
+      <c r="C259" s="162"/>
       <c r="D259" s="30" t="s">
         <v>469</v>
       </c>
@@ -17255,8 +17297,8 @@
       </c>
     </row>
     <row r="260" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="162"/>
-      <c r="C260" s="166"/>
+      <c r="B260" s="158"/>
+      <c r="C260" s="162"/>
       <c r="D260" s="30" t="s">
         <v>470</v>
       </c>
@@ -17292,8 +17334,8 @@
       </c>
     </row>
     <row r="261" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="162"/>
-      <c r="C261" s="166"/>
+      <c r="B261" s="158"/>
+      <c r="C261" s="162"/>
       <c r="D261" s="30" t="s">
         <v>471</v>
       </c>
@@ -17327,8 +17369,8 @@
       </c>
     </row>
     <row r="262" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="162"/>
-      <c r="C262" s="166"/>
+      <c r="B262" s="158"/>
+      <c r="C262" s="162"/>
       <c r="D262" s="30" t="s">
         <v>472</v>
       </c>
@@ -17360,8 +17402,8 @@
       </c>
     </row>
     <row r="263" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="162"/>
-      <c r="C263" s="166"/>
+      <c r="B263" s="158"/>
+      <c r="C263" s="162"/>
       <c r="D263" s="30" t="s">
         <v>473</v>
       </c>
@@ -17393,8 +17435,8 @@
       </c>
     </row>
     <row r="264" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="162"/>
-      <c r="C264" s="166"/>
+      <c r="B264" s="158"/>
+      <c r="C264" s="162"/>
       <c r="D264" s="30" t="s">
         <v>474</v>
       </c>
@@ -17428,8 +17470,8 @@
       </c>
     </row>
     <row r="265" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="162"/>
-      <c r="C265" s="166"/>
+      <c r="B265" s="158"/>
+      <c r="C265" s="162"/>
       <c r="D265" s="30" t="s">
         <v>475</v>
       </c>
@@ -17461,8 +17503,8 @@
       </c>
     </row>
     <row r="266" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="162"/>
-      <c r="C266" s="166"/>
+      <c r="B266" s="158"/>
+      <c r="C266" s="162"/>
       <c r="D266" s="30" t="s">
         <v>476</v>
       </c>
@@ -17494,8 +17536,8 @@
       </c>
     </row>
     <row r="267" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="162"/>
-      <c r="C267" s="166"/>
+      <c r="B267" s="158"/>
+      <c r="C267" s="162"/>
       <c r="D267" s="30" t="s">
         <v>477</v>
       </c>
@@ -17529,8 +17571,8 @@
       </c>
     </row>
     <row r="268" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="162"/>
-      <c r="C268" s="166"/>
+      <c r="B268" s="158"/>
+      <c r="C268" s="162"/>
       <c r="D268" s="30" t="s">
         <v>478</v>
       </c>
@@ -17562,8 +17604,8 @@
       </c>
     </row>
     <row r="269" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="162"/>
-      <c r="C269" s="166"/>
+      <c r="B269" s="158"/>
+      <c r="C269" s="162"/>
       <c r="D269" s="30" t="s">
         <v>479</v>
       </c>
@@ -17597,8 +17639,8 @@
       </c>
     </row>
     <row r="270" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="162"/>
-      <c r="C270" s="166"/>
+      <c r="B270" s="158"/>
+      <c r="C270" s="162"/>
       <c r="D270" s="30" t="s">
         <v>480</v>
       </c>
@@ -17630,8 +17672,8 @@
       </c>
     </row>
     <row r="271" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="162"/>
-      <c r="C271" s="166"/>
+      <c r="B271" s="158"/>
+      <c r="C271" s="162"/>
       <c r="D271" s="30" t="s">
         <v>481</v>
       </c>
@@ -17663,8 +17705,8 @@
       </c>
     </row>
     <row r="272" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="162"/>
-      <c r="C272" s="168" t="s">
+      <c r="B272" s="158"/>
+      <c r="C272" s="164" t="s">
         <v>61</v>
       </c>
       <c r="D272" s="30" t="s">
@@ -17700,8 +17742,8 @@
       </c>
     </row>
     <row r="273" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="162"/>
-      <c r="C273" s="166"/>
+      <c r="B273" s="158"/>
+      <c r="C273" s="162"/>
       <c r="D273" s="30" t="s">
         <v>485</v>
       </c>
@@ -17733,8 +17775,8 @@
       </c>
     </row>
     <row r="274" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="162"/>
-      <c r="C274" s="168" t="s">
+      <c r="B274" s="158"/>
+      <c r="C274" s="164" t="s">
         <v>486</v>
       </c>
       <c r="D274" s="30" t="s">
@@ -17770,8 +17812,8 @@
       </c>
     </row>
     <row r="275" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="162"/>
-      <c r="C275" s="166"/>
+      <c r="B275" s="158"/>
+      <c r="C275" s="162"/>
       <c r="D275" s="30" t="s">
         <v>494</v>
       </c>
@@ -17803,8 +17845,8 @@
       </c>
     </row>
     <row r="276" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="162"/>
-      <c r="C276" s="166"/>
+      <c r="B276" s="158"/>
+      <c r="C276" s="162"/>
       <c r="D276" s="30" t="s">
         <v>495</v>
       </c>
@@ -17836,8 +17878,8 @@
       </c>
     </row>
     <row r="277" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="162"/>
-      <c r="C277" s="166"/>
+      <c r="B277" s="158"/>
+      <c r="C277" s="162"/>
       <c r="D277" s="30" t="s">
         <v>496</v>
       </c>
@@ -17871,8 +17913,8 @@
       </c>
     </row>
     <row r="278" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="162"/>
-      <c r="C278" s="166"/>
+      <c r="B278" s="158"/>
+      <c r="C278" s="162"/>
       <c r="D278" s="30" t="s">
         <v>497</v>
       </c>
@@ -17904,8 +17946,8 @@
       </c>
     </row>
     <row r="279" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="162"/>
-      <c r="C279" s="166"/>
+      <c r="B279" s="158"/>
+      <c r="C279" s="162"/>
       <c r="D279" s="30" t="s">
         <v>498</v>
       </c>
@@ -17937,8 +17979,8 @@
       </c>
     </row>
     <row r="280" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="162"/>
-      <c r="C280" s="168" t="s">
+      <c r="B280" s="158"/>
+      <c r="C280" s="164" t="s">
         <v>62</v>
       </c>
       <c r="D280" s="30" t="s">
@@ -17976,8 +18018,8 @@
       </c>
     </row>
     <row r="281" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="163"/>
-      <c r="C281" s="166"/>
+      <c r="B281" s="159"/>
+      <c r="C281" s="162"/>
       <c r="D281" s="35" t="s">
         <v>513</v>
       </c>
@@ -18011,8 +18053,8 @@
       </c>
     </row>
     <row r="282" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="163"/>
-      <c r="C282" s="166"/>
+      <c r="B282" s="159"/>
+      <c r="C282" s="162"/>
       <c r="D282" s="35" t="s">
         <v>514</v>
       </c>
@@ -18046,8 +18088,8 @@
       </c>
     </row>
     <row r="283" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="163"/>
-      <c r="C283" s="166"/>
+      <c r="B283" s="159"/>
+      <c r="C283" s="162"/>
       <c r="D283" s="35" t="s">
         <v>515</v>
       </c>
@@ -18083,8 +18125,8 @@
       </c>
     </row>
     <row r="284" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="163"/>
-      <c r="C284" s="166"/>
+      <c r="B284" s="159"/>
+      <c r="C284" s="162"/>
       <c r="D284" s="35" t="s">
         <v>516</v>
       </c>
@@ -18118,8 +18160,8 @@
       </c>
     </row>
     <row r="285" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="163"/>
-      <c r="C285" s="166"/>
+      <c r="B285" s="159"/>
+      <c r="C285" s="162"/>
       <c r="D285" s="35" t="s">
         <v>517</v>
       </c>
@@ -18153,8 +18195,8 @@
       </c>
     </row>
     <row r="286" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="163"/>
-      <c r="C286" s="166"/>
+      <c r="B286" s="159"/>
+      <c r="C286" s="162"/>
       <c r="D286" s="35" t="s">
         <v>518</v>
       </c>
@@ -18190,8 +18232,8 @@
       </c>
     </row>
     <row r="287" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="163"/>
-      <c r="C287" s="166"/>
+      <c r="B287" s="159"/>
+      <c r="C287" s="162"/>
       <c r="D287" s="35" t="s">
         <v>519</v>
       </c>
@@ -18225,8 +18267,8 @@
       </c>
     </row>
     <row r="288" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="163"/>
-      <c r="C288" s="166"/>
+      <c r="B288" s="159"/>
+      <c r="C288" s="162"/>
       <c r="D288" s="35" t="s">
         <v>520</v>
       </c>
@@ -18260,8 +18302,8 @@
       </c>
     </row>
     <row r="289" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="163"/>
-      <c r="C289" s="166"/>
+      <c r="B289" s="159"/>
+      <c r="C289" s="162"/>
       <c r="D289" s="35" t="s">
         <v>521</v>
       </c>
@@ -18297,8 +18339,8 @@
       </c>
     </row>
     <row r="290" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="163"/>
-      <c r="C290" s="166"/>
+      <c r="B290" s="159"/>
+      <c r="C290" s="162"/>
       <c r="D290" s="35" t="s">
         <v>522</v>
       </c>
@@ -18332,8 +18374,8 @@
       </c>
     </row>
     <row r="291" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="163"/>
-      <c r="C291" s="166"/>
+      <c r="B291" s="159"/>
+      <c r="C291" s="162"/>
       <c r="D291" s="35" t="s">
         <v>523</v>
       </c>
@@ -18369,8 +18411,8 @@
       </c>
     </row>
     <row r="292" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="163"/>
-      <c r="C292" s="166"/>
+      <c r="B292" s="159"/>
+      <c r="C292" s="162"/>
       <c r="D292" s="35" t="s">
         <v>524</v>
       </c>
@@ -18404,8 +18446,8 @@
       </c>
     </row>
     <row r="293" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="163"/>
-      <c r="C293" s="168" t="s">
+      <c r="B293" s="159"/>
+      <c r="C293" s="164" t="s">
         <v>63</v>
       </c>
       <c r="D293" s="35" t="s">
@@ -18441,8 +18483,8 @@
       </c>
     </row>
     <row r="294" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="163"/>
-      <c r="C294" s="166"/>
+      <c r="B294" s="159"/>
+      <c r="C294" s="162"/>
       <c r="D294" s="35" t="s">
         <v>534</v>
       </c>
@@ -18476,8 +18518,8 @@
       </c>
     </row>
     <row r="295" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="163"/>
-      <c r="C295" s="166"/>
+      <c r="B295" s="159"/>
+      <c r="C295" s="162"/>
       <c r="D295" s="35" t="s">
         <v>535</v>
       </c>
@@ -18513,8 +18555,8 @@
       </c>
     </row>
     <row r="296" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="163"/>
-      <c r="C296" s="166"/>
+      <c r="B296" s="159"/>
+      <c r="C296" s="162"/>
       <c r="D296" s="35" t="s">
         <v>536</v>
       </c>
@@ -18548,8 +18590,8 @@
       </c>
     </row>
     <row r="297" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="163"/>
-      <c r="C297" s="166"/>
+      <c r="B297" s="159"/>
+      <c r="C297" s="162"/>
       <c r="D297" s="35" t="s">
         <v>537</v>
       </c>
@@ -18583,8 +18625,8 @@
       </c>
     </row>
     <row r="298" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="163"/>
-      <c r="C298" s="166"/>
+      <c r="B298" s="159"/>
+      <c r="C298" s="162"/>
       <c r="D298" s="35" t="s">
         <v>538</v>
       </c>
@@ -18620,8 +18662,8 @@
       </c>
     </row>
     <row r="299" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="163"/>
-      <c r="C299" s="169"/>
+      <c r="B299" s="159"/>
+      <c r="C299" s="165"/>
       <c r="D299" s="30" t="s">
         <v>539</v>
       </c>
@@ -18655,8 +18697,8 @@
       </c>
     </row>
     <row r="300" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="163"/>
-      <c r="C300" s="168" t="s">
+      <c r="B300" s="159"/>
+      <c r="C300" s="164" t="s">
         <v>552</v>
       </c>
       <c r="D300" s="35" t="s">
@@ -18694,8 +18736,8 @@
       </c>
     </row>
     <row r="301" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="163"/>
-      <c r="C301" s="166"/>
+      <c r="B301" s="159"/>
+      <c r="C301" s="162"/>
       <c r="D301" s="35" t="s">
         <v>554</v>
       </c>
@@ -18729,8 +18771,8 @@
       </c>
     </row>
     <row r="302" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="163"/>
-      <c r="C302" s="166"/>
+      <c r="B302" s="159"/>
+      <c r="C302" s="162"/>
       <c r="D302" s="35" t="s">
         <v>555</v>
       </c>
@@ -18764,8 +18806,8 @@
       </c>
     </row>
     <row r="303" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="163"/>
-      <c r="C303" s="166"/>
+      <c r="B303" s="159"/>
+      <c r="C303" s="162"/>
       <c r="D303" s="35" t="s">
         <v>556</v>
       </c>
@@ -18801,8 +18843,8 @@
       </c>
     </row>
     <row r="304" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="163"/>
-      <c r="C304" s="166"/>
+      <c r="B304" s="159"/>
+      <c r="C304" s="162"/>
       <c r="D304" s="35" t="s">
         <v>557</v>
       </c>
@@ -18836,8 +18878,8 @@
       </c>
     </row>
     <row r="305" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="163"/>
-      <c r="C305" s="166"/>
+      <c r="B305" s="159"/>
+      <c r="C305" s="162"/>
       <c r="D305" s="35" t="s">
         <v>558</v>
       </c>
@@ -18871,8 +18913,8 @@
       </c>
     </row>
     <row r="306" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="163"/>
-      <c r="C306" s="166"/>
+      <c r="B306" s="159"/>
+      <c r="C306" s="162"/>
       <c r="D306" s="35" t="s">
         <v>559</v>
       </c>
@@ -18908,8 +18950,8 @@
       </c>
     </row>
     <row r="307" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="163"/>
-      <c r="C307" s="166"/>
+      <c r="B307" s="159"/>
+      <c r="C307" s="162"/>
       <c r="D307" s="35" t="s">
         <v>560</v>
       </c>
@@ -18943,8 +18985,8 @@
       </c>
     </row>
     <row r="308" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="163"/>
-      <c r="C308" s="166"/>
+      <c r="B308" s="159"/>
+      <c r="C308" s="162"/>
       <c r="D308" s="35" t="s">
         <v>561</v>
       </c>
@@ -18978,8 +19020,8 @@
       </c>
     </row>
     <row r="309" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="163"/>
-      <c r="C309" s="166"/>
+      <c r="B309" s="159"/>
+      <c r="C309" s="162"/>
       <c r="D309" s="35" t="s">
         <v>562</v>
       </c>
@@ -19013,8 +19055,8 @@
       </c>
     </row>
     <row r="310" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="163"/>
-      <c r="C310" s="166"/>
+      <c r="B310" s="159"/>
+      <c r="C310" s="162"/>
       <c r="D310" s="35" t="s">
         <v>563</v>
       </c>
@@ -19050,8 +19092,8 @@
       </c>
     </row>
     <row r="311" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="163"/>
-      <c r="C311" s="169"/>
+      <c r="B311" s="159"/>
+      <c r="C311" s="165"/>
       <c r="D311" s="30" t="s">
         <v>564</v>
       </c>
@@ -19085,8 +19127,8 @@
       </c>
     </row>
     <row r="312" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="163"/>
-      <c r="C312" s="166" t="s">
+      <c r="B312" s="159"/>
+      <c r="C312" s="162" t="s">
         <v>525</v>
       </c>
       <c r="D312" s="41" t="s">
@@ -19122,8 +19164,8 @@
       </c>
     </row>
     <row r="313" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="163"/>
-      <c r="C313" s="166"/>
+      <c r="B313" s="159"/>
+      <c r="C313" s="162"/>
       <c r="D313" s="35" t="s">
         <v>584</v>
       </c>
@@ -19155,8 +19197,8 @@
       </c>
     </row>
     <row r="314" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="163"/>
-      <c r="C314" s="166"/>
+      <c r="B314" s="159"/>
+      <c r="C314" s="162"/>
       <c r="D314" s="35" t="s">
         <v>585</v>
       </c>
@@ -19190,8 +19232,8 @@
       </c>
     </row>
     <row r="315" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="163"/>
-      <c r="C315" s="166"/>
+      <c r="B315" s="159"/>
+      <c r="C315" s="162"/>
       <c r="D315" s="35" t="s">
         <v>586</v>
       </c>
@@ -19223,8 +19265,8 @@
       </c>
     </row>
     <row r="316" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="163"/>
-      <c r="C316" s="166"/>
+      <c r="B316" s="159"/>
+      <c r="C316" s="162"/>
       <c r="D316" s="35" t="s">
         <v>587</v>
       </c>
@@ -19258,8 +19300,8 @@
       </c>
     </row>
     <row r="317" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="163"/>
-      <c r="C317" s="166"/>
+      <c r="B317" s="159"/>
+      <c r="C317" s="162"/>
       <c r="D317" s="35" t="s">
         <v>588</v>
       </c>
@@ -19288,8 +19330,8 @@
       <c r="O317" s="88"/>
     </row>
     <row r="318" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="163"/>
-      <c r="C318" s="166"/>
+      <c r="B318" s="159"/>
+      <c r="C318" s="162"/>
       <c r="D318" s="35" t="s">
         <v>589</v>
       </c>
@@ -19320,8 +19362,8 @@
       </c>
     </row>
     <row r="319" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="163"/>
-      <c r="C319" s="166"/>
+      <c r="B319" s="159"/>
+      <c r="C319" s="162"/>
       <c r="D319" s="35" t="s">
         <v>590</v>
       </c>
@@ -19350,8 +19392,8 @@
       <c r="O319" s="88"/>
     </row>
     <row r="320" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="163"/>
-      <c r="C320" s="166"/>
+      <c r="B320" s="159"/>
+      <c r="C320" s="162"/>
       <c r="D320" s="35" t="s">
         <v>591</v>
       </c>
@@ -19382,8 +19424,8 @@
       </c>
     </row>
     <row r="321" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="163"/>
-      <c r="C321" s="166"/>
+      <c r="B321" s="159"/>
+      <c r="C321" s="162"/>
       <c r="D321" s="35" t="s">
         <v>592</v>
       </c>
@@ -19412,8 +19454,8 @@
       <c r="O321" s="88"/>
     </row>
     <row r="322" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="163"/>
-      <c r="C322" s="166"/>
+      <c r="B322" s="159"/>
+      <c r="C322" s="162"/>
       <c r="D322" s="35" t="s">
         <v>593</v>
       </c>
@@ -19444,8 +19486,8 @@
       </c>
     </row>
     <row r="323" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="163"/>
-      <c r="C323" s="166"/>
+      <c r="B323" s="159"/>
+      <c r="C323" s="162"/>
       <c r="D323" s="35" t="s">
         <v>594</v>
       </c>
@@ -19474,8 +19516,8 @@
       <c r="O323" s="88"/>
     </row>
     <row r="324" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="163"/>
-      <c r="C324" s="166"/>
+      <c r="B324" s="159"/>
+      <c r="C324" s="162"/>
       <c r="D324" s="35" t="s">
         <v>595</v>
       </c>
@@ -19506,8 +19548,8 @@
       </c>
     </row>
     <row r="325" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="163"/>
-      <c r="C325" s="166"/>
+      <c r="B325" s="159"/>
+      <c r="C325" s="162"/>
       <c r="D325" s="35" t="s">
         <v>596</v>
       </c>
@@ -19536,8 +19578,8 @@
       <c r="O325" s="88"/>
     </row>
     <row r="326" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="163"/>
-      <c r="C326" s="166"/>
+      <c r="B326" s="159"/>
+      <c r="C326" s="162"/>
       <c r="D326" s="35" t="s">
         <v>597</v>
       </c>
@@ -19566,8 +19608,8 @@
       <c r="O326" s="88"/>
     </row>
     <row r="327" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="163"/>
-      <c r="C327" s="166"/>
+      <c r="B327" s="159"/>
+      <c r="C327" s="162"/>
       <c r="D327" s="35" t="s">
         <v>598</v>
       </c>
@@ -19596,8 +19638,8 @@
       <c r="O327" s="88"/>
     </row>
     <row r="328" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="163"/>
-      <c r="C328" s="166"/>
+      <c r="B328" s="159"/>
+      <c r="C328" s="162"/>
       <c r="D328" s="35" t="s">
         <v>599</v>
       </c>
@@ -19626,8 +19668,8 @@
       <c r="O328" s="88"/>
     </row>
     <row r="329" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="164"/>
-      <c r="C329" s="167"/>
+      <c r="B329" s="160"/>
+      <c r="C329" s="163"/>
       <c r="D329" s="32" t="s">
         <v>600</v>
       </c>
@@ -19656,7 +19698,7 @@
       <c r="O329" s="88"/>
     </row>
     <row r="330" spans="2:15" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="171" t="s">
+      <c r="B330" s="153" t="s">
         <v>44</v>
       </c>
       <c r="C330" s="38" t="s">
@@ -19690,7 +19732,7 @@
       </c>
     </row>
     <row r="331" spans="2:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="B331" s="172"/>
+      <c r="B331" s="154"/>
       <c r="C331" s="37" t="s">
         <v>46</v>
       </c>
@@ -19722,7 +19764,7 @@
       </c>
     </row>
     <row r="332" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B332" s="172"/>
+      <c r="B332" s="154"/>
       <c r="C332" s="37" t="s">
         <v>46</v>
       </c>
@@ -19754,7 +19796,7 @@
       </c>
     </row>
     <row r="333" spans="2:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="B333" s="172"/>
+      <c r="B333" s="154"/>
       <c r="C333" s="145" t="s">
         <v>46</v>
       </c>
@@ -19786,10 +19828,10 @@
       </c>
     </row>
     <row r="334" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="170" t="s">
+      <c r="B334" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C334" s="170" t="s">
+      <c r="C334" s="155" t="s">
         <v>64</v>
       </c>
       <c r="D334" s="34" t="s">
@@ -19818,14 +19860,16 @@
       <c r="M334" s="34">
         <v>8825</v>
       </c>
-      <c r="N334" s="34"/>
+      <c r="N334" s="34" t="s">
+        <v>834</v>
+      </c>
       <c r="O334" s="144" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="335" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="170"/>
-      <c r="C335" s="170"/>
+      <c r="B335" s="155"/>
+      <c r="C335" s="155"/>
       <c r="D335" s="34" t="s">
         <v>614</v>
       </c>
@@ -19860,8 +19904,8 @@
       </c>
     </row>
     <row r="336" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="170"/>
-      <c r="C336" s="170"/>
+      <c r="B336" s="155"/>
+      <c r="C336" s="155"/>
       <c r="D336" s="34" t="s">
         <v>615</v>
       </c>
@@ -19896,8 +19940,8 @@
       </c>
     </row>
     <row r="337" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="170"/>
-      <c r="C337" s="170" t="s">
+      <c r="B337" s="155"/>
+      <c r="C337" s="155" t="s">
         <v>65</v>
       </c>
       <c r="D337" s="34" t="s">
@@ -19934,8 +19978,8 @@
       </c>
     </row>
     <row r="338" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="170"/>
-      <c r="C338" s="170"/>
+      <c r="B338" s="155"/>
+      <c r="C338" s="155"/>
       <c r="D338" s="34" t="s">
         <v>626</v>
       </c>
@@ -19970,8 +20014,8 @@
       </c>
     </row>
     <row r="339" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="170"/>
-      <c r="C339" s="170"/>
+      <c r="B339" s="155"/>
+      <c r="C339" s="155"/>
       <c r="D339" s="34" t="s">
         <v>627</v>
       </c>
@@ -20006,8 +20050,8 @@
       </c>
     </row>
     <row r="340" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="170"/>
-      <c r="C340" s="170"/>
+      <c r="B340" s="155"/>
+      <c r="C340" s="155"/>
       <c r="D340" s="34" t="s">
         <v>628</v>
       </c>
@@ -20042,8 +20086,8 @@
       </c>
     </row>
     <row r="341" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="170"/>
-      <c r="C341" s="170"/>
+      <c r="B341" s="155"/>
+      <c r="C341" s="155"/>
       <c r="D341" s="34" t="s">
         <v>629</v>
       </c>
@@ -20078,8 +20122,8 @@
       </c>
     </row>
     <row r="342" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="170"/>
-      <c r="C342" s="170"/>
+      <c r="B342" s="155"/>
+      <c r="C342" s="155"/>
       <c r="D342" s="34" t="s">
         <v>630</v>
       </c>
@@ -20114,8 +20158,8 @@
       </c>
     </row>
     <row r="343" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="170"/>
-      <c r="C343" s="170"/>
+      <c r="B343" s="155"/>
+      <c r="C343" s="155"/>
       <c r="D343" s="34" t="s">
         <v>631</v>
       </c>
@@ -20150,8 +20194,8 @@
       </c>
     </row>
     <row r="344" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="170"/>
-      <c r="C344" s="170"/>
+      <c r="B344" s="155"/>
+      <c r="C344" s="155"/>
       <c r="D344" s="34" t="s">
         <v>632</v>
       </c>
@@ -20178,17 +20222,16 @@
       <c r="M344" s="34">
         <v>6546</v>
       </c>
-      <c r="N344" s="34" t="str">
-        <f t="shared" ref="N344:N358" si="0">_xlfn.CONCAT(D344,".jpg")</f>
-        <v>GSM-0059.jpg</v>
+      <c r="N344" s="34" t="s">
+        <v>833</v>
       </c>
       <c r="O344" s="144" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="345" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="170"/>
-      <c r="C345" s="170" t="s">
+      <c r="B345" s="155"/>
+      <c r="C345" s="155" t="s">
         <v>66</v>
       </c>
       <c r="D345" s="34" t="s">
@@ -20217,17 +20260,16 @@
       <c r="M345" s="34">
         <v>4091</v>
       </c>
-      <c r="N345" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0024.jpg</v>
+      <c r="N345" s="34" t="s">
+        <v>1877</v>
       </c>
       <c r="O345" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="346" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="170"/>
-      <c r="C346" s="170"/>
+      <c r="B346" s="155"/>
+      <c r="C346" s="155"/>
       <c r="D346" s="34" t="s">
         <v>1172</v>
       </c>
@@ -20254,17 +20296,16 @@
       <c r="M346" s="34">
         <v>4091</v>
       </c>
-      <c r="N346" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0025.jpg</v>
+      <c r="N346" s="34" t="s">
+        <v>1878</v>
       </c>
       <c r="O346" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="347" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="170"/>
-      <c r="C347" s="170"/>
+      <c r="B347" s="155"/>
+      <c r="C347" s="155"/>
       <c r="D347" s="34" t="s">
         <v>1174</v>
       </c>
@@ -20291,17 +20332,16 @@
       <c r="M347" s="34">
         <v>4091</v>
       </c>
-      <c r="N347" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0026.jpg</v>
+      <c r="N347" s="34" t="s">
+        <v>1879</v>
       </c>
       <c r="O347" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="348" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="170"/>
-      <c r="C348" s="170"/>
+      <c r="B348" s="155"/>
+      <c r="C348" s="155"/>
       <c r="D348" s="34" t="s">
         <v>1176</v>
       </c>
@@ -20328,17 +20368,16 @@
       <c r="M348" s="34">
         <v>4091</v>
       </c>
-      <c r="N348" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0027.jpg</v>
+      <c r="N348" s="34" t="s">
+        <v>1880</v>
       </c>
       <c r="O348" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="349" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="170"/>
-      <c r="C349" s="170"/>
+      <c r="B349" s="155"/>
+      <c r="C349" s="155"/>
       <c r="D349" s="34" t="s">
         <v>1178</v>
       </c>
@@ -20365,17 +20404,16 @@
       <c r="M349" s="34">
         <v>4091</v>
       </c>
-      <c r="N349" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0034.jpg</v>
+      <c r="N349" s="34" t="s">
+        <v>1881</v>
       </c>
       <c r="O349" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="350" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="170"/>
-      <c r="C350" s="170"/>
+      <c r="B350" s="155"/>
+      <c r="C350" s="155"/>
       <c r="D350" s="34" t="s">
         <v>1180</v>
       </c>
@@ -20402,17 +20440,16 @@
       <c r="M350" s="34">
         <v>4091</v>
       </c>
-      <c r="N350" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0035.jpg</v>
+      <c r="N350" s="34" t="s">
+        <v>1882</v>
       </c>
       <c r="O350" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="351" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="170"/>
-      <c r="C351" s="170"/>
+      <c r="B351" s="155"/>
+      <c r="C351" s="155"/>
       <c r="D351" s="34" t="s">
         <v>1182</v>
       </c>
@@ -20439,17 +20476,16 @@
       <c r="M351" s="34">
         <v>4091</v>
       </c>
-      <c r="N351" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0036.jpg</v>
+      <c r="N351" s="34" t="s">
+        <v>1883</v>
       </c>
       <c r="O351" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="352" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="170"/>
-      <c r="C352" s="170"/>
+      <c r="B352" s="155"/>
+      <c r="C352" s="155"/>
       <c r="D352" s="34" t="s">
         <v>1184</v>
       </c>
@@ -20476,17 +20512,16 @@
       <c r="M352" s="34">
         <v>4091</v>
       </c>
-      <c r="N352" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0037.jpg</v>
+      <c r="N352" s="34" t="s">
+        <v>1884</v>
       </c>
       <c r="O352" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="353" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="170"/>
-      <c r="C353" s="170"/>
+      <c r="B353" s="155"/>
+      <c r="C353" s="155"/>
       <c r="D353" s="34" t="s">
         <v>1186</v>
       </c>
@@ -20513,17 +20548,16 @@
       <c r="M353" s="34">
         <v>4091</v>
       </c>
-      <c r="N353" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0030.jpg</v>
+      <c r="N353" s="34" t="s">
+        <v>1885</v>
       </c>
       <c r="O353" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="354" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="170"/>
-      <c r="C354" s="170"/>
+      <c r="B354" s="155"/>
+      <c r="C354" s="155"/>
       <c r="D354" s="34" t="s">
         <v>1188</v>
       </c>
@@ -20550,17 +20584,16 @@
       <c r="M354" s="34">
         <v>4091</v>
       </c>
-      <c r="N354" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0031.jpg</v>
+      <c r="N354" s="34" t="s">
+        <v>1886</v>
       </c>
       <c r="O354" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="355" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="170"/>
-      <c r="C355" s="170"/>
+      <c r="B355" s="155"/>
+      <c r="C355" s="155"/>
       <c r="D355" s="34" t="s">
         <v>1190</v>
       </c>
@@ -20587,17 +20620,16 @@
       <c r="M355" s="34">
         <v>4091</v>
       </c>
-      <c r="N355" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0032.jpg</v>
+      <c r="N355" s="34" t="s">
+        <v>1887</v>
       </c>
       <c r="O355" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="356" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="170"/>
-      <c r="C356" s="170"/>
+      <c r="B356" s="155"/>
+      <c r="C356" s="155"/>
       <c r="D356" s="34" t="s">
         <v>1192</v>
       </c>
@@ -20624,17 +20656,16 @@
       <c r="M356" s="34">
         <v>7683</v>
       </c>
-      <c r="N356" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0033.jpg</v>
+      <c r="N356" s="34" t="s">
+        <v>1888</v>
       </c>
       <c r="O356" s="144" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="357" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" s="170"/>
-      <c r="C357" s="170"/>
+      <c r="B357" s="155"/>
+      <c r="C357" s="155"/>
       <c r="D357" s="34" t="s">
         <v>1194</v>
       </c>
@@ -20661,17 +20692,16 @@
       <c r="M357" s="34">
         <v>7683</v>
       </c>
-      <c r="N357" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0028.jpg</v>
+      <c r="N357" s="34" t="s">
+        <v>1889</v>
       </c>
       <c r="O357" s="144" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="358" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="170"/>
-      <c r="C358" s="170"/>
+      <c r="B358" s="155"/>
+      <c r="C358" s="155"/>
       <c r="D358" s="34" t="s">
         <v>1196</v>
       </c>
@@ -20698,17 +20728,16 @@
       <c r="M358" s="34">
         <v>7683</v>
       </c>
-      <c r="N358" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>GSM-0029.jpg</v>
+      <c r="N358" s="34" t="s">
+        <v>1890</v>
       </c>
       <c r="O358" s="144" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="359" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="170"/>
-      <c r="C359" s="170" t="s">
+      <c r="B359" s="155"/>
+      <c r="C359" s="155" t="s">
         <v>67</v>
       </c>
       <c r="D359" s="34" t="s">
@@ -20738,15 +20767,15 @@
         <v>12521</v>
       </c>
       <c r="N359" s="34" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O359" s="144" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="360" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="170"/>
-      <c r="C360" s="170"/>
+      <c r="B360" s="155"/>
+      <c r="C360" s="155"/>
       <c r="D360" s="34" t="s">
         <v>659</v>
       </c>
@@ -20774,15 +20803,15 @@
         <v>8487</v>
       </c>
       <c r="N360" s="34" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O360" s="144" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="361" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="170"/>
-      <c r="C361" s="170"/>
+      <c r="B361" s="155"/>
+      <c r="C361" s="155"/>
       <c r="D361" s="34" t="s">
         <v>661</v>
       </c>
@@ -20810,15 +20839,15 @@
         <v>3207</v>
       </c>
       <c r="N361" s="34" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O361" s="144" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="362" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="170"/>
-      <c r="C362" s="170"/>
+      <c r="B362" s="155"/>
+      <c r="C362" s="155"/>
       <c r="D362" s="34" t="s">
         <v>663</v>
       </c>
@@ -20846,15 +20875,15 @@
         <v>796</v>
       </c>
       <c r="N362" s="34" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O362" s="144" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="363" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="170"/>
-      <c r="C363" s="170" t="s">
+      <c r="B363" s="155"/>
+      <c r="C363" s="155" t="s">
         <v>68</v>
       </c>
       <c r="D363" s="34" t="s">
@@ -20883,17 +20912,16 @@
       <c r="M363" s="34">
         <v>3776</v>
       </c>
-      <c r="N363" s="34" t="str">
-        <f t="shared" ref="N363" si="1">_xlfn.CONCAT(D363,".jpg")</f>
-        <v>GSM-0001.jpg</v>
+      <c r="N363" s="34" t="s">
+        <v>816</v>
       </c>
       <c r="O363" s="144" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="364" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="170"/>
-      <c r="C364" s="170"/>
+      <c r="B364" s="155"/>
+      <c r="C364" s="155"/>
       <c r="D364" s="34" t="s">
         <v>670</v>
       </c>
@@ -20921,15 +20949,15 @@
         <v>2890</v>
       </c>
       <c r="N364" s="34" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O364" s="144" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="365" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="170"/>
-      <c r="C365" s="170"/>
+      <c r="B365" s="155"/>
+      <c r="C365" s="155"/>
       <c r="D365" s="34" t="s">
         <v>671</v>
       </c>
@@ -20957,15 +20985,15 @@
         <v>10834</v>
       </c>
       <c r="N365" s="34" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O365" s="144" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="366" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="170"/>
-      <c r="C366" s="170"/>
+      <c r="B366" s="155"/>
+      <c r="C366" s="155"/>
       <c r="D366" s="34" t="s">
         <v>672</v>
       </c>
@@ -20993,15 +21021,15 @@
         <v>454</v>
       </c>
       <c r="N366" s="34" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O366" s="144" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="367" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="170"/>
-      <c r="C367" s="170" t="s">
+      <c r="B367" s="155"/>
+      <c r="C367" s="155" t="s">
         <v>69</v>
       </c>
       <c r="D367" s="34" t="s">
@@ -21031,15 +21059,15 @@
         <v>10706</v>
       </c>
       <c r="N367" s="34" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O367" s="144" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="368" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="170"/>
-      <c r="C368" s="170"/>
+      <c r="B368" s="155"/>
+      <c r="C368" s="155"/>
       <c r="D368" s="34" t="s">
         <v>675</v>
       </c>
@@ -21067,15 +21095,15 @@
         <v>8831</v>
       </c>
       <c r="N368" s="34" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O368" s="144" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="369" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="170"/>
-      <c r="C369" s="170" t="s">
+      <c r="B369" s="155"/>
+      <c r="C369" s="155" t="s">
         <v>70</v>
       </c>
       <c r="D369" s="34" t="s">
@@ -21112,8 +21140,8 @@
       </c>
     </row>
     <row r="370" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="170"/>
-      <c r="C370" s="170"/>
+      <c r="B370" s="155"/>
+      <c r="C370" s="155"/>
       <c r="D370" s="34" t="s">
         <v>1210</v>
       </c>
@@ -21148,8 +21176,8 @@
       </c>
     </row>
     <row r="371" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="170"/>
-      <c r="C371" s="170"/>
+      <c r="B371" s="155"/>
+      <c r="C371" s="155"/>
       <c r="D371" s="34" t="s">
         <v>1212</v>
       </c>
@@ -21184,8 +21212,8 @@
       </c>
     </row>
     <row r="372" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="170"/>
-      <c r="C372" s="170"/>
+      <c r="B372" s="155"/>
+      <c r="C372" s="155"/>
       <c r="D372" s="34" t="s">
         <v>1214</v>
       </c>
@@ -21220,8 +21248,8 @@
       </c>
     </row>
     <row r="373" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="170"/>
-      <c r="C373" s="170"/>
+      <c r="B373" s="155"/>
+      <c r="C373" s="155"/>
       <c r="D373" s="34" t="s">
         <v>1216</v>
       </c>
@@ -21256,8 +21284,8 @@
       </c>
     </row>
     <row r="374" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="170"/>
-      <c r="C374" s="170"/>
+      <c r="B374" s="155"/>
+      <c r="C374" s="155"/>
       <c r="D374" s="34" t="s">
         <v>1218</v>
       </c>
@@ -21292,8 +21320,8 @@
       </c>
     </row>
     <row r="375" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="170"/>
-      <c r="C375" s="170"/>
+      <c r="B375" s="155"/>
+      <c r="C375" s="155"/>
       <c r="D375" s="34" t="s">
         <v>1220</v>
       </c>
@@ -21328,8 +21356,8 @@
       </c>
     </row>
     <row r="376" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="170"/>
-      <c r="C376" s="170"/>
+      <c r="B376" s="155"/>
+      <c r="C376" s="155"/>
       <c r="D376" s="34" t="s">
         <v>1222</v>
       </c>
@@ -21364,8 +21392,8 @@
       </c>
     </row>
     <row r="377" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="170"/>
-      <c r="C377" s="170"/>
+      <c r="B377" s="155"/>
+      <c r="C377" s="155"/>
       <c r="D377" s="34" t="s">
         <v>1224</v>
       </c>
@@ -21400,8 +21428,8 @@
       </c>
     </row>
     <row r="378" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="170"/>
-      <c r="C378" s="170" t="s">
+      <c r="B378" s="155"/>
+      <c r="C378" s="155" t="s">
         <v>71</v>
       </c>
       <c r="D378" s="34" t="s">
@@ -21436,8 +21464,8 @@
       <c r="O378" s="144"/>
     </row>
     <row r="379" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="170"/>
-      <c r="C379" s="170"/>
+      <c r="B379" s="155"/>
+      <c r="C379" s="155"/>
       <c r="D379" s="34" t="s">
         <v>1228</v>
       </c>
@@ -21470,8 +21498,8 @@
       <c r="O379" s="144"/>
     </row>
     <row r="380" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="170"/>
-      <c r="C380" s="170"/>
+      <c r="B380" s="155"/>
+      <c r="C380" s="155"/>
       <c r="D380" s="34" t="s">
         <v>1230</v>
       </c>
@@ -21504,8 +21532,8 @@
       <c r="O380" s="144"/>
     </row>
     <row r="381" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="170"/>
-      <c r="C381" s="170"/>
+      <c r="B381" s="155"/>
+      <c r="C381" s="155"/>
       <c r="D381" s="34" t="s">
         <v>1232</v>
       </c>
@@ -21538,8 +21566,8 @@
       <c r="O381" s="144"/>
     </row>
     <row r="382" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="170"/>
-      <c r="C382" s="170"/>
+      <c r="B382" s="155"/>
+      <c r="C382" s="155"/>
       <c r="D382" s="34" t="s">
         <v>1234</v>
       </c>
@@ -21572,8 +21600,8 @@
       <c r="O382" s="144"/>
     </row>
     <row r="383" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="170"/>
-      <c r="C383" s="170"/>
+      <c r="B383" s="155"/>
+      <c r="C383" s="155"/>
       <c r="D383" s="34" t="s">
         <v>1236</v>
       </c>
@@ -21606,8 +21634,8 @@
       <c r="O383" s="144"/>
     </row>
     <row r="384" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="170"/>
-      <c r="C384" s="170"/>
+      <c r="B384" s="155"/>
+      <c r="C384" s="155"/>
       <c r="D384" s="34" t="s">
         <v>1238</v>
       </c>
@@ -21640,8 +21668,8 @@
       <c r="O384" s="144"/>
     </row>
     <row r="385" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="170"/>
-      <c r="C385" s="170"/>
+      <c r="B385" s="155"/>
+      <c r="C385" s="155"/>
       <c r="D385" s="34" t="s">
         <v>1240</v>
       </c>
@@ -21674,8 +21702,8 @@
       <c r="O385" s="144"/>
     </row>
     <row r="386" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" s="170"/>
-      <c r="C386" s="170"/>
+      <c r="B386" s="155"/>
+      <c r="C386" s="155"/>
       <c r="D386" s="34" t="s">
         <v>1242</v>
       </c>
@@ -21708,8 +21736,8 @@
       <c r="O386" s="144"/>
     </row>
     <row r="387" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="170"/>
-      <c r="C387" s="170"/>
+      <c r="B387" s="155"/>
+      <c r="C387" s="155"/>
       <c r="D387" s="34" t="s">
         <v>1244</v>
       </c>
@@ -21742,8 +21770,8 @@
       <c r="O387" s="144"/>
     </row>
     <row r="388" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B388" s="170"/>
-      <c r="C388" s="170"/>
+      <c r="B388" s="155"/>
+      <c r="C388" s="155"/>
       <c r="D388" s="34" t="s">
         <v>1246</v>
       </c>
@@ -21776,8 +21804,8 @@
       <c r="O388" s="144"/>
     </row>
     <row r="389" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="170"/>
-      <c r="C389" s="170"/>
+      <c r="B389" s="155"/>
+      <c r="C389" s="155"/>
       <c r="D389" s="34" t="s">
         <v>1248</v>
       </c>
@@ -21810,8 +21838,8 @@
       <c r="O389" s="144"/>
     </row>
     <row r="390" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="170"/>
-      <c r="C390" s="170"/>
+      <c r="B390" s="155"/>
+      <c r="C390" s="155"/>
       <c r="D390" s="34" t="s">
         <v>1250</v>
       </c>
@@ -21844,8 +21872,8 @@
       <c r="O390" s="144"/>
     </row>
     <row r="391" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="170"/>
-      <c r="C391" s="170"/>
+      <c r="B391" s="155"/>
+      <c r="C391" s="155"/>
       <c r="D391" s="34" t="s">
         <v>1252</v>
       </c>
@@ -21878,8 +21906,8 @@
       <c r="O391" s="144"/>
     </row>
     <row r="392" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="170"/>
-      <c r="C392" s="170"/>
+      <c r="B392" s="155"/>
+      <c r="C392" s="155"/>
       <c r="D392" s="34" t="s">
         <v>1254</v>
       </c>
@@ -21912,8 +21940,8 @@
       <c r="O392" s="144"/>
     </row>
     <row r="393" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="170"/>
-      <c r="C393" s="170"/>
+      <c r="B393" s="155"/>
+      <c r="C393" s="155"/>
       <c r="D393" s="34" t="s">
         <v>1256</v>
       </c>
@@ -21946,8 +21974,8 @@
       <c r="O393" s="144"/>
     </row>
     <row r="394" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="170"/>
-      <c r="C394" s="170"/>
+      <c r="B394" s="155"/>
+      <c r="C394" s="155"/>
       <c r="D394" s="34" t="s">
         <v>1258</v>
       </c>
@@ -21980,8 +22008,8 @@
       <c r="O394" s="144"/>
     </row>
     <row r="395" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="170"/>
-      <c r="C395" s="170"/>
+      <c r="B395" s="155"/>
+      <c r="C395" s="155"/>
       <c r="D395" s="34" t="s">
         <v>1260</v>
       </c>
@@ -22014,8 +22042,8 @@
       <c r="O395" s="144"/>
     </row>
     <row r="396" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="170"/>
-      <c r="C396" s="170"/>
+      <c r="B396" s="155"/>
+      <c r="C396" s="155"/>
       <c r="D396" s="34" t="s">
         <v>1262</v>
       </c>
@@ -22048,8 +22076,8 @@
       <c r="O396" s="144"/>
     </row>
     <row r="397" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="170"/>
-      <c r="C397" s="170"/>
+      <c r="B397" s="155"/>
+      <c r="C397" s="155"/>
       <c r="D397" s="34" t="s">
         <v>1264</v>
       </c>
@@ -22082,8 +22110,8 @@
       <c r="O397" s="144"/>
     </row>
     <row r="398" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="170"/>
-      <c r="C398" s="170"/>
+      <c r="B398" s="155"/>
+      <c r="C398" s="155"/>
       <c r="D398" s="34" t="s">
         <v>1266</v>
       </c>
@@ -22116,8 +22144,8 @@
       <c r="O398" s="144"/>
     </row>
     <row r="399" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="170"/>
-      <c r="C399" s="170"/>
+      <c r="B399" s="155"/>
+      <c r="C399" s="155"/>
       <c r="D399" s="34" t="s">
         <v>1268</v>
       </c>
@@ -22150,8 +22178,8 @@
       <c r="O399" s="144"/>
     </row>
     <row r="400" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="170"/>
-      <c r="C400" s="170"/>
+      <c r="B400" s="155"/>
+      <c r="C400" s="155"/>
       <c r="D400" s="34" t="s">
         <v>1270</v>
       </c>
@@ -22184,8 +22212,8 @@
       <c r="O400" s="144"/>
     </row>
     <row r="401" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="170"/>
-      <c r="C401" s="170"/>
+      <c r="B401" s="155"/>
+      <c r="C401" s="155"/>
       <c r="D401" s="34" t="s">
         <v>1272</v>
       </c>
@@ -22218,8 +22246,8 @@
       <c r="O401" s="144"/>
     </row>
     <row r="402" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="170"/>
-      <c r="C402" s="170"/>
+      <c r="B402" s="155"/>
+      <c r="C402" s="155"/>
       <c r="D402" s="34" t="s">
         <v>1274</v>
       </c>
@@ -22252,8 +22280,8 @@
       <c r="O402" s="144"/>
     </row>
     <row r="403" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" s="170"/>
-      <c r="C403" s="170"/>
+      <c r="B403" s="155"/>
+      <c r="C403" s="155"/>
       <c r="D403" s="34" t="s">
         <v>1276</v>
       </c>
@@ -22286,8 +22314,8 @@
       <c r="O403" s="144"/>
     </row>
     <row r="404" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="170"/>
-      <c r="C404" s="170"/>
+      <c r="B404" s="155"/>
+      <c r="C404" s="155"/>
       <c r="D404" s="34" t="s">
         <v>1278</v>
       </c>
@@ -22320,8 +22348,8 @@
       <c r="O404" s="144"/>
     </row>
     <row r="405" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="170"/>
-      <c r="C405" s="170"/>
+      <c r="B405" s="155"/>
+      <c r="C405" s="155"/>
       <c r="D405" s="34" t="s">
         <v>1280</v>
       </c>
@@ -22354,8 +22382,8 @@
       <c r="O405" s="144"/>
     </row>
     <row r="406" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="170"/>
-      <c r="C406" s="170"/>
+      <c r="B406" s="155"/>
+      <c r="C406" s="155"/>
       <c r="D406" s="34" t="s">
         <v>1282</v>
       </c>
@@ -22388,8 +22416,8 @@
       <c r="O406" s="144"/>
     </row>
     <row r="407" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="170"/>
-      <c r="C407" s="170"/>
+      <c r="B407" s="155"/>
+      <c r="C407" s="155"/>
       <c r="D407" s="34" t="s">
         <v>1284</v>
       </c>
@@ -22422,8 +22450,8 @@
       <c r="O407" s="144"/>
     </row>
     <row r="408" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="170"/>
-      <c r="C408" s="170"/>
+      <c r="B408" s="155"/>
+      <c r="C408" s="155"/>
       <c r="D408" s="34" t="s">
         <v>1286</v>
       </c>
@@ -22456,8 +22484,8 @@
       <c r="O408" s="144"/>
     </row>
     <row r="409" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="170"/>
-      <c r="C409" s="170"/>
+      <c r="B409" s="155"/>
+      <c r="C409" s="155"/>
       <c r="D409" s="34" t="s">
         <v>1288</v>
       </c>
@@ -22490,8 +22518,8 @@
       <c r="O409" s="144"/>
     </row>
     <row r="410" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="170"/>
-      <c r="C410" s="170"/>
+      <c r="B410" s="155"/>
+      <c r="C410" s="155"/>
       <c r="D410" s="34" t="s">
         <v>1290</v>
       </c>
@@ -22524,8 +22552,8 @@
       <c r="O410" s="144"/>
     </row>
     <row r="411" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="170"/>
-      <c r="C411" s="170"/>
+      <c r="B411" s="155"/>
+      <c r="C411" s="155"/>
       <c r="D411" s="34" t="s">
         <v>1292</v>
       </c>
@@ -22558,8 +22586,8 @@
       <c r="O411" s="144"/>
     </row>
     <row r="412" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="170"/>
-      <c r="C412" s="170"/>
+      <c r="B412" s="155"/>
+      <c r="C412" s="155"/>
       <c r="D412" s="34" t="s">
         <v>1294</v>
       </c>
@@ -22592,8 +22620,8 @@
       <c r="O412" s="144"/>
     </row>
     <row r="413" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="170"/>
-      <c r="C413" s="170"/>
+      <c r="B413" s="155"/>
+      <c r="C413" s="155"/>
       <c r="D413" s="34" t="s">
         <v>1296</v>
       </c>
@@ -22626,8 +22654,8 @@
       <c r="O413" s="144"/>
     </row>
     <row r="414" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="170"/>
-      <c r="C414" s="170"/>
+      <c r="B414" s="155"/>
+      <c r="C414" s="155"/>
       <c r="D414" s="34" t="s">
         <v>1298</v>
       </c>
@@ -22660,8 +22688,8 @@
       <c r="O414" s="144"/>
     </row>
     <row r="415" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="170"/>
-      <c r="C415" s="170"/>
+      <c r="B415" s="155"/>
+      <c r="C415" s="155"/>
       <c r="D415" s="34" t="s">
         <v>1300</v>
       </c>
@@ -22694,8 +22722,8 @@
       <c r="O415" s="144"/>
     </row>
     <row r="416" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="170"/>
-      <c r="C416" s="170"/>
+      <c r="B416" s="155"/>
+      <c r="C416" s="155"/>
       <c r="D416" s="34" t="s">
         <v>1302</v>
       </c>
@@ -22728,8 +22756,8 @@
       <c r="O416" s="144"/>
     </row>
     <row r="417" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="170"/>
-      <c r="C417" s="170"/>
+      <c r="B417" s="155"/>
+      <c r="C417" s="155"/>
       <c r="D417" s="34" t="s">
         <v>1304</v>
       </c>
@@ -22762,8 +22790,8 @@
       <c r="O417" s="144"/>
     </row>
     <row r="418" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="170"/>
-      <c r="C418" s="170"/>
+      <c r="B418" s="155"/>
+      <c r="C418" s="155"/>
       <c r="D418" s="34" t="s">
         <v>1306</v>
       </c>
@@ -22796,8 +22824,8 @@
       <c r="O418" s="144"/>
     </row>
     <row r="419" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="170"/>
-      <c r="C419" s="170"/>
+      <c r="B419" s="155"/>
+      <c r="C419" s="155"/>
       <c r="D419" s="34" t="s">
         <v>1308</v>
       </c>
@@ -22830,8 +22858,8 @@
       <c r="O419" s="144"/>
     </row>
     <row r="420" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B420" s="170"/>
-      <c r="C420" s="170" t="s">
+      <c r="B420" s="155"/>
+      <c r="C420" s="155" t="s">
         <v>1386</v>
       </c>
       <c r="D420" s="34" t="s">
@@ -22861,8 +22889,8 @@
       </c>
     </row>
     <row r="421" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="170"/>
-      <c r="C421" s="170"/>
+      <c r="B421" s="155"/>
+      <c r="C421" s="155"/>
       <c r="D421" s="34" t="s">
         <v>1387</v>
       </c>
@@ -22890,8 +22918,8 @@
       </c>
     </row>
     <row r="422" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="170"/>
-      <c r="C422" s="170"/>
+      <c r="B422" s="155"/>
+      <c r="C422" s="155"/>
       <c r="D422" s="34" t="s">
         <v>1388</v>
       </c>
@@ -22919,8 +22947,8 @@
       </c>
     </row>
     <row r="423" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="170"/>
-      <c r="C423" s="170"/>
+      <c r="B423" s="155"/>
+      <c r="C423" s="155"/>
       <c r="D423" s="34" t="s">
         <v>1389</v>
       </c>
@@ -22948,8 +22976,8 @@
       </c>
     </row>
     <row r="424" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="170"/>
-      <c r="C424" s="170"/>
+      <c r="B424" s="155"/>
+      <c r="C424" s="155"/>
       <c r="D424" s="34" t="s">
         <v>1389</v>
       </c>
@@ -22977,8 +23005,8 @@
       </c>
     </row>
     <row r="425" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B425" s="170"/>
-      <c r="C425" s="170"/>
+      <c r="B425" s="155"/>
+      <c r="C425" s="155"/>
       <c r="D425" s="34" t="s">
         <v>1390</v>
       </c>
@@ -23006,8 +23034,8 @@
       </c>
     </row>
     <row r="426" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="170"/>
-      <c r="C426" s="170"/>
+      <c r="B426" s="155"/>
+      <c r="C426" s="155"/>
       <c r="D426" s="34" t="s">
         <v>1391</v>
       </c>
@@ -23035,8 +23063,8 @@
       </c>
     </row>
     <row r="427" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="170"/>
-      <c r="C427" s="170"/>
+      <c r="B427" s="155"/>
+      <c r="C427" s="155"/>
       <c r="D427" s="34" t="s">
         <v>1391</v>
       </c>
@@ -23064,8 +23092,8 @@
       </c>
     </row>
     <row r="428" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="170"/>
-      <c r="C428" s="170"/>
+      <c r="B428" s="155"/>
+      <c r="C428" s="155"/>
       <c r="D428" s="34" t="s">
         <v>1392</v>
       </c>
@@ -23093,8 +23121,8 @@
       </c>
     </row>
     <row r="429" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B429" s="170"/>
-      <c r="C429" s="170"/>
+      <c r="B429" s="155"/>
+      <c r="C429" s="155"/>
       <c r="D429" s="34" t="s">
         <v>1393</v>
       </c>
@@ -23122,8 +23150,8 @@
       </c>
     </row>
     <row r="430" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="170"/>
-      <c r="C430" s="170"/>
+      <c r="B430" s="155"/>
+      <c r="C430" s="155"/>
       <c r="D430" s="34" t="s">
         <v>1393</v>
       </c>
@@ -23151,8 +23179,8 @@
       </c>
     </row>
     <row r="431" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="170"/>
-      <c r="C431" s="170"/>
+      <c r="B431" s="155"/>
+      <c r="C431" s="155"/>
       <c r="D431" s="34" t="s">
         <v>1394</v>
       </c>
@@ -23180,8 +23208,8 @@
       </c>
     </row>
     <row r="432" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="170"/>
-      <c r="C432" s="170"/>
+      <c r="B432" s="155"/>
+      <c r="C432" s="155"/>
       <c r="D432" s="34" t="s">
         <v>1395</v>
       </c>
@@ -23209,8 +23237,8 @@
       </c>
     </row>
     <row r="433" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="170"/>
-      <c r="C433" s="170"/>
+      <c r="B433" s="155"/>
+      <c r="C433" s="155"/>
       <c r="D433" s="34" t="s">
         <v>1395</v>
       </c>
@@ -23238,8 +23266,8 @@
       </c>
     </row>
     <row r="434" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="170"/>
-      <c r="C434" s="170"/>
+      <c r="B434" s="155"/>
+      <c r="C434" s="155"/>
       <c r="D434" s="34" t="s">
         <v>1396</v>
       </c>
@@ -23267,8 +23295,8 @@
       </c>
     </row>
     <row r="435" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="170"/>
-      <c r="C435" s="170"/>
+      <c r="B435" s="155"/>
+      <c r="C435" s="155"/>
       <c r="D435" s="34" t="s">
         <v>1396</v>
       </c>
@@ -23296,8 +23324,8 @@
       </c>
     </row>
     <row r="436" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B436" s="170"/>
-      <c r="C436" s="170"/>
+      <c r="B436" s="155"/>
+      <c r="C436" s="155"/>
       <c r="D436" s="34" t="s">
         <v>1397</v>
       </c>
@@ -23325,8 +23353,8 @@
       </c>
     </row>
     <row r="437" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="170"/>
-      <c r="C437" s="170"/>
+      <c r="B437" s="155"/>
+      <c r="C437" s="155"/>
       <c r="D437" s="34" t="s">
         <v>1397</v>
       </c>
@@ -23354,8 +23382,8 @@
       </c>
     </row>
     <row r="438" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="170"/>
-      <c r="C438" s="170"/>
+      <c r="B438" s="155"/>
+      <c r="C438" s="155"/>
       <c r="D438" s="34" t="s">
         <v>1398</v>
       </c>
@@ -23383,8 +23411,8 @@
       </c>
     </row>
     <row r="439" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="170"/>
-      <c r="C439" s="170"/>
+      <c r="B439" s="155"/>
+      <c r="C439" s="155"/>
       <c r="D439" s="34" t="s">
         <v>1398</v>
       </c>
@@ -23412,8 +23440,8 @@
       </c>
     </row>
     <row r="440" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="170"/>
-      <c r="C440" s="170"/>
+      <c r="B440" s="155"/>
+      <c r="C440" s="155"/>
       <c r="D440" s="34" t="s">
         <v>1399</v>
       </c>
@@ -23441,8 +23469,8 @@
       </c>
     </row>
     <row r="441" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="170"/>
-      <c r="C441" s="170"/>
+      <c r="B441" s="155"/>
+      <c r="C441" s="155"/>
       <c r="D441" s="34" t="s">
         <v>1400</v>
       </c>
@@ -23470,8 +23498,8 @@
       </c>
     </row>
     <row r="442" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B442" s="170"/>
-      <c r="C442" s="170"/>
+      <c r="B442" s="155"/>
+      <c r="C442" s="155"/>
       <c r="D442" s="34" t="s">
         <v>1401</v>
       </c>
@@ -23499,8 +23527,8 @@
       </c>
     </row>
     <row r="443" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B443" s="170"/>
-      <c r="C443" s="170"/>
+      <c r="B443" s="155"/>
+      <c r="C443" s="155"/>
       <c r="D443" s="34" t="s">
         <v>1402</v>
       </c>
@@ -23528,8 +23556,8 @@
       </c>
     </row>
     <row r="444" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="170"/>
-      <c r="C444" s="170"/>
+      <c r="B444" s="155"/>
+      <c r="C444" s="155"/>
       <c r="D444" s="34" t="s">
         <v>1403</v>
       </c>
@@ -23557,8 +23585,8 @@
       </c>
     </row>
     <row r="445" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="170"/>
-      <c r="C445" s="170"/>
+      <c r="B445" s="155"/>
+      <c r="C445" s="155"/>
       <c r="D445" s="34" t="s">
         <v>1404</v>
       </c>
@@ -23586,8 +23614,8 @@
       </c>
     </row>
     <row r="446" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B446" s="170"/>
-      <c r="C446" s="170"/>
+      <c r="B446" s="155"/>
+      <c r="C446" s="155"/>
       <c r="D446" s="34" t="s">
         <v>1405</v>
       </c>
@@ -23615,8 +23643,8 @@
       </c>
     </row>
     <row r="447" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B447" s="170"/>
-      <c r="C447" s="170"/>
+      <c r="B447" s="155"/>
+      <c r="C447" s="155"/>
       <c r="D447" s="34" t="s">
         <v>1406</v>
       </c>
@@ -23644,8 +23672,8 @@
       </c>
     </row>
     <row r="448" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="170"/>
-      <c r="C448" s="170"/>
+      <c r="B448" s="155"/>
+      <c r="C448" s="155"/>
       <c r="D448" s="34" t="s">
         <v>1407</v>
       </c>
@@ -23673,8 +23701,8 @@
       </c>
     </row>
     <row r="449" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="170"/>
-      <c r="C449" s="170"/>
+      <c r="B449" s="155"/>
+      <c r="C449" s="155"/>
       <c r="D449" s="34" t="s">
         <v>1408</v>
       </c>
@@ -23700,8 +23728,8 @@
       <c r="N449" s="34"/>
     </row>
     <row r="450" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="170"/>
-      <c r="C450" s="170"/>
+      <c r="B450" s="155"/>
+      <c r="C450" s="155"/>
       <c r="D450" s="34" t="s">
         <v>1409</v>
       </c>
@@ -23729,8 +23757,8 @@
       </c>
     </row>
     <row r="451" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B451" s="170"/>
-      <c r="C451" s="170"/>
+      <c r="B451" s="155"/>
+      <c r="C451" s="155"/>
       <c r="D451" s="34" t="s">
         <v>1410</v>
       </c>
@@ -23758,8 +23786,8 @@
       </c>
     </row>
     <row r="452" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B452" s="170"/>
-      <c r="C452" s="170"/>
+      <c r="B452" s="155"/>
+      <c r="C452" s="155"/>
       <c r="D452" s="34" t="s">
         <v>1411</v>
       </c>
@@ -23787,8 +23815,8 @@
       </c>
     </row>
     <row r="453" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B453" s="170"/>
-      <c r="C453" s="170"/>
+      <c r="B453" s="155"/>
+      <c r="C453" s="155"/>
       <c r="D453" s="34" t="s">
         <v>1412</v>
       </c>
@@ -23814,8 +23842,8 @@
       <c r="N453" s="34"/>
     </row>
     <row r="454" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="170"/>
-      <c r="C454" s="170"/>
+      <c r="B454" s="155"/>
+      <c r="C454" s="155"/>
       <c r="D454" s="34" t="s">
         <v>1413</v>
       </c>
@@ -23841,8 +23869,8 @@
       <c r="N454" s="34"/>
     </row>
     <row r="455" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="170"/>
-      <c r="C455" s="170"/>
+      <c r="B455" s="155"/>
+      <c r="C455" s="155"/>
       <c r="D455" s="34" t="s">
         <v>1414</v>
       </c>
@@ -23868,8 +23896,8 @@
       <c r="N455" s="34"/>
     </row>
     <row r="456" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B456" s="170"/>
-      <c r="C456" s="170"/>
+      <c r="B456" s="155"/>
+      <c r="C456" s="155"/>
       <c r="D456" s="34" t="s">
         <v>1415</v>
       </c>
@@ -23897,8 +23925,8 @@
       </c>
     </row>
     <row r="457" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B457" s="170"/>
-      <c r="C457" s="170"/>
+      <c r="B457" s="155"/>
+      <c r="C457" s="155"/>
       <c r="D457" s="34" t="s">
         <v>1416</v>
       </c>
@@ -23926,8 +23954,8 @@
       </c>
     </row>
     <row r="458" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B458" s="170"/>
-      <c r="C458" s="170"/>
+      <c r="B458" s="155"/>
+      <c r="C458" s="155"/>
       <c r="D458" s="34" t="s">
         <v>1417</v>
       </c>
@@ -23953,8 +23981,8 @@
       <c r="N458" s="34"/>
     </row>
     <row r="459" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B459" s="170"/>
-      <c r="C459" s="170"/>
+      <c r="B459" s="155"/>
+      <c r="C459" s="155"/>
       <c r="D459" s="34" t="s">
         <v>1418</v>
       </c>
@@ -23980,8 +24008,8 @@
       <c r="N459" s="34"/>
     </row>
     <row r="460" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="170"/>
-      <c r="C460" s="170"/>
+      <c r="B460" s="155"/>
+      <c r="C460" s="155"/>
       <c r="D460" s="34" t="s">
         <v>1419</v>
       </c>
@@ -24007,8 +24035,8 @@
       <c r="N460" s="34"/>
     </row>
     <row r="461" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="170"/>
-      <c r="C461" s="170"/>
+      <c r="B461" s="155"/>
+      <c r="C461" s="155"/>
       <c r="D461" s="34" t="s">
         <v>1420</v>
       </c>
@@ -24034,8 +24062,8 @@
       <c r="N461" s="34"/>
     </row>
     <row r="462" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="170"/>
-      <c r="C462" s="170"/>
+      <c r="B462" s="155"/>
+      <c r="C462" s="155"/>
       <c r="D462" s="34" t="s">
         <v>1421</v>
       </c>
@@ -24061,8 +24089,8 @@
       <c r="N462" s="34"/>
     </row>
     <row r="463" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="170"/>
-      <c r="C463" s="170"/>
+      <c r="B463" s="155"/>
+      <c r="C463" s="155"/>
       <c r="D463" s="34" t="s">
         <v>1422</v>
       </c>
@@ -24088,8 +24116,8 @@
       <c r="N463" s="34"/>
     </row>
     <row r="464" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="170"/>
-      <c r="C464" s="170"/>
+      <c r="B464" s="155"/>
+      <c r="C464" s="155"/>
       <c r="D464" s="34" t="s">
         <v>1422</v>
       </c>
@@ -24115,8 +24143,8 @@
       <c r="N464" s="34"/>
     </row>
     <row r="465" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="170"/>
-      <c r="C465" s="170"/>
+      <c r="B465" s="155"/>
+      <c r="C465" s="155"/>
       <c r="D465" s="34" t="s">
         <v>1423</v>
       </c>
@@ -24142,8 +24170,8 @@
       <c r="N465" s="34"/>
     </row>
     <row r="466" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="170"/>
-      <c r="C466" s="170"/>
+      <c r="B466" s="155"/>
+      <c r="C466" s="155"/>
       <c r="D466" s="34" t="s">
         <v>1424</v>
       </c>
@@ -24169,8 +24197,8 @@
       <c r="N466" s="34"/>
     </row>
     <row r="467" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="170"/>
-      <c r="C467" s="170"/>
+      <c r="B467" s="155"/>
+      <c r="C467" s="155"/>
       <c r="D467" s="34" t="s">
         <v>1424</v>
       </c>
@@ -24196,8 +24224,8 @@
       <c r="N467" s="34"/>
     </row>
     <row r="468" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="170"/>
-      <c r="C468" s="170"/>
+      <c r="B468" s="155"/>
+      <c r="C468" s="155"/>
       <c r="D468" s="34" t="s">
         <v>1425</v>
       </c>
@@ -24223,8 +24251,8 @@
       <c r="N468" s="34"/>
     </row>
     <row r="469" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="170"/>
-      <c r="C469" s="170"/>
+      <c r="B469" s="155"/>
+      <c r="C469" s="155"/>
       <c r="D469" s="34" t="s">
         <v>1426</v>
       </c>
@@ -24250,8 +24278,8 @@
       <c r="N469" s="34"/>
     </row>
     <row r="470" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B470" s="170"/>
-      <c r="C470" s="170"/>
+      <c r="B470" s="155"/>
+      <c r="C470" s="155"/>
       <c r="D470" s="34" t="s">
         <v>1427</v>
       </c>
@@ -24277,8 +24305,8 @@
       <c r="N470" s="34"/>
     </row>
     <row r="471" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="170"/>
-      <c r="C471" s="170"/>
+      <c r="B471" s="155"/>
+      <c r="C471" s="155"/>
       <c r="D471" s="34" t="s">
         <v>1428</v>
       </c>
@@ -24304,8 +24332,8 @@
       <c r="N471" s="34"/>
     </row>
     <row r="472" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="170"/>
-      <c r="C472" s="170"/>
+      <c r="B472" s="155"/>
+      <c r="C472" s="155"/>
       <c r="D472" s="34" t="s">
         <v>1429</v>
       </c>
@@ -24331,8 +24359,8 @@
       <c r="N472" s="34"/>
     </row>
     <row r="473" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="170"/>
-      <c r="C473" s="170"/>
+      <c r="B473" s="155"/>
+      <c r="C473" s="155"/>
       <c r="D473" s="34" t="s">
         <v>1430</v>
       </c>
@@ -24358,8 +24386,8 @@
       <c r="N473" s="34"/>
     </row>
     <row r="474" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="170"/>
-      <c r="C474" s="170"/>
+      <c r="B474" s="155"/>
+      <c r="C474" s="155"/>
       <c r="D474" s="34" t="s">
         <v>1430</v>
       </c>
@@ -24385,8 +24413,8 @@
       <c r="N474" s="34"/>
     </row>
     <row r="475" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="170"/>
-      <c r="C475" s="170"/>
+      <c r="B475" s="155"/>
+      <c r="C475" s="155"/>
       <c r="D475" s="34" t="s">
         <v>1431</v>
       </c>
@@ -24412,8 +24440,8 @@
       <c r="N475" s="34"/>
     </row>
     <row r="476" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="170"/>
-      <c r="C476" s="170"/>
+      <c r="B476" s="155"/>
+      <c r="C476" s="155"/>
       <c r="D476" s="34" t="s">
         <v>1432</v>
       </c>
@@ -24439,8 +24467,8 @@
       <c r="N476" s="34"/>
     </row>
     <row r="477" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="170"/>
-      <c r="C477" s="170"/>
+      <c r="B477" s="155"/>
+      <c r="C477" s="155"/>
       <c r="D477" s="34" t="s">
         <v>1433</v>
       </c>
@@ -24466,8 +24494,8 @@
       <c r="N477" s="34"/>
     </row>
     <row r="478" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="170"/>
-      <c r="C478" s="170"/>
+      <c r="B478" s="155"/>
+      <c r="C478" s="155"/>
       <c r="D478" s="34" t="s">
         <v>1433</v>
       </c>
@@ -24493,8 +24521,8 @@
       <c r="N478" s="34"/>
     </row>
     <row r="479" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="170"/>
-      <c r="C479" s="170"/>
+      <c r="B479" s="155"/>
+      <c r="C479" s="155"/>
       <c r="D479" s="34" t="s">
         <v>1434</v>
       </c>
@@ -24520,8 +24548,8 @@
       <c r="N479" s="34"/>
     </row>
     <row r="480" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B480" s="170"/>
-      <c r="C480" s="170"/>
+      <c r="B480" s="155"/>
+      <c r="C480" s="155"/>
       <c r="D480" s="34" t="s">
         <v>1435</v>
       </c>
@@ -24547,8 +24575,8 @@
       <c r="N480" s="34"/>
     </row>
     <row r="481" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B481" s="170"/>
-      <c r="C481" s="170"/>
+      <c r="B481" s="155"/>
+      <c r="C481" s="155"/>
       <c r="D481" s="34" t="s">
         <v>1436</v>
       </c>
@@ -24574,8 +24602,8 @@
       <c r="N481" s="34"/>
     </row>
     <row r="482" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B482" s="170"/>
-      <c r="C482" s="170"/>
+      <c r="B482" s="155"/>
+      <c r="C482" s="155"/>
       <c r="D482" s="34" t="s">
         <v>1436</v>
       </c>
@@ -24601,8 +24629,8 @@
       <c r="N482" s="34"/>
     </row>
     <row r="483" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="170"/>
-      <c r="C483" s="170"/>
+      <c r="B483" s="155"/>
+      <c r="C483" s="155"/>
       <c r="D483" s="34" t="s">
         <v>1437</v>
       </c>
@@ -24628,8 +24656,8 @@
       <c r="N483" s="34"/>
     </row>
     <row r="484" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B484" s="170"/>
-      <c r="C484" s="170"/>
+      <c r="B484" s="155"/>
+      <c r="C484" s="155"/>
       <c r="D484" s="34" t="s">
         <v>1438</v>
       </c>
@@ -24655,8 +24683,8 @@
       <c r="N484" s="34"/>
     </row>
     <row r="485" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="170"/>
-      <c r="C485" s="170"/>
+      <c r="B485" s="155"/>
+      <c r="C485" s="155"/>
       <c r="D485" s="34" t="s">
         <v>1438</v>
       </c>
@@ -24682,8 +24710,8 @@
       <c r="N485" s="34"/>
     </row>
     <row r="486" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B486" s="170"/>
-      <c r="C486" s="170"/>
+      <c r="B486" s="155"/>
+      <c r="C486" s="155"/>
       <c r="D486" s="34" t="s">
         <v>1439</v>
       </c>
@@ -24709,8 +24737,8 @@
       <c r="N486" s="34"/>
     </row>
     <row r="487" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B487" s="170"/>
-      <c r="C487" s="170"/>
+      <c r="B487" s="155"/>
+      <c r="C487" s="155"/>
       <c r="D487" s="34" t="s">
         <v>1439</v>
       </c>
@@ -24736,8 +24764,8 @@
       <c r="N487" s="34"/>
     </row>
     <row r="488" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B488" s="170"/>
-      <c r="C488" s="170"/>
+      <c r="B488" s="155"/>
+      <c r="C488" s="155"/>
       <c r="D488" s="34" t="s">
         <v>1440</v>
       </c>
@@ -24763,8 +24791,8 @@
       <c r="N488" s="34"/>
     </row>
     <row r="489" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B489" s="170"/>
-      <c r="C489" s="170"/>
+      <c r="B489" s="155"/>
+      <c r="C489" s="155"/>
       <c r="D489" s="34" t="s">
         <v>1441</v>
       </c>
@@ -24790,8 +24818,8 @@
       <c r="N489" s="34"/>
     </row>
     <row r="490" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="170"/>
-      <c r="C490" s="170"/>
+      <c r="B490" s="155"/>
+      <c r="C490" s="155"/>
       <c r="D490" s="34" t="s">
         <v>1441</v>
       </c>
@@ -24817,8 +24845,8 @@
       <c r="N490" s="34"/>
     </row>
     <row r="491" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B491" s="170"/>
-      <c r="C491" s="170"/>
+      <c r="B491" s="155"/>
+      <c r="C491" s="155"/>
       <c r="D491" s="34" t="s">
         <v>1442</v>
       </c>
@@ -24844,8 +24872,8 @@
       <c r="N491" s="34"/>
     </row>
     <row r="492" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="170"/>
-      <c r="C492" s="170"/>
+      <c r="B492" s="155"/>
+      <c r="C492" s="155"/>
       <c r="D492" s="34" t="s">
         <v>1442</v>
       </c>
@@ -24871,8 +24899,8 @@
       <c r="N492" s="34"/>
     </row>
     <row r="493" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="170"/>
-      <c r="C493" s="170"/>
+      <c r="B493" s="155"/>
+      <c r="C493" s="155"/>
       <c r="D493" s="34" t="s">
         <v>1443</v>
       </c>
@@ -24898,8 +24926,8 @@
       <c r="N493" s="34"/>
     </row>
     <row r="494" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B494" s="170"/>
-      <c r="C494" s="170"/>
+      <c r="B494" s="155"/>
+      <c r="C494" s="155"/>
       <c r="D494" s="34" t="s">
         <v>1443</v>
       </c>
@@ -24925,8 +24953,8 @@
       <c r="N494" s="34"/>
     </row>
     <row r="495" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B495" s="170"/>
-      <c r="C495" s="170"/>
+      <c r="B495" s="155"/>
+      <c r="C495" s="155"/>
       <c r="D495" s="34" t="s">
         <v>1444</v>
       </c>
@@ -24952,8 +24980,8 @@
       <c r="N495" s="34"/>
     </row>
     <row r="496" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B496" s="170"/>
-      <c r="C496" s="170"/>
+      <c r="B496" s="155"/>
+      <c r="C496" s="155"/>
       <c r="D496" s="34" t="s">
         <v>1444</v>
       </c>
@@ -24979,8 +25007,8 @@
       <c r="N496" s="34"/>
     </row>
     <row r="497" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B497" s="170"/>
-      <c r="C497" s="170"/>
+      <c r="B497" s="155"/>
+      <c r="C497" s="155"/>
       <c r="D497" s="34" t="s">
         <v>1445</v>
       </c>
@@ -25006,8 +25034,8 @@
       <c r="N497" s="34"/>
     </row>
     <row r="498" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B498" s="170"/>
-      <c r="C498" s="170"/>
+      <c r="B498" s="155"/>
+      <c r="C498" s="155"/>
       <c r="D498" s="34" t="s">
         <v>1445</v>
       </c>
@@ -25033,8 +25061,8 @@
       <c r="N498" s="34"/>
     </row>
     <row r="499" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B499" s="170"/>
-      <c r="C499" s="170"/>
+      <c r="B499" s="155"/>
+      <c r="C499" s="155"/>
       <c r="D499" s="34" t="s">
         <v>1446</v>
       </c>
@@ -25060,8 +25088,8 @@
       <c r="N499" s="34"/>
     </row>
     <row r="500" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B500" s="170"/>
-      <c r="C500" s="170"/>
+      <c r="B500" s="155"/>
+      <c r="C500" s="155"/>
       <c r="D500" s="34" t="s">
         <v>1446</v>
       </c>
@@ -25087,8 +25115,8 @@
       <c r="N500" s="34"/>
     </row>
     <row r="501" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B501" s="170"/>
-      <c r="C501" s="170"/>
+      <c r="B501" s="155"/>
+      <c r="C501" s="155"/>
       <c r="D501" s="34" t="s">
         <v>1447</v>
       </c>
@@ -25114,8 +25142,8 @@
       <c r="N501" s="34"/>
     </row>
     <row r="502" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B502" s="170"/>
-      <c r="C502" s="170"/>
+      <c r="B502" s="155"/>
+      <c r="C502" s="155"/>
       <c r="D502" s="34" t="s">
         <v>1447</v>
       </c>
@@ -25141,8 +25169,8 @@
       <c r="N502" s="34"/>
     </row>
     <row r="503" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B503" s="170"/>
-      <c r="C503" s="170"/>
+      <c r="B503" s="155"/>
+      <c r="C503" s="155"/>
       <c r="D503" s="34" t="s">
         <v>1448</v>
       </c>
@@ -25168,8 +25196,8 @@
       <c r="N503" s="34"/>
     </row>
     <row r="504" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="170"/>
-      <c r="C504" s="170"/>
+      <c r="B504" s="155"/>
+      <c r="C504" s="155"/>
       <c r="D504" s="34" t="s">
         <v>1448</v>
       </c>
@@ -25195,8 +25223,8 @@
       <c r="N504" s="34"/>
     </row>
     <row r="505" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B505" s="170"/>
-      <c r="C505" s="170"/>
+      <c r="B505" s="155"/>
+      <c r="C505" s="155"/>
       <c r="D505" s="34" t="s">
         <v>1449</v>
       </c>
@@ -25222,8 +25250,8 @@
       <c r="N505" s="34"/>
     </row>
     <row r="506" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="170"/>
-      <c r="C506" s="170"/>
+      <c r="B506" s="155"/>
+      <c r="C506" s="155"/>
       <c r="D506" s="34" t="s">
         <v>1449</v>
       </c>
@@ -25249,8 +25277,8 @@
       <c r="N506" s="34"/>
     </row>
     <row r="507" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B507" s="170"/>
-      <c r="C507" s="170"/>
+      <c r="B507" s="155"/>
+      <c r="C507" s="155"/>
       <c r="D507" s="34" t="s">
         <v>1450</v>
       </c>
@@ -25276,8 +25304,8 @@
       <c r="N507" s="34"/>
     </row>
     <row r="508" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B508" s="170"/>
-      <c r="C508" s="170"/>
+      <c r="B508" s="155"/>
+      <c r="C508" s="155"/>
       <c r="D508" s="34" t="s">
         <v>1450</v>
       </c>
@@ -25303,8 +25331,8 @@
       <c r="N508" s="34"/>
     </row>
     <row r="509" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="170"/>
-      <c r="C509" s="170"/>
+      <c r="B509" s="155"/>
+      <c r="C509" s="155"/>
       <c r="D509" s="34" t="s">
         <v>1451</v>
       </c>
@@ -25330,8 +25358,8 @@
       <c r="N509" s="34"/>
     </row>
     <row r="510" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B510" s="170"/>
-      <c r="C510" s="170"/>
+      <c r="B510" s="155"/>
+      <c r="C510" s="155"/>
       <c r="D510" s="34" t="s">
         <v>1452</v>
       </c>
@@ -25357,8 +25385,8 @@
       <c r="N510" s="34"/>
     </row>
     <row r="511" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="170"/>
-      <c r="C511" s="170"/>
+      <c r="B511" s="155"/>
+      <c r="C511" s="155"/>
       <c r="D511" s="34" t="s">
         <v>1452</v>
       </c>
@@ -25384,8 +25412,8 @@
       <c r="N511" s="34"/>
     </row>
     <row r="512" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B512" s="170"/>
-      <c r="C512" s="170"/>
+      <c r="B512" s="155"/>
+      <c r="C512" s="155"/>
       <c r="D512" s="34" t="s">
         <v>1453</v>
       </c>
@@ -25411,8 +25439,8 @@
       <c r="N512" s="34"/>
     </row>
     <row r="513" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B513" s="170"/>
-      <c r="C513" s="170"/>
+      <c r="B513" s="155"/>
+      <c r="C513" s="155"/>
       <c r="D513" s="34" t="s">
         <v>1453</v>
       </c>
@@ -25438,8 +25466,8 @@
       <c r="N513" s="34"/>
     </row>
     <row r="514" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B514" s="170"/>
-      <c r="C514" s="170"/>
+      <c r="B514" s="155"/>
+      <c r="C514" s="155"/>
       <c r="D514" s="34" t="s">
         <v>1454</v>
       </c>
@@ -25465,8 +25493,8 @@
       <c r="N514" s="34"/>
     </row>
     <row r="515" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B515" s="170"/>
-      <c r="C515" s="170"/>
+      <c r="B515" s="155"/>
+      <c r="C515" s="155"/>
       <c r="D515" s="34" t="s">
         <v>1454</v>
       </c>
@@ -25492,8 +25520,8 @@
       <c r="N515" s="34"/>
     </row>
     <row r="516" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B516" s="170"/>
-      <c r="C516" s="170"/>
+      <c r="B516" s="155"/>
+      <c r="C516" s="155"/>
       <c r="D516" s="34" t="s">
         <v>1455</v>
       </c>
@@ -25519,8 +25547,8 @@
       <c r="N516" s="34"/>
     </row>
     <row r="517" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B517" s="170"/>
-      <c r="C517" s="170"/>
+      <c r="B517" s="155"/>
+      <c r="C517" s="155"/>
       <c r="D517" s="34" t="s">
         <v>1455</v>
       </c>
@@ -25546,8 +25574,8 @@
       <c r="N517" s="34"/>
     </row>
     <row r="518" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B518" s="170"/>
-      <c r="C518" s="170"/>
+      <c r="B518" s="155"/>
+      <c r="C518" s="155"/>
       <c r="D518" s="34" t="s">
         <v>1456</v>
       </c>
@@ -25573,8 +25601,8 @@
       <c r="N518" s="34"/>
     </row>
     <row r="519" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B519" s="170"/>
-      <c r="C519" s="170"/>
+      <c r="B519" s="155"/>
+      <c r="C519" s="155"/>
       <c r="D519" s="34" t="s">
         <v>1456</v>
       </c>
@@ -25600,8 +25628,8 @@
       <c r="N519" s="34"/>
     </row>
     <row r="520" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B520" s="170"/>
-      <c r="C520" s="170"/>
+      <c r="B520" s="155"/>
+      <c r="C520" s="155"/>
       <c r="D520" s="34" t="s">
         <v>1457</v>
       </c>
@@ -25627,8 +25655,8 @@
       <c r="N520" s="34"/>
     </row>
     <row r="521" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B521" s="170"/>
-      <c r="C521" s="170"/>
+      <c r="B521" s="155"/>
+      <c r="C521" s="155"/>
       <c r="D521" s="34" t="s">
         <v>1457</v>
       </c>
@@ -25654,8 +25682,8 @@
       <c r="N521" s="34"/>
     </row>
     <row r="522" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B522" s="170"/>
-      <c r="C522" s="170"/>
+      <c r="B522" s="155"/>
+      <c r="C522" s="155"/>
       <c r="D522" s="34" t="s">
         <v>1458</v>
       </c>
@@ -25681,8 +25709,8 @@
       <c r="N522" s="34"/>
     </row>
     <row r="523" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B523" s="170"/>
-      <c r="C523" s="170"/>
+      <c r="B523" s="155"/>
+      <c r="C523" s="155"/>
       <c r="D523" s="34" t="s">
         <v>1458</v>
       </c>
@@ -25708,8 +25736,8 @@
       <c r="N523" s="34"/>
     </row>
     <row r="524" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B524" s="170"/>
-      <c r="C524" s="170"/>
+      <c r="B524" s="155"/>
+      <c r="C524" s="155"/>
       <c r="D524" s="34" t="s">
         <v>1459</v>
       </c>
@@ -25735,8 +25763,8 @@
       <c r="N524" s="34"/>
     </row>
     <row r="525" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="170"/>
-      <c r="C525" s="170"/>
+      <c r="B525" s="155"/>
+      <c r="C525" s="155"/>
       <c r="D525" s="34" t="s">
         <v>1460</v>
       </c>
@@ -25762,8 +25790,8 @@
       <c r="N525" s="34"/>
     </row>
     <row r="526" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B526" s="170"/>
-      <c r="C526" s="170"/>
+      <c r="B526" s="155"/>
+      <c r="C526" s="155"/>
       <c r="D526" s="34" t="s">
         <v>1460</v>
       </c>
@@ -25789,8 +25817,8 @@
       <c r="N526" s="34"/>
     </row>
     <row r="527" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B527" s="170"/>
-      <c r="C527" s="170"/>
+      <c r="B527" s="155"/>
+      <c r="C527" s="155"/>
       <c r="D527" s="34" t="s">
         <v>1461</v>
       </c>
@@ -25816,8 +25844,8 @@
       <c r="N527" s="34"/>
     </row>
     <row r="528" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B528" s="170"/>
-      <c r="C528" s="170"/>
+      <c r="B528" s="155"/>
+      <c r="C528" s="155"/>
       <c r="D528" s="34" t="s">
         <v>1461</v>
       </c>
@@ -25843,8 +25871,8 @@
       <c r="N528" s="34"/>
     </row>
     <row r="529" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B529" s="170"/>
-      <c r="C529" s="170"/>
+      <c r="B529" s="155"/>
+      <c r="C529" s="155"/>
       <c r="D529" s="34" t="s">
         <v>1462</v>
       </c>
@@ -25870,8 +25898,8 @@
       <c r="N529" s="34"/>
     </row>
     <row r="530" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B530" s="170"/>
-      <c r="C530" s="170"/>
+      <c r="B530" s="155"/>
+      <c r="C530" s="155"/>
       <c r="D530" s="34" t="s">
         <v>1463</v>
       </c>
@@ -25897,8 +25925,8 @@
       <c r="N530" s="34"/>
     </row>
     <row r="531" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B531" s="170"/>
-      <c r="C531" s="170"/>
+      <c r="B531" s="155"/>
+      <c r="C531" s="155"/>
       <c r="D531" s="34" t="s">
         <v>1463</v>
       </c>
@@ -25924,8 +25952,8 @@
       <c r="N531" s="34"/>
     </row>
     <row r="532" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B532" s="170"/>
-      <c r="C532" s="170"/>
+      <c r="B532" s="155"/>
+      <c r="C532" s="155"/>
       <c r="D532" s="34" t="s">
         <v>1464</v>
       </c>
@@ -25951,8 +25979,8 @@
       <c r="N532" s="34"/>
     </row>
     <row r="533" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="170"/>
-      <c r="C533" s="170"/>
+      <c r="B533" s="155"/>
+      <c r="C533" s="155"/>
       <c r="D533" s="34" t="s">
         <v>1464</v>
       </c>
@@ -25978,8 +26006,8 @@
       <c r="N533" s="34"/>
     </row>
     <row r="534" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B534" s="170"/>
-      <c r="C534" s="170"/>
+      <c r="B534" s="155"/>
+      <c r="C534" s="155"/>
       <c r="D534" s="34" t="s">
         <v>1465</v>
       </c>
@@ -26005,8 +26033,8 @@
       <c r="N534" s="34"/>
     </row>
     <row r="535" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B535" s="170"/>
-      <c r="C535" s="170"/>
+      <c r="B535" s="155"/>
+      <c r="C535" s="155"/>
       <c r="D535" s="34" t="s">
         <v>1465</v>
       </c>
@@ -26032,8 +26060,8 @@
       <c r="N535" s="34"/>
     </row>
     <row r="536" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B536" s="170"/>
-      <c r="C536" s="170"/>
+      <c r="B536" s="155"/>
+      <c r="C536" s="155"/>
       <c r="D536" s="34" t="s">
         <v>1466</v>
       </c>
@@ -26059,8 +26087,8 @@
       <c r="N536" s="34"/>
     </row>
     <row r="537" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B537" s="170"/>
-      <c r="C537" s="170"/>
+      <c r="B537" s="155"/>
+      <c r="C537" s="155"/>
       <c r="D537" s="34" t="s">
         <v>1466</v>
       </c>
@@ -26086,8 +26114,8 @@
       <c r="N537" s="34"/>
     </row>
     <row r="538" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B538" s="170"/>
-      <c r="C538" s="170"/>
+      <c r="B538" s="155"/>
+      <c r="C538" s="155"/>
       <c r="D538" s="34" t="s">
         <v>1467</v>
       </c>
@@ -26113,8 +26141,8 @@
       <c r="N538" s="34"/>
     </row>
     <row r="539" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="170"/>
-      <c r="C539" s="170"/>
+      <c r="B539" s="155"/>
+      <c r="C539" s="155"/>
       <c r="D539" s="34" t="s">
         <v>1467</v>
       </c>
@@ -26140,8 +26168,8 @@
       <c r="N539" s="34"/>
     </row>
     <row r="540" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B540" s="170"/>
-      <c r="C540" s="170"/>
+      <c r="B540" s="155"/>
+      <c r="C540" s="155"/>
       <c r="D540" s="34" t="s">
         <v>1468</v>
       </c>
@@ -26167,8 +26195,8 @@
       <c r="N540" s="34"/>
     </row>
     <row r="541" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B541" s="170"/>
-      <c r="C541" s="170"/>
+      <c r="B541" s="155"/>
+      <c r="C541" s="155"/>
       <c r="D541" s="34" t="s">
         <v>1468</v>
       </c>
@@ -26194,8 +26222,8 @@
       <c r="N541" s="34"/>
     </row>
     <row r="542" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B542" s="170"/>
-      <c r="C542" s="170"/>
+      <c r="B542" s="155"/>
+      <c r="C542" s="155"/>
       <c r="D542" s="34" t="s">
         <v>1469</v>
       </c>
@@ -26221,8 +26249,8 @@
       <c r="N542" s="34"/>
     </row>
     <row r="543" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B543" s="170"/>
-      <c r="C543" s="170"/>
+      <c r="B543" s="155"/>
+      <c r="C543" s="155"/>
       <c r="D543" s="34" t="s">
         <v>1469</v>
       </c>
@@ -26248,8 +26276,8 @@
       <c r="N543" s="34"/>
     </row>
     <row r="544" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B544" s="170"/>
-      <c r="C544" s="170"/>
+      <c r="B544" s="155"/>
+      <c r="C544" s="155"/>
       <c r="D544" s="34" t="s">
         <v>1470</v>
       </c>
@@ -26275,8 +26303,8 @@
       <c r="N544" s="34"/>
     </row>
     <row r="545" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B545" s="170"/>
-      <c r="C545" s="170"/>
+      <c r="B545" s="155"/>
+      <c r="C545" s="155"/>
       <c r="D545" s="34" t="s">
         <v>1470</v>
       </c>
@@ -26302,8 +26330,8 @@
       <c r="N545" s="34"/>
     </row>
     <row r="546" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B546" s="170"/>
-      <c r="C546" s="170"/>
+      <c r="B546" s="155"/>
+      <c r="C546" s="155"/>
       <c r="D546" s="34" t="s">
         <v>1471</v>
       </c>
@@ -26329,8 +26357,8 @@
       <c r="N546" s="34"/>
     </row>
     <row r="547" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B547" s="170"/>
-      <c r="C547" s="170"/>
+      <c r="B547" s="155"/>
+      <c r="C547" s="155"/>
       <c r="D547" s="34" t="s">
         <v>1471</v>
       </c>
@@ -26356,8 +26384,8 @@
       <c r="N547" s="34"/>
     </row>
     <row r="548" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B548" s="170"/>
-      <c r="C548" s="170"/>
+      <c r="B548" s="155"/>
+      <c r="C548" s="155"/>
       <c r="D548" s="34" t="s">
         <v>1472</v>
       </c>
@@ -26383,8 +26411,8 @@
       <c r="N548" s="34"/>
     </row>
     <row r="549" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B549" s="170"/>
-      <c r="C549" s="170"/>
+      <c r="B549" s="155"/>
+      <c r="C549" s="155"/>
       <c r="D549" s="34" t="s">
         <v>1472</v>
       </c>
@@ -26410,8 +26438,8 @@
       <c r="N549" s="34"/>
     </row>
     <row r="550" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B550" s="170"/>
-      <c r="C550" s="170"/>
+      <c r="B550" s="155"/>
+      <c r="C550" s="155"/>
       <c r="D550" s="34" t="s">
         <v>1473</v>
       </c>
@@ -26437,8 +26465,8 @@
       <c r="N550" s="34"/>
     </row>
     <row r="551" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B551" s="170"/>
-      <c r="C551" s="170"/>
+      <c r="B551" s="155"/>
+      <c r="C551" s="155"/>
       <c r="D551" s="34" t="s">
         <v>1473</v>
       </c>
@@ -26464,8 +26492,8 @@
       <c r="N551" s="34"/>
     </row>
     <row r="552" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B552" s="170"/>
-      <c r="C552" s="170"/>
+      <c r="B552" s="155"/>
+      <c r="C552" s="155"/>
       <c r="D552" s="34" t="s">
         <v>1474</v>
       </c>
@@ -26491,8 +26519,8 @@
       <c r="N552" s="34"/>
     </row>
     <row r="553" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B553" s="170"/>
-      <c r="C553" s="170"/>
+      <c r="B553" s="155"/>
+      <c r="C553" s="155"/>
       <c r="D553" s="34" t="s">
         <v>1474</v>
       </c>
@@ -26518,8 +26546,8 @@
       <c r="N553" s="34"/>
     </row>
     <row r="554" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B554" s="170"/>
-      <c r="C554" s="170"/>
+      <c r="B554" s="155"/>
+      <c r="C554" s="155"/>
       <c r="D554" s="34" t="s">
         <v>1475</v>
       </c>
@@ -26545,8 +26573,8 @@
       <c r="N554" s="34"/>
     </row>
     <row r="555" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B555" s="170"/>
-      <c r="C555" s="170"/>
+      <c r="B555" s="155"/>
+      <c r="C555" s="155"/>
       <c r="D555" s="34" t="s">
         <v>1475</v>
       </c>
@@ -26572,8 +26600,8 @@
       <c r="N555" s="34"/>
     </row>
     <row r="556" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B556" s="170"/>
-      <c r="C556" s="170"/>
+      <c r="B556" s="155"/>
+      <c r="C556" s="155"/>
       <c r="D556" s="34" t="s">
         <v>1476</v>
       </c>
@@ -26599,8 +26627,8 @@
       <c r="N556" s="34"/>
     </row>
     <row r="557" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B557" s="170"/>
-      <c r="C557" s="170"/>
+      <c r="B557" s="155"/>
+      <c r="C557" s="155"/>
       <c r="D557" s="34" t="s">
         <v>1476</v>
       </c>
@@ -26626,8 +26654,8 @@
       <c r="N557" s="34"/>
     </row>
     <row r="558" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B558" s="170"/>
-      <c r="C558" s="170"/>
+      <c r="B558" s="155"/>
+      <c r="C558" s="155"/>
       <c r="D558" s="34" t="s">
         <v>1477</v>
       </c>
@@ -26653,8 +26681,8 @@
       <c r="N558" s="34"/>
     </row>
     <row r="559" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B559" s="170"/>
-      <c r="C559" s="170"/>
+      <c r="B559" s="155"/>
+      <c r="C559" s="155"/>
       <c r="D559" s="34" t="s">
         <v>1478</v>
       </c>
@@ -26680,8 +26708,8 @@
       <c r="N559" s="34"/>
     </row>
     <row r="560" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B560" s="170"/>
-      <c r="C560" s="170"/>
+      <c r="B560" s="155"/>
+      <c r="C560" s="155"/>
       <c r="D560" s="34" t="s">
         <v>1478</v>
       </c>
@@ -26707,8 +26735,8 @@
       <c r="N560" s="34"/>
     </row>
     <row r="561" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B561" s="170"/>
-      <c r="C561" s="170"/>
+      <c r="B561" s="155"/>
+      <c r="C561" s="155"/>
       <c r="D561" s="34" t="s">
         <v>1479</v>
       </c>
@@ -26734,8 +26762,8 @@
       <c r="N561" s="34"/>
     </row>
     <row r="562" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B562" s="170"/>
-      <c r="C562" s="170"/>
+      <c r="B562" s="155"/>
+      <c r="C562" s="155"/>
       <c r="D562" s="34" t="s">
         <v>1479</v>
       </c>
@@ -26761,8 +26789,8 @@
       <c r="N562" s="34"/>
     </row>
     <row r="563" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B563" s="170"/>
-      <c r="C563" s="170"/>
+      <c r="B563" s="155"/>
+      <c r="C563" s="155"/>
       <c r="D563" s="34" t="s">
         <v>1480</v>
       </c>
@@ -26788,8 +26816,8 @@
       <c r="N563" s="34"/>
     </row>
     <row r="564" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B564" s="170"/>
-      <c r="C564" s="170"/>
+      <c r="B564" s="155"/>
+      <c r="C564" s="155"/>
       <c r="D564" s="34" t="s">
         <v>1480</v>
       </c>
@@ -26815,8 +26843,8 @@
       <c r="N564" s="34"/>
     </row>
     <row r="565" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B565" s="170"/>
-      <c r="C565" s="170"/>
+      <c r="B565" s="155"/>
+      <c r="C565" s="155"/>
       <c r="D565" s="34" t="s">
         <v>1481</v>
       </c>
@@ -26842,8 +26870,8 @@
       <c r="N565" s="34"/>
     </row>
     <row r="566" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B566" s="170"/>
-      <c r="C566" s="170"/>
+      <c r="B566" s="155"/>
+      <c r="C566" s="155"/>
       <c r="D566" s="34" t="s">
         <v>1481</v>
       </c>
@@ -26869,8 +26897,8 @@
       <c r="N566" s="34"/>
     </row>
     <row r="567" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B567" s="170"/>
-      <c r="C567" s="170"/>
+      <c r="B567" s="155"/>
+      <c r="C567" s="155"/>
       <c r="D567" s="34" t="s">
         <v>1482</v>
       </c>
@@ -26896,8 +26924,8 @@
       <c r="N567" s="34"/>
     </row>
     <row r="568" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B568" s="170"/>
-      <c r="C568" s="170"/>
+      <c r="B568" s="155"/>
+      <c r="C568" s="155"/>
       <c r="D568" s="34" t="s">
         <v>1482</v>
       </c>
@@ -26923,8 +26951,8 @@
       <c r="N568" s="34"/>
     </row>
     <row r="569" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B569" s="170"/>
-      <c r="C569" s="170"/>
+      <c r="B569" s="155"/>
+      <c r="C569" s="155"/>
       <c r="D569" s="34" t="s">
         <v>1483</v>
       </c>
@@ -26950,8 +26978,8 @@
       <c r="N569" s="34"/>
     </row>
     <row r="570" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="170"/>
-      <c r="C570" s="170"/>
+      <c r="B570" s="155"/>
+      <c r="C570" s="155"/>
       <c r="D570" s="34" t="s">
         <v>1483</v>
       </c>
@@ -26977,8 +27005,8 @@
       <c r="N570" s="34"/>
     </row>
     <row r="571" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B571" s="170"/>
-      <c r="C571" s="170"/>
+      <c r="B571" s="155"/>
+      <c r="C571" s="155"/>
       <c r="D571" s="34" t="s">
         <v>1484</v>
       </c>
@@ -27004,8 +27032,8 @@
       <c r="N571" s="34"/>
     </row>
     <row r="572" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B572" s="170"/>
-      <c r="C572" s="170"/>
+      <c r="B572" s="155"/>
+      <c r="C572" s="155"/>
       <c r="D572" s="34" t="s">
         <v>1485</v>
       </c>
@@ -27031,8 +27059,8 @@
       <c r="N572" s="34"/>
     </row>
     <row r="573" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B573" s="170"/>
-      <c r="C573" s="170"/>
+      <c r="B573" s="155"/>
+      <c r="C573" s="155"/>
       <c r="D573" s="34" t="s">
         <v>1485</v>
       </c>
@@ -27058,8 +27086,8 @@
       <c r="N573" s="34"/>
     </row>
     <row r="574" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B574" s="170"/>
-      <c r="C574" s="170"/>
+      <c r="B574" s="155"/>
+      <c r="C574" s="155"/>
       <c r="D574" s="34" t="s">
         <v>1486</v>
       </c>
@@ -27085,8 +27113,8 @@
       <c r="N574" s="34"/>
     </row>
     <row r="575" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B575" s="170"/>
-      <c r="C575" s="170"/>
+      <c r="B575" s="155"/>
+      <c r="C575" s="155"/>
       <c r="D575" s="34" t="s">
         <v>1486</v>
       </c>
@@ -27112,8 +27140,8 @@
       <c r="N575" s="34"/>
     </row>
     <row r="576" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B576" s="170"/>
-      <c r="C576" s="170"/>
+      <c r="B576" s="155"/>
+      <c r="C576" s="155"/>
       <c r="D576" s="34" t="s">
         <v>1487</v>
       </c>
@@ -27139,8 +27167,8 @@
       <c r="N576" s="34"/>
     </row>
     <row r="577" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="170"/>
-      <c r="C577" s="170"/>
+      <c r="B577" s="155"/>
+      <c r="C577" s="155"/>
       <c r="D577" s="34" t="s">
         <v>1488</v>
       </c>
@@ -27166,8 +27194,8 @@
       <c r="N577" s="34"/>
     </row>
     <row r="578" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B578" s="170"/>
-      <c r="C578" s="170"/>
+      <c r="B578" s="155"/>
+      <c r="C578" s="155"/>
       <c r="D578" s="34" t="s">
         <v>1488</v>
       </c>
@@ -27193,8 +27221,8 @@
       <c r="N578" s="34"/>
     </row>
     <row r="579" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B579" s="170"/>
-      <c r="C579" s="170"/>
+      <c r="B579" s="155"/>
+      <c r="C579" s="155"/>
       <c r="D579" s="34" t="s">
         <v>1489</v>
       </c>
@@ -27220,8 +27248,8 @@
       <c r="N579" s="34"/>
     </row>
     <row r="580" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B580" s="170"/>
-      <c r="C580" s="170"/>
+      <c r="B580" s="155"/>
+      <c r="C580" s="155"/>
       <c r="D580" s="34" t="s">
         <v>1489</v>
       </c>
@@ -27247,8 +27275,8 @@
       <c r="N580" s="34"/>
     </row>
     <row r="581" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B581" s="170"/>
-      <c r="C581" s="170"/>
+      <c r="B581" s="155"/>
+      <c r="C581" s="155"/>
       <c r="D581" s="34" t="s">
         <v>1490</v>
       </c>
@@ -27274,8 +27302,8 @@
       <c r="N581" s="34"/>
     </row>
     <row r="582" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B582" s="170"/>
-      <c r="C582" s="170"/>
+      <c r="B582" s="155"/>
+      <c r="C582" s="155"/>
       <c r="D582" s="34" t="s">
         <v>1490</v>
       </c>
@@ -27301,8 +27329,8 @@
       <c r="N582" s="34"/>
     </row>
     <row r="583" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B583" s="170"/>
-      <c r="C583" s="170"/>
+      <c r="B583" s="155"/>
+      <c r="C583" s="155"/>
       <c r="D583" s="34" t="s">
         <v>1491</v>
       </c>
@@ -27328,8 +27356,8 @@
       <c r="N583" s="34"/>
     </row>
     <row r="584" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B584" s="170"/>
-      <c r="C584" s="170"/>
+      <c r="B584" s="155"/>
+      <c r="C584" s="155"/>
       <c r="D584" s="34" t="s">
         <v>1491</v>
       </c>
@@ -27355,8 +27383,8 @@
       <c r="N584" s="34"/>
     </row>
     <row r="585" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B585" s="170"/>
-      <c r="C585" s="170"/>
+      <c r="B585" s="155"/>
+      <c r="C585" s="155"/>
       <c r="D585" s="34" t="s">
         <v>1492</v>
       </c>
@@ -27382,8 +27410,8 @@
       <c r="N585" s="34"/>
     </row>
     <row r="586" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B586" s="170"/>
-      <c r="C586" s="170"/>
+      <c r="B586" s="155"/>
+      <c r="C586" s="155"/>
       <c r="D586" s="34" t="s">
         <v>1493</v>
       </c>
@@ -27409,8 +27437,8 @@
       <c r="N586" s="34"/>
     </row>
     <row r="587" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B587" s="170"/>
-      <c r="C587" s="170"/>
+      <c r="B587" s="155"/>
+      <c r="C587" s="155"/>
       <c r="D587" s="34" t="s">
         <v>1494</v>
       </c>
@@ -27436,8 +27464,8 @@
       <c r="N587" s="34"/>
     </row>
     <row r="588" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B588" s="170"/>
-      <c r="C588" s="170"/>
+      <c r="B588" s="155"/>
+      <c r="C588" s="155"/>
       <c r="D588" s="34" t="s">
         <v>1495</v>
       </c>
@@ -27463,8 +27491,8 @@
       <c r="N588" s="34"/>
     </row>
     <row r="589" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B589" s="170"/>
-      <c r="C589" s="170"/>
+      <c r="B589" s="155"/>
+      <c r="C589" s="155"/>
       <c r="D589" s="34" t="s">
         <v>1496</v>
       </c>
@@ -27490,8 +27518,8 @@
       <c r="N589" s="34"/>
     </row>
     <row r="590" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B590" s="170"/>
-      <c r="C590" s="170"/>
+      <c r="B590" s="155"/>
+      <c r="C590" s="155"/>
       <c r="D590" s="34" t="s">
         <v>1497</v>
       </c>
@@ -27517,8 +27545,8 @@
       <c r="N590" s="34"/>
     </row>
     <row r="591" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B591" s="170"/>
-      <c r="C591" s="170"/>
+      <c r="B591" s="155"/>
+      <c r="C591" s="155"/>
       <c r="D591" s="34" t="s">
         <v>1498</v>
       </c>
@@ -27544,8 +27572,8 @@
       <c r="N591" s="34"/>
     </row>
     <row r="592" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B592" s="170"/>
-      <c r="C592" s="170"/>
+      <c r="B592" s="155"/>
+      <c r="C592" s="155"/>
       <c r="D592" s="34" t="s">
         <v>1498</v>
       </c>
@@ -27571,8 +27599,8 @@
       <c r="N592" s="34"/>
     </row>
     <row r="593" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B593" s="170"/>
-      <c r="C593" s="170"/>
+      <c r="B593" s="155"/>
+      <c r="C593" s="155"/>
       <c r="D593" s="34" t="s">
         <v>1499</v>
       </c>
@@ -27598,8 +27626,8 @@
       <c r="N593" s="34"/>
     </row>
     <row r="594" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B594" s="170"/>
-      <c r="C594" s="170"/>
+      <c r="B594" s="155"/>
+      <c r="C594" s="155"/>
       <c r="D594" s="34" t="s">
         <v>1499</v>
       </c>
@@ -27625,8 +27653,8 @@
       <c r="N594" s="34"/>
     </row>
     <row r="595" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B595" s="170"/>
-      <c r="C595" s="170"/>
+      <c r="B595" s="155"/>
+      <c r="C595" s="155"/>
       <c r="D595" s="34" t="s">
         <v>1500</v>
       </c>
@@ -27652,8 +27680,8 @@
       <c r="N595" s="34"/>
     </row>
     <row r="596" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B596" s="170"/>
-      <c r="C596" s="170"/>
+      <c r="B596" s="155"/>
+      <c r="C596" s="155"/>
       <c r="D596" s="34" t="s">
         <v>1500</v>
       </c>
@@ -27679,8 +27707,8 @@
       <c r="N596" s="34"/>
     </row>
     <row r="597" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B597" s="170"/>
-      <c r="C597" s="170"/>
+      <c r="B597" s="155"/>
+      <c r="C597" s="155"/>
       <c r="D597" s="34" t="s">
         <v>1501</v>
       </c>
@@ -27706,8 +27734,8 @@
       <c r="N597" s="34"/>
     </row>
     <row r="598" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B598" s="170"/>
-      <c r="C598" s="170"/>
+      <c r="B598" s="155"/>
+      <c r="C598" s="155"/>
       <c r="D598" s="34" t="s">
         <v>1501</v>
       </c>
@@ -27733,8 +27761,8 @@
       <c r="N598" s="34"/>
     </row>
     <row r="599" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B599" s="170"/>
-      <c r="C599" s="170"/>
+      <c r="B599" s="155"/>
+      <c r="C599" s="155"/>
       <c r="D599" s="34" t="s">
         <v>1502</v>
       </c>
@@ -27760,8 +27788,8 @@
       <c r="N599" s="34"/>
     </row>
     <row r="600" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="170"/>
-      <c r="C600" s="170"/>
+      <c r="B600" s="155"/>
+      <c r="C600" s="155"/>
       <c r="D600" s="34" t="s">
         <v>1502</v>
       </c>
@@ -27787,8 +27815,8 @@
       <c r="N600" s="34"/>
     </row>
     <row r="601" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B601" s="170"/>
-      <c r="C601" s="170"/>
+      <c r="B601" s="155"/>
+      <c r="C601" s="155"/>
       <c r="D601" s="34" t="s">
         <v>1503</v>
       </c>
@@ -27814,8 +27842,8 @@
       <c r="N601" s="34"/>
     </row>
     <row r="602" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B602" s="170"/>
-      <c r="C602" s="170"/>
+      <c r="B602" s="155"/>
+      <c r="C602" s="155"/>
       <c r="D602" s="34" t="s">
         <v>1503</v>
       </c>
@@ -27841,8 +27869,8 @@
       <c r="N602" s="34"/>
     </row>
     <row r="603" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B603" s="170"/>
-      <c r="C603" s="170"/>
+      <c r="B603" s="155"/>
+      <c r="C603" s="155"/>
       <c r="D603" s="34" t="s">
         <v>1504</v>
       </c>
@@ -27868,8 +27896,8 @@
       <c r="N603" s="34"/>
     </row>
     <row r="604" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B604" s="170"/>
-      <c r="C604" s="170"/>
+      <c r="B604" s="155"/>
+      <c r="C604" s="155"/>
       <c r="D604" s="34" t="s">
         <v>1504</v>
       </c>
@@ -27895,8 +27923,8 @@
       <c r="N604" s="34"/>
     </row>
     <row r="605" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B605" s="170"/>
-      <c r="C605" s="170"/>
+      <c r="B605" s="155"/>
+      <c r="C605" s="155"/>
       <c r="D605" s="34" t="s">
         <v>1505</v>
       </c>
@@ -27922,8 +27950,8 @@
       <c r="N605" s="34"/>
     </row>
     <row r="606" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B606" s="170"/>
-      <c r="C606" s="170"/>
+      <c r="B606" s="155"/>
+      <c r="C606" s="155"/>
       <c r="D606" s="34" t="s">
         <v>1506</v>
       </c>
@@ -27949,8 +27977,8 @@
       <c r="N606" s="34"/>
     </row>
     <row r="607" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B607" s="170"/>
-      <c r="C607" s="170"/>
+      <c r="B607" s="155"/>
+      <c r="C607" s="155"/>
       <c r="D607" s="34" t="s">
         <v>1507</v>
       </c>
@@ -27976,8 +28004,8 @@
       <c r="N607" s="34"/>
     </row>
     <row r="608" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B608" s="170"/>
-      <c r="C608" s="170"/>
+      <c r="B608" s="155"/>
+      <c r="C608" s="155"/>
       <c r="D608" s="34" t="s">
         <v>1508</v>
       </c>
@@ -28003,8 +28031,8 @@
       <c r="N608" s="34"/>
     </row>
     <row r="609" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B609" s="170"/>
-      <c r="C609" s="170"/>
+      <c r="B609" s="155"/>
+      <c r="C609" s="155"/>
       <c r="D609" s="34" t="s">
         <v>1509</v>
       </c>
@@ -28030,8 +28058,8 @@
       <c r="N609" s="34"/>
     </row>
     <row r="610" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B610" s="170"/>
-      <c r="C610" s="170"/>
+      <c r="B610" s="155"/>
+      <c r="C610" s="155"/>
       <c r="D610" s="34" t="s">
         <v>1510</v>
       </c>
@@ -28057,8 +28085,8 @@
       <c r="N610" s="34"/>
     </row>
     <row r="611" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B611" s="170"/>
-      <c r="C611" s="170"/>
+      <c r="B611" s="155"/>
+      <c r="C611" s="155"/>
       <c r="D611" s="34" t="s">
         <v>1510</v>
       </c>
@@ -28084,8 +28112,8 @@
       <c r="N611" s="34"/>
     </row>
     <row r="612" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B612" s="170"/>
-      <c r="C612" s="170"/>
+      <c r="B612" s="155"/>
+      <c r="C612" s="155"/>
       <c r="D612" s="34" t="s">
         <v>1511</v>
       </c>
@@ -28111,8 +28139,8 @@
       <c r="N612" s="34"/>
     </row>
     <row r="613" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B613" s="170"/>
-      <c r="C613" s="170"/>
+      <c r="B613" s="155"/>
+      <c r="C613" s="155"/>
       <c r="D613" s="34" t="s">
         <v>1512</v>
       </c>
@@ -28138,8 +28166,8 @@
       <c r="N613" s="34"/>
     </row>
     <row r="614" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B614" s="170"/>
-      <c r="C614" s="170"/>
+      <c r="B614" s="155"/>
+      <c r="C614" s="155"/>
       <c r="D614" s="34" t="s">
         <v>1512</v>
       </c>
@@ -28165,8 +28193,8 @@
       <c r="N614" s="34"/>
     </row>
     <row r="615" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B615" s="170"/>
-      <c r="C615" s="170"/>
+      <c r="B615" s="155"/>
+      <c r="C615" s="155"/>
       <c r="D615" s="34" t="s">
         <v>1513</v>
       </c>
@@ -28192,8 +28220,8 @@
       <c r="N615" s="34"/>
     </row>
     <row r="616" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B616" s="170"/>
-      <c r="C616" s="170"/>
+      <c r="B616" s="155"/>
+      <c r="C616" s="155"/>
       <c r="D616" s="34" t="s">
         <v>1513</v>
       </c>
@@ -28219,8 +28247,8 @@
       <c r="N616" s="34"/>
     </row>
     <row r="617" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B617" s="170"/>
-      <c r="C617" s="170"/>
+      <c r="B617" s="155"/>
+      <c r="C617" s="155"/>
       <c r="D617" s="34" t="s">
         <v>1514</v>
       </c>
@@ -28246,8 +28274,8 @@
       <c r="N617" s="34"/>
     </row>
     <row r="618" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B618" s="170"/>
-      <c r="C618" s="170"/>
+      <c r="B618" s="155"/>
+      <c r="C618" s="155"/>
       <c r="D618" s="34" t="s">
         <v>1515</v>
       </c>
@@ -28273,8 +28301,8 @@
       <c r="N618" s="34"/>
     </row>
     <row r="619" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B619" s="170"/>
-      <c r="C619" s="170"/>
+      <c r="B619" s="155"/>
+      <c r="C619" s="155"/>
       <c r="D619" s="34" t="s">
         <v>1516</v>
       </c>
@@ -28300,8 +28328,8 @@
       <c r="N619" s="34"/>
     </row>
     <row r="620" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B620" s="170"/>
-      <c r="C620" s="170"/>
+      <c r="B620" s="155"/>
+      <c r="C620" s="155"/>
       <c r="D620" s="34" t="s">
         <v>1516</v>
       </c>
@@ -28327,8 +28355,8 @@
       <c r="N620" s="34"/>
     </row>
     <row r="621" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B621" s="170"/>
-      <c r="C621" s="170"/>
+      <c r="B621" s="155"/>
+      <c r="C621" s="155"/>
       <c r="D621" s="34" t="s">
         <v>1517</v>
       </c>
@@ -28354,8 +28382,8 @@
       <c r="N621" s="34"/>
     </row>
     <row r="622" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B622" s="170"/>
-      <c r="C622" s="170"/>
+      <c r="B622" s="155"/>
+      <c r="C622" s="155"/>
       <c r="D622" s="34" t="s">
         <v>1517</v>
       </c>
@@ -28381,8 +28409,8 @@
       <c r="N622" s="34"/>
     </row>
     <row r="623" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B623" s="170"/>
-      <c r="C623" s="170"/>
+      <c r="B623" s="155"/>
+      <c r="C623" s="155"/>
       <c r="D623" s="34" t="s">
         <v>1518</v>
       </c>
@@ -28408,8 +28436,8 @@
       <c r="N623" s="34"/>
     </row>
     <row r="624" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B624" s="170"/>
-      <c r="C624" s="170"/>
+      <c r="B624" s="155"/>
+      <c r="C624" s="155"/>
       <c r="D624" s="34" t="s">
         <v>1519</v>
       </c>
@@ -28435,8 +28463,8 @@
       <c r="N624" s="34"/>
     </row>
     <row r="625" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B625" s="170"/>
-      <c r="C625" s="170"/>
+      <c r="B625" s="155"/>
+      <c r="C625" s="155"/>
       <c r="D625" s="34" t="s">
         <v>1519</v>
       </c>
@@ -28462,8 +28490,8 @@
       <c r="N625" s="34"/>
     </row>
     <row r="626" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B626" s="170"/>
-      <c r="C626" s="170"/>
+      <c r="B626" s="155"/>
+      <c r="C626" s="155"/>
       <c r="D626" s="34" t="s">
         <v>1520</v>
       </c>
@@ -28489,8 +28517,8 @@
       <c r="N626" s="34"/>
     </row>
     <row r="627" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B627" s="170"/>
-      <c r="C627" s="170"/>
+      <c r="B627" s="155"/>
+      <c r="C627" s="155"/>
       <c r="D627" s="34" t="s">
         <v>1520</v>
       </c>
@@ -28516,8 +28544,8 @@
       <c r="N627" s="34"/>
     </row>
     <row r="628" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B628" s="170"/>
-      <c r="C628" s="170"/>
+      <c r="B628" s="155"/>
+      <c r="C628" s="155"/>
       <c r="D628" s="34" t="s">
         <v>1521</v>
       </c>
@@ -28543,8 +28571,8 @@
       <c r="N628" s="34"/>
     </row>
     <row r="629" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B629" s="170"/>
-      <c r="C629" s="170"/>
+      <c r="B629" s="155"/>
+      <c r="C629" s="155"/>
       <c r="D629" s="34" t="s">
         <v>1521</v>
       </c>
@@ -28570,8 +28598,8 @@
       <c r="N629" s="34"/>
     </row>
     <row r="630" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B630" s="170"/>
-      <c r="C630" s="170"/>
+      <c r="B630" s="155"/>
+      <c r="C630" s="155"/>
       <c r="D630" s="34" t="s">
         <v>1522</v>
       </c>
@@ -28597,8 +28625,8 @@
       <c r="N630" s="34"/>
     </row>
     <row r="631" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B631" s="170"/>
-      <c r="C631" s="170"/>
+      <c r="B631" s="155"/>
+      <c r="C631" s="155"/>
       <c r="D631" s="34" t="s">
         <v>1522</v>
       </c>
@@ -28624,8 +28652,8 @@
       <c r="N631" s="34"/>
     </row>
     <row r="632" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B632" s="170"/>
-      <c r="C632" s="170"/>
+      <c r="B632" s="155"/>
+      <c r="C632" s="155"/>
       <c r="D632" s="34" t="s">
         <v>1523</v>
       </c>
@@ -28651,8 +28679,8 @@
       <c r="N632" s="34"/>
     </row>
     <row r="633" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B633" s="170"/>
-      <c r="C633" s="170"/>
+      <c r="B633" s="155"/>
+      <c r="C633" s="155"/>
       <c r="D633" s="34" t="s">
         <v>1523</v>
       </c>
@@ -28678,8 +28706,8 @@
       <c r="N633" s="34"/>
     </row>
     <row r="634" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B634" s="170"/>
-      <c r="C634" s="170"/>
+      <c r="B634" s="155"/>
+      <c r="C634" s="155"/>
       <c r="D634" s="34" t="s">
         <v>1524</v>
       </c>
@@ -28705,8 +28733,8 @@
       <c r="N634" s="34"/>
     </row>
     <row r="635" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B635" s="170"/>
-      <c r="C635" s="170"/>
+      <c r="B635" s="155"/>
+      <c r="C635" s="155"/>
       <c r="D635" s="34" t="s">
         <v>1524</v>
       </c>
@@ -28732,8 +28760,8 @@
       <c r="N635" s="34"/>
     </row>
     <row r="636" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B636" s="170"/>
-      <c r="C636" s="170"/>
+      <c r="B636" s="155"/>
+      <c r="C636" s="155"/>
       <c r="D636" s="34" t="s">
         <v>1525</v>
       </c>
@@ -28759,8 +28787,8 @@
       <c r="N636" s="34"/>
     </row>
     <row r="637" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="170"/>
-      <c r="C637" s="170"/>
+      <c r="B637" s="155"/>
+      <c r="C637" s="155"/>
       <c r="D637" s="34" t="s">
         <v>1525</v>
       </c>
@@ -28786,8 +28814,8 @@
       <c r="N637" s="34"/>
     </row>
     <row r="638" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B638" s="170"/>
-      <c r="C638" s="170"/>
+      <c r="B638" s="155"/>
+      <c r="C638" s="155"/>
       <c r="D638" s="34" t="s">
         <v>1526</v>
       </c>
@@ -28813,8 +28841,8 @@
       <c r="N638" s="34"/>
     </row>
     <row r="639" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B639" s="170"/>
-      <c r="C639" s="170"/>
+      <c r="B639" s="155"/>
+      <c r="C639" s="155"/>
       <c r="D639" s="34" t="s">
         <v>1526</v>
       </c>
@@ -28840,8 +28868,8 @@
       <c r="N639" s="34"/>
     </row>
     <row r="640" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B640" s="170"/>
-      <c r="C640" s="170"/>
+      <c r="B640" s="155"/>
+      <c r="C640" s="155"/>
       <c r="D640" s="34" t="s">
         <v>1527</v>
       </c>
@@ -28867,8 +28895,8 @@
       <c r="N640" s="34"/>
     </row>
     <row r="641" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B641" s="170"/>
-      <c r="C641" s="170"/>
+      <c r="B641" s="155"/>
+      <c r="C641" s="155"/>
       <c r="D641" s="34" t="s">
         <v>1527</v>
       </c>
@@ -28894,8 +28922,8 @@
       <c r="N641" s="34"/>
     </row>
     <row r="642" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B642" s="170"/>
-      <c r="C642" s="170"/>
+      <c r="B642" s="155"/>
+      <c r="C642" s="155"/>
       <c r="D642" s="34" t="s">
         <v>1528</v>
       </c>
@@ -28921,8 +28949,8 @@
       <c r="N642" s="34"/>
     </row>
     <row r="643" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B643" s="170"/>
-      <c r="C643" s="170"/>
+      <c r="B643" s="155"/>
+      <c r="C643" s="155"/>
       <c r="D643" s="34" t="s">
         <v>1528</v>
       </c>
@@ -28948,8 +28976,8 @@
       <c r="N643" s="34"/>
     </row>
     <row r="644" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B644" s="170"/>
-      <c r="C644" s="170"/>
+      <c r="B644" s="155"/>
+      <c r="C644" s="155"/>
       <c r="D644" s="34" t="s">
         <v>1529</v>
       </c>
@@ -28975,8 +29003,8 @@
       <c r="N644" s="34"/>
     </row>
     <row r="645" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B645" s="170"/>
-      <c r="C645" s="170"/>
+      <c r="B645" s="155"/>
+      <c r="C645" s="155"/>
       <c r="D645" s="34" t="s">
         <v>1530</v>
       </c>
@@ -29002,8 +29030,8 @@
       <c r="N645" s="34"/>
     </row>
     <row r="646" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B646" s="170"/>
-      <c r="C646" s="170"/>
+      <c r="B646" s="155"/>
+      <c r="C646" s="155"/>
       <c r="D646" s="34" t="s">
         <v>1530</v>
       </c>
@@ -29029,8 +29057,8 @@
       <c r="N646" s="34"/>
     </row>
     <row r="647" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B647" s="170"/>
-      <c r="C647" s="170"/>
+      <c r="B647" s="155"/>
+      <c r="C647" s="155"/>
       <c r="D647" s="34" t="s">
         <v>1531</v>
       </c>
@@ -29056,8 +29084,8 @@
       <c r="N647" s="34"/>
     </row>
     <row r="648" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="170"/>
-      <c r="C648" s="170"/>
+      <c r="B648" s="155"/>
+      <c r="C648" s="155"/>
       <c r="D648" s="34" t="s">
         <v>1531</v>
       </c>
@@ -29083,8 +29111,8 @@
       <c r="N648" s="34"/>
     </row>
     <row r="649" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="170"/>
-      <c r="C649" s="170"/>
+      <c r="B649" s="155"/>
+      <c r="C649" s="155"/>
       <c r="D649" s="34" t="s">
         <v>1532</v>
       </c>
@@ -29110,8 +29138,8 @@
       <c r="N649" s="34"/>
     </row>
     <row r="650" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B650" s="170"/>
-      <c r="C650" s="170"/>
+      <c r="B650" s="155"/>
+      <c r="C650" s="155"/>
       <c r="D650" s="34" t="s">
         <v>1532</v>
       </c>
@@ -29137,8 +29165,8 @@
       <c r="N650" s="34"/>
     </row>
     <row r="651" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B651" s="170"/>
-      <c r="C651" s="170"/>
+      <c r="B651" s="155"/>
+      <c r="C651" s="155"/>
       <c r="D651" s="34" t="s">
         <v>1533</v>
       </c>
@@ -29164,8 +29192,8 @@
       <c r="N651" s="34"/>
     </row>
     <row r="652" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B652" s="170"/>
-      <c r="C652" s="170"/>
+      <c r="B652" s="155"/>
+      <c r="C652" s="155"/>
       <c r="D652" s="34" t="s">
         <v>1533</v>
       </c>
@@ -29191,8 +29219,8 @@
       <c r="N652" s="34"/>
     </row>
     <row r="653" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B653" s="170"/>
-      <c r="C653" s="170"/>
+      <c r="B653" s="155"/>
+      <c r="C653" s="155"/>
       <c r="D653" s="34" t="s">
         <v>1534</v>
       </c>
@@ -29218,8 +29246,8 @@
       <c r="N653" s="34"/>
     </row>
     <row r="654" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B654" s="170"/>
-      <c r="C654" s="170"/>
+      <c r="B654" s="155"/>
+      <c r="C654" s="155"/>
       <c r="D654" s="34" t="s">
         <v>1534</v>
       </c>
@@ -29245,8 +29273,8 @@
       <c r="N654" s="34"/>
     </row>
     <row r="655" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B655" s="170"/>
-      <c r="C655" s="170"/>
+      <c r="B655" s="155"/>
+      <c r="C655" s="155"/>
       <c r="D655" s="34" t="s">
         <v>1535</v>
       </c>
@@ -29272,8 +29300,8 @@
       <c r="N655" s="34"/>
     </row>
     <row r="656" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B656" s="170"/>
-      <c r="C656" s="170"/>
+      <c r="B656" s="155"/>
+      <c r="C656" s="155"/>
       <c r="D656" s="34" t="s">
         <v>1535</v>
       </c>
@@ -29299,8 +29327,8 @@
       <c r="N656" s="34"/>
     </row>
     <row r="657" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B657" s="170"/>
-      <c r="C657" s="170"/>
+      <c r="B657" s="155"/>
+      <c r="C657" s="155"/>
       <c r="D657" s="34" t="s">
         <v>1536</v>
       </c>
@@ -29326,8 +29354,8 @@
       <c r="N657" s="34"/>
     </row>
     <row r="658" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B658" s="170"/>
-      <c r="C658" s="170"/>
+      <c r="B658" s="155"/>
+      <c r="C658" s="155"/>
       <c r="D658" s="34" t="s">
         <v>1537</v>
       </c>
@@ -29353,8 +29381,8 @@
       <c r="N658" s="34"/>
     </row>
     <row r="659" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B659" s="170"/>
-      <c r="C659" s="170"/>
+      <c r="B659" s="155"/>
+      <c r="C659" s="155"/>
       <c r="D659" s="34" t="s">
         <v>1537</v>
       </c>
@@ -29380,8 +29408,8 @@
       <c r="N659" s="34"/>
     </row>
     <row r="660" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B660" s="170"/>
-      <c r="C660" s="170"/>
+      <c r="B660" s="155"/>
+      <c r="C660" s="155"/>
       <c r="D660" s="34" t="s">
         <v>1538</v>
       </c>
@@ -29407,8 +29435,8 @@
       <c r="N660" s="34"/>
     </row>
     <row r="661" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B661" s="170"/>
-      <c r="C661" s="170"/>
+      <c r="B661" s="155"/>
+      <c r="C661" s="155"/>
       <c r="D661" s="34" t="s">
         <v>1538</v>
       </c>
@@ -29434,8 +29462,8 @@
       <c r="N661" s="34"/>
     </row>
     <row r="662" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B662" s="170"/>
-      <c r="C662" s="170"/>
+      <c r="B662" s="155"/>
+      <c r="C662" s="155"/>
       <c r="D662" s="34" t="s">
         <v>1539</v>
       </c>
@@ -29461,8 +29489,8 @@
       <c r="N662" s="34"/>
     </row>
     <row r="663" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B663" s="170"/>
-      <c r="C663" s="170"/>
+      <c r="B663" s="155"/>
+      <c r="C663" s="155"/>
       <c r="D663" s="34" t="s">
         <v>1539</v>
       </c>
@@ -29488,8 +29516,8 @@
       <c r="N663" s="34"/>
     </row>
     <row r="664" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B664" s="170"/>
-      <c r="C664" s="170"/>
+      <c r="B664" s="155"/>
+      <c r="C664" s="155"/>
       <c r="D664" s="34" t="s">
         <v>1540</v>
       </c>
@@ -29515,8 +29543,8 @@
       <c r="N664" s="34"/>
     </row>
     <row r="665" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B665" s="170"/>
-      <c r="C665" s="170"/>
+      <c r="B665" s="155"/>
+      <c r="C665" s="155"/>
       <c r="D665" s="34" t="s">
         <v>1540</v>
       </c>
@@ -29542,8 +29570,8 @@
       <c r="N665" s="34"/>
     </row>
     <row r="666" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B666" s="170"/>
-      <c r="C666" s="170"/>
+      <c r="B666" s="155"/>
+      <c r="C666" s="155"/>
       <c r="D666" s="34" t="s">
         <v>1541</v>
       </c>
@@ -29569,8 +29597,8 @@
       <c r="N666" s="34"/>
     </row>
     <row r="667" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B667" s="170"/>
-      <c r="C667" s="170"/>
+      <c r="B667" s="155"/>
+      <c r="C667" s="155"/>
       <c r="D667" s="34" t="s">
         <v>1542</v>
       </c>
@@ -29596,8 +29624,8 @@
       <c r="N667" s="34"/>
     </row>
     <row r="668" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B668" s="170"/>
-      <c r="C668" s="170"/>
+      <c r="B668" s="155"/>
+      <c r="C668" s="155"/>
       <c r="D668" s="34" t="s">
         <v>1542</v>
       </c>
@@ -29623,8 +29651,8 @@
       <c r="N668" s="34"/>
     </row>
     <row r="669" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B669" s="170"/>
-      <c r="C669" s="170"/>
+      <c r="B669" s="155"/>
+      <c r="C669" s="155"/>
       <c r="D669" s="34" t="s">
         <v>1543</v>
       </c>
@@ -29650,8 +29678,8 @@
       <c r="N669" s="34"/>
     </row>
     <row r="670" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B670" s="170"/>
-      <c r="C670" s="170"/>
+      <c r="B670" s="155"/>
+      <c r="C670" s="155"/>
       <c r="D670" s="34" t="s">
         <v>1543</v>
       </c>
@@ -29677,8 +29705,8 @@
       <c r="N670" s="34"/>
     </row>
     <row r="671" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B671" s="170"/>
-      <c r="C671" s="170"/>
+      <c r="B671" s="155"/>
+      <c r="C671" s="155"/>
       <c r="D671" s="34" t="s">
         <v>1544</v>
       </c>
@@ -29704,8 +29732,8 @@
       <c r="N671" s="34"/>
     </row>
     <row r="672" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B672" s="170"/>
-      <c r="C672" s="170"/>
+      <c r="B672" s="155"/>
+      <c r="C672" s="155"/>
       <c r="D672" s="34" t="s">
         <v>1544</v>
       </c>
@@ -29731,8 +29759,8 @@
       <c r="N672" s="34"/>
     </row>
     <row r="673" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B673" s="170"/>
-      <c r="C673" s="170"/>
+      <c r="B673" s="155"/>
+      <c r="C673" s="155"/>
       <c r="D673" s="34" t="s">
         <v>1545</v>
       </c>
@@ -29758,8 +29786,8 @@
       <c r="N673" s="34"/>
     </row>
     <row r="674" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B674" s="170"/>
-      <c r="C674" s="170"/>
+      <c r="B674" s="155"/>
+      <c r="C674" s="155"/>
       <c r="D674" s="34" t="s">
         <v>1545</v>
       </c>
@@ -29785,8 +29813,8 @@
       <c r="N674" s="34"/>
     </row>
     <row r="675" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="170"/>
-      <c r="C675" s="170"/>
+      <c r="B675" s="155"/>
+      <c r="C675" s="155"/>
       <c r="D675" s="34" t="s">
         <v>1546</v>
       </c>
@@ -29812,8 +29840,8 @@
       <c r="N675" s="34"/>
     </row>
     <row r="676" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B676" s="170"/>
-      <c r="C676" s="170"/>
+      <c r="B676" s="155"/>
+      <c r="C676" s="155"/>
       <c r="D676" s="34" t="s">
         <v>1546</v>
       </c>
@@ -29839,8 +29867,8 @@
       <c r="N676" s="34"/>
     </row>
     <row r="677" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B677" s="170"/>
-      <c r="C677" s="170"/>
+      <c r="B677" s="155"/>
+      <c r="C677" s="155"/>
       <c r="D677" s="34" t="s">
         <v>1547</v>
       </c>
@@ -29866,8 +29894,8 @@
       <c r="N677" s="34"/>
     </row>
     <row r="678" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B678" s="170"/>
-      <c r="C678" s="170"/>
+      <c r="B678" s="155"/>
+      <c r="C678" s="155"/>
       <c r="D678" s="34" t="s">
         <v>1547</v>
       </c>
@@ -29893,8 +29921,8 @@
       <c r="N678" s="34"/>
     </row>
     <row r="679" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B679" s="170"/>
-      <c r="C679" s="170"/>
+      <c r="B679" s="155"/>
+      <c r="C679" s="155"/>
       <c r="D679" s="34" t="s">
         <v>1548</v>
       </c>
@@ -29920,8 +29948,8 @@
       <c r="N679" s="34"/>
     </row>
     <row r="680" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B680" s="170"/>
-      <c r="C680" s="170"/>
+      <c r="B680" s="155"/>
+      <c r="C680" s="155"/>
       <c r="D680" s="34" t="s">
         <v>1548</v>
       </c>
@@ -29947,8 +29975,8 @@
       <c r="N680" s="34"/>
     </row>
     <row r="681" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B681" s="170"/>
-      <c r="C681" s="170"/>
+      <c r="B681" s="155"/>
+      <c r="C681" s="155"/>
       <c r="D681" s="34" t="s">
         <v>1549</v>
       </c>
@@ -29974,8 +30002,8 @@
       <c r="N681" s="34"/>
     </row>
     <row r="682" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B682" s="170"/>
-      <c r="C682" s="170"/>
+      <c r="B682" s="155"/>
+      <c r="C682" s="155"/>
       <c r="D682" s="34" t="s">
         <v>1549</v>
       </c>
@@ -30001,8 +30029,8 @@
       <c r="N682" s="34"/>
     </row>
     <row r="683" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B683" s="170"/>
-      <c r="C683" s="170"/>
+      <c r="B683" s="155"/>
+      <c r="C683" s="155"/>
       <c r="D683" s="34" t="s">
         <v>1550</v>
       </c>
@@ -30028,8 +30056,8 @@
       <c r="N683" s="34"/>
     </row>
     <row r="684" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B684" s="170"/>
-      <c r="C684" s="170"/>
+      <c r="B684" s="155"/>
+      <c r="C684" s="155"/>
       <c r="D684" s="34" t="s">
         <v>1551</v>
       </c>
@@ -30055,8 +30083,8 @@
       <c r="N684" s="34"/>
     </row>
     <row r="685" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B685" s="170"/>
-      <c r="C685" s="170"/>
+      <c r="B685" s="155"/>
+      <c r="C685" s="155"/>
       <c r="D685" s="34" t="s">
         <v>1551</v>
       </c>
@@ -30082,8 +30110,8 @@
       <c r="N685" s="34"/>
     </row>
     <row r="686" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B686" s="170"/>
-      <c r="C686" s="170"/>
+      <c r="B686" s="155"/>
+      <c r="C686" s="155"/>
       <c r="D686" s="34" t="s">
         <v>1552</v>
       </c>
@@ -30109,8 +30137,8 @@
       <c r="N686" s="34"/>
     </row>
     <row r="687" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B687" s="170"/>
-      <c r="C687" s="170"/>
+      <c r="B687" s="155"/>
+      <c r="C687" s="155"/>
       <c r="D687" s="34" t="s">
         <v>1552</v>
       </c>
@@ -30136,8 +30164,8 @@
       <c r="N687" s="34"/>
     </row>
     <row r="688" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B688" s="170"/>
-      <c r="C688" s="170"/>
+      <c r="B688" s="155"/>
+      <c r="C688" s="155"/>
       <c r="D688" s="34" t="s">
         <v>1553</v>
       </c>
@@ -30163,8 +30191,8 @@
       <c r="N688" s="34"/>
     </row>
     <row r="689" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B689" s="170"/>
-      <c r="C689" s="170"/>
+      <c r="B689" s="155"/>
+      <c r="C689" s="155"/>
       <c r="D689" s="34" t="s">
         <v>1553</v>
       </c>
@@ -30190,8 +30218,8 @@
       <c r="N689" s="34"/>
     </row>
     <row r="690" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B690" s="170"/>
-      <c r="C690" s="170"/>
+      <c r="B690" s="155"/>
+      <c r="C690" s="155"/>
       <c r="D690" s="34" t="s">
         <v>1554</v>
       </c>
@@ -30217,8 +30245,8 @@
       <c r="N690" s="34"/>
     </row>
     <row r="691" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B691" s="170"/>
-      <c r="C691" s="170"/>
+      <c r="B691" s="155"/>
+      <c r="C691" s="155"/>
       <c r="D691" s="34" t="s">
         <v>1554</v>
       </c>
@@ -30244,8 +30272,8 @@
       <c r="N691" s="34"/>
     </row>
     <row r="692" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B692" s="170"/>
-      <c r="C692" s="170"/>
+      <c r="B692" s="155"/>
+      <c r="C692" s="155"/>
       <c r="D692" s="34" t="s">
         <v>1555</v>
       </c>
@@ -30271,8 +30299,8 @@
       <c r="N692" s="34"/>
     </row>
     <row r="693" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B693" s="170"/>
-      <c r="C693" s="170"/>
+      <c r="B693" s="155"/>
+      <c r="C693" s="155"/>
       <c r="D693" s="34" t="s">
         <v>1555</v>
       </c>
@@ -30298,8 +30326,8 @@
       <c r="N693" s="34"/>
     </row>
     <row r="694" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B694" s="170"/>
-      <c r="C694" s="170"/>
+      <c r="B694" s="155"/>
+      <c r="C694" s="155"/>
       <c r="D694" s="34" t="s">
         <v>1556</v>
       </c>
@@ -30325,8 +30353,8 @@
       <c r="N694" s="34"/>
     </row>
     <row r="695" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B695" s="170"/>
-      <c r="C695" s="170"/>
+      <c r="B695" s="155"/>
+      <c r="C695" s="155"/>
       <c r="D695" s="34" t="s">
         <v>1556</v>
       </c>
@@ -30352,8 +30380,8 @@
       <c r="N695" s="34"/>
     </row>
     <row r="696" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B696" s="170"/>
-      <c r="C696" s="170"/>
+      <c r="B696" s="155"/>
+      <c r="C696" s="155"/>
       <c r="D696" s="34" t="s">
         <v>1557</v>
       </c>
@@ -30379,8 +30407,8 @@
       <c r="N696" s="34"/>
     </row>
     <row r="697" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B697" s="170"/>
-      <c r="C697" s="170"/>
+      <c r="B697" s="155"/>
+      <c r="C697" s="155"/>
       <c r="D697" s="34" t="s">
         <v>1557</v>
       </c>
@@ -30406,8 +30434,8 @@
       <c r="N697" s="34"/>
     </row>
     <row r="698" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B698" s="170"/>
-      <c r="C698" s="170"/>
+      <c r="B698" s="155"/>
+      <c r="C698" s="155"/>
       <c r="D698" s="34" t="s">
         <v>1558</v>
       </c>
@@ -30433,8 +30461,8 @@
       <c r="N698" s="34"/>
     </row>
     <row r="699" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B699" s="170"/>
-      <c r="C699" s="170"/>
+      <c r="B699" s="155"/>
+      <c r="C699" s="155"/>
       <c r="D699" s="34" t="s">
         <v>1558</v>
       </c>
@@ -30460,8 +30488,8 @@
       <c r="N699" s="34"/>
     </row>
     <row r="700" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B700" s="170"/>
-      <c r="C700" s="170"/>
+      <c r="B700" s="155"/>
+      <c r="C700" s="155"/>
       <c r="D700" s="34" t="s">
         <v>1559</v>
       </c>
@@ -30487,8 +30515,8 @@
       <c r="N700" s="34"/>
     </row>
     <row r="701" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B701" s="170"/>
-      <c r="C701" s="170"/>
+      <c r="B701" s="155"/>
+      <c r="C701" s="155"/>
       <c r="D701" s="34" t="s">
         <v>1559</v>
       </c>
@@ -30514,8 +30542,8 @@
       <c r="N701" s="34"/>
     </row>
     <row r="702" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B702" s="170"/>
-      <c r="C702" s="170"/>
+      <c r="B702" s="155"/>
+      <c r="C702" s="155"/>
       <c r="D702" s="34" t="s">
         <v>1560</v>
       </c>
@@ -30541,8 +30569,8 @@
       <c r="N702" s="34"/>
     </row>
     <row r="703" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B703" s="170"/>
-      <c r="C703" s="170"/>
+      <c r="B703" s="155"/>
+      <c r="C703" s="155"/>
       <c r="D703" s="34" t="s">
         <v>1560</v>
       </c>
@@ -30568,8 +30596,8 @@
       <c r="N703" s="34"/>
     </row>
     <row r="704" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="170"/>
-      <c r="C704" s="170"/>
+      <c r="B704" s="155"/>
+      <c r="C704" s="155"/>
       <c r="D704" s="34" t="s">
         <v>1561</v>
       </c>
@@ -30595,8 +30623,8 @@
       <c r="N704" s="34"/>
     </row>
     <row r="705" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B705" s="170"/>
-      <c r="C705" s="170"/>
+      <c r="B705" s="155"/>
+      <c r="C705" s="155"/>
       <c r="D705" s="34" t="s">
         <v>1562</v>
       </c>
@@ -30622,8 +30650,8 @@
       <c r="N705" s="34"/>
     </row>
     <row r="706" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B706" s="170"/>
-      <c r="C706" s="170"/>
+      <c r="B706" s="155"/>
+      <c r="C706" s="155"/>
       <c r="D706" s="34" t="s">
         <v>1562</v>
       </c>
@@ -30649,8 +30677,8 @@
       <c r="N706" s="34"/>
     </row>
     <row r="707" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B707" s="170"/>
-      <c r="C707" s="170"/>
+      <c r="B707" s="155"/>
+      <c r="C707" s="155"/>
       <c r="D707" s="34" t="s">
         <v>1563</v>
       </c>
@@ -30676,8 +30704,8 @@
       <c r="N707" s="34"/>
     </row>
     <row r="708" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B708" s="170"/>
-      <c r="C708" s="170"/>
+      <c r="B708" s="155"/>
+      <c r="C708" s="155"/>
       <c r="D708" s="34" t="s">
         <v>1563</v>
       </c>
@@ -30703,8 +30731,8 @@
       <c r="N708" s="34"/>
     </row>
     <row r="709" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B709" s="170"/>
-      <c r="C709" s="170"/>
+      <c r="B709" s="155"/>
+      <c r="C709" s="155"/>
       <c r="D709" s="34" t="s">
         <v>1564</v>
       </c>
@@ -30730,8 +30758,8 @@
       <c r="N709" s="34"/>
     </row>
     <row r="710" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B710" s="170"/>
-      <c r="C710" s="170"/>
+      <c r="B710" s="155"/>
+      <c r="C710" s="155"/>
       <c r="D710" s="34" t="s">
         <v>1564</v>
       </c>
@@ -30757,8 +30785,8 @@
       <c r="N710" s="34"/>
     </row>
     <row r="711" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B711" s="170"/>
-      <c r="C711" s="170"/>
+      <c r="B711" s="155"/>
+      <c r="C711" s="155"/>
       <c r="D711" s="34" t="s">
         <v>1565</v>
       </c>
@@ -30784,8 +30812,8 @@
       <c r="N711" s="34"/>
     </row>
     <row r="712" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="170"/>
-      <c r="C712" s="170"/>
+      <c r="B712" s="155"/>
+      <c r="C712" s="155"/>
       <c r="D712" s="34" t="s">
         <v>1565</v>
       </c>
@@ -30811,8 +30839,8 @@
       <c r="N712" s="34"/>
     </row>
     <row r="713" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B713" s="170"/>
-      <c r="C713" s="170"/>
+      <c r="B713" s="155"/>
+      <c r="C713" s="155"/>
       <c r="D713" s="34" t="s">
         <v>1566</v>
       </c>
@@ -30838,8 +30866,8 @@
       <c r="N713" s="34"/>
     </row>
     <row r="714" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B714" s="170"/>
-      <c r="C714" s="170"/>
+      <c r="B714" s="155"/>
+      <c r="C714" s="155"/>
       <c r="D714" s="34" t="s">
         <v>1566</v>
       </c>
@@ -30865,8 +30893,8 @@
       <c r="N714" s="34"/>
     </row>
     <row r="715" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B715" s="170"/>
-      <c r="C715" s="170"/>
+      <c r="B715" s="155"/>
+      <c r="C715" s="155"/>
       <c r="D715" s="34" t="s">
         <v>1567</v>
       </c>
@@ -30892,8 +30920,8 @@
       <c r="N715" s="34"/>
     </row>
     <row r="716" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B716" s="170"/>
-      <c r="C716" s="170"/>
+      <c r="B716" s="155"/>
+      <c r="C716" s="155"/>
       <c r="D716" s="34" t="s">
         <v>1567</v>
       </c>
@@ -30919,8 +30947,8 @@
       <c r="N716" s="34"/>
     </row>
     <row r="717" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B717" s="170"/>
-      <c r="C717" s="170"/>
+      <c r="B717" s="155"/>
+      <c r="C717" s="155"/>
       <c r="D717" s="34" t="s">
         <v>1568</v>
       </c>
@@ -30946,8 +30974,8 @@
       <c r="N717" s="34"/>
     </row>
     <row r="718" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B718" s="170"/>
-      <c r="C718" s="170"/>
+      <c r="B718" s="155"/>
+      <c r="C718" s="155"/>
       <c r="D718" s="34" t="s">
         <v>1569</v>
       </c>
@@ -30973,8 +31001,8 @@
       <c r="N718" s="34"/>
     </row>
     <row r="719" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B719" s="170"/>
-      <c r="C719" s="170"/>
+      <c r="B719" s="155"/>
+      <c r="C719" s="155"/>
       <c r="D719" s="34" t="s">
         <v>1569</v>
       </c>
@@ -31000,8 +31028,8 @@
       <c r="N719" s="34"/>
     </row>
     <row r="720" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B720" s="170"/>
-      <c r="C720" s="170"/>
+      <c r="B720" s="155"/>
+      <c r="C720" s="155"/>
       <c r="D720" s="34" t="s">
         <v>1570</v>
       </c>
@@ -31027,8 +31055,8 @@
       <c r="N720" s="34"/>
     </row>
     <row r="721" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="170"/>
-      <c r="C721" s="170"/>
+      <c r="B721" s="155"/>
+      <c r="C721" s="155"/>
       <c r="D721" s="34" t="s">
         <v>1570</v>
       </c>
@@ -31054,8 +31082,8 @@
       <c r="N721" s="34"/>
     </row>
     <row r="722" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B722" s="170"/>
-      <c r="C722" s="170"/>
+      <c r="B722" s="155"/>
+      <c r="C722" s="155"/>
       <c r="D722" s="34" t="s">
         <v>1571</v>
       </c>
@@ -31081,8 +31109,8 @@
       <c r="N722" s="34"/>
     </row>
     <row r="723" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B723" s="170"/>
-      <c r="C723" s="170"/>
+      <c r="B723" s="155"/>
+      <c r="C723" s="155"/>
       <c r="D723" s="34" t="s">
         <v>1571</v>
       </c>
@@ -31108,8 +31136,8 @@
       <c r="N723" s="34"/>
     </row>
     <row r="724" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B724" s="170"/>
-      <c r="C724" s="170"/>
+      <c r="B724" s="155"/>
+      <c r="C724" s="155"/>
       <c r="D724" s="34" t="s">
         <v>1572</v>
       </c>
@@ -31135,8 +31163,8 @@
       <c r="N724" s="34"/>
     </row>
     <row r="725" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B725" s="170"/>
-      <c r="C725" s="170"/>
+      <c r="B725" s="155"/>
+      <c r="C725" s="155"/>
       <c r="D725" s="34" t="s">
         <v>1572</v>
       </c>
@@ -31162,8 +31190,8 @@
       <c r="N725" s="34"/>
     </row>
     <row r="726" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B726" s="170"/>
-      <c r="C726" s="170"/>
+      <c r="B726" s="155"/>
+      <c r="C726" s="155"/>
       <c r="D726" s="34" t="s">
         <v>1573</v>
       </c>
@@ -31189,8 +31217,8 @@
       <c r="N726" s="34"/>
     </row>
     <row r="727" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B727" s="170"/>
-      <c r="C727" s="170"/>
+      <c r="B727" s="155"/>
+      <c r="C727" s="155"/>
       <c r="D727" s="34" t="s">
         <v>1573</v>
       </c>
@@ -31216,8 +31244,8 @@
       <c r="N727" s="34"/>
     </row>
     <row r="728" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B728" s="170"/>
-      <c r="C728" s="170"/>
+      <c r="B728" s="155"/>
+      <c r="C728" s="155"/>
       <c r="D728" s="34" t="s">
         <v>1574</v>
       </c>
@@ -31243,8 +31271,8 @@
       <c r="N728" s="34"/>
     </row>
     <row r="729" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B729" s="170"/>
-      <c r="C729" s="170"/>
+      <c r="B729" s="155"/>
+      <c r="C729" s="155"/>
       <c r="D729" s="34" t="s">
         <v>1575</v>
       </c>
@@ -31270,8 +31298,8 @@
       <c r="N729" s="34"/>
     </row>
     <row r="730" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B730" s="170"/>
-      <c r="C730" s="170"/>
+      <c r="B730" s="155"/>
+      <c r="C730" s="155"/>
       <c r="D730" s="34" t="s">
         <v>1576</v>
       </c>
@@ -31297,8 +31325,8 @@
       <c r="N730" s="34"/>
     </row>
     <row r="731" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B731" s="170"/>
-      <c r="C731" s="170"/>
+      <c r="B731" s="155"/>
+      <c r="C731" s="155"/>
       <c r="D731" s="34" t="s">
         <v>1576</v>
       </c>
@@ -31324,8 +31352,8 @@
       <c r="N731" s="34"/>
     </row>
     <row r="732" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B732" s="170"/>
-      <c r="C732" s="170"/>
+      <c r="B732" s="155"/>
+      <c r="C732" s="155"/>
       <c r="D732" s="34" t="s">
         <v>1577</v>
       </c>
@@ -31351,8 +31379,8 @@
       <c r="N732" s="34"/>
     </row>
     <row r="733" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B733" s="170"/>
-      <c r="C733" s="170"/>
+      <c r="B733" s="155"/>
+      <c r="C733" s="155"/>
       <c r="D733" s="34" t="s">
         <v>1577</v>
       </c>
@@ -31378,8 +31406,8 @@
       <c r="N733" s="34"/>
     </row>
     <row r="734" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B734" s="170"/>
-      <c r="C734" s="170"/>
+      <c r="B734" s="155"/>
+      <c r="C734" s="155"/>
       <c r="D734" s="34" t="s">
         <v>1578</v>
       </c>
@@ -31405,8 +31433,8 @@
       <c r="N734" s="34"/>
     </row>
     <row r="735" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B735" s="170"/>
-      <c r="C735" s="170"/>
+      <c r="B735" s="155"/>
+      <c r="C735" s="155"/>
       <c r="D735" s="34" t="s">
         <v>1579</v>
       </c>
@@ -31432,8 +31460,8 @@
       <c r="N735" s="34"/>
     </row>
     <row r="736" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B736" s="170"/>
-      <c r="C736" s="170"/>
+      <c r="B736" s="155"/>
+      <c r="C736" s="155"/>
       <c r="D736" s="34" t="s">
         <v>1580</v>
       </c>
@@ -31459,8 +31487,8 @@
       <c r="N736" s="34"/>
     </row>
     <row r="737" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B737" s="170"/>
-      <c r="C737" s="170"/>
+      <c r="B737" s="155"/>
+      <c r="C737" s="155"/>
       <c r="D737" s="34" t="s">
         <v>1581</v>
       </c>
@@ -31486,8 +31514,8 @@
       <c r="N737" s="34"/>
     </row>
     <row r="738" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B738" s="170"/>
-      <c r="C738" s="170"/>
+      <c r="B738" s="155"/>
+      <c r="C738" s="155"/>
       <c r="D738" s="34" t="s">
         <v>1582</v>
       </c>
@@ -31513,8 +31541,8 @@
       <c r="N738" s="34"/>
     </row>
     <row r="739" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B739" s="170"/>
-      <c r="C739" s="170"/>
+      <c r="B739" s="155"/>
+      <c r="C739" s="155"/>
       <c r="D739" s="34" t="s">
         <v>1583</v>
       </c>
@@ -31540,8 +31568,8 @@
       <c r="N739" s="34"/>
     </row>
     <row r="740" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B740" s="170"/>
-      <c r="C740" s="170"/>
+      <c r="B740" s="155"/>
+      <c r="C740" s="155"/>
       <c r="D740" s="34" t="s">
         <v>1584</v>
       </c>
@@ -31567,8 +31595,8 @@
       <c r="N740" s="34"/>
     </row>
     <row r="741" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="170"/>
-      <c r="C741" s="170"/>
+      <c r="B741" s="155"/>
+      <c r="C741" s="155"/>
       <c r="D741" s="34" t="s">
         <v>1584</v>
       </c>
@@ -31594,8 +31622,8 @@
       <c r="N741" s="34"/>
     </row>
     <row r="742" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B742" s="170"/>
-      <c r="C742" s="170"/>
+      <c r="B742" s="155"/>
+      <c r="C742" s="155"/>
       <c r="D742" s="34" t="s">
         <v>1585</v>
       </c>
@@ -31621,8 +31649,8 @@
       <c r="N742" s="34"/>
     </row>
     <row r="743" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B743" s="170"/>
-      <c r="C743" s="170"/>
+      <c r="B743" s="155"/>
+      <c r="C743" s="155"/>
       <c r="D743" s="34" t="s">
         <v>1585</v>
       </c>
@@ -31648,8 +31676,8 @@
       <c r="N743" s="34"/>
     </row>
     <row r="744" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B744" s="170"/>
-      <c r="C744" s="170"/>
+      <c r="B744" s="155"/>
+      <c r="C744" s="155"/>
       <c r="D744" s="34" t="s">
         <v>1586</v>
       </c>
@@ -31675,8 +31703,8 @@
       <c r="N744" s="34"/>
     </row>
     <row r="745" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B745" s="170"/>
-      <c r="C745" s="170"/>
+      <c r="B745" s="155"/>
+      <c r="C745" s="155"/>
       <c r="D745" s="34" t="s">
         <v>1587</v>
       </c>
@@ -31702,8 +31730,8 @@
       <c r="N745" s="34"/>
     </row>
     <row r="746" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B746" s="170"/>
-      <c r="C746" s="170"/>
+      <c r="B746" s="155"/>
+      <c r="C746" s="155"/>
       <c r="D746" s="34" t="s">
         <v>1587</v>
       </c>
@@ -31729,8 +31757,8 @@
       <c r="N746" s="34"/>
     </row>
     <row r="747" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B747" s="170"/>
-      <c r="C747" s="170"/>
+      <c r="B747" s="155"/>
+      <c r="C747" s="155"/>
       <c r="D747" s="34" t="s">
         <v>1588</v>
       </c>
@@ -31756,8 +31784,8 @@
       <c r="N747" s="34"/>
     </row>
     <row r="748" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B748" s="170"/>
-      <c r="C748" s="170"/>
+      <c r="B748" s="155"/>
+      <c r="C748" s="155"/>
       <c r="D748" s="34" t="s">
         <v>1588</v>
       </c>
@@ -31783,8 +31811,8 @@
       <c r="N748" s="34"/>
     </row>
     <row r="749" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B749" s="170"/>
-      <c r="C749" s="170"/>
+      <c r="B749" s="155"/>
+      <c r="C749" s="155"/>
       <c r="D749" s="34" t="s">
         <v>1589</v>
       </c>
@@ -31810,8 +31838,8 @@
       <c r="N749" s="34"/>
     </row>
     <row r="750" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B750" s="170"/>
-      <c r="C750" s="170"/>
+      <c r="B750" s="155"/>
+      <c r="C750" s="155"/>
       <c r="D750" s="34" t="s">
         <v>1589</v>
       </c>
@@ -31837,8 +31865,8 @@
       <c r="N750" s="34"/>
     </row>
     <row r="751" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B751" s="170"/>
-      <c r="C751" s="170"/>
+      <c r="B751" s="155"/>
+      <c r="C751" s="155"/>
       <c r="D751" s="34" t="s">
         <v>1590</v>
       </c>
@@ -31864,8 +31892,8 @@
       <c r="N751" s="34"/>
     </row>
     <row r="752" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B752" s="170"/>
-      <c r="C752" s="170"/>
+      <c r="B752" s="155"/>
+      <c r="C752" s="155"/>
       <c r="D752" s="34" t="s">
         <v>1590</v>
       </c>
@@ -31891,8 +31919,8 @@
       <c r="N752" s="34"/>
     </row>
     <row r="753" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B753" s="170"/>
-      <c r="C753" s="170"/>
+      <c r="B753" s="155"/>
+      <c r="C753" s="155"/>
       <c r="D753" s="34" t="s">
         <v>1591</v>
       </c>
@@ -31918,8 +31946,8 @@
       <c r="N753" s="34"/>
     </row>
     <row r="754" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B754" s="170"/>
-      <c r="C754" s="170"/>
+      <c r="B754" s="155"/>
+      <c r="C754" s="155"/>
       <c r="D754" s="34" t="s">
         <v>1591</v>
       </c>
@@ -31945,8 +31973,8 @@
       <c r="N754" s="34"/>
     </row>
     <row r="755" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B755" s="170"/>
-      <c r="C755" s="170"/>
+      <c r="B755" s="155"/>
+      <c r="C755" s="155"/>
       <c r="D755" s="34" t="s">
         <v>1592</v>
       </c>
@@ -31972,8 +32000,8 @@
       <c r="N755" s="34"/>
     </row>
     <row r="756" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B756" s="170"/>
-      <c r="C756" s="170"/>
+      <c r="B756" s="155"/>
+      <c r="C756" s="155"/>
       <c r="D756" s="34" t="s">
         <v>1593</v>
       </c>
@@ -31999,8 +32027,8 @@
       <c r="N756" s="34"/>
     </row>
     <row r="757" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B757" s="170"/>
-      <c r="C757" s="170"/>
+      <c r="B757" s="155"/>
+      <c r="C757" s="155"/>
       <c r="D757" s="34" t="s">
         <v>1594</v>
       </c>
@@ -32026,8 +32054,8 @@
       <c r="N757" s="34"/>
     </row>
     <row r="758" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B758" s="170"/>
-      <c r="C758" s="170"/>
+      <c r="B758" s="155"/>
+      <c r="C758" s="155"/>
       <c r="D758" s="34" t="s">
         <v>1595</v>
       </c>
@@ -32053,8 +32081,8 @@
       <c r="N758" s="34"/>
     </row>
     <row r="759" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B759" s="170"/>
-      <c r="C759" s="170"/>
+      <c r="B759" s="155"/>
+      <c r="C759" s="155"/>
       <c r="D759" s="34" t="s">
         <v>1596</v>
       </c>
@@ -32080,8 +32108,8 @@
       <c r="N759" s="34"/>
     </row>
     <row r="760" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B760" s="170"/>
-      <c r="C760" s="170"/>
+      <c r="B760" s="155"/>
+      <c r="C760" s="155"/>
       <c r="D760" s="34" t="s">
         <v>1596</v>
       </c>
@@ -32107,8 +32135,8 @@
       <c r="N760" s="34"/>
     </row>
     <row r="761" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B761" s="170"/>
-      <c r="C761" s="170"/>
+      <c r="B761" s="155"/>
+      <c r="C761" s="155"/>
       <c r="D761" s="34" t="s">
         <v>1597</v>
       </c>
@@ -32134,8 +32162,8 @@
       <c r="N761" s="34"/>
     </row>
     <row r="762" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B762" s="170"/>
-      <c r="C762" s="170"/>
+      <c r="B762" s="155"/>
+      <c r="C762" s="155"/>
       <c r="D762" s="34" t="s">
         <v>1597</v>
       </c>
@@ -32161,8 +32189,8 @@
       <c r="N762" s="34"/>
     </row>
     <row r="763" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B763" s="170"/>
-      <c r="C763" s="170"/>
+      <c r="B763" s="155"/>
+      <c r="C763" s="155"/>
       <c r="D763" s="34" t="s">
         <v>1598</v>
       </c>
@@ -32188,8 +32216,8 @@
       <c r="N763" s="34"/>
     </row>
     <row r="764" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B764" s="170"/>
-      <c r="C764" s="170"/>
+      <c r="B764" s="155"/>
+      <c r="C764" s="155"/>
       <c r="D764" s="34" t="s">
         <v>1598</v>
       </c>
@@ -32215,8 +32243,8 @@
       <c r="N764" s="34"/>
     </row>
     <row r="765" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B765" s="170"/>
-      <c r="C765" s="170"/>
+      <c r="B765" s="155"/>
+      <c r="C765" s="155"/>
       <c r="D765" s="34" t="s">
         <v>1599</v>
       </c>
@@ -32242,8 +32270,8 @@
       <c r="N765" s="34"/>
     </row>
     <row r="766" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B766" s="170"/>
-      <c r="C766" s="170"/>
+      <c r="B766" s="155"/>
+      <c r="C766" s="155"/>
       <c r="D766" s="34" t="s">
         <v>1600</v>
       </c>
@@ -32269,8 +32297,8 @@
       <c r="N766" s="34"/>
     </row>
     <row r="767" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B767" s="170"/>
-      <c r="C767" s="170"/>
+      <c r="B767" s="155"/>
+      <c r="C767" s="155"/>
       <c r="D767" s="34" t="s">
         <v>1600</v>
       </c>
@@ -32296,8 +32324,8 @@
       <c r="N767" s="34"/>
     </row>
     <row r="768" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B768" s="170"/>
-      <c r="C768" s="170"/>
+      <c r="B768" s="155"/>
+      <c r="C768" s="155"/>
       <c r="D768" s="34" t="s">
         <v>1601</v>
       </c>
@@ -32323,8 +32351,8 @@
       <c r="N768" s="34"/>
     </row>
     <row r="769" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B769" s="170"/>
-      <c r="C769" s="170"/>
+      <c r="B769" s="155"/>
+      <c r="C769" s="155"/>
       <c r="D769" s="34" t="s">
         <v>1602</v>
       </c>
@@ -32350,8 +32378,8 @@
       <c r="N769" s="34"/>
     </row>
     <row r="770" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B770" s="170"/>
-      <c r="C770" s="170"/>
+      <c r="B770" s="155"/>
+      <c r="C770" s="155"/>
       <c r="D770" s="34" t="s">
         <v>1602</v>
       </c>
@@ -32377,8 +32405,8 @@
       <c r="N770" s="34"/>
     </row>
     <row r="771" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B771" s="170"/>
-      <c r="C771" s="170"/>
+      <c r="B771" s="155"/>
+      <c r="C771" s="155"/>
       <c r="D771" s="34" t="s">
         <v>1603</v>
       </c>
@@ -32404,8 +32432,8 @@
       <c r="N771" s="34"/>
     </row>
     <row r="772" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B772" s="170"/>
-      <c r="C772" s="170"/>
+      <c r="B772" s="155"/>
+      <c r="C772" s="155"/>
       <c r="D772" s="34" t="s">
         <v>1603</v>
       </c>
@@ -32431,8 +32459,8 @@
       <c r="N772" s="34"/>
     </row>
     <row r="773" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B773" s="170"/>
-      <c r="C773" s="170"/>
+      <c r="B773" s="155"/>
+      <c r="C773" s="155"/>
       <c r="D773" s="34" t="s">
         <v>1604</v>
       </c>
@@ -32458,8 +32486,8 @@
       <c r="N773" s="34"/>
     </row>
     <row r="774" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B774" s="170"/>
-      <c r="C774" s="170"/>
+      <c r="B774" s="155"/>
+      <c r="C774" s="155"/>
       <c r="D774" s="34" t="s">
         <v>1605</v>
       </c>
@@ -32485,8 +32513,8 @@
       <c r="N774" s="34"/>
     </row>
     <row r="775" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B775" s="170"/>
-      <c r="C775" s="170"/>
+      <c r="B775" s="155"/>
+      <c r="C775" s="155"/>
       <c r="D775" s="34" t="s">
         <v>1606</v>
       </c>
@@ -32512,8 +32540,8 @@
       <c r="N775" s="34"/>
     </row>
     <row r="776" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B776" s="170"/>
-      <c r="C776" s="170"/>
+      <c r="B776" s="155"/>
+      <c r="C776" s="155"/>
       <c r="D776" s="34" t="s">
         <v>1607</v>
       </c>
@@ -32539,8 +32567,8 @@
       <c r="N776" s="34"/>
     </row>
     <row r="777" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B777" s="170"/>
-      <c r="C777" s="170"/>
+      <c r="B777" s="155"/>
+      <c r="C777" s="155"/>
       <c r="D777" s="34" t="s">
         <v>1607</v>
       </c>
@@ -32566,8 +32594,8 @@
       <c r="N777" s="34"/>
     </row>
     <row r="778" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B778" s="170"/>
-      <c r="C778" s="170"/>
+      <c r="B778" s="155"/>
+      <c r="C778" s="155"/>
       <c r="D778" s="34" t="s">
         <v>1608</v>
       </c>
@@ -32593,8 +32621,8 @@
       <c r="N778" s="34"/>
     </row>
     <row r="779" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B779" s="170"/>
-      <c r="C779" s="170"/>
+      <c r="B779" s="155"/>
+      <c r="C779" s="155"/>
       <c r="D779" s="34" t="s">
         <v>1609</v>
       </c>
@@ -32620,8 +32648,8 @@
       <c r="N779" s="34"/>
     </row>
     <row r="780" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B780" s="170"/>
-      <c r="C780" s="170"/>
+      <c r="B780" s="155"/>
+      <c r="C780" s="155"/>
       <c r="D780" s="34" t="s">
         <v>1609</v>
       </c>
@@ -32647,8 +32675,8 @@
       <c r="N780" s="34"/>
     </row>
     <row r="781" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B781" s="170"/>
-      <c r="C781" s="170"/>
+      <c r="B781" s="155"/>
+      <c r="C781" s="155"/>
       <c r="D781" s="34" t="s">
         <v>1610</v>
       </c>
@@ -32674,8 +32702,8 @@
       <c r="N781" s="34"/>
     </row>
     <row r="782" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="170"/>
-      <c r="C782" s="170"/>
+      <c r="B782" s="155"/>
+      <c r="C782" s="155"/>
       <c r="D782" s="34" t="s">
         <v>1610</v>
       </c>
@@ -32701,8 +32729,8 @@
       <c r="N782" s="34"/>
     </row>
     <row r="783" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B783" s="170"/>
-      <c r="C783" s="170"/>
+      <c r="B783" s="155"/>
+      <c r="C783" s="155"/>
       <c r="D783" s="34" t="s">
         <v>1611</v>
       </c>
@@ -32728,8 +32756,8 @@
       <c r="N783" s="34"/>
     </row>
     <row r="784" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B784" s="170"/>
-      <c r="C784" s="170"/>
+      <c r="B784" s="155"/>
+      <c r="C784" s="155"/>
       <c r="D784" s="34" t="s">
         <v>1611</v>
       </c>
@@ -32755,8 +32783,8 @@
       <c r="N784" s="34"/>
     </row>
     <row r="785" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B785" s="170"/>
-      <c r="C785" s="170"/>
+      <c r="B785" s="155"/>
+      <c r="C785" s="155"/>
       <c r="D785" s="34" t="s">
         <v>1612</v>
       </c>
@@ -32782,8 +32810,8 @@
       <c r="N785" s="34"/>
     </row>
     <row r="786" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B786" s="170"/>
-      <c r="C786" s="170"/>
+      <c r="B786" s="155"/>
+      <c r="C786" s="155"/>
       <c r="D786" s="34" t="s">
         <v>1612</v>
       </c>
@@ -32809,8 +32837,8 @@
       <c r="N786" s="34"/>
     </row>
     <row r="787" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B787" s="170"/>
-      <c r="C787" s="170"/>
+      <c r="B787" s="155"/>
+      <c r="C787" s="155"/>
       <c r="D787" s="34" t="s">
         <v>1613</v>
       </c>
@@ -32836,8 +32864,8 @@
       <c r="N787" s="34"/>
     </row>
     <row r="788" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B788" s="170"/>
-      <c r="C788" s="170"/>
+      <c r="B788" s="155"/>
+      <c r="C788" s="155"/>
       <c r="D788" s="34" t="s">
         <v>1614</v>
       </c>
@@ -32863,8 +32891,8 @@
       <c r="N788" s="34"/>
     </row>
     <row r="789" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B789" s="170"/>
-      <c r="C789" s="170"/>
+      <c r="B789" s="155"/>
+      <c r="C789" s="155"/>
       <c r="D789" s="34" t="s">
         <v>1615</v>
       </c>
@@ -32890,8 +32918,8 @@
       <c r="N789" s="34"/>
     </row>
     <row r="790" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B790" s="170"/>
-      <c r="C790" s="170"/>
+      <c r="B790" s="155"/>
+      <c r="C790" s="155"/>
       <c r="D790" s="34" t="s">
         <v>1615</v>
       </c>
@@ -32917,8 +32945,8 @@
       <c r="N790" s="34"/>
     </row>
     <row r="791" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B791" s="170"/>
-      <c r="C791" s="170"/>
+      <c r="B791" s="155"/>
+      <c r="C791" s="155"/>
       <c r="D791" s="34" t="s">
         <v>1616</v>
       </c>
@@ -32944,8 +32972,8 @@
       <c r="N791" s="34"/>
     </row>
     <row r="792" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B792" s="170"/>
-      <c r="C792" s="170"/>
+      <c r="B792" s="155"/>
+      <c r="C792" s="155"/>
       <c r="D792" s="34" t="s">
         <v>1616</v>
       </c>
@@ -32971,8 +32999,8 @@
       <c r="N792" s="34"/>
     </row>
     <row r="793" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B793" s="170"/>
-      <c r="C793" s="170"/>
+      <c r="B793" s="155"/>
+      <c r="C793" s="155"/>
       <c r="D793" s="34" t="s">
         <v>1617</v>
       </c>
@@ -32998,8 +33026,8 @@
       <c r="N793" s="34"/>
     </row>
     <row r="794" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B794" s="170"/>
-      <c r="C794" s="170"/>
+      <c r="B794" s="155"/>
+      <c r="C794" s="155"/>
       <c r="D794" s="34" t="s">
         <v>1617</v>
       </c>
@@ -33025,8 +33053,8 @@
       <c r="N794" s="34"/>
     </row>
     <row r="795" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B795" s="170"/>
-      <c r="C795" s="170"/>
+      <c r="B795" s="155"/>
+      <c r="C795" s="155"/>
       <c r="D795" s="34" t="s">
         <v>1618</v>
       </c>
@@ -33052,8 +33080,8 @@
       <c r="N795" s="34"/>
     </row>
     <row r="796" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B796" s="170"/>
-      <c r="C796" s="170"/>
+      <c r="B796" s="155"/>
+      <c r="C796" s="155"/>
       <c r="D796" s="34" t="s">
         <v>1618</v>
       </c>
@@ -33079,8 +33107,8 @@
       <c r="N796" s="34"/>
     </row>
     <row r="797" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B797" s="170"/>
-      <c r="C797" s="170"/>
+      <c r="B797" s="155"/>
+      <c r="C797" s="155"/>
       <c r="D797" s="34" t="s">
         <v>1619</v>
       </c>
@@ -33106,8 +33134,8 @@
       <c r="N797" s="34"/>
     </row>
     <row r="798" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B798" s="170"/>
-      <c r="C798" s="170"/>
+      <c r="B798" s="155"/>
+      <c r="C798" s="155"/>
       <c r="D798" s="34" t="s">
         <v>1619</v>
       </c>
@@ -33133,8 +33161,8 @@
       <c r="N798" s="34"/>
     </row>
     <row r="799" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B799" s="170"/>
-      <c r="C799" s="170"/>
+      <c r="B799" s="155"/>
+      <c r="C799" s="155"/>
       <c r="D799" s="34" t="s">
         <v>1620</v>
       </c>
@@ -33160,8 +33188,8 @@
       <c r="N799" s="34"/>
     </row>
     <row r="800" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B800" s="170"/>
-      <c r="C800" s="170"/>
+      <c r="B800" s="155"/>
+      <c r="C800" s="155"/>
       <c r="D800" s="34" t="s">
         <v>1620</v>
       </c>
@@ -33187,8 +33215,8 @@
       <c r="N800" s="34"/>
     </row>
     <row r="801" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B801" s="170"/>
-      <c r="C801" s="170"/>
+      <c r="B801" s="155"/>
+      <c r="C801" s="155"/>
       <c r="D801" s="34" t="s">
         <v>1621</v>
       </c>
@@ -33214,8 +33242,8 @@
       <c r="N801" s="34"/>
     </row>
     <row r="802" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B802" s="170"/>
-      <c r="C802" s="170"/>
+      <c r="B802" s="155"/>
+      <c r="C802" s="155"/>
       <c r="D802" s="34" t="s">
         <v>1621</v>
       </c>
@@ -33241,8 +33269,8 @@
       <c r="N802" s="34"/>
     </row>
     <row r="803" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B803" s="170"/>
-      <c r="C803" s="170"/>
+      <c r="B803" s="155"/>
+      <c r="C803" s="155"/>
       <c r="D803" s="34" t="s">
         <v>1622</v>
       </c>
@@ -33268,8 +33296,8 @@
       <c r="N803" s="34"/>
     </row>
     <row r="804" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B804" s="170"/>
-      <c r="C804" s="170"/>
+      <c r="B804" s="155"/>
+      <c r="C804" s="155"/>
       <c r="D804" s="34" t="s">
         <v>1622</v>
       </c>
@@ -33295,8 +33323,8 @@
       <c r="N804" s="34"/>
     </row>
     <row r="805" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B805" s="170"/>
-      <c r="C805" s="170"/>
+      <c r="B805" s="155"/>
+      <c r="C805" s="155"/>
       <c r="D805" s="34" t="s">
         <v>1623</v>
       </c>
@@ -33322,8 +33350,8 @@
       <c r="N805" s="34"/>
     </row>
     <row r="806" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B806" s="170"/>
-      <c r="C806" s="170"/>
+      <c r="B806" s="155"/>
+      <c r="C806" s="155"/>
       <c r="D806" s="34" t="s">
         <v>1623</v>
       </c>
@@ -33349,8 +33377,8 @@
       <c r="N806" s="34"/>
     </row>
     <row r="807" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B807" s="170"/>
-      <c r="C807" s="170"/>
+      <c r="B807" s="155"/>
+      <c r="C807" s="155"/>
       <c r="D807" s="34" t="s">
         <v>1624</v>
       </c>
@@ -33376,8 +33404,8 @@
       <c r="N807" s="34"/>
     </row>
     <row r="808" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B808" s="170"/>
-      <c r="C808" s="170"/>
+      <c r="B808" s="155"/>
+      <c r="C808" s="155"/>
       <c r="D808" s="34" t="s">
         <v>1625</v>
       </c>
@@ -33403,8 +33431,8 @@
       <c r="N808" s="34"/>
     </row>
     <row r="809" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B809" s="170"/>
-      <c r="C809" s="170"/>
+      <c r="B809" s="155"/>
+      <c r="C809" s="155"/>
       <c r="D809" s="34" t="s">
         <v>1626</v>
       </c>
@@ -33430,8 +33458,8 @@
       <c r="N809" s="34"/>
     </row>
     <row r="810" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B810" s="170"/>
-      <c r="C810" s="170"/>
+      <c r="B810" s="155"/>
+      <c r="C810" s="155"/>
       <c r="D810" s="34" t="s">
         <v>1627</v>
       </c>
@@ -33456,23 +33484,19 @@
       </c>
       <c r="N810" s="34"/>
       <c r="O810" s="3" t="str">
-        <f t="shared" ref="O810" si="2">IF(ISNUMBER(SEARCH("Brown", L810)),"Brown",IF(ISNUMBER(SEARCH("Chrome", L810)),"Chrome",IF(ISNUMBER(SEARCH("Silver", L810)),"Silver", IF(ISNUMBER(SEARCH("MF", L810)), "Mill Finish", IF(ISNUMBER(SEARCH("Gray", L810)), "Gray", IF(ISNUMBER(SEARCH("Satin", L810)), "Satin", IF(ISNUMBER(SEARCH("Black", L810)), "Black", IF(ISNUMBER(SEARCH("White", L810)), "White", IF(ISNUMBER(SEARCH("COL", L810)), "ANALOK", "-")))))))))</f>
+        <f t="shared" ref="O810" si="0">IF(ISNUMBER(SEARCH("Brown", L810)),"Brown",IF(ISNUMBER(SEARCH("Chrome", L810)),"Chrome",IF(ISNUMBER(SEARCH("Silver", L810)),"Silver", IF(ISNUMBER(SEARCH("MF", L810)), "Mill Finish", IF(ISNUMBER(SEARCH("Gray", L810)), "Gray", IF(ISNUMBER(SEARCH("Satin", L810)), "Satin", IF(ISNUMBER(SEARCH("Black", L810)), "Black", IF(ISNUMBER(SEARCH("White", L810)), "White", IF(ISNUMBER(SEARCH("COL", L810)), "ANALOK", "-")))))))))</f>
         <v>-</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="C334:C336"/>
-    <mergeCell ref="C337:C344"/>
-    <mergeCell ref="C345:C358"/>
-    <mergeCell ref="C359:C362"/>
-    <mergeCell ref="C363:C366"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="C369:C377"/>
-    <mergeCell ref="C378:C419"/>
-    <mergeCell ref="B334:B810"/>
-    <mergeCell ref="C420:C810"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B52"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C34"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
     <mergeCell ref="B53:B329"/>
     <mergeCell ref="C53:C67"/>
     <mergeCell ref="C68:C108"/>
@@ -33488,13 +33512,17 @@
     <mergeCell ref="C293:C299"/>
     <mergeCell ref="C300:C311"/>
     <mergeCell ref="C312:C329"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B52"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C363:C366"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="C369:C377"/>
+    <mergeCell ref="C378:C419"/>
+    <mergeCell ref="B334:B810"/>
+    <mergeCell ref="C420:C810"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="C334:C336"/>
+    <mergeCell ref="C337:C344"/>
+    <mergeCell ref="C345:C358"/>
+    <mergeCell ref="C359:C362"/>
   </mergeCells>
   <conditionalFormatting sqref="O22:O33">
     <cfRule type="duplicateValues" dxfId="10" priority="5"/>
